--- a/Results/Baseline/Lifetime/Results_region_base_life_Avg.xlsx
+++ b/Results/Baseline/Lifetime/Results_region_base_life_Avg.xlsx
@@ -691,31 +691,31 @@
         <v>1059.146433902567</v>
       </c>
       <c r="E2">
-        <v>1384.288087671689</v>
+        <v>1384.28808767169</v>
       </c>
       <c r="F2">
-        <v>1382.809256190095</v>
+        <v>1382.809256190096</v>
       </c>
       <c r="G2">
-        <v>1313.21614149727</v>
+        <v>1313.216141497271</v>
       </c>
       <c r="H2">
-        <v>1766.589345792561</v>
+        <v>1766.589345792562</v>
       </c>
       <c r="I2">
         <v>1270.73362835712</v>
       </c>
       <c r="J2">
-        <v>2309.749033452779</v>
+        <v>2309.74903345278</v>
       </c>
       <c r="K2">
-        <v>2294.635164705153</v>
+        <v>2294.635164705154</v>
       </c>
       <c r="L2">
-        <v>2039.828102489554</v>
+        <v>2039.828102489555</v>
       </c>
       <c r="M2">
-        <v>1877.855636431062</v>
+        <v>1877.855636431063</v>
       </c>
       <c r="N2">
         <v>4035.498851764906</v>
@@ -724,28 +724,28 @@
         <v>2444.057097386124</v>
       </c>
       <c r="P2">
-        <v>4914.061328496888</v>
+        <v>4914.061328496889</v>
       </c>
       <c r="Q2">
         <v>5304.386646462997</v>
       </c>
       <c r="R2">
-        <v>5700.149792334714</v>
+        <v>5700.149792334715</v>
       </c>
       <c r="S2">
         <v>12483.71283996307</v>
       </c>
       <c r="T2">
-        <v>13367.4123352538</v>
+        <v>13367.41233525381</v>
       </c>
       <c r="U2">
         <v>14260.71179279829</v>
       </c>
       <c r="V2">
-        <v>15170.85569436114</v>
+        <v>15170.85569436115</v>
       </c>
       <c r="W2">
-        <v>16094.40511653955</v>
+        <v>16094.40511653956</v>
       </c>
       <c r="X2">
         <v>16172.51534728441</v>
@@ -754,43 +754,43 @@
         <v>17060.96627187644</v>
       </c>
       <c r="Z2">
-        <v>17956.77243340339</v>
+        <v>17956.7724334034</v>
       </c>
       <c r="AA2">
-        <v>18871.34614558011</v>
+        <v>18871.34614558012</v>
       </c>
       <c r="AB2">
-        <v>19811.83149058218</v>
+        <v>19811.83149058219</v>
       </c>
       <c r="AC2">
-        <v>9250.757776317843</v>
+        <v>9250.757776317847</v>
       </c>
       <c r="AD2">
-        <v>9508.264746177671</v>
+        <v>9508.264746177676</v>
       </c>
       <c r="AE2">
-        <v>9838.853480227472</v>
+        <v>9838.853480227475</v>
       </c>
       <c r="AF2">
-        <v>10158.87070373924</v>
+        <v>10158.87070373925</v>
       </c>
       <c r="AG2">
         <v>10533.21810312655</v>
       </c>
       <c r="AH2">
-        <v>6745.253093933205</v>
+        <v>6745.253093933206</v>
       </c>
       <c r="AI2">
-        <v>6808.183152593554</v>
+        <v>6808.183152593557</v>
       </c>
       <c r="AJ2">
-        <v>7138.9369900199</v>
+        <v>7138.936990019903</v>
       </c>
       <c r="AK2">
-        <v>7731.064637402401</v>
+        <v>7731.064637402404</v>
       </c>
       <c r="AL2">
-        <v>8307.616228134919</v>
+        <v>8307.616228134922</v>
       </c>
       <c r="AM2">
         <v>11015.07222632036</v>
@@ -799,70 +799,70 @@
         <v>12411.66496736886</v>
       </c>
       <c r="AO2">
-        <v>14347.92523220783</v>
+        <v>14347.92523220784</v>
       </c>
       <c r="AP2">
-        <v>16846.74932320446</v>
+        <v>16846.74932320447</v>
       </c>
       <c r="AQ2">
         <v>18637.41424250594</v>
       </c>
       <c r="AR2">
-        <v>22948.25106179836</v>
+        <v>22948.25106179837</v>
       </c>
       <c r="AS2">
-        <v>23937.96726681425</v>
+        <v>23937.96726681426</v>
       </c>
       <c r="AT2">
-        <v>24769.03111053131</v>
+        <v>24769.03111053132</v>
       </c>
       <c r="AU2">
-        <v>25448.30629025725</v>
+        <v>25448.30629025726</v>
       </c>
       <c r="AV2">
         <v>26137.78620009404</v>
       </c>
       <c r="AW2">
-        <v>27378.66758165808</v>
+        <v>27378.6675816581</v>
       </c>
       <c r="AX2">
-        <v>27102.74621717382</v>
+        <v>27102.74621717383</v>
       </c>
       <c r="AY2">
-        <v>25341.19768566692</v>
+        <v>25341.19768566693</v>
       </c>
       <c r="AZ2">
-        <v>22480.62250430372</v>
+        <v>22480.62250430373</v>
       </c>
       <c r="BA2">
-        <v>21061.04451746352</v>
+        <v>21061.04451746353</v>
       </c>
       <c r="BB2">
-        <v>20178.52992948703</v>
+        <v>20178.52992948704</v>
       </c>
       <c r="BC2">
-        <v>20042.27326777885</v>
+        <v>20042.27326777886</v>
       </c>
       <c r="BD2">
-        <v>19401.1417123076</v>
+        <v>19401.14171230761</v>
       </c>
       <c r="BE2">
-        <v>18421.05712018455</v>
+        <v>18421.05712018456</v>
       </c>
       <c r="BF2">
-        <v>18099.69676555657</v>
+        <v>18099.69676555659</v>
       </c>
       <c r="BG2">
-        <v>17922.66146027506</v>
+        <v>17922.66146027507</v>
       </c>
       <c r="BH2">
-        <v>18773.76458769288</v>
+        <v>18773.76458769289</v>
       </c>
       <c r="BI2">
         <v>20081.23529278606</v>
       </c>
       <c r="BJ2">
-        <v>21876.37150852375</v>
+        <v>21876.37150852376</v>
       </c>
       <c r="BK2">
         <v>23838.89000329423</v>
@@ -871,91 +871,91 @@
         <v>25578.99482246321</v>
       </c>
       <c r="BM2">
-        <v>27908.80468636649</v>
+        <v>27908.80468636651</v>
       </c>
       <c r="BN2">
-        <v>30308.8315978983</v>
+        <v>30308.83159789832</v>
       </c>
       <c r="BO2">
-        <v>32564.2225913856</v>
+        <v>32564.22259138562</v>
       </c>
       <c r="BP2">
-        <v>34098.76331360152</v>
+        <v>34098.76331360155</v>
       </c>
       <c r="BQ2">
-        <v>34842.65411495922</v>
+        <v>34842.65411495924</v>
       </c>
       <c r="BR2">
-        <v>35625.46397990743</v>
+        <v>35625.46397990744</v>
       </c>
       <c r="BS2">
-        <v>36261.74152737019</v>
+        <v>36261.74152737021</v>
       </c>
       <c r="BT2">
-        <v>36489.15842204524</v>
+        <v>36489.15842204525</v>
       </c>
       <c r="BU2">
-        <v>35859.63218007833</v>
+        <v>35859.63218007835</v>
       </c>
       <c r="BV2">
-        <v>34157.58862303708</v>
+        <v>34157.5886230371</v>
       </c>
       <c r="BW2">
-        <v>32475.44939454502</v>
+        <v>32475.44939454504</v>
       </c>
       <c r="BX2">
-        <v>31289.62930271164</v>
+        <v>31289.62930271165</v>
       </c>
       <c r="BY2">
-        <v>30662.08969713448</v>
+        <v>30662.08969713449</v>
       </c>
       <c r="BZ2">
-        <v>30257.39724569955</v>
+        <v>30257.39724569957</v>
       </c>
       <c r="CA2">
-        <v>29605.36893272689</v>
+        <v>29605.3689327269</v>
       </c>
       <c r="CB2">
-        <v>29189.64036985975</v>
+        <v>29189.64036985976</v>
       </c>
       <c r="CC2">
-        <v>29118.07639741289</v>
+        <v>29118.07639741291</v>
       </c>
       <c r="CD2">
-        <v>29547.83250676419</v>
+        <v>29547.8325067642</v>
       </c>
       <c r="CE2">
-        <v>30541.65152237716</v>
+        <v>30541.65152237717</v>
       </c>
       <c r="CF2">
-        <v>31754.83973362315</v>
+        <v>31754.83973362316</v>
       </c>
       <c r="CG2">
-        <v>33528.13932102102</v>
+        <v>33528.13932102103</v>
       </c>
       <c r="CH2">
-        <v>35462.44805330154</v>
+        <v>35462.44805330155</v>
       </c>
       <c r="CI2">
-        <v>37496.60192120654</v>
+        <v>37496.60192120656</v>
       </c>
       <c r="CJ2">
-        <v>39656.07210838906</v>
+        <v>39656.07210838908</v>
       </c>
       <c r="CK2">
-        <v>41381.10130436023</v>
+        <v>41381.10130436025</v>
       </c>
       <c r="CL2">
-        <v>43189.44023109779</v>
+        <v>43189.44023109781</v>
       </c>
       <c r="CM2">
-        <v>44507.20535208744</v>
+        <v>44507.20535208747</v>
       </c>
       <c r="CN2">
-        <v>45379.37219250823</v>
+        <v>45379.37219250824</v>
       </c>
       <c r="CO2">
-        <v>45978.16108604208</v>
+        <v>45978.16108604211</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -965,37 +965,37 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24572359772883</v>
+        <v>70.24572359772887</v>
       </c>
       <c r="E3">
-        <v>92.03680806682038</v>
+        <v>92.03680806682043</v>
       </c>
       <c r="F3">
         <v>91.84287447778495</v>
       </c>
       <c r="G3">
-        <v>87.16785837373196</v>
+        <v>87.16785837373197</v>
       </c>
       <c r="H3">
-        <v>117.6965433043552</v>
+        <v>117.6965433043553</v>
       </c>
       <c r="I3">
-        <v>84.38350652716647</v>
+        <v>84.38350652716652</v>
       </c>
       <c r="J3">
-        <v>154.0778479945718</v>
+        <v>154.0778479945719</v>
       </c>
       <c r="K3">
         <v>152.9409738899572</v>
       </c>
       <c r="L3">
-        <v>135.863454188639</v>
+        <v>135.8634541886391</v>
       </c>
       <c r="M3">
         <v>124.9230253077536</v>
       </c>
       <c r="N3">
-        <v>269.7682220486939</v>
+        <v>269.7682220486938</v>
       </c>
       <c r="O3">
         <v>162.9917064926036</v>
@@ -1013,10 +1013,10 @@
         <v>837.0195104740676</v>
       </c>
       <c r="T3">
-        <v>896.3339252608547</v>
+        <v>896.333925260855</v>
       </c>
       <c r="U3">
-        <v>956.298131007734</v>
+        <v>956.2981310077341</v>
       </c>
       <c r="V3">
         <v>1017.402768335809</v>
@@ -1037,10 +1037,10 @@
         <v>1265.968812633165</v>
       </c>
       <c r="AB3">
-        <v>1329.172436067887</v>
+        <v>1329.172436067888</v>
       </c>
       <c r="AC3">
-        <v>619.9918548195565</v>
+        <v>619.9918548195567</v>
       </c>
       <c r="AD3">
         <v>637.3161285361771</v>
@@ -1049,16 +1049,16 @@
         <v>659.586713668366</v>
       </c>
       <c r="AF3">
-        <v>681.1379284588232</v>
+        <v>681.1379284588234</v>
       </c>
       <c r="AG3">
-        <v>706.3635387720891</v>
+        <v>706.3635387720892</v>
       </c>
       <c r="AH3">
-        <v>452.0183353692863</v>
+        <v>452.0183353692864</v>
       </c>
       <c r="AI3">
-        <v>456.2596210930801</v>
+        <v>456.2596210930802</v>
       </c>
       <c r="AJ3">
         <v>478.6316816630261</v>
@@ -1067,13 +1067,13 @@
         <v>518.6924368402588</v>
       </c>
       <c r="AL3">
-        <v>557.6884476832066</v>
+        <v>557.6884476832067</v>
       </c>
       <c r="AM3">
-        <v>739.9700223602531</v>
+        <v>739.9700223602532</v>
       </c>
       <c r="AN3">
-        <v>834.4424101125391</v>
+        <v>834.4424101125393</v>
       </c>
       <c r="AO3">
         <v>965.4570809907312</v>
@@ -1088,10 +1088,10 @@
         <v>1545.692159463618</v>
       </c>
       <c r="AS3">
-        <v>1612.552343130631</v>
+        <v>1612.552343130632</v>
       </c>
       <c r="AT3">
-        <v>1668.682635867451</v>
+        <v>1668.682635867452</v>
       </c>
       <c r="AU3">
         <v>1714.550684571961</v>
@@ -1100,13 +1100,13 @@
         <v>1761.12839356977</v>
       </c>
       <c r="AW3">
-        <v>1844.641966839954</v>
+        <v>1844.641966839955</v>
       </c>
       <c r="AX3">
         <v>1825.858773425316</v>
       </c>
       <c r="AY3">
-        <v>1706.480925152151</v>
+        <v>1706.480925152152</v>
       </c>
       <c r="AZ3">
         <v>1512.685657146131</v>
@@ -1124,10 +1124,10 @@
         <v>1304.395917210434</v>
       </c>
       <c r="BE3">
-        <v>1237.946717374543</v>
+        <v>1237.946717374544</v>
       </c>
       <c r="BF3">
-        <v>1216.094594853443</v>
+        <v>1216.094594853444</v>
       </c>
       <c r="BG3">
         <v>1204.367533797287</v>
@@ -1142,7 +1142,7 @@
         <v>1471.734843397116</v>
       </c>
       <c r="BK3">
-        <v>1604.484381140957</v>
+        <v>1604.484381140958</v>
       </c>
       <c r="BL3">
         <v>1722.365549380096</v>
@@ -1160,13 +1160,13 @@
         <v>2298.68391309293</v>
       </c>
       <c r="BQ3">
-        <v>2349.008625613105</v>
+        <v>2349.008625613106</v>
       </c>
       <c r="BR3">
-        <v>2401.874919283651</v>
+        <v>2401.874919283652</v>
       </c>
       <c r="BS3">
-        <v>2444.827679587658</v>
+        <v>2444.827679587659</v>
       </c>
       <c r="BT3">
         <v>2460.102313053252</v>
@@ -1187,52 +1187,52 @@
         <v>2065.106972573188</v>
       </c>
       <c r="BZ3">
-        <v>2037.616233112851</v>
+        <v>2037.616233112852</v>
       </c>
       <c r="CA3">
-        <v>1993.488852964526</v>
+        <v>1993.488852964527</v>
       </c>
       <c r="CB3">
         <v>1965.248093612232</v>
       </c>
       <c r="CC3">
-        <v>1960.31167122573</v>
+        <v>1960.311671225731</v>
       </c>
       <c r="CD3">
         <v>1989.320910535952</v>
       </c>
       <c r="CE3">
-        <v>2056.523540577327</v>
+        <v>2056.523540577328</v>
       </c>
       <c r="CF3">
-        <v>2138.716254580898</v>
+        <v>2138.716254580899</v>
       </c>
       <c r="CG3">
         <v>2258.687623138924</v>
       </c>
       <c r="CH3">
-        <v>2389.555254404544</v>
+        <v>2389.555254404545</v>
       </c>
       <c r="CI3">
         <v>2527.178352506789</v>
       </c>
       <c r="CJ3">
-        <v>2673.283747577554</v>
+        <v>2673.283747577555</v>
       </c>
       <c r="CK3">
         <v>2790.188322161687</v>
       </c>
       <c r="CL3">
-        <v>2912.509983590321</v>
+        <v>2912.509983590322</v>
       </c>
       <c r="CM3">
         <v>3001.608503696871</v>
       </c>
       <c r="CN3">
-        <v>3060.530939915723</v>
+        <v>3060.530939915724</v>
       </c>
       <c r="CO3">
-        <v>3100.941900641556</v>
+        <v>3100.941900641557</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>379417.3331721228</v>
+        <v>379417.3331721227</v>
       </c>
       <c r="E4">
         <v>375657.6664472038</v>
@@ -1251,16 +1251,16 @@
         <v>462132.1105486533</v>
       </c>
       <c r="G4">
-        <v>519182.2629425789</v>
+        <v>519182.2629425788</v>
       </c>
       <c r="H4">
-        <v>686331.268117622</v>
+        <v>686331.2681176217</v>
       </c>
       <c r="I4">
         <v>644640.9741086992</v>
       </c>
       <c r="J4">
-        <v>751974.0860855003</v>
+        <v>751974.0860855004</v>
       </c>
       <c r="K4">
         <v>672461.4938439589</v>
@@ -1272,220 +1272,220 @@
         <v>1106119.746002307</v>
       </c>
       <c r="N4">
-        <v>929358.4167141843</v>
+        <v>929358.4167141845</v>
       </c>
       <c r="O4">
         <v>885004.2376069995</v>
       </c>
       <c r="P4">
-        <v>3258031.968839033</v>
+        <v>3258031.968839034</v>
       </c>
       <c r="Q4">
-        <v>3273690.279805166</v>
+        <v>3273690.279805167</v>
       </c>
       <c r="R4">
-        <v>3288321.455945715</v>
+        <v>3288321.455945716</v>
       </c>
       <c r="S4">
-        <v>9531277.888783237</v>
+        <v>9531277.888783241</v>
       </c>
       <c r="T4">
         <v>9558219.174016837</v>
       </c>
       <c r="U4">
-        <v>9588618.99884681</v>
+        <v>9588618.998846812</v>
       </c>
       <c r="V4">
-        <v>9623914.260888973</v>
+        <v>9623914.260888977</v>
       </c>
       <c r="W4">
         <v>9665422.045372173</v>
       </c>
       <c r="X4">
-        <v>9292742.343121111</v>
+        <v>9292742.343121113</v>
       </c>
       <c r="Y4">
-        <v>9346916.756599637</v>
+        <v>9346916.756599639</v>
       </c>
       <c r="Z4">
         <v>9400388.174367134</v>
       </c>
       <c r="AA4">
-        <v>9451015.052384615</v>
+        <v>9451015.052384619</v>
       </c>
       <c r="AB4">
-        <v>9501592.613324275</v>
+        <v>9501592.613324279</v>
       </c>
       <c r="AC4">
-        <v>1855245.59342364</v>
+        <v>1855245.593423641</v>
       </c>
       <c r="AD4">
-        <v>1920036.403355183</v>
+        <v>1920036.403355184</v>
       </c>
       <c r="AE4">
-        <v>1985798.512328617</v>
+        <v>1985798.512328618</v>
       </c>
       <c r="AF4">
         <v>2028932.61864326</v>
       </c>
       <c r="AG4">
-        <v>2096307.610970531</v>
+        <v>2096307.610970532</v>
       </c>
       <c r="AH4">
-        <v>-142580.5617302526</v>
+        <v>-142580.5617302525</v>
       </c>
       <c r="AI4">
-        <v>-71919.53440631868</v>
+        <v>-71919.5344063184</v>
       </c>
       <c r="AJ4">
-        <v>117959.3427997109</v>
+        <v>117959.3427997113</v>
       </c>
       <c r="AK4">
-        <v>303413.7434839552</v>
+        <v>303413.7434839557</v>
       </c>
       <c r="AL4">
-        <v>552134.3181218335</v>
+        <v>552134.318121834</v>
       </c>
       <c r="AM4">
         <v>1145871.336356358</v>
       </c>
       <c r="AN4">
-        <v>1533168.410119636</v>
+        <v>1533168.410119637</v>
       </c>
       <c r="AO4">
-        <v>1958347.073929733</v>
+        <v>1958347.073929734</v>
       </c>
       <c r="AP4">
-        <v>2445923.423046671</v>
+        <v>2445923.423046672</v>
       </c>
       <c r="AQ4">
-        <v>2802097.547392042</v>
+        <v>2802097.547392044</v>
       </c>
       <c r="AR4">
-        <v>4132313.007346408</v>
+        <v>4132313.00734641</v>
       </c>
       <c r="AS4">
-        <v>4296101.791777058</v>
+        <v>4296101.791777059</v>
       </c>
       <c r="AT4">
-        <v>4395104.923868328</v>
+        <v>4395104.92386833</v>
       </c>
       <c r="AU4">
-        <v>4425299.513765015</v>
+        <v>4425299.513765017</v>
       </c>
       <c r="AV4">
-        <v>4415170.330720793</v>
+        <v>4415170.330720795</v>
       </c>
       <c r="AW4">
-        <v>4476327.497385639</v>
+        <v>4476327.497385642</v>
       </c>
       <c r="AX4">
-        <v>4254334.604496303</v>
+        <v>4254334.604496306</v>
       </c>
       <c r="AY4">
-        <v>3823055.184664712</v>
+        <v>3823055.184664715</v>
       </c>
       <c r="AZ4">
-        <v>3251708.228562753</v>
+        <v>3251708.228562754</v>
       </c>
       <c r="BA4">
-        <v>2854427.725166325</v>
+        <v>2854427.725166327</v>
       </c>
       <c r="BB4">
-        <v>2412991.747135762</v>
+        <v>2412991.747135764</v>
       </c>
       <c r="BC4">
-        <v>2184270.032714471</v>
+        <v>2184270.032714472</v>
       </c>
       <c r="BD4">
-        <v>1976148.439749391</v>
+        <v>1976148.439749393</v>
       </c>
       <c r="BE4">
-        <v>1822214.538131933</v>
+        <v>1822214.538131935</v>
       </c>
       <c r="BF4">
-        <v>1710675.508814151</v>
+        <v>1710675.508814153</v>
       </c>
       <c r="BG4">
-        <v>1503823.551928291</v>
+        <v>1503823.551928292</v>
       </c>
       <c r="BH4">
-        <v>1534152.448969029</v>
+        <v>1534152.44896903</v>
       </c>
       <c r="BI4">
-        <v>1700940.002509914</v>
+        <v>1700940.002509915</v>
       </c>
       <c r="BJ4">
         <v>1957986.446704175</v>
       </c>
       <c r="BK4">
-        <v>2261992.88590944</v>
+        <v>2261992.885909441</v>
       </c>
       <c r="BL4">
-        <v>2468319.674740111</v>
+        <v>2468319.674740112</v>
       </c>
       <c r="BM4">
-        <v>2806231.644237456</v>
+        <v>2806231.644237457</v>
       </c>
       <c r="BN4">
         <v>3115490.465588991</v>
       </c>
       <c r="BO4">
-        <v>3371291.818807691</v>
+        <v>3371291.818807692</v>
       </c>
       <c r="BP4">
-        <v>3538538.244426803</v>
+        <v>3538538.244426805</v>
       </c>
       <c r="BQ4">
-        <v>3573905.898939456</v>
+        <v>3573905.898939458</v>
       </c>
       <c r="BR4">
-        <v>3630101.587498867</v>
+        <v>3630101.587498869</v>
       </c>
       <c r="BS4">
-        <v>3643783.819242374</v>
+        <v>3643783.819242375</v>
       </c>
       <c r="BT4">
-        <v>3584375.540784563</v>
+        <v>3584375.540784566</v>
       </c>
       <c r="BU4">
         <v>3411252.761841903</v>
       </c>
       <c r="BV4">
-        <v>3062003.781454606</v>
+        <v>3062003.781454607</v>
       </c>
       <c r="BW4">
-        <v>2757328.576968682</v>
+        <v>2757328.576968684</v>
       </c>
       <c r="BX4">
-        <v>2571887.143916767</v>
+        <v>2571887.143916769</v>
       </c>
       <c r="BY4">
-        <v>2484359.420650409</v>
+        <v>2484359.420650412</v>
       </c>
       <c r="BZ4">
-        <v>2380539.356463138</v>
+        <v>2380539.356463139</v>
       </c>
       <c r="CA4">
-        <v>2238075.037452077</v>
+        <v>2238075.037452079</v>
       </c>
       <c r="CB4">
-        <v>2125849.505609804</v>
+        <v>2125849.505609806</v>
       </c>
       <c r="CC4">
-        <v>2029769.550673848</v>
+        <v>2029769.55067385</v>
       </c>
       <c r="CD4">
-        <v>1953418.146347356</v>
+        <v>1953418.146347358</v>
       </c>
       <c r="CE4">
-        <v>1891137.796151601</v>
+        <v>1891137.796151602</v>
       </c>
       <c r="CF4">
-        <v>1978417.215521791</v>
+        <v>1978417.215521792</v>
       </c>
       <c r="CG4">
-        <v>2149418.023417337</v>
+        <v>2149418.023417338</v>
       </c>
       <c r="CH4">
         <v>2350548.381366055</v>
@@ -1497,19 +1497,19 @@
         <v>2771884.513820393</v>
       </c>
       <c r="CK4">
-        <v>2942526.576422773</v>
+        <v>2942526.576422775</v>
       </c>
       <c r="CL4">
-        <v>3080779.525717315</v>
+        <v>3080779.525717316</v>
       </c>
       <c r="CM4">
-        <v>3164442.14706629</v>
+        <v>3164442.147066292</v>
       </c>
       <c r="CN4">
-        <v>3201307.743383515</v>
+        <v>3201307.743383517</v>
       </c>
       <c r="CO4">
-        <v>3203326.891161259</v>
+        <v>3203326.89116126</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724198.954673871</v>
+        <v>1724198.954673873</v>
       </c>
       <c r="E5">
-        <v>1168146.459771767</v>
+        <v>1168146.459771768</v>
       </c>
       <c r="F5">
-        <v>1139080.973992532</v>
+        <v>1139080.973992533</v>
       </c>
       <c r="G5">
         <v>1091412.743693001</v>
@@ -1537,7 +1537,7 @@
         <v>1373202.429983064</v>
       </c>
       <c r="J5">
-        <v>1544243.334904113</v>
+        <v>1544243.334904114</v>
       </c>
       <c r="K5">
         <v>1314465.131566937</v>
@@ -1564,19 +1564,19 @@
         <v>13815272.65289824</v>
       </c>
       <c r="S5">
-        <v>45933789.66153147</v>
+        <v>45933789.66153148</v>
       </c>
       <c r="T5">
         <v>45975244.37280741</v>
       </c>
       <c r="U5">
-        <v>46025739.61349073</v>
+        <v>46025739.61349074</v>
       </c>
       <c r="V5">
-        <v>46086880.69845807</v>
+        <v>46086880.69845808</v>
       </c>
       <c r="W5">
-        <v>46160985.53257417</v>
+        <v>46160985.53257418</v>
       </c>
       <c r="X5">
         <v>48409534.47802758</v>
@@ -1588,13 +1588,13 @@
         <v>48662602.30871762</v>
       </c>
       <c r="AA5">
-        <v>48842862.21976102</v>
+        <v>48842862.21976103</v>
       </c>
       <c r="AB5">
         <v>49076499.95677105</v>
       </c>
       <c r="AC5">
-        <v>13895919.76871123</v>
+        <v>13895919.76871122</v>
       </c>
       <c r="AD5">
         <v>14297490.42053781</v>
@@ -1609,13 +1609,13 @@
         <v>16396659.57743583</v>
       </c>
       <c r="AH5">
-        <v>5644747.032162485</v>
+        <v>5644747.032162482</v>
       </c>
       <c r="AI5">
-        <v>6891392.431331756</v>
+        <v>6891392.431331755</v>
       </c>
       <c r="AJ5">
-        <v>8415610.312980551</v>
+        <v>8415610.312980549</v>
       </c>
       <c r="AK5">
         <v>10441513.78004473</v>
@@ -1669,7 +1669,7 @@
         <v>42343751.90443899</v>
       </c>
       <c r="BB5">
-        <v>38727207.56412757</v>
+        <v>38727207.56412756</v>
       </c>
       <c r="BC5">
         <v>36383607.28244108</v>
@@ -1684,7 +1684,7 @@
         <v>31665766.73982973</v>
       </c>
       <c r="BG5">
-        <v>30591879.60072326</v>
+        <v>30591879.60072325</v>
       </c>
       <c r="BH5">
         <v>30825588.44977181</v>
@@ -1705,19 +1705,19 @@
         <v>39500146.5159887</v>
       </c>
       <c r="BN5">
-        <v>42032581.6260569</v>
+        <v>42032581.62605689</v>
       </c>
       <c r="BO5">
-        <v>44534988.66433098</v>
+        <v>44534988.66433097</v>
       </c>
       <c r="BP5">
         <v>46890647.96130434</v>
       </c>
       <c r="BQ5">
-        <v>48998614.82745372</v>
+        <v>48998614.82745371</v>
       </c>
       <c r="BR5">
-        <v>50772764.67502968</v>
+        <v>50772764.67502967</v>
       </c>
       <c r="BS5">
         <v>52155353.29520652</v>
@@ -1729,7 +1729,7 @@
         <v>53638987.74360345</v>
       </c>
       <c r="BV5">
-        <v>53558547.50200685</v>
+        <v>53558547.50200684</v>
       </c>
       <c r="BW5">
         <v>53306031.12310099</v>
@@ -1738,40 +1738,40 @@
         <v>52752821.69069824</v>
       </c>
       <c r="BY5">
-        <v>51981549.43414792</v>
+        <v>51981549.4341479</v>
       </c>
       <c r="BZ5">
         <v>51084959.31860249</v>
       </c>
       <c r="CA5">
-        <v>49840671.5922556</v>
+        <v>49840671.59225559</v>
       </c>
       <c r="CB5">
         <v>48978485.34390444</v>
       </c>
       <c r="CC5">
-        <v>48263510.64405231</v>
+        <v>48263510.6440523</v>
       </c>
       <c r="CD5">
-        <v>47765120.93544386</v>
+        <v>47765120.93544385</v>
       </c>
       <c r="CE5">
-        <v>47534528.19616396</v>
+        <v>47534528.19616394</v>
       </c>
       <c r="CF5">
-        <v>47068179.55251973</v>
+        <v>47068179.55251972</v>
       </c>
       <c r="CG5">
-        <v>47443100.80417115</v>
+        <v>47443100.80417114</v>
       </c>
       <c r="CH5">
-        <v>48113188.38478355</v>
+        <v>48113188.38478354</v>
       </c>
       <c r="CI5">
         <v>49047887.27260815</v>
       </c>
       <c r="CJ5">
-        <v>50201513.07740721</v>
+        <v>50201513.0774072</v>
       </c>
       <c r="CK5">
         <v>50682915.83870944</v>
@@ -1780,13 +1780,13 @@
         <v>52097713.72468159</v>
       </c>
       <c r="CM5">
-        <v>53545930.92521443</v>
+        <v>53545930.92521442</v>
       </c>
       <c r="CN5">
         <v>54964093.13281535</v>
       </c>
       <c r="CO5">
-        <v>56294513.45428256</v>
+        <v>56294513.45428254</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -1800,25 +1800,25 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465598407588715</v>
+        <v>0.8465598407588717</v>
       </c>
       <c r="E6">
-        <v>0.8595202319566139</v>
+        <v>0.859520231956614</v>
       </c>
       <c r="F6">
-        <v>0.9079237378729043</v>
+        <v>0.9079237378729045</v>
       </c>
       <c r="G6">
-        <v>0.9150881939127399</v>
+        <v>0.9150881939127402</v>
       </c>
       <c r="H6">
-        <v>0.8888755054488595</v>
+        <v>0.8888755054488597</v>
       </c>
       <c r="I6">
-        <v>0.8808692641251075</v>
+        <v>0.8808692641251074</v>
       </c>
       <c r="J6">
-        <v>0.922124503593195</v>
+        <v>0.9221245035931951</v>
       </c>
       <c r="K6">
         <v>1.01702817464264</v>
@@ -1827,7 +1827,7 @@
         <v>1.029088114481318</v>
       </c>
       <c r="M6">
-        <v>1.096054690244874</v>
+        <v>1.096054690244875</v>
       </c>
       <c r="N6">
         <v>1.164347327852754</v>
@@ -1845,7 +1845,7 @@
         <v>1.204975617563945</v>
       </c>
       <c r="S6">
-        <v>1.315100922262419</v>
+        <v>1.31510092226242</v>
       </c>
       <c r="T6">
         <v>1.348846254397768</v>
@@ -1860,13 +1860,13 @@
         <v>1.450703687583572</v>
       </c>
       <c r="X6">
-        <v>1.48305298743713</v>
+        <v>1.483052987437131</v>
       </c>
       <c r="Y6">
         <v>1.515752265048951</v>
       </c>
       <c r="Z6">
-        <v>1.548369625070731</v>
+        <v>1.548369625070732</v>
       </c>
       <c r="AA6">
         <v>1.581070091745885</v>
@@ -1875,22 +1875,22 @@
         <v>1.613843848294196</v>
       </c>
       <c r="AC6">
-        <v>1.559445907332132</v>
+        <v>1.559445907332133</v>
       </c>
       <c r="AD6">
         <v>1.593175353991588</v>
       </c>
       <c r="AE6">
-        <v>1.627169709148234</v>
+        <v>1.627169709148235</v>
       </c>
       <c r="AF6">
-        <v>1.660904064745378</v>
+        <v>1.660904064745379</v>
       </c>
       <c r="AG6">
         <v>1.694916933418489</v>
       </c>
       <c r="AH6">
-        <v>1.704493007586477</v>
+        <v>1.704493007586478</v>
       </c>
       <c r="AI6">
         <v>1.740031975404095</v>
@@ -1914,19 +1914,19 @@
         <v>1.993811262934392</v>
       </c>
       <c r="AP6">
-        <v>2.040867274424946</v>
+        <v>2.040867274424947</v>
       </c>
       <c r="AQ6">
-        <v>2.083892918001977</v>
+        <v>2.083892918001978</v>
       </c>
       <c r="AR6">
         <v>2.141271295573688</v>
       </c>
       <c r="AS6">
-        <v>2.179683175344652</v>
+        <v>2.179683175344653</v>
       </c>
       <c r="AT6">
-        <v>2.216666372230621</v>
+        <v>2.216666372230622</v>
       </c>
       <c r="AU6">
         <v>2.252096852648524</v>
@@ -1956,13 +1956,13 @@
         <v>2.507885821771384</v>
       </c>
       <c r="BD6">
-        <v>2.543587596054151</v>
+        <v>2.543587596054152</v>
       </c>
       <c r="BE6">
-        <v>2.579964151704873</v>
+        <v>2.579964151704874</v>
       </c>
       <c r="BF6">
-        <v>2.618197467648235</v>
+        <v>2.618197467648236</v>
       </c>
       <c r="BG6">
         <v>2.659168440442954</v>
@@ -1977,7 +1977,7 @@
         <v>2.802820274752171</v>
       </c>
       <c r="BK6">
-        <v>2.854961565251086</v>
+        <v>2.854961565251087</v>
       </c>
       <c r="BL6">
         <v>2.909307933170922</v>
@@ -1992,7 +1992,7 @@
         <v>3.071739210990581</v>
       </c>
       <c r="BP6">
-        <v>3.12197459942135</v>
+        <v>3.121974599421351</v>
       </c>
       <c r="BQ6">
         <v>3.17337486674377</v>
@@ -2004,10 +2004,10 @@
         <v>3.27373776940439</v>
       </c>
       <c r="BT6">
-        <v>3.321639634829425</v>
+        <v>3.321639634829426</v>
       </c>
       <c r="BU6">
-        <v>3.366740103752586</v>
+        <v>3.366740103752587</v>
       </c>
       <c r="BV6">
         <v>3.411455360374889</v>
@@ -2019,7 +2019,7 @@
         <v>3.502697384985878</v>
       </c>
       <c r="BY6">
-        <v>3.551316570726971</v>
+        <v>3.551316570726972</v>
       </c>
       <c r="BZ6">
         <v>3.600236211900594</v>
@@ -2031,13 +2031,13 @@
         <v>3.703425521783886</v>
       </c>
       <c r="CC6">
-        <v>3.756247513021221</v>
+        <v>3.756247513021223</v>
       </c>
       <c r="CD6">
-        <v>3.810214831128583</v>
+        <v>3.810214831128584</v>
       </c>
       <c r="CE6">
-        <v>3.865605168112822</v>
+        <v>3.865605168112823</v>
       </c>
       <c r="CF6">
         <v>3.925715029841078</v>
@@ -2055,7 +2055,7 @@
         <v>4.182269437617149</v>
       </c>
       <c r="CK6">
-        <v>4.247269665655395</v>
+        <v>4.247269665655397</v>
       </c>
       <c r="CL6">
         <v>4.312566641514639</v>
@@ -2064,7 +2064,7 @@
         <v>4.376325632738512</v>
       </c>
       <c r="CN6">
-        <v>4.438838184125324</v>
+        <v>4.438838184125325</v>
       </c>
       <c r="CO6">
         <v>4.500455057617434</v>
@@ -2086,109 +2086,109 @@
         <v>0.04442428229244647</v>
       </c>
       <c r="G7">
-        <v>0.04489245556495796</v>
+        <v>0.04489245556495794</v>
       </c>
       <c r="H7">
         <v>0.04438171450411043</v>
       </c>
       <c r="I7">
-        <v>0.04369946047690695</v>
+        <v>0.04369946047690694</v>
       </c>
       <c r="J7">
-        <v>0.04501433673675974</v>
+        <v>0.04501433673675973</v>
       </c>
       <c r="K7">
-        <v>0.04943715481026111</v>
+        <v>0.04943715481026109</v>
       </c>
       <c r="L7">
         <v>0.05083173477130481</v>
       </c>
       <c r="M7">
-        <v>0.05433958737990977</v>
+        <v>0.05433958737990974</v>
       </c>
       <c r="N7">
-        <v>0.05775727346881689</v>
+        <v>0.05775727346881688</v>
       </c>
       <c r="O7">
-        <v>0.05281453738569653</v>
+        <v>0.05281453738569652</v>
       </c>
       <c r="P7">
         <v>0.05683730359323294</v>
       </c>
       <c r="Q7">
-        <v>0.05826704242926571</v>
+        <v>0.05826704242926568</v>
       </c>
       <c r="R7">
-        <v>0.05969037286893251</v>
+        <v>0.05969037286893249</v>
       </c>
       <c r="S7">
         <v>0.06463434576577197</v>
       </c>
       <c r="T7">
-        <v>0.06631738354027486</v>
+        <v>0.06631738354027483</v>
       </c>
       <c r="U7">
-        <v>0.0680060446716764</v>
+        <v>0.06800604467167637</v>
       </c>
       <c r="V7">
         <v>0.06969927628643714</v>
       </c>
       <c r="W7">
-        <v>0.07139593187602566</v>
+        <v>0.07139593187602562</v>
       </c>
       <c r="X7">
-        <v>0.07296423243255253</v>
+        <v>0.07296423243255251</v>
       </c>
       <c r="Y7">
-        <v>0.07459106121889013</v>
+        <v>0.07459106121889011</v>
       </c>
       <c r="Z7">
-        <v>0.07621352104444137</v>
+        <v>0.07621352104444135</v>
       </c>
       <c r="AA7">
-        <v>0.07783930993386823</v>
+        <v>0.07783930993386821</v>
       </c>
       <c r="AB7">
-        <v>0.07946777750630855</v>
+        <v>0.07946777750630853</v>
       </c>
       <c r="AC7">
-        <v>0.07734721177744514</v>
+        <v>0.07734721177744512</v>
       </c>
       <c r="AD7">
-        <v>0.07901779504753562</v>
+        <v>0.0790177950475356</v>
       </c>
       <c r="AE7">
-        <v>0.0806995042306959</v>
+        <v>0.08069950423069587</v>
       </c>
       <c r="AF7">
-        <v>0.08236637676305882</v>
+        <v>0.08236637676305879</v>
       </c>
       <c r="AG7">
         <v>0.08404429642353156</v>
       </c>
       <c r="AH7">
-        <v>0.08469537743972254</v>
+        <v>0.08469537743972252</v>
       </c>
       <c r="AI7">
-        <v>0.08643977223661546</v>
+        <v>0.08643977223661542</v>
       </c>
       <c r="AJ7">
-        <v>0.08823226724227695</v>
+        <v>0.08823226724227692</v>
       </c>
       <c r="AK7">
-        <v>0.09005923278427591</v>
+        <v>0.0900592327842759</v>
       </c>
       <c r="AL7">
-        <v>0.09194377073031332</v>
+        <v>0.0919437707303133</v>
       </c>
       <c r="AM7">
-        <v>0.0944493357092219</v>
+        <v>0.09444933570922186</v>
       </c>
       <c r="AN7">
-        <v>0.09652004474334762</v>
+        <v>0.09652004474334758</v>
       </c>
       <c r="AO7">
-        <v>0.09869158312562402</v>
+        <v>0.09869158312562398</v>
       </c>
       <c r="AP7">
         <v>0.1009584441767499</v>
@@ -2197,7 +2197,7 @@
         <v>0.1030338799974389</v>
       </c>
       <c r="AR7">
-        <v>0.1057058333403648</v>
+        <v>0.1057058333403647</v>
       </c>
       <c r="AS7">
         <v>0.1075643415628077</v>
@@ -2212,19 +2212,19 @@
         <v>0.1127830288514431</v>
       </c>
       <c r="AW7">
-        <v>0.1147317567141196</v>
+        <v>0.1147317567141195</v>
       </c>
       <c r="AX7">
-        <v>0.1163503508393839</v>
+        <v>0.1163503508393838</v>
       </c>
       <c r="AY7">
-        <v>0.1177411930028503</v>
+        <v>0.1177411930028502</v>
       </c>
       <c r="AZ7">
         <v>0.1189791427035435</v>
       </c>
       <c r="BA7">
-        <v>0.1204248810433503</v>
+        <v>0.1204248810433502</v>
       </c>
       <c r="BB7">
         <v>0.1220779549446271</v>
@@ -2236,22 +2236,22 @@
         <v>0.1256670693004979</v>
       </c>
       <c r="BE7">
-        <v>0.1274819790950085</v>
+        <v>0.1274819790950084</v>
       </c>
       <c r="BF7">
-        <v>0.1293783422545957</v>
+        <v>0.1293783422545956</v>
       </c>
       <c r="BG7">
         <v>0.131405120148641</v>
       </c>
       <c r="BH7">
-        <v>0.1336073192303371</v>
+        <v>0.133607319230337</v>
       </c>
       <c r="BI7">
-        <v>0.1359443072435026</v>
+        <v>0.1359443072435025</v>
       </c>
       <c r="BJ7">
-        <v>0.138405395587937</v>
+        <v>0.1384053955879369</v>
       </c>
       <c r="BK7">
         <v>0.1409296970926094</v>
@@ -2260,7 +2260,7 @@
         <v>0.1435535754626673</v>
       </c>
       <c r="BM7">
-        <v>0.1462240257982065</v>
+        <v>0.1462240257982064</v>
       </c>
       <c r="BN7">
         <v>0.1488439690047652</v>
@@ -2272,19 +2272,19 @@
         <v>0.1538076446249682</v>
       </c>
       <c r="BQ7">
-        <v>0.1562908897291695</v>
+        <v>0.1562908897291694</v>
       </c>
       <c r="BR7">
-        <v>0.1587454797420893</v>
+        <v>0.1587454797420892</v>
       </c>
       <c r="BS7">
         <v>0.1611551631049107</v>
       </c>
       <c r="BT7">
-        <v>0.1634858187612776</v>
+        <v>0.1634858187612775</v>
       </c>
       <c r="BU7">
-        <v>0.1656879813486488</v>
+        <v>0.1656879813486487</v>
       </c>
       <c r="BV7">
         <v>0.1678777373830394</v>
@@ -2293,22 +2293,22 @@
         <v>0.1700683538137007</v>
       </c>
       <c r="BX7">
-        <v>0.172353997304163</v>
+        <v>0.1723539973041629</v>
       </c>
       <c r="BY7">
-        <v>0.1747407893177553</v>
+        <v>0.1747407893177552</v>
       </c>
       <c r="BZ7">
-        <v>0.1771432307918169</v>
+        <v>0.1771432307918168</v>
       </c>
       <c r="CA7">
-        <v>0.1796555660006482</v>
+        <v>0.1796555660006481</v>
       </c>
       <c r="CB7">
         <v>0.1822069946072808</v>
       </c>
       <c r="CC7">
-        <v>0.1847931567387741</v>
+        <v>0.184793156738774</v>
       </c>
       <c r="CD7">
         <v>0.1874309177695518</v>
@@ -2317,31 +2317,31 @@
         <v>0.1901327080229713</v>
       </c>
       <c r="CF7">
-        <v>0.1930636750174148</v>
+        <v>0.1930636750174147</v>
       </c>
       <c r="CG7">
         <v>0.1961333367217334</v>
       </c>
       <c r="CH7">
-        <v>0.1992470050138209</v>
+        <v>0.1992470050138208</v>
       </c>
       <c r="CI7">
         <v>0.2023752879848181</v>
       </c>
       <c r="CJ7">
-        <v>0.2054937768759989</v>
+        <v>0.2054937768759988</v>
       </c>
       <c r="CK7">
         <v>0.2086475355397407</v>
       </c>
       <c r="CL7">
-        <v>0.2118027598746137</v>
+        <v>0.2118027598746136</v>
       </c>
       <c r="CM7">
-        <v>0.214884120096785</v>
+        <v>0.2148841200967849</v>
       </c>
       <c r="CN7">
-        <v>0.217906320620653</v>
+        <v>0.2179063206206529</v>
       </c>
       <c r="CO7">
         <v>0.2208867697688082</v>
@@ -2354,274 +2354,274 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804767.4285286597</v>
+        <v>804767.4285286602</v>
       </c>
       <c r="E8">
-        <v>568084.1122961218</v>
+        <v>568084.1122961219</v>
       </c>
       <c r="F8">
-        <v>362879.4221382682</v>
+        <v>362879.4221382684</v>
       </c>
       <c r="G8">
-        <v>301325.5565137166</v>
+        <v>301325.5565137168</v>
       </c>
       <c r="H8">
-        <v>323306.9618105884</v>
+        <v>323306.9618105885</v>
       </c>
       <c r="I8">
-        <v>255077.3689470355</v>
+        <v>255077.3689470356</v>
       </c>
       <c r="J8">
-        <v>288213.1280617228</v>
+        <v>288213.128061723</v>
       </c>
       <c r="K8">
-        <v>250823.0200545645</v>
+        <v>250823.0200545647</v>
       </c>
       <c r="L8">
-        <v>300398.1435172962</v>
+        <v>300398.1435172964</v>
       </c>
       <c r="M8">
-        <v>264782.5660240502</v>
+        <v>264782.5660240504</v>
       </c>
       <c r="N8">
-        <v>306300.0273080252</v>
+        <v>306300.0273080253</v>
       </c>
       <c r="O8">
-        <v>415409.3411431169</v>
+        <v>415409.3411431172</v>
       </c>
       <c r="P8">
-        <v>1754690.194718721</v>
+        <v>1754690.194718723</v>
       </c>
       <c r="Q8">
-        <v>1778150.31940355</v>
+        <v>1778150.319403551</v>
       </c>
       <c r="R8">
-        <v>1794164.529726722</v>
+        <v>1794164.529726723</v>
       </c>
       <c r="S8">
-        <v>5735635.722307781</v>
+        <v>5735635.722307785</v>
       </c>
       <c r="T8">
-        <v>5755547.803855699</v>
+        <v>5755547.803855703</v>
       </c>
       <c r="U8">
-        <v>5779390.349686179</v>
+        <v>5779390.349686183</v>
       </c>
       <c r="V8">
-        <v>5804691.830813514</v>
+        <v>5804691.830813517</v>
       </c>
       <c r="W8">
-        <v>5830563.701400767</v>
+        <v>5830563.701400771</v>
       </c>
       <c r="X8">
-        <v>5538256.714413923</v>
+        <v>5538256.714413927</v>
       </c>
       <c r="Y8">
-        <v>5567112.08494712</v>
+        <v>5567112.084947125</v>
       </c>
       <c r="Z8">
-        <v>5593173.340376275</v>
+        <v>5593173.340376278</v>
       </c>
       <c r="AA8">
-        <v>5620232.994356007</v>
+        <v>5620232.99435601</v>
       </c>
       <c r="AB8">
-        <v>5652158.53565375</v>
+        <v>5652158.535653753</v>
       </c>
       <c r="AC8">
         <v>1147608.542754265</v>
       </c>
       <c r="AD8">
-        <v>1174884.795275438</v>
+        <v>1174884.795275439</v>
       </c>
       <c r="AE8">
         <v>1209105.346390794</v>
       </c>
       <c r="AF8">
-        <v>1245172.294295541</v>
+        <v>1245172.294295542</v>
       </c>
       <c r="AG8">
-        <v>1287543.385894412</v>
+        <v>1287543.385894413</v>
       </c>
       <c r="AH8">
-        <v>-14391.07382516715</v>
+        <v>-14391.07382516702</v>
       </c>
       <c r="AI8">
-        <v>53363.27240355493</v>
+        <v>53363.27240355514</v>
       </c>
       <c r="AJ8">
-        <v>134353.2753029572</v>
+        <v>134353.2753029576</v>
       </c>
       <c r="AK8">
-        <v>231770.7544036107</v>
+        <v>231770.7544036111</v>
       </c>
       <c r="AL8">
-        <v>347581.8324633298</v>
+        <v>347581.8324633304</v>
       </c>
       <c r="AM8">
-        <v>1369252.679536228</v>
+        <v>1369252.679536229</v>
       </c>
       <c r="AN8">
-        <v>1623770.478165061</v>
+        <v>1623770.478165063</v>
       </c>
       <c r="AO8">
-        <v>1945511.117917093</v>
+        <v>1945511.117917095</v>
       </c>
       <c r="AP8">
-        <v>2311872.546203425</v>
+        <v>2311872.546203427</v>
       </c>
       <c r="AQ8">
-        <v>2579343.176116467</v>
+        <v>2579343.176116469</v>
       </c>
       <c r="AR8">
-        <v>3201168.055021098</v>
+        <v>3201168.055021101</v>
       </c>
       <c r="AS8">
-        <v>3324504.223340301</v>
+        <v>3324504.223340304</v>
       </c>
       <c r="AT8">
-        <v>3402351.844048211</v>
+        <v>3402351.844048213</v>
       </c>
       <c r="AU8">
-        <v>3430851.905985512</v>
+        <v>3430851.905985515</v>
       </c>
       <c r="AV8">
-        <v>3421660.585399076</v>
+        <v>3421660.58539908</v>
       </c>
       <c r="AW8">
-        <v>3535052.192849228</v>
+        <v>3535052.19284923</v>
       </c>
       <c r="AX8">
-        <v>3394700.610659346</v>
+        <v>3394700.610659349</v>
       </c>
       <c r="AY8">
-        <v>3143310.598267248</v>
+        <v>3143310.598267251</v>
       </c>
       <c r="AZ8">
-        <v>2815853.502074886</v>
+        <v>2815853.502074888</v>
       </c>
       <c r="BA8">
-        <v>2568329.559849817</v>
+        <v>2568329.559849819</v>
       </c>
       <c r="BB8">
-        <v>2317295.032625989</v>
+        <v>2317295.032625991</v>
       </c>
       <c r="BC8">
-        <v>2160378.522871496</v>
+        <v>2160378.522871498</v>
       </c>
       <c r="BD8">
-        <v>2004508.986444103</v>
+        <v>2004508.986444105</v>
       </c>
       <c r="BE8">
-        <v>1892138.071445335</v>
+        <v>1892138.071445336</v>
       </c>
       <c r="BF8">
-        <v>1821147.154521486</v>
+        <v>1821147.154521487</v>
       </c>
       <c r="BG8">
-        <v>1713673.523256974</v>
+        <v>1713673.523256976</v>
       </c>
       <c r="BH8">
-        <v>1722613.597586969</v>
+        <v>1722613.597586971</v>
       </c>
       <c r="BI8">
-        <v>1827407.861292144</v>
+        <v>1827407.861292145</v>
       </c>
       <c r="BJ8">
-        <v>2017112.994497281</v>
+        <v>2017112.994497283</v>
       </c>
       <c r="BK8">
-        <v>2247881.277326041</v>
+        <v>2247881.277326044</v>
       </c>
       <c r="BL8">
-        <v>2437377.016701392</v>
+        <v>2437377.016701394</v>
       </c>
       <c r="BM8">
-        <v>2696466.432288339</v>
+        <v>2696466.432288341</v>
       </c>
       <c r="BN8">
-        <v>2919095.687910094</v>
+        <v>2919095.687910096</v>
       </c>
       <c r="BO8">
-        <v>3091420.837787815</v>
+        <v>3091420.837787818</v>
       </c>
       <c r="BP8">
-        <v>3214965.421889706</v>
+        <v>3214965.421889708</v>
       </c>
       <c r="BQ8">
-        <v>3255375.284639279</v>
+        <v>3255375.284639282</v>
       </c>
       <c r="BR8">
-        <v>3314056.045723219</v>
+        <v>3314056.045723222</v>
       </c>
       <c r="BS8">
-        <v>3343016.737842163</v>
+        <v>3343016.737842165</v>
       </c>
       <c r="BT8">
-        <v>3328049.390386619</v>
+        <v>3328049.390386622</v>
       </c>
       <c r="BU8">
-        <v>3248823.495845807</v>
+        <v>3248823.495845811</v>
       </c>
       <c r="BV8">
-        <v>3065574.352114492</v>
+        <v>3065574.352114496</v>
       </c>
       <c r="BW8">
-        <v>2909401.867702902</v>
+        <v>2909401.867702905</v>
       </c>
       <c r="BX8">
-        <v>2795035.518899546</v>
+        <v>2795035.518899549</v>
       </c>
       <c r="BY8">
-        <v>2743924.298963528</v>
+        <v>2743924.29896353</v>
       </c>
       <c r="BZ8">
-        <v>2679546.077246185</v>
+        <v>2679546.077246188</v>
       </c>
       <c r="CA8">
-        <v>2564974.341196433</v>
+        <v>2564974.341196436</v>
       </c>
       <c r="CB8">
-        <v>2496094.065185389</v>
+        <v>2496094.065185391</v>
       </c>
       <c r="CC8">
-        <v>2438968.320576551</v>
+        <v>2438968.320576554</v>
       </c>
       <c r="CD8">
-        <v>2399940.291330894</v>
+        <v>2399940.291330897</v>
       </c>
       <c r="CE8">
-        <v>2377601.824300063</v>
+        <v>2377601.824300066</v>
       </c>
       <c r="CF8">
-        <v>2353919.146105903</v>
+        <v>2353919.146105905</v>
       </c>
       <c r="CG8">
-        <v>2473719.334402503</v>
+        <v>2473719.334402505</v>
       </c>
       <c r="CH8">
-        <v>2621934.816547521</v>
+        <v>2621934.816547523</v>
       </c>
       <c r="CI8">
-        <v>2780135.4543995</v>
+        <v>2780135.454399502</v>
       </c>
       <c r="CJ8">
-        <v>2932679.328777363</v>
+        <v>2932679.328777366</v>
       </c>
       <c r="CK8">
-        <v>2986875.101884006</v>
+        <v>2986875.101884008</v>
       </c>
       <c r="CL8">
-        <v>3084336.081049684</v>
+        <v>3084336.081049687</v>
       </c>
       <c r="CM8">
-        <v>3152450.970258382</v>
+        <v>3152450.970258385</v>
       </c>
       <c r="CN8">
-        <v>3198084.317699137</v>
+        <v>3198084.31769914</v>
       </c>
       <c r="CO8">
-        <v>3225657.474052983</v>
+        <v>3225657.474052987</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -2631,274 +2631,274 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>163668.3433783719</v>
+        <v>163668.343378372</v>
       </c>
       <c r="E9">
         <v>104434.7296516304</v>
       </c>
       <c r="F9">
-        <v>79511.96068442261</v>
+        <v>79511.96068442256</v>
       </c>
       <c r="G9">
-        <v>79158.69334502151</v>
+        <v>79158.69334502143</v>
       </c>
       <c r="H9">
-        <v>72976.11992357291</v>
+        <v>72976.11992357283</v>
       </c>
       <c r="I9">
-        <v>70068.5383517369</v>
+        <v>70068.53835173683</v>
       </c>
       <c r="J9">
-        <v>64279.22372065438</v>
+        <v>64279.2237206543</v>
       </c>
       <c r="K9">
-        <v>67289.8647283529</v>
+        <v>67289.8647283528</v>
       </c>
       <c r="L9">
-        <v>81455.82653301231</v>
+        <v>81455.82653301224</v>
       </c>
       <c r="M9">
-        <v>81830.92414366214</v>
+        <v>81830.92414366207</v>
       </c>
       <c r="N9">
-        <v>87508.11872011173</v>
+        <v>87508.11872011164</v>
       </c>
       <c r="O9">
-        <v>100671.0880989792</v>
+        <v>100671.0880989791</v>
       </c>
       <c r="P9">
-        <v>977077.8077834385</v>
+        <v>977077.8077834375</v>
       </c>
       <c r="Q9">
-        <v>978953.4372943497</v>
+        <v>978953.4372943485</v>
       </c>
       <c r="R9">
-        <v>981300.4700941826</v>
+        <v>981300.4700941817</v>
       </c>
       <c r="S9">
-        <v>3182965.213662604</v>
+        <v>3182965.213662601</v>
       </c>
       <c r="T9">
-        <v>3186437.024092223</v>
+        <v>3186437.024092219</v>
       </c>
       <c r="U9">
-        <v>3190558.963632192</v>
+        <v>3190558.963632188</v>
       </c>
       <c r="V9">
-        <v>3195406.132379502</v>
+        <v>3195406.132379497</v>
       </c>
       <c r="W9">
-        <v>3201091.566519159</v>
+        <v>3201091.566519156</v>
       </c>
       <c r="X9">
-        <v>3453835.899325093</v>
+        <v>3453835.899325088</v>
       </c>
       <c r="Y9">
-        <v>3461851.828351133</v>
+        <v>3461851.828351129</v>
       </c>
       <c r="Z9">
-        <v>3471622.907756908</v>
+        <v>3471622.907756904</v>
       </c>
       <c r="AA9">
-        <v>3483809.97171736</v>
+        <v>3483809.971717356</v>
       </c>
       <c r="AB9">
-        <v>3499355.658308207</v>
+        <v>3499355.658308201</v>
       </c>
       <c r="AC9">
-        <v>1122952.752505383</v>
+        <v>1122952.752505382</v>
       </c>
       <c r="AD9">
-        <v>1149504.362133739</v>
+        <v>1149504.362133737</v>
       </c>
       <c r="AE9">
-        <v>1184551.972025847</v>
+        <v>1184551.972025845</v>
       </c>
       <c r="AF9">
-        <v>1230654.533866847</v>
+        <v>1230654.533866845</v>
       </c>
       <c r="AG9">
-        <v>1290691.168710679</v>
+        <v>1290691.168710676</v>
       </c>
       <c r="AH9">
-        <v>560054.6522626657</v>
+        <v>560054.6522626642</v>
       </c>
       <c r="AI9">
-        <v>641204.0838200399</v>
+        <v>641204.0838200386</v>
       </c>
       <c r="AJ9">
-        <v>741344.4805280938</v>
+        <v>741344.4805280921</v>
       </c>
       <c r="AK9">
-        <v>882564.8501270333</v>
+        <v>882564.8501270317</v>
       </c>
       <c r="AL9">
-        <v>1049336.595181627</v>
+        <v>1049336.595181626</v>
       </c>
       <c r="AM9">
-        <v>1692936.399679548</v>
+        <v>1692936.399679546</v>
       </c>
       <c r="AN9">
-        <v>1900742.91911541</v>
+        <v>1900742.919115406</v>
       </c>
       <c r="AO9">
-        <v>2121245.132492411</v>
+        <v>2121245.132492408</v>
       </c>
       <c r="AP9">
-        <v>2346222.179496295</v>
+        <v>2346222.179496292</v>
       </c>
       <c r="AQ9">
-        <v>2565579.088401271</v>
+        <v>2565579.088401267</v>
       </c>
       <c r="AR9">
-        <v>3309870.43092469</v>
+        <v>3309870.430924686</v>
       </c>
       <c r="AS9">
-        <v>3484149.572580215</v>
+        <v>3484149.57258021</v>
       </c>
       <c r="AT9">
-        <v>3619965.330291563</v>
+        <v>3619965.330291557</v>
       </c>
       <c r="AU9">
-        <v>3709412.265168997</v>
+        <v>3709412.265168991</v>
       </c>
       <c r="AV9">
-        <v>3747932.369363822</v>
+        <v>3747932.369363816</v>
       </c>
       <c r="AW9">
-        <v>3913007.525474057</v>
+        <v>3913007.525474052</v>
       </c>
       <c r="AX9">
-        <v>3851848.461483161</v>
+        <v>3851848.461483155</v>
       </c>
       <c r="AY9">
-        <v>3749595.874112062</v>
+        <v>3749595.874112056</v>
       </c>
       <c r="AZ9">
-        <v>3616204.751209536</v>
+        <v>3616204.75120953</v>
       </c>
       <c r="BA9">
-        <v>3463658.935362821</v>
+        <v>3463658.935362815</v>
       </c>
       <c r="BB9">
-        <v>3215876.024627985</v>
+        <v>3215876.024627979</v>
       </c>
       <c r="BC9">
-        <v>3064544.932959298</v>
+        <v>3064544.932959293</v>
       </c>
       <c r="BD9">
-        <v>2933131.418586933</v>
+        <v>2933131.418586928</v>
       </c>
       <c r="BE9">
-        <v>2832661.646087395</v>
+        <v>2832661.64608739</v>
       </c>
       <c r="BF9">
-        <v>2771619.000215784</v>
+        <v>2771619.00021578</v>
       </c>
       <c r="BG9">
-        <v>2710870.459643135</v>
+        <v>2710870.45964313</v>
       </c>
       <c r="BH9">
-        <v>2740782.045111474</v>
+        <v>2740782.045111469</v>
       </c>
       <c r="BI9">
-        <v>2815231.174453899</v>
+        <v>2815231.174453894</v>
       </c>
       <c r="BJ9">
-        <v>2929612.191498688</v>
+        <v>2929612.191498682</v>
       </c>
       <c r="BK9">
-        <v>3077234.004526585</v>
+        <v>3077234.004526579</v>
       </c>
       <c r="BL9">
-        <v>3255632.315158543</v>
+        <v>3255632.315158537</v>
       </c>
       <c r="BM9">
-        <v>3444805.934898749</v>
+        <v>3444805.934898742</v>
       </c>
       <c r="BN9">
-        <v>3641187.118951846</v>
+        <v>3641187.118951839</v>
       </c>
       <c r="BO9">
-        <v>3835736.30356126</v>
+        <v>3835736.303561253</v>
       </c>
       <c r="BP9">
-        <v>4019991.418565303</v>
+        <v>4019991.418565296</v>
       </c>
       <c r="BQ9">
-        <v>4195218.109870062</v>
+        <v>4195218.109870055</v>
       </c>
       <c r="BR9">
-        <v>4338100.909974426</v>
+        <v>4338100.909974418</v>
       </c>
       <c r="BS9">
-        <v>4453081.800937176</v>
+        <v>4453081.800937168</v>
       </c>
       <c r="BT9">
-        <v>4537794.048214911</v>
+        <v>4537794.048214903</v>
       </c>
       <c r="BU9">
-        <v>4591776.822622566</v>
+        <v>4591776.822622558</v>
       </c>
       <c r="BV9">
-        <v>4606915.557093807</v>
+        <v>4606915.557093799</v>
       </c>
       <c r="BW9">
-        <v>4605397.708683187</v>
+        <v>4605397.708683179</v>
       </c>
       <c r="BX9">
-        <v>4582360.679553921</v>
+        <v>4582360.679553913</v>
       </c>
       <c r="BY9">
-        <v>4543632.535213505</v>
+        <v>4543632.535213497</v>
       </c>
       <c r="BZ9">
-        <v>4495779.387125657</v>
+        <v>4495779.387125649</v>
       </c>
       <c r="CA9">
-        <v>4417781.296261151</v>
+        <v>4417781.296261143</v>
       </c>
       <c r="CB9">
-        <v>4371988.868081098</v>
+        <v>4371988.868081091</v>
       </c>
       <c r="CC9">
-        <v>4336561.049492058</v>
+        <v>4336561.049492051</v>
       </c>
       <c r="CD9">
-        <v>4316523.961926811</v>
+        <v>4316523.961926804</v>
       </c>
       <c r="CE9">
-        <v>4315619.670445539</v>
+        <v>4315619.67044553</v>
       </c>
       <c r="CF9">
-        <v>4283649.710723445</v>
+        <v>4283649.710723437</v>
       </c>
       <c r="CG9">
-        <v>4326239.898789307</v>
+        <v>4326239.898789298</v>
       </c>
       <c r="CH9">
-        <v>4390119.594165344</v>
+        <v>4390119.594165334</v>
       </c>
       <c r="CI9">
-        <v>4473134.572106202</v>
+        <v>4473134.572106193</v>
       </c>
       <c r="CJ9">
-        <v>4572028.854162579</v>
+        <v>4572028.854162572</v>
       </c>
       <c r="CK9">
-        <v>4598936.233457046</v>
+        <v>4598936.233457036</v>
       </c>
       <c r="CL9">
-        <v>4716913.600866074</v>
+        <v>4716913.600866064</v>
       </c>
       <c r="CM9">
-        <v>4837431.248449442</v>
+        <v>4837431.248449433</v>
       </c>
       <c r="CN9">
-        <v>4955898.786800556</v>
+        <v>4955898.786800547</v>
       </c>
       <c r="CO9">
-        <v>5068133.386527594</v>
+        <v>5068133.386527584</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -2945,7 +2945,7 @@
         <v>14.67150291274054</v>
       </c>
       <c r="O10">
-        <v>13.41120785221647</v>
+        <v>13.41120785221648</v>
       </c>
       <c r="P10">
         <v>14.4730588087852</v>
@@ -2963,7 +2963,7 @@
         <v>16.99630451914316</v>
       </c>
       <c r="U10">
-        <v>17.42301160896182</v>
+        <v>17.42301160896183</v>
       </c>
       <c r="V10">
         <v>17.85093448009464</v>
@@ -3002,28 +3002,28 @@
         <v>21.35701103154622</v>
       </c>
       <c r="AH10">
-        <v>21.47767554177218</v>
+        <v>21.47767554177219</v>
       </c>
       <c r="AI10">
-        <v>21.92548871347716</v>
+        <v>21.92548871347717</v>
       </c>
       <c r="AJ10">
         <v>22.38673042574495</v>
       </c>
       <c r="AK10">
-        <v>22.85867627748972</v>
+        <v>22.85867627748973</v>
       </c>
       <c r="AL10">
         <v>23.3469391012531</v>
       </c>
       <c r="AM10">
-        <v>24.01539028897233</v>
+        <v>24.01539028897234</v>
       </c>
       <c r="AN10">
         <v>24.55569913439013</v>
       </c>
       <c r="AO10">
-        <v>25.12326610096891</v>
+        <v>25.12326610096892</v>
       </c>
       <c r="AP10">
         <v>25.71620120987564</v>
@@ -3032,25 +3032,25 @@
         <v>26.25835116802179</v>
       </c>
       <c r="AR10">
-        <v>26.98135453096517</v>
+        <v>26.98135453096518</v>
       </c>
       <c r="AS10">
-        <v>27.46536818605109</v>
+        <v>27.4653681860511</v>
       </c>
       <c r="AT10">
-        <v>27.93137954525229</v>
+        <v>27.93137954525231</v>
       </c>
       <c r="AU10">
-        <v>28.37782570802201</v>
+        <v>28.37782570802202</v>
       </c>
       <c r="AV10">
-        <v>28.81155780540552</v>
+        <v>28.81155780540553</v>
       </c>
       <c r="AW10">
         <v>29.31698310540365</v>
       </c>
       <c r="AX10">
-        <v>29.7263385547156</v>
+        <v>29.72633855471561</v>
       </c>
       <c r="AY10">
         <v>30.07377438333376</v>
@@ -3059,10 +3059,10 @@
         <v>30.37945318579344</v>
       </c>
       <c r="BA10">
-        <v>30.73892557589844</v>
+        <v>30.73892557589845</v>
       </c>
       <c r="BB10">
-        <v>31.14814064410023</v>
+        <v>31.14814064410024</v>
       </c>
       <c r="BC10">
         <v>31.60092633767156</v>
@@ -3074,25 +3074,25 @@
         <v>32.50915827351055</v>
       </c>
       <c r="BF10">
-        <v>32.99092191294037</v>
+        <v>32.99092191294038</v>
       </c>
       <c r="BG10">
-        <v>33.50718173706353</v>
+        <v>33.50718173706354</v>
       </c>
       <c r="BH10">
-        <v>34.07395643806246</v>
+        <v>34.07395643806247</v>
       </c>
       <c r="BI10">
-        <v>34.67833071530618</v>
+        <v>34.67833071530619</v>
       </c>
       <c r="BJ10">
         <v>35.31728449168997</v>
       </c>
       <c r="BK10">
-        <v>35.97429728944308</v>
+        <v>35.97429728944309</v>
       </c>
       <c r="BL10">
-        <v>36.65909543872312</v>
+        <v>36.65909543872313</v>
       </c>
       <c r="BM10">
         <v>37.3570580204145</v>
@@ -3101,85 +3101,85 @@
         <v>38.04210221645165</v>
       </c>
       <c r="BO10">
-        <v>38.70583090042262</v>
+        <v>38.70583090042263</v>
       </c>
       <c r="BP10">
-        <v>39.33882814278664</v>
+        <v>39.33882814278665</v>
       </c>
       <c r="BQ10">
         <v>39.98650358609893</v>
       </c>
       <c r="BR10">
-        <v>40.62535617929062</v>
+        <v>40.62535617929063</v>
       </c>
       <c r="BS10">
         <v>41.25113878857918</v>
       </c>
       <c r="BT10">
-        <v>41.85473218489431</v>
+        <v>41.85473218489432</v>
       </c>
       <c r="BU10">
-        <v>42.42302623714449</v>
+        <v>42.4230262371445</v>
       </c>
       <c r="BV10">
-        <v>42.98646637402177</v>
+        <v>42.98646637402178</v>
       </c>
       <c r="BW10">
         <v>43.54938922710724</v>
       </c>
       <c r="BX10">
-        <v>44.13617282142108</v>
+        <v>44.13617282142109</v>
       </c>
       <c r="BY10">
-        <v>44.74880490134435</v>
+        <v>44.74880490134436</v>
       </c>
       <c r="BZ10">
-        <v>45.36522290720918</v>
+        <v>45.36522290720919</v>
       </c>
       <c r="CA10">
-        <v>46.00958403845232</v>
+        <v>46.00958403845233</v>
       </c>
       <c r="CB10">
-        <v>46.66547260444374</v>
+        <v>46.66547260444376</v>
       </c>
       <c r="CC10">
-        <v>47.33106265627516</v>
+        <v>47.33106265627517</v>
       </c>
       <c r="CD10">
         <v>48.01108454138149</v>
       </c>
       <c r="CE10">
-        <v>48.7090373523358</v>
+        <v>48.70903735233581</v>
       </c>
       <c r="CF10">
         <v>49.46645912016596</v>
       </c>
       <c r="CG10">
-        <v>50.2633663121217</v>
+        <v>50.26336631212171</v>
       </c>
       <c r="CH10">
-        <v>51.07280067812524</v>
+        <v>51.07280067812525</v>
       </c>
       <c r="CI10">
-        <v>51.88692713584438</v>
+        <v>51.8869271358444</v>
       </c>
       <c r="CJ10">
-        <v>52.69920475449874</v>
+        <v>52.69920475449873</v>
       </c>
       <c r="CK10">
-        <v>53.51824818954543</v>
+        <v>53.51824818954545</v>
       </c>
       <c r="CL10">
         <v>54.3410308323147</v>
       </c>
       <c r="CM10">
-        <v>55.14443390893751</v>
+        <v>55.14443390893752</v>
       </c>
       <c r="CN10">
         <v>55.9321310658038</v>
       </c>
       <c r="CO10">
-        <v>56.70854212227148</v>
+        <v>56.7085421222715</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -3189,19 +3189,19 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.5364284207062042</v>
+        <v>0.5364284207062041</v>
       </c>
       <c r="E11">
         <v>0.537912713184231</v>
       </c>
       <c r="F11">
-        <v>0.5597736787458503</v>
+        <v>0.5597736787458502</v>
       </c>
       <c r="G11">
         <v>0.5656729541313028</v>
       </c>
       <c r="H11">
-        <v>0.5592372980494538</v>
+        <v>0.5592372980494537</v>
       </c>
       <c r="I11">
         <v>0.550640471563147</v>
@@ -3228,7 +3228,7 @@
         <v>0.716185493170893</v>
       </c>
       <c r="Q11">
-        <v>0.7342010946976271</v>
+        <v>0.7342010946976268</v>
       </c>
       <c r="R11">
         <v>0.7521359464311508</v>
@@ -3243,13 +3243,13 @@
         <v>0.8569186003324962</v>
       </c>
       <c r="V11">
-        <v>0.8782543752972738</v>
+        <v>0.8782543752972739</v>
       </c>
       <c r="W11">
-        <v>0.8996332944815274</v>
+        <v>0.8996332944815275</v>
       </c>
       <c r="X11">
-        <v>0.9193948601524592</v>
+        <v>0.9193948601524594</v>
       </c>
       <c r="Y11">
         <v>0.9398939180420827</v>
@@ -3258,13 +3258,13 @@
         <v>0.9603379242994584</v>
       </c>
       <c r="AA11">
-        <v>0.9808238788390851</v>
+        <v>0.9808238788390852</v>
       </c>
       <c r="AB11">
         <v>1.001343586456246</v>
       </c>
       <c r="AC11">
-        <v>0.9746231349866208</v>
+        <v>0.9746231349866209</v>
       </c>
       <c r="AD11">
         <v>0.995673526675421</v>
@@ -3348,7 +3348,7 @@
         <v>1.583483492574292</v>
       </c>
       <c r="BE11">
-        <v>1.606352488534138</v>
+        <v>1.606352488534139</v>
       </c>
       <c r="BF11">
         <v>1.630247847722884</v>
@@ -3360,7 +3360,7 @@
         <v>1.683535596604418</v>
       </c>
       <c r="BI11">
-        <v>1.712983103909156</v>
+        <v>1.712983103909157</v>
       </c>
       <c r="BJ11">
         <v>1.743994352829589</v>
@@ -3378,7 +3378,7 @@
         <v>1.875526891811994</v>
       </c>
       <c r="BO11">
-        <v>1.907521855705727</v>
+        <v>1.907521855705726</v>
       </c>
       <c r="BP11">
         <v>1.938072302084037</v>
@@ -3414,7 +3414,7 @@
         <v>2.232115249774578</v>
       </c>
       <c r="CA11">
-        <v>2.263772241165734</v>
+        <v>2.263772241165733</v>
       </c>
       <c r="CB11">
         <v>2.295921833764442</v>
@@ -3481,46 +3481,46 @@
         <v>411702.7403634286</v>
       </c>
       <c r="I12">
-        <v>392092.7552824656</v>
+        <v>392092.7552824657</v>
       </c>
       <c r="J12">
         <v>449629.885491578</v>
       </c>
       <c r="K12">
-        <v>430012.7029912505</v>
+        <v>430012.7029912504</v>
       </c>
       <c r="L12">
         <v>464225.8861630276</v>
       </c>
       <c r="M12">
-        <v>404615.795584665</v>
+        <v>404615.7955846649</v>
       </c>
       <c r="N12">
         <v>427076.1724310932</v>
       </c>
       <c r="O12">
-        <v>409479.6502214386</v>
+        <v>409479.6502214387</v>
       </c>
       <c r="P12">
-        <v>3563334.089328076</v>
+        <v>3563334.089328075</v>
       </c>
       <c r="Q12">
-        <v>3570341.979113133</v>
+        <v>3570341.979113131</v>
       </c>
       <c r="R12">
         <v>3577401.111225663</v>
       </c>
       <c r="S12">
-        <v>11738168.31616785</v>
+        <v>11738168.31616784</v>
       </c>
       <c r="T12">
-        <v>11751071.06785703</v>
+        <v>11751071.06785702</v>
       </c>
       <c r="U12">
         <v>11763823.30526226</v>
       </c>
       <c r="V12">
-        <v>11777098.96699508</v>
+        <v>11777098.96699507</v>
       </c>
       <c r="W12">
         <v>11790376.18810974</v>
@@ -3529,79 +3529,79 @@
         <v>13801267.73011367</v>
       </c>
       <c r="Y12">
-        <v>13822492.88848866</v>
+        <v>13822492.88848865</v>
       </c>
       <c r="Z12">
-        <v>13848392.00545708</v>
+        <v>13848392.00545707</v>
       </c>
       <c r="AA12">
-        <v>13880583.95733679</v>
+        <v>13880583.95733678</v>
       </c>
       <c r="AB12">
         <v>13920012.28519835</v>
       </c>
       <c r="AC12">
-        <v>5534202.7505793</v>
+        <v>5534202.750579298</v>
       </c>
       <c r="AD12">
-        <v>5593260.299740626</v>
+        <v>5593260.299740624</v>
       </c>
       <c r="AE12">
-        <v>5660973.983046689</v>
+        <v>5660973.983046687</v>
       </c>
       <c r="AF12">
-        <v>5743057.277631364</v>
+        <v>5743057.277631362</v>
       </c>
       <c r="AG12">
         <v>5847572.750158221</v>
       </c>
       <c r="AH12">
-        <v>2901959.791894402</v>
+        <v>2901959.7918944</v>
       </c>
       <c r="AI12">
-        <v>3063854.15827169</v>
+        <v>3063854.158271689</v>
       </c>
       <c r="AJ12">
-        <v>3270975.14957649</v>
+        <v>3270975.149576489</v>
       </c>
       <c r="AK12">
-        <v>3537881.554621326</v>
+        <v>3537881.554621325</v>
       </c>
       <c r="AL12">
-        <v>3876539.418815467</v>
+        <v>3876539.418815464</v>
       </c>
       <c r="AM12">
-        <v>6046653.758120585</v>
+        <v>6046653.758120582</v>
       </c>
       <c r="AN12">
-        <v>6484214.516795993</v>
+        <v>6484214.51679599</v>
       </c>
       <c r="AO12">
-        <v>6963005.514015743</v>
+        <v>6963005.51401574</v>
       </c>
       <c r="AP12">
-        <v>7484616.933286554</v>
+        <v>7484616.933286551</v>
       </c>
       <c r="AQ12">
-        <v>7942361.913211316</v>
+        <v>7942361.913211314</v>
       </c>
       <c r="AR12">
-        <v>10931121.56470587</v>
+        <v>10931121.56470586</v>
       </c>
       <c r="AS12">
-        <v>11265436.36977387</v>
+        <v>11265436.36977386</v>
       </c>
       <c r="AT12">
         <v>11543472.95622539</v>
       </c>
       <c r="AU12">
-        <v>11750689.98195345</v>
+        <v>11750689.98195344</v>
       </c>
       <c r="AV12">
-        <v>11873504.33194482</v>
+        <v>11873504.33194481</v>
       </c>
       <c r="AW12">
-        <v>12804288.75350245</v>
+        <v>12804288.75350244</v>
       </c>
       <c r="AX12">
         <v>12715093.67403306</v>
@@ -3625,16 +3625,16 @@
         <v>10753219.82758227</v>
       </c>
       <c r="BE12">
-        <v>10568238.61729996</v>
+        <v>10568238.61729995</v>
       </c>
       <c r="BF12">
         <v>10479795.28049296</v>
       </c>
       <c r="BG12">
-        <v>10329652.4628866</v>
+        <v>10329652.46288659</v>
       </c>
       <c r="BH12">
-        <v>10463071.6837496</v>
+        <v>10463071.68374959</v>
       </c>
       <c r="BI12">
         <v>10708778.57518128</v>
@@ -3649,10 +3649,10 @@
         <v>11978094.08110881</v>
       </c>
       <c r="BM12">
-        <v>12443355.34029763</v>
+        <v>12443355.34029762</v>
       </c>
       <c r="BN12">
-        <v>12921632.12120121</v>
+        <v>12921632.1212012</v>
       </c>
       <c r="BO12">
         <v>13387275.7361118</v>
@@ -3661,31 +3661,31 @@
         <v>13792237.3057734</v>
       </c>
       <c r="BQ12">
-        <v>14237534.97380032</v>
+        <v>14237534.97380031</v>
       </c>
       <c r="BR12">
-        <v>14539800.21171977</v>
+        <v>14539800.21171976</v>
       </c>
       <c r="BS12">
-        <v>14791096.2148558</v>
+        <v>14791096.21485579</v>
       </c>
       <c r="BT12">
-        <v>14972872.40344461</v>
+        <v>14972872.4034446</v>
       </c>
       <c r="BU12">
-        <v>15060568.76464719</v>
+        <v>15060568.76464718</v>
       </c>
       <c r="BV12">
-        <v>15057172.15965298</v>
+        <v>15057172.15965297</v>
       </c>
       <c r="BW12">
-        <v>15004279.38783224</v>
+        <v>15004279.38783223</v>
       </c>
       <c r="BX12">
-        <v>14938581.39133474</v>
+        <v>14938581.39133473</v>
       </c>
       <c r="BY12">
-        <v>14871647.91492094</v>
+        <v>14871647.91492093</v>
       </c>
       <c r="BZ12">
         <v>14805796.89896394</v>
@@ -3694,16 +3694,16 @@
         <v>14625664.58230331</v>
       </c>
       <c r="CB12">
-        <v>14570784.5200714</v>
+        <v>14570784.52007139</v>
       </c>
       <c r="CC12">
-        <v>14552126.76986264</v>
+        <v>14552126.76986263</v>
       </c>
       <c r="CD12">
         <v>14588862.18724859</v>
       </c>
       <c r="CE12">
-        <v>14695637.47256046</v>
+        <v>14695637.47256045</v>
       </c>
       <c r="CF12">
         <v>14604368.21616111</v>
@@ -3715,25 +3715,25 @@
         <v>15091278.1684802</v>
       </c>
       <c r="CI12">
-        <v>15380263.45499234</v>
+        <v>15380263.45499233</v>
       </c>
       <c r="CJ12">
-        <v>15693420.81557098</v>
+        <v>15693420.81557097</v>
       </c>
       <c r="CK12">
-        <v>15572050.13708978</v>
+        <v>15572050.13708977</v>
       </c>
       <c r="CL12">
-        <v>15887323.70469625</v>
+        <v>15887323.70469624</v>
       </c>
       <c r="CM12">
-        <v>16178229.16716361</v>
+        <v>16178229.1671636</v>
       </c>
       <c r="CN12">
         <v>16441977.09630138</v>
       </c>
       <c r="CO12">
-        <v>16681294.00181878</v>
+        <v>16681294.00181877</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -3743,49 +3743,49 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147309.1672309121</v>
+        <v>147309.1672309122</v>
       </c>
       <c r="E13">
-        <v>93998.12075896535</v>
+        <v>93998.12075896542</v>
       </c>
       <c r="F13">
-        <v>71571.82014535366</v>
+        <v>71571.82014535369</v>
       </c>
       <c r="G13">
-        <v>71257.47002077382</v>
+        <v>71257.47002077384</v>
       </c>
       <c r="H13">
         <v>65691.80517769023</v>
       </c>
       <c r="I13">
-        <v>63075.99771898284</v>
+        <v>63075.99771898286</v>
       </c>
       <c r="J13">
         <v>57864.85598121663</v>
       </c>
       <c r="K13">
-        <v>60574.41493424531</v>
+        <v>60574.41493424532</v>
       </c>
       <c r="L13">
-        <v>73324.88181840832</v>
+        <v>73324.88181840834</v>
       </c>
       <c r="M13">
-        <v>73662.51631508964</v>
+        <v>73662.51631508967</v>
       </c>
       <c r="N13">
-        <v>78771.29158737152</v>
+        <v>78771.29158737155</v>
       </c>
       <c r="O13">
-        <v>90618.89274238241</v>
+        <v>90618.89274238245</v>
       </c>
       <c r="P13">
-        <v>879549.7399335909</v>
+        <v>879549.7399335911</v>
       </c>
       <c r="Q13">
-        <v>881237.9342640232</v>
+        <v>881237.9342640233</v>
       </c>
       <c r="R13">
-        <v>883350.4309460073</v>
+        <v>883350.4309460074</v>
       </c>
       <c r="S13">
         <v>2865264.543248491</v>
@@ -3794,16 +3794,16 @@
         <v>2868389.45157452</v>
       </c>
       <c r="U13">
-        <v>2872099.555942662</v>
+        <v>2872099.555942663</v>
       </c>
       <c r="V13">
-        <v>2876462.472550761</v>
+        <v>2876462.472550762</v>
       </c>
       <c r="W13">
         <v>2881579.973416806</v>
       </c>
       <c r="X13">
-        <v>3109125.833142453</v>
+        <v>3109125.833142454</v>
       </c>
       <c r="Y13">
         <v>3116341.271446447</v>
@@ -3815,7 +3815,7 @@
         <v>3136107.172530747</v>
       </c>
       <c r="AB13">
-        <v>3150101.118688266</v>
+        <v>3150101.118688267</v>
       </c>
       <c r="AC13">
         <v>1010903.474411586</v>
@@ -3833,13 +3833,13 @@
         <v>1161900.937062653</v>
       </c>
       <c r="AH13">
-        <v>504193.3164229539</v>
+        <v>504193.3164229538</v>
       </c>
       <c r="AI13">
         <v>577242.2659832189</v>
       </c>
       <c r="AJ13">
-        <v>667386.3371440921</v>
+        <v>667386.337144092</v>
       </c>
       <c r="AK13">
         <v>794511.3227229954</v>
@@ -3869,13 +3869,13 @@
         <v>3136456.4759395</v>
       </c>
       <c r="AT13">
-        <v>3258718.335810928</v>
+        <v>3258718.335810929</v>
       </c>
       <c r="AU13">
         <v>3339239.857886971</v>
       </c>
       <c r="AV13">
-        <v>3373917.91823793</v>
+        <v>3373917.918237931</v>
       </c>
       <c r="AW13">
         <v>3522525.869243833</v>
@@ -3884,7 +3884,7 @@
         <v>3467474.200906072</v>
       </c>
       <c r="AY13">
-        <v>3375430.618891103</v>
+        <v>3375430.618891104</v>
       </c>
       <c r="AZ13">
         <v>3255356.389839371</v>
@@ -3911,7 +3911,7 @@
         <v>2440396.470390688</v>
       </c>
       <c r="BH13">
-        <v>2467324.028003405</v>
+        <v>2467324.028003406</v>
       </c>
       <c r="BI13">
         <v>2534343.823989224</v>
@@ -3944,10 +3944,10 @@
         <v>3905244.292838821</v>
       </c>
       <c r="BS13">
-        <v>4008752.648999118</v>
+        <v>4008752.648999119</v>
       </c>
       <c r="BT13">
-        <v>4085013.473597232</v>
+        <v>4085013.473597233</v>
       </c>
       <c r="BU13">
         <v>4133611.849088422</v>
@@ -4036,7 +4036,7 @@
         <v>1.83017638782548</v>
       </c>
       <c r="H14">
-        <v>1.77775101089772</v>
+        <v>1.777751010897719</v>
       </c>
       <c r="I14">
         <v>1.761738528250215</v>
@@ -4045,16 +4045,16 @@
         <v>1.84424900718639</v>
       </c>
       <c r="K14">
-        <v>2.034056349285281</v>
+        <v>2.03405634928528</v>
       </c>
       <c r="L14">
         <v>2.058176228962636</v>
       </c>
       <c r="M14">
-        <v>2.19210938048975</v>
+        <v>2.192109380489749</v>
       </c>
       <c r="N14">
-        <v>2.328694655705509</v>
+        <v>2.328694655705508</v>
       </c>
       <c r="O14">
         <v>2.128657727688688</v>
@@ -4066,25 +4066,25 @@
         <v>2.353708645064342</v>
       </c>
       <c r="R14">
-        <v>2.409951235127891</v>
+        <v>2.40995123512789</v>
       </c>
       <c r="S14">
-        <v>2.63020184452484</v>
+        <v>2.630201844524839</v>
       </c>
       <c r="T14">
-        <v>2.697692508795536</v>
+        <v>2.697692508795535</v>
       </c>
       <c r="U14">
         <v>2.76542043861447</v>
       </c>
       <c r="V14">
-        <v>2.833341340037308</v>
+        <v>2.833341340037307</v>
       </c>
       <c r="W14">
         <v>2.901407375167145</v>
       </c>
       <c r="X14">
-        <v>2.966105974874262</v>
+        <v>2.966105974874261</v>
       </c>
       <c r="Y14">
         <v>3.031504530097903</v>
@@ -4093,19 +4093,19 @@
         <v>3.096739250141463</v>
       </c>
       <c r="AA14">
-        <v>3.162140183491772</v>
+        <v>3.162140183491771</v>
       </c>
       <c r="AB14">
         <v>3.227687696588391</v>
       </c>
       <c r="AC14">
-        <v>3.118891814664266</v>
+        <v>3.118891814664265</v>
       </c>
       <c r="AD14">
         <v>3.186350707983177</v>
       </c>
       <c r="AE14">
-        <v>3.25433941829647</v>
+        <v>3.254339418296469</v>
       </c>
       <c r="AF14">
         <v>3.321808129490758</v>
@@ -4123,16 +4123,16 @@
         <v>3.553273295258764</v>
       </c>
       <c r="AK14">
-        <v>3.628181625323988</v>
+        <v>3.628181625323986</v>
       </c>
       <c r="AL14">
-        <v>3.705679822682495</v>
+        <v>3.705679822682494</v>
       </c>
       <c r="AM14">
-        <v>3.811777931219828</v>
+        <v>3.811777931219827</v>
       </c>
       <c r="AN14">
-        <v>3.897536992730988</v>
+        <v>3.897536992730987</v>
       </c>
       <c r="AO14">
         <v>3.987622525868785</v>
@@ -4141,28 +4141,28 @@
         <v>4.081734548849894</v>
       </c>
       <c r="AQ14">
-        <v>4.167785836003957</v>
+        <v>4.167785836003955</v>
       </c>
       <c r="AR14">
-        <v>4.282542591147378</v>
+        <v>4.282542591147377</v>
       </c>
       <c r="AS14">
         <v>4.359366350689307</v>
       </c>
       <c r="AT14">
-        <v>4.433332744461246</v>
+        <v>4.433332744461244</v>
       </c>
       <c r="AU14">
-        <v>4.504193705297048</v>
+        <v>4.504193705297047</v>
       </c>
       <c r="AV14">
-        <v>4.573036660459316</v>
+        <v>4.573036660459314</v>
       </c>
       <c r="AW14">
-        <v>4.653258925483163</v>
+        <v>4.653258925483162</v>
       </c>
       <c r="AX14">
-        <v>4.718232763048834</v>
+        <v>4.718232763048833</v>
       </c>
       <c r="AY14">
         <v>4.77337857613395</v>
@@ -4171,76 +4171,76 @@
         <v>4.821896618074438</v>
       </c>
       <c r="BA14">
-        <v>4.878952901857353</v>
+        <v>4.878952901857352</v>
       </c>
       <c r="BB14">
-        <v>4.943904457810639</v>
+        <v>4.943904457810638</v>
       </c>
       <c r="BC14">
-        <v>5.01577164354277</v>
+        <v>5.015771643542768</v>
       </c>
       <c r="BD14">
         <v>5.087175192108305</v>
       </c>
       <c r="BE14">
-        <v>5.15992830340975</v>
+        <v>5.159928303409748</v>
       </c>
       <c r="BF14">
         <v>5.236394935296471</v>
       </c>
       <c r="BG14">
-        <v>5.318336880885909</v>
+        <v>5.318336880885908</v>
       </c>
       <c r="BH14">
         <v>5.40829666381034</v>
       </c>
       <c r="BI14">
-        <v>5.504224337875769</v>
+        <v>5.504224337875767</v>
       </c>
       <c r="BJ14">
         <v>5.605640549504344</v>
       </c>
       <c r="BK14">
-        <v>5.709923130502175</v>
+        <v>5.709923130502173</v>
       </c>
       <c r="BL14">
         <v>5.818615866341844</v>
       </c>
       <c r="BM14">
-        <v>5.929398091144166</v>
+        <v>5.929398091144164</v>
       </c>
       <c r="BN14">
-        <v>6.03812988009051</v>
+        <v>6.038129880090509</v>
       </c>
       <c r="BO14">
-        <v>6.143478421981164</v>
+        <v>6.143478421981162</v>
       </c>
       <c r="BP14">
-        <v>6.243949198842703</v>
+        <v>6.243949198842702</v>
       </c>
       <c r="BQ14">
-        <v>6.346749733487543</v>
+        <v>6.34674973348754</v>
       </c>
       <c r="BR14">
-        <v>6.44814988508736</v>
+        <v>6.448149885087357</v>
       </c>
       <c r="BS14">
-        <v>6.547475538808782</v>
+        <v>6.547475538808779</v>
       </c>
       <c r="BT14">
-        <v>6.643279269658852</v>
+        <v>6.64327926965885</v>
       </c>
       <c r="BU14">
-        <v>6.733480207505176</v>
+        <v>6.733480207505175</v>
       </c>
       <c r="BV14">
-        <v>6.82291072074978</v>
+        <v>6.822910720749777</v>
       </c>
       <c r="BW14">
-        <v>6.912259129522289</v>
+        <v>6.912259129522288</v>
       </c>
       <c r="BX14">
-        <v>7.005394769971757</v>
+        <v>7.005394769971756</v>
       </c>
       <c r="BY14">
         <v>7.102633141453945</v>
@@ -4249,31 +4249,31 @@
         <v>7.200472423801189</v>
       </c>
       <c r="CA14">
-        <v>7.302746903218511</v>
+        <v>7.30274690321851</v>
       </c>
       <c r="CB14">
-        <v>7.406851043567774</v>
+        <v>7.406851043567771</v>
       </c>
       <c r="CC14">
         <v>7.512495026042445</v>
       </c>
       <c r="CD14">
-        <v>7.620429662257169</v>
+        <v>7.620429662257168</v>
       </c>
       <c r="CE14">
-        <v>7.731210336225648</v>
+        <v>7.731210336225645</v>
       </c>
       <c r="CF14">
-        <v>7.851430059682159</v>
+        <v>7.851430059682158</v>
       </c>
       <c r="CG14">
-        <v>7.97791700038877</v>
+        <v>7.977917000388768</v>
       </c>
       <c r="CH14">
         <v>8.106392282946217</v>
       </c>
       <c r="CI14">
-        <v>8.235612305082649</v>
+        <v>8.235612305082647</v>
       </c>
       <c r="CJ14">
         <v>8.364538875234299</v>
@@ -4282,7 +4282,7 @@
         <v>8.494539331310794</v>
       </c>
       <c r="CL14">
-        <v>8.62513328302928</v>
+        <v>8.625133283029278</v>
       </c>
       <c r="CM14">
         <v>8.752651265477024</v>
@@ -4291,7 +4291,7 @@
         <v>8.877676368250652</v>
       </c>
       <c r="CO14">
-        <v>9.000910115234872</v>
+        <v>9.000910115234868</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -4301,34 +4301,34 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.08514315158417157</v>
+        <v>0.08514315158417154</v>
       </c>
       <c r="E15">
-        <v>0.08537874189701432</v>
+        <v>0.08537874189701429</v>
       </c>
       <c r="F15">
-        <v>0.08884856458489299</v>
+        <v>0.08884856458489293</v>
       </c>
       <c r="G15">
-        <v>0.08978491112991596</v>
+        <v>0.08978491112991592</v>
       </c>
       <c r="H15">
-        <v>0.0887634290082209</v>
+        <v>0.08876342900822086</v>
       </c>
       <c r="I15">
-        <v>0.08739892095381394</v>
+        <v>0.08739892095381388</v>
       </c>
       <c r="J15">
-        <v>0.09002867347351952</v>
+        <v>0.09002867347351948</v>
       </c>
       <c r="K15">
-        <v>0.09887430962052224</v>
+        <v>0.09887430962052221</v>
       </c>
       <c r="L15">
-        <v>0.1016634695426097</v>
+        <v>0.1016634695426096</v>
       </c>
       <c r="M15">
-        <v>0.1086791747598196</v>
+        <v>0.1086791747598195</v>
       </c>
       <c r="N15">
         <v>0.1155145469376338</v>
@@ -4340,235 +4340,235 @@
         <v>0.1136746071864659</v>
       </c>
       <c r="Q15">
-        <v>0.1165340848585315</v>
+        <v>0.1165340848585314</v>
       </c>
       <c r="R15">
-        <v>0.1193807457378651</v>
+        <v>0.119380745737865</v>
       </c>
       <c r="S15">
-        <v>0.129268691531544</v>
+        <v>0.1292686915315439</v>
       </c>
       <c r="T15">
         <v>0.1326347670805497</v>
       </c>
       <c r="U15">
-        <v>0.1360120893433528</v>
+        <v>0.1360120893433527</v>
       </c>
       <c r="V15">
-        <v>0.1393985525728744</v>
+        <v>0.1393985525728743</v>
       </c>
       <c r="W15">
-        <v>0.1427918637520514</v>
+        <v>0.1427918637520512</v>
       </c>
       <c r="X15">
-        <v>0.1459284648651051</v>
+        <v>0.145928464865105</v>
       </c>
       <c r="Y15">
-        <v>0.1491821224377803</v>
+        <v>0.1491821224377802</v>
       </c>
       <c r="Z15">
-        <v>0.1524270420888829</v>
+        <v>0.1524270420888827</v>
       </c>
       <c r="AA15">
         <v>0.1556786198677365</v>
       </c>
       <c r="AB15">
-        <v>0.1589355550126172</v>
+        <v>0.1589355550126171</v>
       </c>
       <c r="AC15">
         <v>0.1546944235548903</v>
       </c>
       <c r="AD15">
-        <v>0.1580355900950713</v>
+        <v>0.1580355900950712</v>
       </c>
       <c r="AE15">
-        <v>0.1613990084613918</v>
+        <v>0.1613990084613917</v>
       </c>
       <c r="AF15">
-        <v>0.1647327535261177</v>
+        <v>0.1647327535261176</v>
       </c>
       <c r="AG15">
-        <v>0.1680885928470632</v>
+        <v>0.1680885928470631</v>
       </c>
       <c r="AH15">
-        <v>0.1693907548794451</v>
+        <v>0.169390754879445</v>
       </c>
       <c r="AI15">
-        <v>0.172879544473231</v>
+        <v>0.1728795444732309</v>
       </c>
       <c r="AJ15">
-        <v>0.176464534484554</v>
+        <v>0.1764645344845539</v>
       </c>
       <c r="AK15">
-        <v>0.1801184655685519</v>
+        <v>0.1801184655685518</v>
       </c>
       <c r="AL15">
-        <v>0.1838875414606267</v>
+        <v>0.1838875414606266</v>
       </c>
       <c r="AM15">
-        <v>0.1888986714184438</v>
+        <v>0.1888986714184437</v>
       </c>
       <c r="AN15">
-        <v>0.1930400894866953</v>
+        <v>0.1930400894866952</v>
       </c>
       <c r="AO15">
-        <v>0.1973831662512481</v>
+        <v>0.197383166251248</v>
       </c>
       <c r="AP15">
-        <v>0.2019168883534999</v>
+        <v>0.2019168883534998</v>
       </c>
       <c r="AQ15">
-        <v>0.206067759994878</v>
+        <v>0.2060677599948779</v>
       </c>
       <c r="AR15">
-        <v>0.2114116666807297</v>
+        <v>0.2114116666807296</v>
       </c>
       <c r="AS15">
-        <v>0.2151286831256155</v>
+        <v>0.2151286831256154</v>
       </c>
       <c r="AT15">
         <v>0.2187220767065155</v>
       </c>
       <c r="AU15">
-        <v>0.2221829589084118</v>
+        <v>0.2221829589084116</v>
       </c>
       <c r="AV15">
-        <v>0.2255660577028863</v>
+        <v>0.2255660577028862</v>
       </c>
       <c r="AW15">
-        <v>0.2294635134282393</v>
+        <v>0.2294635134282392</v>
       </c>
       <c r="AX15">
-        <v>0.2327007016787678</v>
+        <v>0.2327007016787677</v>
       </c>
       <c r="AY15">
-        <v>0.2354823860057006</v>
+        <v>0.2354823860057005</v>
       </c>
       <c r="AZ15">
-        <v>0.2379582854070872</v>
+        <v>0.2379582854070871</v>
       </c>
       <c r="BA15">
-        <v>0.2408497620867006</v>
+        <v>0.2408497620867005</v>
       </c>
       <c r="BB15">
-        <v>0.2441559098892543</v>
+        <v>0.2441559098892541</v>
       </c>
       <c r="BC15">
-        <v>0.2477589752367674</v>
+        <v>0.2477589752367673</v>
       </c>
       <c r="BD15">
-        <v>0.2513341386009958</v>
+        <v>0.2513341386009957</v>
       </c>
       <c r="BE15">
-        <v>0.254963958190017</v>
+        <v>0.2549639581900169</v>
       </c>
       <c r="BF15">
-        <v>0.2587566845091914</v>
+        <v>0.2587566845091913</v>
       </c>
       <c r="BG15">
-        <v>0.2628102402972822</v>
+        <v>0.2628102402972821</v>
       </c>
       <c r="BH15">
-        <v>0.2672146384606742</v>
+        <v>0.2672146384606741</v>
       </c>
       <c r="BI15">
-        <v>0.2718886144870052</v>
+        <v>0.2718886144870051</v>
       </c>
       <c r="BJ15">
-        <v>0.276810791175874</v>
+        <v>0.2768107911758739</v>
       </c>
       <c r="BK15">
-        <v>0.2818593941852189</v>
+        <v>0.2818593941852188</v>
       </c>
       <c r="BL15">
-        <v>0.2871071509253347</v>
+        <v>0.2871071509253346</v>
       </c>
       <c r="BM15">
-        <v>0.292448051596413</v>
+        <v>0.2924480515964129</v>
       </c>
       <c r="BN15">
-        <v>0.2976879380095306</v>
+        <v>0.2976879380095305</v>
       </c>
       <c r="BO15">
-        <v>0.3027662521994235</v>
+        <v>0.3027662521994233</v>
       </c>
       <c r="BP15">
-        <v>0.3076152892499365</v>
+        <v>0.3076152892499363</v>
       </c>
       <c r="BQ15">
-        <v>0.312581779458339</v>
+        <v>0.3125817794583389</v>
       </c>
       <c r="BR15">
-        <v>0.3174909594841787</v>
+        <v>0.3174909594841785</v>
       </c>
       <c r="BS15">
-        <v>0.3223103262098216</v>
+        <v>0.3223103262098215</v>
       </c>
       <c r="BT15">
-        <v>0.3269716375225553</v>
+        <v>0.3269716375225552</v>
       </c>
       <c r="BU15">
-        <v>0.3313759626972976</v>
+        <v>0.3313759626972975</v>
       </c>
       <c r="BV15">
-        <v>0.335755474766079</v>
+        <v>0.3357554747660788</v>
       </c>
       <c r="BW15">
-        <v>0.3401367076274014</v>
+        <v>0.3401367076274013</v>
       </c>
       <c r="BX15">
-        <v>0.3447079946083261</v>
+        <v>0.3447079946083259</v>
       </c>
       <c r="BY15">
-        <v>0.3494815786355107</v>
+        <v>0.3494815786355105</v>
       </c>
       <c r="BZ15">
-        <v>0.354286461583634</v>
+        <v>0.3542864615836337</v>
       </c>
       <c r="CA15">
-        <v>0.3593111320012966</v>
+        <v>0.3593111320012963</v>
       </c>
       <c r="CB15">
-        <v>0.3644139892145618</v>
+        <v>0.3644139892145616</v>
       </c>
       <c r="CC15">
-        <v>0.3695863134775483</v>
+        <v>0.3695863134775481</v>
       </c>
       <c r="CD15">
-        <v>0.3748618355391039</v>
+        <v>0.3748618355391037</v>
       </c>
       <c r="CE15">
-        <v>0.3802654160459428</v>
+        <v>0.3802654160459427</v>
       </c>
       <c r="CF15">
-        <v>0.3861273500348296</v>
+        <v>0.3861273500348295</v>
       </c>
       <c r="CG15">
-        <v>0.3922666734434669</v>
+        <v>0.3922666734434668</v>
       </c>
       <c r="CH15">
-        <v>0.3984940100276419</v>
+        <v>0.3984940100276418</v>
       </c>
       <c r="CI15">
-        <v>0.4047505759696364</v>
+        <v>0.4047505759696363</v>
       </c>
       <c r="CJ15">
-        <v>0.410987553751998</v>
+        <v>0.4109875537519977</v>
       </c>
       <c r="CK15">
-        <v>0.4172950710794817</v>
+        <v>0.4172950710794814</v>
       </c>
       <c r="CL15">
-        <v>0.4236055197492275</v>
+        <v>0.4236055197492273</v>
       </c>
       <c r="CM15">
-        <v>0.42976824019357</v>
+        <v>0.4297682401935699</v>
       </c>
       <c r="CN15">
-        <v>0.4358126412413063</v>
+        <v>0.4358126412413061</v>
       </c>
       <c r="CO15">
-        <v>0.4417735395376165</v>
+        <v>0.4417735395376164</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -4584,7 +4584,7 @@
         <v>269879.3344758712</v>
       </c>
       <c r="F16">
-        <v>118224.1434437715</v>
+        <v>118224.1434437714</v>
       </c>
       <c r="G16">
         <v>165719.2738604518</v>
@@ -4620,88 +4620,88 @@
         <v>1360282.780891231</v>
       </c>
       <c r="R16">
-        <v>1362622.77900794</v>
+        <v>1362622.779007939</v>
       </c>
       <c r="S16">
-        <v>4274948.052169954</v>
+        <v>4274948.052169953</v>
       </c>
       <c r="T16">
-        <v>4279788.73358009</v>
+        <v>4279788.733580089</v>
       </c>
       <c r="U16">
         <v>4288404.499197992</v>
       </c>
       <c r="V16">
-        <v>4300073.986299866</v>
+        <v>4300073.986299865</v>
       </c>
       <c r="W16">
         <v>4313452.932376266</v>
       </c>
       <c r="X16">
-        <v>3917933.50013293</v>
+        <v>3917933.500132929</v>
       </c>
       <c r="Y16">
-        <v>3924629.975369679</v>
+        <v>3924629.975369677</v>
       </c>
       <c r="Z16">
-        <v>3927599.009038989</v>
+        <v>3927599.009038987</v>
       </c>
       <c r="AA16">
-        <v>3936191.095679008</v>
+        <v>3936191.095679007</v>
       </c>
       <c r="AB16">
-        <v>3945531.315314763</v>
+        <v>3945531.315314761</v>
       </c>
       <c r="AC16">
-        <v>542400.7255379078</v>
+        <v>542400.7255379077</v>
       </c>
       <c r="AD16">
-        <v>558889.0867428636</v>
+        <v>558889.0867428635</v>
       </c>
       <c r="AE16">
-        <v>591061.5160524761</v>
+        <v>591061.516052476</v>
       </c>
       <c r="AF16">
-        <v>620293.2646252192</v>
+        <v>620293.2646252189</v>
       </c>
       <c r="AG16">
-        <v>650730.3644972563</v>
+        <v>650730.364497256</v>
       </c>
       <c r="AH16">
-        <v>-110664.5854238458</v>
+        <v>-110664.5854238457</v>
       </c>
       <c r="AI16">
         <v>-159850.5283476222</v>
       </c>
       <c r="AJ16">
-        <v>-218299.0486390637</v>
+        <v>-218299.0486390636</v>
       </c>
       <c r="AK16">
         <v>-161868.2189491469</v>
       </c>
       <c r="AL16">
-        <v>-94701.60748759443</v>
+        <v>-94701.60748759453</v>
       </c>
       <c r="AM16">
-        <v>543906.5565516741</v>
+        <v>543906.5565516737</v>
       </c>
       <c r="AN16">
-        <v>727040.2657226763</v>
+        <v>727040.2657226758</v>
       </c>
       <c r="AO16">
-        <v>972705.0000024295</v>
+        <v>972705.0000024289</v>
       </c>
       <c r="AP16">
-        <v>1264715.607095933</v>
+        <v>1264715.607095932</v>
       </c>
       <c r="AQ16">
-        <v>1461173.872763174</v>
+        <v>1461173.872763173</v>
       </c>
       <c r="AR16">
-        <v>2389274.091474786</v>
+        <v>2389274.091474785</v>
       </c>
       <c r="AS16">
-        <v>2456488.331518999</v>
+        <v>2456488.331518998</v>
       </c>
       <c r="AT16">
         <v>2489759.804180629</v>
@@ -4710,55 +4710,55 @@
         <v>2486218.544984668</v>
       </c>
       <c r="AV16">
-        <v>2460195.918648909</v>
+        <v>2460195.918648908</v>
       </c>
       <c r="AW16">
-        <v>2526230.511905458</v>
+        <v>2526230.511905457</v>
       </c>
       <c r="AX16">
-        <v>2404685.361012835</v>
+        <v>2404685.361012834</v>
       </c>
       <c r="AY16">
-        <v>2189023.178786948</v>
+        <v>2189023.178786947</v>
       </c>
       <c r="AZ16">
         <v>1911420.385724782</v>
       </c>
       <c r="BA16">
-        <v>1720868.341666024</v>
+        <v>1720868.341666023</v>
       </c>
       <c r="BB16">
-        <v>1440474.284479829</v>
+        <v>1440474.284479828</v>
       </c>
       <c r="BC16">
-        <v>1342874.234290225</v>
+        <v>1342874.234290224</v>
       </c>
       <c r="BD16">
-        <v>1241485.84541864</v>
+        <v>1241485.845418639</v>
       </c>
       <c r="BE16">
         <v>1148920.906466017</v>
       </c>
       <c r="BF16">
-        <v>1096042.31280034</v>
+        <v>1096042.312800339</v>
       </c>
       <c r="BG16">
-        <v>969470.2195750978</v>
+        <v>969470.2195750971</v>
       </c>
       <c r="BH16">
-        <v>999078.103304383</v>
+        <v>999078.1033043823</v>
       </c>
       <c r="BI16">
-        <v>1079583.111206755</v>
+        <v>1079583.111206754</v>
       </c>
       <c r="BJ16">
         <v>1219283.277786328</v>
       </c>
       <c r="BK16">
-        <v>1401209.66464993</v>
+        <v>1401209.664649929</v>
       </c>
       <c r="BL16">
-        <v>1568395.199995242</v>
+        <v>1568395.199995241</v>
       </c>
       <c r="BM16">
         <v>1788416.49005188</v>
@@ -4770,7 +4770,7 @@
         <v>2134525.398977499</v>
       </c>
       <c r="BP16">
-        <v>2230872.737399043</v>
+        <v>2230872.737399042</v>
       </c>
       <c r="BQ16">
         <v>2267462.602331165</v>
@@ -4779,7 +4779,7 @@
         <v>2297500.710461664</v>
       </c>
       <c r="BS16">
-        <v>2304203.740057758</v>
+        <v>2304203.740057757</v>
       </c>
       <c r="BT16">
         <v>2274832.949498164</v>
@@ -4788,52 +4788,52 @@
         <v>2190624.45794882</v>
       </c>
       <c r="BV16">
-        <v>2031217.13015269</v>
+        <v>2031217.130152689</v>
       </c>
       <c r="BW16">
-        <v>1885142.302880013</v>
+        <v>1885142.302880012</v>
       </c>
       <c r="BX16">
-        <v>1769921.056151914</v>
+        <v>1769921.056151913</v>
       </c>
       <c r="BY16">
-        <v>1689769.852262956</v>
+        <v>1689769.852262955</v>
       </c>
       <c r="BZ16">
-        <v>1623460.826136488</v>
+        <v>1623460.826136487</v>
       </c>
       <c r="CA16">
-        <v>1534089.710376269</v>
+        <v>1534089.710376268</v>
       </c>
       <c r="CB16">
-        <v>1474143.425734679</v>
+        <v>1474143.425734678</v>
       </c>
       <c r="CC16">
-        <v>1432205.937787403</v>
+        <v>1432205.937787402</v>
       </c>
       <c r="CD16">
-        <v>1417778.150988441</v>
+        <v>1417778.15098844</v>
       </c>
       <c r="CE16">
-        <v>1440267.521403339</v>
+        <v>1440267.521403338</v>
       </c>
       <c r="CF16">
         <v>1479354.902455286</v>
       </c>
       <c r="CG16">
-        <v>1582840.829213828</v>
+        <v>1582840.829213827</v>
       </c>
       <c r="CH16">
         <v>1715585.802572239</v>
       </c>
       <c r="CI16">
-        <v>1862805.845616261</v>
+        <v>1862805.84561626</v>
       </c>
       <c r="CJ16">
-        <v>2007803.157576338</v>
+        <v>2007803.157576337</v>
       </c>
       <c r="CK16">
-        <v>2099544.296866088</v>
+        <v>2099544.296866087</v>
       </c>
       <c r="CL16">
         <v>2189605.098632232</v>
@@ -4842,10 +4842,10 @@
         <v>2244082.913987156</v>
       </c>
       <c r="CN16">
-        <v>2270156.070097704</v>
+        <v>2270156.070097703</v>
       </c>
       <c r="CO16">
-        <v>2276008.173813173</v>
+        <v>2276008.173813171</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -4855,274 +4855,274 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>114565.2876347355</v>
+        <v>114565.2876347357</v>
       </c>
       <c r="E17">
-        <v>73102.02273197571</v>
+        <v>73102.02273197575</v>
       </c>
       <c r="F17">
         <v>55654.68730263774</v>
       </c>
       <c r="G17">
-        <v>55406.20333809617</v>
+        <v>55406.20333809614</v>
       </c>
       <c r="H17">
-        <v>51078.85153100888</v>
+        <v>51078.85153100886</v>
       </c>
       <c r="I17">
-        <v>49043.20577874185</v>
+        <v>49043.20577874182</v>
       </c>
       <c r="J17">
-        <v>44990.93839358142</v>
+        <v>44990.93839358139</v>
       </c>
       <c r="K17">
-        <v>47098.39308360373</v>
+        <v>47098.3930836037</v>
       </c>
       <c r="L17">
-        <v>57014.19926020884</v>
+        <v>57014.19926020883</v>
       </c>
       <c r="M17">
-        <v>57276.75203863154</v>
+        <v>57276.75203863153</v>
       </c>
       <c r="N17">
-        <v>61251.02152432059</v>
+        <v>61251.02152432058</v>
       </c>
       <c r="O17">
         <v>70464.79051818445</v>
       </c>
       <c r="P17">
-        <v>683894.5611388998</v>
+        <v>683894.5611388995</v>
       </c>
       <c r="Q17">
-        <v>685207.4592063336</v>
+        <v>685207.4592063334</v>
       </c>
       <c r="R17">
-        <v>686850.3264455048</v>
+        <v>686850.3264455046</v>
       </c>
       <c r="S17">
-        <v>2227877.032579744</v>
+        <v>2227877.032579743</v>
       </c>
       <c r="T17">
-        <v>2230307.206900687</v>
+        <v>2230307.206900686</v>
       </c>
       <c r="U17">
-        <v>2233192.44498461</v>
+        <v>2233192.444984609</v>
       </c>
       <c r="V17">
-        <v>2236585.308195884</v>
+        <v>2236585.308195883</v>
       </c>
       <c r="W17">
-        <v>2240564.908713528</v>
+        <v>2240564.908713527</v>
       </c>
       <c r="X17">
-        <v>2417460.621610904</v>
+        <v>2417460.621610903</v>
       </c>
       <c r="Y17">
-        <v>2423071.404535614</v>
+        <v>2423071.404535613</v>
       </c>
       <c r="Z17">
-        <v>2429910.658049534</v>
+        <v>2429910.658049533</v>
       </c>
       <c r="AA17">
-        <v>2438440.914207076</v>
+        <v>2438440.914207075</v>
       </c>
       <c r="AB17">
-        <v>2449321.952078745</v>
+        <v>2449321.952078744</v>
       </c>
       <c r="AC17">
-        <v>785984.9277015072</v>
+        <v>785984.9277015066</v>
       </c>
       <c r="AD17">
-        <v>804569.3257660496</v>
+        <v>804569.325766049</v>
       </c>
       <c r="AE17">
-        <v>829100.3505582138</v>
+        <v>829100.3505582133</v>
       </c>
       <c r="AF17">
-        <v>861369.1204885338</v>
+        <v>861369.1204885332</v>
       </c>
       <c r="AG17">
-        <v>903390.8563564448</v>
+        <v>903390.8563564442</v>
       </c>
       <c r="AH17">
-        <v>391990.2134550043</v>
+        <v>391990.2134550039</v>
       </c>
       <c r="AI17">
-        <v>448789.9951589559</v>
+        <v>448789.9951589554</v>
       </c>
       <c r="AJ17">
-        <v>518882.3681467178</v>
+        <v>518882.3681467174</v>
       </c>
       <c r="AK17">
-        <v>617727.7425526887</v>
+        <v>617727.7425526882</v>
       </c>
       <c r="AL17">
-        <v>734457.4488913842</v>
+        <v>734457.4488913838</v>
       </c>
       <c r="AM17">
-        <v>1184936.705083199</v>
+        <v>1184936.705083198</v>
       </c>
       <c r="AN17">
-        <v>1330388.136923149</v>
+        <v>1330388.136923148</v>
       </c>
       <c r="AO17">
-        <v>1484725.698037676</v>
+        <v>1484725.698037675</v>
       </c>
       <c r="AP17">
-        <v>1642195.277652868</v>
+        <v>1642195.277652867</v>
       </c>
       <c r="AQ17">
-        <v>1795731.009062984</v>
+        <v>1795731.009062982</v>
       </c>
       <c r="AR17">
-        <v>2316680.199364277</v>
+        <v>2316680.199364275</v>
       </c>
       <c r="AS17">
-        <v>2438664.080600339</v>
+        <v>2438664.080600338</v>
       </c>
       <c r="AT17">
-        <v>2533725.88502121</v>
+        <v>2533725.885021209</v>
       </c>
       <c r="AU17">
-        <v>2596332.312539962</v>
+        <v>2596332.31253996</v>
       </c>
       <c r="AV17">
-        <v>2623293.063284468</v>
+        <v>2623293.063284467</v>
       </c>
       <c r="AW17">
-        <v>2738832.235726065</v>
+        <v>2738832.235726064</v>
       </c>
       <c r="AX17">
-        <v>2696023.727847757</v>
+        <v>2696023.727847756</v>
       </c>
       <c r="AY17">
-        <v>2624452.334481649</v>
+        <v>2624452.334481647</v>
       </c>
       <c r="AZ17">
-        <v>2531085.954596367</v>
+        <v>2531085.954596365</v>
       </c>
       <c r="BA17">
-        <v>2424312.552363257</v>
+        <v>2424312.552363255</v>
       </c>
       <c r="BB17">
-        <v>2250880.26338298</v>
+        <v>2250880.263382978</v>
       </c>
       <c r="BC17">
-        <v>2144957.255200654</v>
+        <v>2144957.255200652</v>
       </c>
       <c r="BD17">
-        <v>2052975.383328216</v>
+        <v>2052975.383328215</v>
       </c>
       <c r="BE17">
-        <v>1982652.25945441</v>
+        <v>1982652.259454408</v>
       </c>
       <c r="BF17">
-        <v>1939925.702612187</v>
+        <v>1939925.702612185</v>
       </c>
       <c r="BG17">
-        <v>1897404.969512869</v>
+        <v>1897404.969512867</v>
       </c>
       <c r="BH17">
-        <v>1918340.702443633</v>
+        <v>1918340.702443631</v>
       </c>
       <c r="BI17">
-        <v>1970449.899790783</v>
+        <v>1970449.899790781</v>
       </c>
       <c r="BJ17">
-        <v>2050508.864572394</v>
+        <v>2050508.864572393</v>
       </c>
       <c r="BK17">
-        <v>2153834.22764563</v>
+        <v>2153834.227645629</v>
       </c>
       <c r="BL17">
-        <v>2278700.108880478</v>
+        <v>2278700.108880477</v>
       </c>
       <c r="BM17">
-        <v>2411108.927619456</v>
+        <v>2411108.927619454</v>
       </c>
       <c r="BN17">
-        <v>2548562.475082881</v>
+        <v>2548562.475082879</v>
       </c>
       <c r="BO17">
-        <v>2684733.627263668</v>
+        <v>2684733.627263666</v>
       </c>
       <c r="BP17">
-        <v>2813699.479144853</v>
+        <v>2813699.479144851</v>
       </c>
       <c r="BQ17">
-        <v>2936345.107016006</v>
+        <v>2936345.107016004</v>
       </c>
       <c r="BR17">
-        <v>3036352.81236143</v>
+        <v>3036352.812361428</v>
       </c>
       <c r="BS17">
-        <v>3116830.91793741</v>
+        <v>3116830.917937408</v>
       </c>
       <c r="BT17">
-        <v>3176122.890349106</v>
+        <v>3176122.890349104</v>
       </c>
       <c r="BU17">
-        <v>3213906.206259696</v>
+        <v>3213906.206259693</v>
       </c>
       <c r="BV17">
-        <v>3224500.842951183</v>
+        <v>3224500.84295118</v>
       </c>
       <c r="BW17">
-        <v>3223437.352304108</v>
+        <v>3223437.352304106</v>
       </c>
       <c r="BX17">
-        <v>3207311.868411098</v>
+        <v>3207311.868411095</v>
       </c>
       <c r="BY17">
-        <v>3180203.667414963</v>
+        <v>3180203.66741496</v>
       </c>
       <c r="BZ17">
-        <v>3146708.605823216</v>
+        <v>3146708.605823214</v>
       </c>
       <c r="CA17">
-        <v>3092114.098860227</v>
+        <v>3092114.098860224</v>
       </c>
       <c r="CB17">
-        <v>3060061.509371488</v>
+        <v>3060061.509371485</v>
       </c>
       <c r="CC17">
-        <v>3035263.520796571</v>
+        <v>3035263.520796569</v>
       </c>
       <c r="CD17">
-        <v>3021238.085841065</v>
+        <v>3021238.085841062</v>
       </c>
       <c r="CE17">
-        <v>3020604.398851946</v>
+        <v>3020604.398851943</v>
       </c>
       <c r="CF17">
-        <v>2998227.263506359</v>
+        <v>2998227.263506357</v>
       </c>
       <c r="CG17">
-        <v>3028036.923335569</v>
+        <v>3028036.923335567</v>
       </c>
       <c r="CH17">
-        <v>3072747.856716025</v>
+        <v>3072747.856716022</v>
       </c>
       <c r="CI17">
-        <v>3130852.235070088</v>
+        <v>3130852.235070086</v>
       </c>
       <c r="CJ17">
-        <v>3200071.074553705</v>
+        <v>3200071.074553703</v>
       </c>
       <c r="CK17">
-        <v>3218904.653274844</v>
+        <v>3218904.653274842</v>
       </c>
       <c r="CL17">
-        <v>3301480.347273266</v>
+        <v>3301480.347273263</v>
       </c>
       <c r="CM17">
-        <v>3385834.031565255</v>
+        <v>3385834.031565253</v>
       </c>
       <c r="CN17">
-        <v>3468752.730234073</v>
+        <v>3468752.73023407</v>
       </c>
       <c r="CO17">
-        <v>3547308.735933711</v>
+        <v>3547308.735933708</v>
       </c>
     </row>
   </sheetData>
@@ -5434,61 +5434,61 @@
         <v>1059.146433902567</v>
       </c>
       <c r="E2">
-        <v>2443.434521574255</v>
+        <v>2443.434521574257</v>
       </c>
       <c r="F2">
-        <v>3826.24377776435</v>
+        <v>3826.243777764353</v>
       </c>
       <c r="G2">
-        <v>5139.45991926162</v>
+        <v>5139.459919261623</v>
       </c>
       <c r="H2">
-        <v>6906.049265054181</v>
+        <v>6906.049265054186</v>
       </c>
       <c r="I2">
-        <v>8176.7828934113</v>
+        <v>8176.782893411306</v>
       </c>
       <c r="J2">
-        <v>10486.53192686408</v>
+        <v>10486.53192686409</v>
       </c>
       <c r="K2">
-        <v>12781.16709156923</v>
+        <v>12781.16709156924</v>
       </c>
       <c r="L2">
         <v>14820.99519405879</v>
       </c>
       <c r="M2">
-        <v>16698.85083048985</v>
+        <v>16698.85083048986</v>
       </c>
       <c r="N2">
         <v>20734.34968225476</v>
       </c>
       <c r="O2">
-        <v>23178.40677964088</v>
+        <v>23178.40677964089</v>
       </c>
       <c r="P2">
-        <v>28092.46810813777</v>
+        <v>28092.46810813778</v>
       </c>
       <c r="Q2">
-        <v>33396.85475460077</v>
+        <v>33396.85475460078</v>
       </c>
       <c r="R2">
-        <v>39097.00454693548</v>
+        <v>39097.00454693549</v>
       </c>
       <c r="S2">
         <v>51580.71738689856</v>
       </c>
       <c r="T2">
-        <v>64948.12972215236</v>
+        <v>64948.12972215237</v>
       </c>
       <c r="U2">
-        <v>79208.84151495065</v>
+        <v>79208.84151495066</v>
       </c>
       <c r="V2">
-        <v>94379.69720931179</v>
+        <v>94379.69720931181</v>
       </c>
       <c r="W2">
-        <v>110474.1023258513</v>
+        <v>110474.1023258514</v>
       </c>
       <c r="X2">
         <v>126646.6176731358</v>
@@ -5497,166 +5497,166 @@
         <v>143707.5839450122</v>
       </c>
       <c r="Z2">
-        <v>161664.3563784156</v>
+        <v>161664.3563784157</v>
       </c>
       <c r="AA2">
-        <v>180535.7025239957</v>
+        <v>180535.7025239958</v>
       </c>
       <c r="AB2">
-        <v>200347.5340145779</v>
+        <v>200347.534014578</v>
       </c>
       <c r="AC2">
-        <v>209598.2917908957</v>
+        <v>209598.2917908958</v>
       </c>
       <c r="AD2">
-        <v>219106.5565370734</v>
+        <v>219106.5565370735</v>
       </c>
       <c r="AE2">
-        <v>228945.4100173009</v>
+        <v>228945.410017301</v>
       </c>
       <c r="AF2">
-        <v>239104.2807210401</v>
+        <v>239104.2807210402</v>
       </c>
       <c r="AG2">
-        <v>249637.4988241666</v>
+        <v>249637.4988241668</v>
       </c>
       <c r="AH2">
-        <v>256382.7519180998</v>
+        <v>256382.7519181</v>
       </c>
       <c r="AI2">
-        <v>263190.9350706934</v>
+        <v>263190.9350706936</v>
       </c>
       <c r="AJ2">
-        <v>270329.8720607133</v>
+        <v>270329.8720607135</v>
       </c>
       <c r="AK2">
-        <v>278060.9366981157</v>
+        <v>278060.9366981159</v>
       </c>
       <c r="AL2">
-        <v>286368.5529262506</v>
+        <v>286368.5529262508</v>
       </c>
       <c r="AM2">
-        <v>297383.625152571</v>
+        <v>297383.6251525711</v>
       </c>
       <c r="AN2">
-        <v>309795.2901199398</v>
+        <v>309795.29011994</v>
       </c>
       <c r="AO2">
-        <v>324143.2153521476</v>
+        <v>324143.2153521478</v>
       </c>
       <c r="AP2">
-        <v>340989.9646753521</v>
+        <v>340989.9646753523</v>
       </c>
       <c r="AQ2">
-        <v>359627.378917858</v>
+        <v>359627.3789178582</v>
       </c>
       <c r="AR2">
-        <v>382575.6299796564</v>
+        <v>382575.6299796566</v>
       </c>
       <c r="AS2">
-        <v>406513.5972464706</v>
+        <v>406513.5972464709</v>
       </c>
       <c r="AT2">
-        <v>431282.6283570019</v>
+        <v>431282.6283570022</v>
       </c>
       <c r="AU2">
-        <v>456730.9346472592</v>
+        <v>456730.9346472594</v>
       </c>
       <c r="AV2">
-        <v>482868.7208473532</v>
+        <v>482868.7208473535</v>
       </c>
       <c r="AW2">
-        <v>510247.3884290113</v>
+        <v>510247.3884290116</v>
       </c>
       <c r="AX2">
-        <v>537350.1346461851</v>
+        <v>537350.1346461854</v>
       </c>
       <c r="AY2">
-        <v>562691.3323318521</v>
+        <v>562691.3323318524</v>
       </c>
       <c r="AZ2">
-        <v>585171.9548361558</v>
+        <v>585171.9548361561</v>
       </c>
       <c r="BA2">
-        <v>606232.9993536193</v>
+        <v>606232.9993536196</v>
       </c>
       <c r="BB2">
-        <v>626411.5292831063</v>
+        <v>626411.5292831067</v>
       </c>
       <c r="BC2">
-        <v>646453.8025508851</v>
+        <v>646453.8025508856</v>
       </c>
       <c r="BD2">
-        <v>665854.9442631927</v>
+        <v>665854.9442631932</v>
       </c>
       <c r="BE2">
-        <v>684276.0013833772</v>
+        <v>684276.0013833777</v>
       </c>
       <c r="BF2">
-        <v>702375.6981489338</v>
+        <v>702375.6981489343</v>
       </c>
       <c r="BG2">
-        <v>720298.3596092089</v>
+        <v>720298.3596092094</v>
       </c>
       <c r="BH2">
-        <v>739072.1241969018</v>
+        <v>739072.1241969023</v>
       </c>
       <c r="BI2">
-        <v>759153.3594896878</v>
+        <v>759153.3594896883</v>
       </c>
       <c r="BJ2">
-        <v>781029.7309982115</v>
+        <v>781029.730998212</v>
       </c>
       <c r="BK2">
-        <v>804868.6210015058</v>
+        <v>804868.6210015062</v>
       </c>
       <c r="BL2">
-        <v>830447.615823969</v>
+        <v>830447.6158239695</v>
       </c>
       <c r="BM2">
-        <v>858356.4205103355</v>
+        <v>858356.4205103359</v>
       </c>
       <c r="BN2">
-        <v>888665.2521082337</v>
+        <v>888665.2521082342</v>
       </c>
       <c r="BO2">
-        <v>921229.4746996193</v>
+        <v>921229.4746996198</v>
       </c>
       <c r="BP2">
-        <v>955328.2380132208</v>
+        <v>955328.2380132214</v>
       </c>
       <c r="BQ2">
-        <v>990170.89212818</v>
+        <v>990170.8921281807</v>
       </c>
       <c r="BR2">
-        <v>1025796.356108087</v>
+        <v>1025796.356108088</v>
       </c>
       <c r="BS2">
         <v>1062058.097635458</v>
       </c>
       <c r="BT2">
-        <v>1098547.256057503</v>
+        <v>1098547.256057504</v>
       </c>
       <c r="BU2">
-        <v>1134406.888237581</v>
+        <v>1134406.888237582</v>
       </c>
       <c r="BV2">
-        <v>1168564.476860618</v>
+        <v>1168564.476860619</v>
       </c>
       <c r="BW2">
         <v>1201039.926255164</v>
       </c>
       <c r="BX2">
-        <v>1232329.555557875</v>
+        <v>1232329.555557876</v>
       </c>
       <c r="BY2">
         <v>1262991.64525501</v>
       </c>
       <c r="BZ2">
-        <v>1293249.042500709</v>
+        <v>1293249.04250071</v>
       </c>
       <c r="CA2">
-        <v>1322854.411433436</v>
+        <v>1322854.411433437</v>
       </c>
       <c r="CB2">
         <v>1352044.051803296</v>
@@ -5665,37 +5665,37 @@
         <v>1381162.128200709</v>
       </c>
       <c r="CD2">
-        <v>1410709.960707473</v>
+        <v>1410709.960707474</v>
       </c>
       <c r="CE2">
-        <v>1441251.61222985</v>
+        <v>1441251.612229851</v>
       </c>
       <c r="CF2">
-        <v>1473006.451963473</v>
+        <v>1473006.451963474</v>
       </c>
       <c r="CG2">
-        <v>1506534.591284494</v>
+        <v>1506534.591284495</v>
       </c>
       <c r="CH2">
-        <v>1541997.039337796</v>
+        <v>1541997.039337797</v>
       </c>
       <c r="CI2">
-        <v>1579493.641259002</v>
+        <v>1579493.641259003</v>
       </c>
       <c r="CJ2">
         <v>1619149.713367392</v>
       </c>
       <c r="CK2">
-        <v>1660530.814671752</v>
+        <v>1660530.814671753</v>
       </c>
       <c r="CL2">
         <v>1703720.25490285</v>
       </c>
       <c r="CM2">
-        <v>1748227.460254937</v>
+        <v>1748227.460254938</v>
       </c>
       <c r="CN2">
-        <v>1793606.832447445</v>
+        <v>1793606.832447446</v>
       </c>
       <c r="CO2">
         <v>1839584.993533488</v>
@@ -5708,34 +5708,34 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24572359772883</v>
+        <v>70.24572359772887</v>
       </c>
       <c r="E3">
-        <v>162.2825316645492</v>
+        <v>162.2825316645493</v>
       </c>
       <c r="F3">
-        <v>254.1254061423342</v>
+        <v>254.1254061423343</v>
       </c>
       <c r="G3">
-        <v>341.2932645160661</v>
+        <v>341.2932645160662</v>
       </c>
       <c r="H3">
-        <v>458.9898078204213</v>
+        <v>458.9898078204215</v>
       </c>
       <c r="I3">
-        <v>543.3733143475878</v>
+        <v>543.373314347588</v>
       </c>
       <c r="J3">
-        <v>697.4511623421596</v>
+        <v>697.4511623421599</v>
       </c>
       <c r="K3">
-        <v>850.3921362321167</v>
+        <v>850.3921362321171</v>
       </c>
       <c r="L3">
-        <v>986.2555904207558</v>
+        <v>986.2555904207561</v>
       </c>
       <c r="M3">
-        <v>1111.178615728509</v>
+        <v>1111.17861572851</v>
       </c>
       <c r="N3">
         <v>1380.946837777203</v>
@@ -5744,13 +5744,13 @@
         <v>1543.938544269807</v>
       </c>
       <c r="P3">
-        <v>1872.729562170061</v>
+        <v>1872.729562170062</v>
       </c>
       <c r="Q3">
         <v>2227.716262308625</v>
       </c>
       <c r="R3">
-        <v>2609.266998453353</v>
+        <v>2609.266998453354</v>
       </c>
       <c r="S3">
         <v>3446.286508927421</v>
@@ -5765,13 +5765,13 @@
         <v>6316.321333531819</v>
       </c>
       <c r="W3">
-        <v>7395.736252913734</v>
+        <v>7395.736252913735</v>
       </c>
       <c r="X3">
-        <v>8480.392477002379</v>
+        <v>8480.39247700238</v>
       </c>
       <c r="Y3">
-        <v>9624.731158167695</v>
+        <v>9624.731158167697</v>
       </c>
       <c r="Z3">
         <v>10829.24988883421</v>
@@ -5780,7 +5780,7 @@
         <v>12095.21870146738</v>
       </c>
       <c r="AB3">
-        <v>13424.39113753526</v>
+        <v>13424.39113753527</v>
       </c>
       <c r="AC3">
         <v>14044.38299235482</v>
@@ -5795,7 +5795,7 @@
         <v>16022.42376301819</v>
       </c>
       <c r="AG3">
-        <v>16728.78730179027</v>
+        <v>16728.78730179028</v>
       </c>
       <c r="AH3">
         <v>17180.80563715956</v>
@@ -5807,19 +5807,19 @@
         <v>18115.69693991567</v>
       </c>
       <c r="AK3">
-        <v>18634.38937675592</v>
+        <v>18634.38937675593</v>
       </c>
       <c r="AL3">
         <v>19192.07782443913</v>
       </c>
       <c r="AM3">
-        <v>19932.04784679938</v>
+        <v>19932.04784679939</v>
       </c>
       <c r="AN3">
-        <v>20766.49025691192</v>
+        <v>20766.49025691193</v>
       </c>
       <c r="AO3">
-        <v>21731.94733790265</v>
+        <v>21731.94733790266</v>
       </c>
       <c r="AP3">
         <v>22866.51506147865</v>
@@ -5828,7 +5828,7 @@
         <v>24122.24053975425</v>
       </c>
       <c r="AR3">
-        <v>25667.93269921786</v>
+        <v>25667.93269921787</v>
       </c>
       <c r="AS3">
         <v>27280.4850423485</v>
@@ -5843,112 +5843,112 @@
         <v>32424.84675635768</v>
       </c>
       <c r="AW3">
-        <v>34269.48872319763</v>
+        <v>34269.48872319764</v>
       </c>
       <c r="AX3">
-        <v>36095.34749662295</v>
+        <v>36095.34749662296</v>
       </c>
       <c r="AY3">
-        <v>37801.8284217751</v>
+        <v>37801.82842177511</v>
       </c>
       <c r="AZ3">
-        <v>39314.51407892123</v>
+        <v>39314.51407892124</v>
       </c>
       <c r="BA3">
-        <v>40730.99747207746</v>
+        <v>40730.99747207747</v>
       </c>
       <c r="BB3">
-        <v>42088.15854690434</v>
+        <v>42088.15854690435</v>
       </c>
       <c r="BC3">
-        <v>43436.03669809991</v>
+        <v>43436.03669809992</v>
       </c>
       <c r="BD3">
         <v>44740.43261531035</v>
       </c>
       <c r="BE3">
-        <v>45978.37933268489</v>
+        <v>45978.3793326849</v>
       </c>
       <c r="BF3">
-        <v>47194.47392753833</v>
+        <v>47194.47392753834</v>
       </c>
       <c r="BG3">
-        <v>48398.84146133562</v>
+        <v>48398.84146133563</v>
       </c>
       <c r="BH3">
-        <v>49660.73500854618</v>
+        <v>49660.73500854619</v>
       </c>
       <c r="BI3">
-        <v>51011.04380378285</v>
+        <v>51011.04380378286</v>
       </c>
       <c r="BJ3">
-        <v>52482.77864717996</v>
+        <v>52482.77864717998</v>
       </c>
       <c r="BK3">
-        <v>54087.26302832092</v>
+        <v>54087.26302832094</v>
       </c>
       <c r="BL3">
-        <v>55809.62857770102</v>
+        <v>55809.62857770103</v>
       </c>
       <c r="BM3">
-        <v>57689.60724675986</v>
+        <v>57689.60724675987</v>
       </c>
       <c r="BN3">
-        <v>59731.95380546116</v>
+        <v>59731.95380546118</v>
       </c>
       <c r="BO3">
-        <v>61926.87574324957</v>
+        <v>61926.87574324958</v>
       </c>
       <c r="BP3">
-        <v>64225.5596563425</v>
+        <v>64225.55965634251</v>
       </c>
       <c r="BQ3">
-        <v>66574.56828195561</v>
+        <v>66574.56828195562</v>
       </c>
       <c r="BR3">
-        <v>68976.44320123926</v>
+        <v>68976.44320123928</v>
       </c>
       <c r="BS3">
-        <v>71421.27088082692</v>
+        <v>71421.27088082694</v>
       </c>
       <c r="BT3">
-        <v>73881.37319388018</v>
+        <v>73881.37319388019</v>
       </c>
       <c r="BU3">
-        <v>76298.72691752398</v>
+        <v>76298.72691752399</v>
       </c>
       <c r="BV3">
-        <v>78600.83314681404</v>
+        <v>78600.83314681405</v>
       </c>
       <c r="BW3">
-        <v>80788.92362960023</v>
+        <v>80788.92362960025</v>
       </c>
       <c r="BX3">
-        <v>82896.61630523112</v>
+        <v>82896.61630523113</v>
       </c>
       <c r="BY3">
-        <v>84961.72327780431</v>
+        <v>84961.72327780433</v>
       </c>
       <c r="BZ3">
-        <v>86999.33951091717</v>
+        <v>86999.33951091718</v>
       </c>
       <c r="CA3">
-        <v>88992.82836388169</v>
+        <v>88992.82836388171</v>
       </c>
       <c r="CB3">
-        <v>90958.07645749392</v>
+        <v>90958.07645749394</v>
       </c>
       <c r="CC3">
-        <v>92918.38812871966</v>
+        <v>92918.38812871967</v>
       </c>
       <c r="CD3">
-        <v>94907.70903925561</v>
+        <v>94907.70903925563</v>
       </c>
       <c r="CE3">
-        <v>96964.23257983294</v>
+        <v>96964.23257983295</v>
       </c>
       <c r="CF3">
-        <v>99102.94883441384</v>
+        <v>99102.94883441385</v>
       </c>
       <c r="CG3">
         <v>101361.6364575528</v>
@@ -5963,13 +5963,13 @@
         <v>108951.6538120417</v>
       </c>
       <c r="CK3">
-        <v>111741.8421342033</v>
+        <v>111741.8421342034</v>
       </c>
       <c r="CL3">
         <v>114654.3521177937</v>
       </c>
       <c r="CM3">
-        <v>117655.9606214905</v>
+        <v>117655.9606214906</v>
       </c>
       <c r="CN3">
         <v>120716.4915614063</v>
@@ -5985,10 +5985,10 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>379417.3331721228</v>
+        <v>379417.3331721227</v>
       </c>
       <c r="E4">
-        <v>755074.9996193267</v>
+        <v>755074.9996193266</v>
       </c>
       <c r="F4">
         <v>1217207.11016798</v>
@@ -5997,7 +5997,7 @@
         <v>1736389.373110559</v>
       </c>
       <c r="H4">
-        <v>2422720.641228181</v>
+        <v>2422720.64122818</v>
       </c>
       <c r="I4">
         <v>3067361.61533688</v>
@@ -6015,10 +6015,10 @@
         <v>6161670.385580466</v>
       </c>
       <c r="N4">
-        <v>7091028.80229465</v>
+        <v>7091028.802294651</v>
       </c>
       <c r="O4">
-        <v>7976033.03990165</v>
+        <v>7976033.039901651</v>
       </c>
       <c r="P4">
         <v>11234065.00874068</v>
@@ -6027,10 +6027,10 @@
         <v>14507755.28854585</v>
       </c>
       <c r="R4">
-        <v>17796076.74449156</v>
+        <v>17796076.74449157</v>
       </c>
       <c r="S4">
-        <v>27327354.6332748</v>
+        <v>27327354.63327481</v>
       </c>
       <c r="T4">
         <v>36885573.80729164</v>
@@ -6042,7 +6042,7 @@
         <v>56098107.06702743</v>
       </c>
       <c r="W4">
-        <v>65763529.1123996</v>
+        <v>65763529.11239961</v>
       </c>
       <c r="X4">
         <v>75056271.45552072</v>
@@ -6069,13 +6069,13 @@
         <v>118517264.5613038</v>
       </c>
       <c r="AF4">
-        <v>120546197.179947</v>
+        <v>120546197.1799471</v>
       </c>
       <c r="AG4">
         <v>122642504.7909176</v>
       </c>
       <c r="AH4">
-        <v>122499924.2291873</v>
+        <v>122499924.2291874</v>
       </c>
       <c r="AI4">
         <v>122428004.694781</v>
@@ -6096,7 +6096,7 @@
         <v>126080551.8456625</v>
       </c>
       <c r="AO4">
-        <v>128038898.9195922</v>
+        <v>128038898.9195923</v>
       </c>
       <c r="AP4">
         <v>130484822.3426389</v>
@@ -6111,13 +6111,13 @@
         <v>141715334.6891544</v>
       </c>
       <c r="AT4">
-        <v>146110439.6130227</v>
+        <v>146110439.6130228</v>
       </c>
       <c r="AU4">
         <v>150535739.1267878</v>
       </c>
       <c r="AV4">
-        <v>154950909.4575085</v>
+        <v>154950909.4575086</v>
       </c>
       <c r="AW4">
         <v>159427236.9548942</v>
@@ -6135,7 +6135,7 @@
         <v>173610762.6977843</v>
       </c>
       <c r="BB4">
-        <v>176023754.44492</v>
+        <v>176023754.4449201</v>
       </c>
       <c r="BC4">
         <v>178208024.4776345</v>
@@ -6144,28 +6144,28 @@
         <v>180184172.9173839</v>
       </c>
       <c r="BE4">
-        <v>182006387.4555158</v>
+        <v>182006387.4555159</v>
       </c>
       <c r="BF4">
         <v>183717062.96433</v>
       </c>
       <c r="BG4">
-        <v>185220886.5162582</v>
+        <v>185220886.5162583</v>
       </c>
       <c r="BH4">
         <v>186755038.9652273</v>
       </c>
       <c r="BI4">
-        <v>188455978.9677372</v>
+        <v>188455978.9677373</v>
       </c>
       <c r="BJ4">
         <v>190413965.4144414</v>
       </c>
       <c r="BK4">
-        <v>192675958.3003508</v>
+        <v>192675958.3003509</v>
       </c>
       <c r="BL4">
-        <v>195144277.9750909</v>
+        <v>195144277.975091</v>
       </c>
       <c r="BM4">
         <v>197950509.6193284</v>
@@ -6180,13 +6180,13 @@
         <v>207975830.1481519</v>
       </c>
       <c r="BQ4">
-        <v>211549736.0470913</v>
+        <v>211549736.0470914</v>
       </c>
       <c r="BR4">
-        <v>215179837.6345902</v>
+        <v>215179837.6345903</v>
       </c>
       <c r="BS4">
-        <v>218823621.4538326</v>
+        <v>218823621.4538327</v>
       </c>
       <c r="BT4">
         <v>222407996.9946172</v>
@@ -6198,37 +6198,37 @@
         <v>228881253.5379137</v>
       </c>
       <c r="BW4">
-        <v>231638582.1148823</v>
+        <v>231638582.1148824</v>
       </c>
       <c r="BX4">
         <v>234210469.2587991</v>
       </c>
       <c r="BY4">
-        <v>236694828.6794495</v>
+        <v>236694828.6794496</v>
       </c>
       <c r="BZ4">
-        <v>239075368.0359126</v>
+        <v>239075368.0359127</v>
       </c>
       <c r="CA4">
-        <v>241313443.0733647</v>
+        <v>241313443.0733648</v>
       </c>
       <c r="CB4">
-        <v>243439292.5789745</v>
+        <v>243439292.5789746</v>
       </c>
       <c r="CC4">
         <v>245469062.1296484</v>
       </c>
       <c r="CD4">
-        <v>247422480.2759957</v>
+        <v>247422480.2759958</v>
       </c>
       <c r="CE4">
-        <v>249313618.0721473</v>
+        <v>249313618.0721474</v>
       </c>
       <c r="CF4">
-        <v>251292035.2876691</v>
+        <v>251292035.2876692</v>
       </c>
       <c r="CG4">
-        <v>253441453.3110864</v>
+        <v>253441453.3110865</v>
       </c>
       <c r="CH4">
         <v>255792001.6924525</v>
@@ -6240,19 +6240,19 @@
         <v>261126426.301424</v>
       </c>
       <c r="CK4">
-        <v>264068952.8778467</v>
+        <v>264068952.8778468</v>
       </c>
       <c r="CL4">
         <v>267149732.4035641</v>
       </c>
       <c r="CM4">
-        <v>270314174.5506303</v>
+        <v>270314174.5506304</v>
       </c>
       <c r="CN4">
         <v>273515482.2940139</v>
       </c>
       <c r="CO4">
-        <v>276718809.1851751</v>
+        <v>276718809.1851752</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -6262,34 +6262,34 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724198.954673871</v>
+        <v>1724198.954673873</v>
       </c>
       <c r="E5">
-        <v>2892345.414445639</v>
+        <v>2892345.414445641</v>
       </c>
       <c r="F5">
-        <v>4031426.388438171</v>
+        <v>4031426.388438174</v>
       </c>
       <c r="G5">
-        <v>5122839.132131171</v>
+        <v>5122839.132131174</v>
       </c>
       <c r="H5">
-        <v>6177927.79445055</v>
+        <v>6177927.794450553</v>
       </c>
       <c r="I5">
-        <v>7551130.224433614</v>
+        <v>7551130.224433618</v>
       </c>
       <c r="J5">
-        <v>9095373.559337728</v>
+        <v>9095373.559337731</v>
       </c>
       <c r="K5">
         <v>10409838.69090467</v>
       </c>
       <c r="L5">
-        <v>11576465.09694133</v>
+        <v>11576465.09694134</v>
       </c>
       <c r="M5">
-        <v>12906225.24209779</v>
+        <v>12906225.2420978</v>
       </c>
       <c r="N5">
         <v>14300583.24568048</v>
@@ -6301,97 +6301,97 @@
         <v>29918353.18407094</v>
       </c>
       <c r="Q5">
-        <v>43706771.4158446</v>
+        <v>43706771.41584461</v>
       </c>
       <c r="R5">
-        <v>57522044.06874285</v>
+        <v>57522044.06874286</v>
       </c>
       <c r="S5">
         <v>103455833.7302743</v>
       </c>
       <c r="T5">
-        <v>149431078.1030817</v>
+        <v>149431078.1030818</v>
       </c>
       <c r="U5">
         <v>195456817.7165725</v>
       </c>
       <c r="V5">
-        <v>241543698.4150305</v>
+        <v>241543698.4150306</v>
       </c>
       <c r="W5">
-        <v>287704683.9476047</v>
+        <v>287704683.9476048</v>
       </c>
       <c r="X5">
-        <v>336114218.4256323</v>
+        <v>336114218.4256324</v>
       </c>
       <c r="Y5">
-        <v>384635829.5137934</v>
+        <v>384635829.5137935</v>
       </c>
       <c r="Z5">
-        <v>433298431.822511</v>
+        <v>433298431.8225111</v>
       </c>
       <c r="AA5">
-        <v>482141294.042272</v>
+        <v>482141294.0422721</v>
       </c>
       <c r="AB5">
-        <v>531217793.9990431</v>
+        <v>531217793.9990432</v>
       </c>
       <c r="AC5">
-        <v>545113713.7677543</v>
+        <v>545113713.7677544</v>
       </c>
       <c r="AD5">
-        <v>559411204.1882921</v>
+        <v>559411204.1882923</v>
       </c>
       <c r="AE5">
-        <v>574235576.7447263</v>
+        <v>574235576.7447264</v>
       </c>
       <c r="AF5">
-        <v>589746788.2140697</v>
+        <v>589746788.2140698</v>
       </c>
       <c r="AG5">
-        <v>606143447.7915056</v>
+        <v>606143447.7915057</v>
       </c>
       <c r="AH5">
-        <v>611788194.823668</v>
+        <v>611788194.8236681</v>
       </c>
       <c r="AI5">
-        <v>618679587.2549998</v>
+        <v>618679587.2549999</v>
       </c>
       <c r="AJ5">
-        <v>627095197.5679803</v>
+        <v>627095197.5679804</v>
       </c>
       <c r="AK5">
-        <v>637536711.348025</v>
+        <v>637536711.3480251</v>
       </c>
       <c r="AL5">
-        <v>650352078.2182823</v>
+        <v>650352078.2182825</v>
       </c>
       <c r="AM5">
-        <v>670573625.7356482</v>
+        <v>670573625.7356483</v>
       </c>
       <c r="AN5">
-        <v>693735282.3718345</v>
+        <v>693735282.3718346</v>
       </c>
       <c r="AO5">
-        <v>720008506.4135008</v>
+        <v>720008506.4135009</v>
       </c>
       <c r="AP5">
-        <v>749446751.4956453</v>
+        <v>749446751.4956454</v>
       </c>
       <c r="AQ5">
-        <v>781957988.9958569</v>
+        <v>781957988.995857</v>
       </c>
       <c r="AR5">
-        <v>824082088.0667403</v>
+        <v>824082088.0667404</v>
       </c>
       <c r="AS5">
-        <v>868605791.6729556</v>
+        <v>868605791.6729558</v>
       </c>
       <c r="AT5">
-        <v>914961917.1413783</v>
+        <v>914961917.1413784</v>
       </c>
       <c r="AU5">
-        <v>962469254.2478019</v>
+        <v>962469254.247802</v>
       </c>
       <c r="AV5">
         <v>1010381699.234169</v>
@@ -6415,22 +6415,22 @@
         <v>1280922333.045255</v>
       </c>
       <c r="BC5">
-        <v>1317305940.327697</v>
+        <v>1317305940.327696</v>
       </c>
       <c r="BD5">
         <v>1351634089.884625</v>
       </c>
       <c r="BE5">
-        <v>1384350313.876444</v>
+        <v>1384350313.876443</v>
       </c>
       <c r="BF5">
         <v>1416016080.616273</v>
       </c>
       <c r="BG5">
-        <v>1446607960.216997</v>
+        <v>1446607960.216996</v>
       </c>
       <c r="BH5">
-        <v>1477433548.666769</v>
+        <v>1477433548.666768</v>
       </c>
       <c r="BI5">
         <v>1509116173.325627</v>
@@ -6543,10 +6543,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465598407588715</v>
+        <v>0.8465598407588717</v>
       </c>
       <c r="E6">
-        <v>1.706080072715485</v>
+        <v>1.706080072715486</v>
       </c>
       <c r="F6">
         <v>2.61400381058839</v>
@@ -6555,22 +6555,22 @@
         <v>3.52909200450113</v>
       </c>
       <c r="H6">
-        <v>4.417967509949989</v>
+        <v>4.417967509949991</v>
       </c>
       <c r="I6">
-        <v>5.298836774075096</v>
+        <v>5.298836774075098</v>
       </c>
       <c r="J6">
-        <v>6.220961277668291</v>
+        <v>6.220961277668293</v>
       </c>
       <c r="K6">
-        <v>7.237989452310931</v>
+        <v>7.237989452310932</v>
       </c>
       <c r="L6">
-        <v>8.267077566792249</v>
+        <v>8.267077566792251</v>
       </c>
       <c r="M6">
-        <v>9.363132257037122</v>
+        <v>9.363132257037126</v>
       </c>
       <c r="N6">
         <v>10.52747958488988</v>
@@ -6579,10 +6579,10 @@
         <v>11.59180844873422</v>
       </c>
       <c r="P6">
-        <v>12.74040702449642</v>
+        <v>12.74040702449643</v>
       </c>
       <c r="Q6">
-        <v>13.91726134702859</v>
+        <v>13.9172613470286</v>
       </c>
       <c r="R6">
         <v>15.12223696459254</v>
@@ -6597,7 +6597,7 @@
         <v>19.16889436055996</v>
       </c>
       <c r="V6">
-        <v>20.58556503057861</v>
+        <v>20.58556503057862</v>
       </c>
       <c r="W6">
         <v>22.03626871816219</v>
@@ -6618,13 +6618,13 @@
         <v>29.77835753575908</v>
       </c>
       <c r="AC6">
-        <v>31.33780344309121</v>
+        <v>31.33780344309122</v>
       </c>
       <c r="AD6">
-        <v>32.9309787970828</v>
+        <v>32.93097879708281</v>
       </c>
       <c r="AE6">
-        <v>34.55814850623103</v>
+        <v>34.55814850623104</v>
       </c>
       <c r="AF6">
         <v>36.21905257097642</v>
@@ -6633,34 +6633,34 @@
         <v>37.91396950439491</v>
       </c>
       <c r="AH6">
-        <v>39.61846251198138</v>
+        <v>39.61846251198139</v>
       </c>
       <c r="AI6">
-        <v>41.35849448738548</v>
+        <v>41.35849448738549</v>
       </c>
       <c r="AJ6">
-        <v>43.13513113501486</v>
+        <v>43.13513113501487</v>
       </c>
       <c r="AK6">
-        <v>44.94922194767685</v>
+        <v>44.94922194767686</v>
       </c>
       <c r="AL6">
-        <v>46.8020618590181</v>
+        <v>46.80206185901811</v>
       </c>
       <c r="AM6">
-        <v>48.70795082462801</v>
+        <v>48.70795082462802</v>
       </c>
       <c r="AN6">
-        <v>50.65671932099351</v>
+        <v>50.65671932099352</v>
       </c>
       <c r="AO6">
-        <v>52.6505305839279</v>
+        <v>52.65053058392791</v>
       </c>
       <c r="AP6">
-        <v>54.69139785835285</v>
+        <v>54.69139785835286</v>
       </c>
       <c r="AQ6">
-        <v>56.77529077635483</v>
+        <v>56.77529077635484</v>
       </c>
       <c r="AR6">
         <v>58.91656207192852</v>
@@ -6786,7 +6786,7 @@
         <v>177.9499543967745</v>
       </c>
       <c r="CG6">
-        <v>181.9389128969688</v>
+        <v>181.9389128969689</v>
       </c>
       <c r="CH6">
         <v>185.992109038442</v>
@@ -6795,10 +6795,10 @@
         <v>190.1099151909833</v>
       </c>
       <c r="CJ6">
-        <v>194.2921846286004</v>
+        <v>194.2921846286005</v>
       </c>
       <c r="CK6">
-        <v>198.5394542942558</v>
+        <v>198.5394542942559</v>
       </c>
       <c r="CL6">
         <v>202.8520209357705</v>
@@ -6807,7 +6807,7 @@
         <v>207.228346568509</v>
       </c>
       <c r="CN6">
-        <v>211.6671847526343</v>
+        <v>211.6671847526344</v>
       </c>
       <c r="CO6">
         <v>216.1676398102518</v>
@@ -6832,7 +6832,7 @@
         <v>0.1745776845979973</v>
       </c>
       <c r="H7">
-        <v>0.2189593991021078</v>
+        <v>0.2189593991021077</v>
       </c>
       <c r="I7">
         <v>0.2626588595790147</v>
@@ -6841,10 +6841,10 @@
         <v>0.3076731963157744</v>
       </c>
       <c r="K7">
-        <v>0.3571103511260356</v>
+        <v>0.3571103511260355</v>
       </c>
       <c r="L7">
-        <v>0.4079420858973404</v>
+        <v>0.4079420858973403</v>
       </c>
       <c r="M7">
         <v>0.4622816732772501</v>
@@ -6886,7 +6886,7 @@
         <v>1.235256478814823</v>
       </c>
       <c r="Z7">
-        <v>1.311469999859265</v>
+        <v>1.311469999859264</v>
       </c>
       <c r="AA7">
         <v>1.389309309793133</v>
@@ -6895,7 +6895,7 @@
         <v>1.468777087299441</v>
       </c>
       <c r="AC7">
-        <v>1.546124299076887</v>
+        <v>1.546124299076886</v>
       </c>
       <c r="AD7">
         <v>1.625142094124422</v>
@@ -6907,25 +6907,25 @@
         <v>1.788207975118177</v>
       </c>
       <c r="AG7">
-        <v>1.872252271541709</v>
+        <v>1.872252271541708</v>
       </c>
       <c r="AH7">
         <v>1.956947648981431</v>
       </c>
       <c r="AI7">
-        <v>2.043387421218047</v>
+        <v>2.043387421218046</v>
       </c>
       <c r="AJ7">
-        <v>2.131619688460324</v>
+        <v>2.131619688460323</v>
       </c>
       <c r="AK7">
-        <v>2.2216789212446</v>
+        <v>2.221678921244599</v>
       </c>
       <c r="AL7">
         <v>2.313622691974913</v>
       </c>
       <c r="AM7">
-        <v>2.408072027684135</v>
+        <v>2.408072027684134</v>
       </c>
       <c r="AN7">
         <v>2.504592072427482</v>
@@ -6940,7 +6940,7 @@
         <v>2.807275979727295</v>
       </c>
       <c r="AR7">
-        <v>2.91298181306766</v>
+        <v>2.912981813067659</v>
       </c>
       <c r="AS7">
         <v>3.020546154630467</v>
@@ -6949,133 +6949,133 @@
         <v>3.129907192983725</v>
       </c>
       <c r="AU7">
-        <v>3.240998672437931</v>
+        <v>3.24099867243793</v>
       </c>
       <c r="AV7">
-        <v>3.353781701289374</v>
+        <v>3.353781701289373</v>
       </c>
       <c r="AW7">
-        <v>3.468513458003494</v>
+        <v>3.468513458003493</v>
       </c>
       <c r="AX7">
-        <v>3.584863808842878</v>
+        <v>3.584863808842877</v>
       </c>
       <c r="AY7">
-        <v>3.702605001845728</v>
+        <v>3.702605001845727</v>
       </c>
       <c r="AZ7">
-        <v>3.821584144549272</v>
+        <v>3.821584144549271</v>
       </c>
       <c r="BA7">
-        <v>3.942009025592622</v>
+        <v>3.942009025592621</v>
       </c>
       <c r="BB7">
-        <v>4.064086980537249</v>
+        <v>4.064086980537248</v>
       </c>
       <c r="BC7">
-        <v>4.187966468155633</v>
+        <v>4.187966468155632</v>
       </c>
       <c r="BD7">
-        <v>4.313633537456131</v>
+        <v>4.31363353745613</v>
       </c>
       <c r="BE7">
-        <v>4.441115516551139</v>
+        <v>4.441115516551138</v>
       </c>
       <c r="BF7">
-        <v>4.570493858805734</v>
+        <v>4.570493858805733</v>
       </c>
       <c r="BG7">
-        <v>4.701898978954375</v>
+        <v>4.701898978954374</v>
       </c>
       <c r="BH7">
-        <v>4.835506298184712</v>
+        <v>4.835506298184711</v>
       </c>
       <c r="BI7">
-        <v>4.971450605428215</v>
+        <v>4.971450605428213</v>
       </c>
       <c r="BJ7">
-        <v>5.109856001016152</v>
+        <v>5.10985600101615</v>
       </c>
       <c r="BK7">
-        <v>5.250785698108762</v>
+        <v>5.25078569810876</v>
       </c>
       <c r="BL7">
-        <v>5.394339273571429</v>
+        <v>5.394339273571427</v>
       </c>
       <c r="BM7">
-        <v>5.540563299369635</v>
+        <v>5.540563299369634</v>
       </c>
       <c r="BN7">
-        <v>5.689407268374401</v>
+        <v>5.689407268374399</v>
       </c>
       <c r="BO7">
-        <v>5.840790394474113</v>
+        <v>5.840790394474111</v>
       </c>
       <c r="BP7">
-        <v>5.994598039099081</v>
+        <v>5.994598039099079</v>
       </c>
       <c r="BQ7">
-        <v>6.150888928828251</v>
+        <v>6.150888928828249</v>
       </c>
       <c r="BR7">
-        <v>6.30963440857034</v>
+        <v>6.309634408570338</v>
       </c>
       <c r="BS7">
-        <v>6.470789571675251</v>
+        <v>6.470789571675249</v>
       </c>
       <c r="BT7">
-        <v>6.634275390436529</v>
+        <v>6.634275390436526</v>
       </c>
       <c r="BU7">
-        <v>6.799963371785178</v>
+        <v>6.799963371785175</v>
       </c>
       <c r="BV7">
-        <v>6.967841109168218</v>
+        <v>6.967841109168215</v>
       </c>
       <c r="BW7">
-        <v>7.137909462981918</v>
+        <v>7.137909462981916</v>
       </c>
       <c r="BX7">
-        <v>7.310263460286081</v>
+        <v>7.310263460286079</v>
       </c>
       <c r="BY7">
-        <v>7.485004249603836</v>
+        <v>7.485004249603834</v>
       </c>
       <c r="BZ7">
-        <v>7.662147480395653</v>
+        <v>7.66214748039565</v>
       </c>
       <c r="CA7">
-        <v>7.841803046396302</v>
+        <v>7.841803046396299</v>
       </c>
       <c r="CB7">
-        <v>8.024010041003582</v>
+        <v>8.02401004100358</v>
       </c>
       <c r="CC7">
-        <v>8.208803197742355</v>
+        <v>8.208803197742354</v>
       </c>
       <c r="CD7">
-        <v>8.396234115511907</v>
+        <v>8.396234115511906</v>
       </c>
       <c r="CE7">
-        <v>8.586366823534879</v>
+        <v>8.586366823534878</v>
       </c>
       <c r="CF7">
-        <v>8.779430498552294</v>
+        <v>8.779430498552292</v>
       </c>
       <c r="CG7">
-        <v>8.975563835274027</v>
+        <v>8.975563835274025</v>
       </c>
       <c r="CH7">
-        <v>9.174810840287847</v>
+        <v>9.174810840287845</v>
       </c>
       <c r="CI7">
-        <v>9.377186128272665</v>
+        <v>9.377186128272664</v>
       </c>
       <c r="CJ7">
-        <v>9.582679905148664</v>
+        <v>9.582679905148662</v>
       </c>
       <c r="CK7">
-        <v>9.791327440688406</v>
+        <v>9.791327440688404</v>
       </c>
       <c r="CL7">
         <v>10.00313020056302</v>
@@ -7087,7 +7087,7 @@
         <v>10.43592064128046</v>
       </c>
       <c r="CO7">
-        <v>10.65680741104927</v>
+        <v>10.65680741104926</v>
       </c>
     </row>
     <row r="8" spans="1:93">
@@ -7097,7 +7097,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804767.4285286597</v>
+        <v>804767.4285286602</v>
       </c>
       <c r="E8">
         <v>1372851.540824782</v>
@@ -7106,10 +7106,10 @@
         <v>1735730.96296305</v>
       </c>
       <c r="G8">
-        <v>2037056.519476766</v>
+        <v>2037056.519476767</v>
       </c>
       <c r="H8">
-        <v>2360363.481287355</v>
+        <v>2360363.481287356</v>
       </c>
       <c r="I8">
         <v>2615440.850234391</v>
@@ -7118,253 +7118,253 @@
         <v>2903653.978296114</v>
       </c>
       <c r="K8">
-        <v>3154476.998350678</v>
+        <v>3154476.998350679</v>
       </c>
       <c r="L8">
-        <v>3454875.141867974</v>
+        <v>3454875.141867975</v>
       </c>
       <c r="M8">
-        <v>3719657.707892024</v>
+        <v>3719657.707892026</v>
       </c>
       <c r="N8">
-        <v>4025957.735200049</v>
+        <v>4025957.735200051</v>
       </c>
       <c r="O8">
-        <v>4441367.076343167</v>
+        <v>4441367.076343169</v>
       </c>
       <c r="P8">
-        <v>6196057.271061888</v>
+        <v>6196057.271061892</v>
       </c>
       <c r="Q8">
-        <v>7974207.590465438</v>
+        <v>7974207.590465442</v>
       </c>
       <c r="R8">
-        <v>9768372.120192159</v>
+        <v>9768372.120192166</v>
       </c>
       <c r="S8">
-        <v>15504007.84249994</v>
+        <v>15504007.84249995</v>
       </c>
       <c r="T8">
-        <v>21259555.64635564</v>
+        <v>21259555.64635566</v>
       </c>
       <c r="U8">
-        <v>27038945.99604182</v>
+        <v>27038945.99604184</v>
       </c>
       <c r="V8">
-        <v>32843637.82685533</v>
+        <v>32843637.82685535</v>
       </c>
       <c r="W8">
-        <v>38674201.5282561</v>
+        <v>38674201.52825613</v>
       </c>
       <c r="X8">
-        <v>44212458.24267002</v>
+        <v>44212458.24267005</v>
       </c>
       <c r="Y8">
-        <v>49779570.32761714</v>
+        <v>49779570.32761718</v>
       </c>
       <c r="Z8">
-        <v>55372743.66799341</v>
+        <v>55372743.66799346</v>
       </c>
       <c r="AA8">
-        <v>60992976.66234942</v>
+        <v>60992976.66234946</v>
       </c>
       <c r="AB8">
-        <v>66645135.19800317</v>
+        <v>66645135.19800322</v>
       </c>
       <c r="AC8">
-        <v>67792743.74075744</v>
+        <v>67792743.74075748</v>
       </c>
       <c r="AD8">
-        <v>68967628.53603287</v>
+        <v>68967628.53603292</v>
       </c>
       <c r="AE8">
-        <v>70176733.88242367</v>
+        <v>70176733.88242371</v>
       </c>
       <c r="AF8">
-        <v>71421906.1767192</v>
+        <v>71421906.17671925</v>
       </c>
       <c r="AG8">
-        <v>72709449.56261362</v>
+        <v>72709449.56261367</v>
       </c>
       <c r="AH8">
-        <v>72695058.48878846</v>
+        <v>72695058.4887885</v>
       </c>
       <c r="AI8">
-        <v>72748421.76119201</v>
+        <v>72748421.76119205</v>
       </c>
       <c r="AJ8">
-        <v>72882775.03649497</v>
+        <v>72882775.03649502</v>
       </c>
       <c r="AK8">
-        <v>73114545.79089858</v>
+        <v>73114545.79089862</v>
       </c>
       <c r="AL8">
-        <v>73462127.6233619</v>
+        <v>73462127.62336195</v>
       </c>
       <c r="AM8">
-        <v>74831380.30289812</v>
+        <v>74831380.30289817</v>
       </c>
       <c r="AN8">
-        <v>76455150.78106318</v>
+        <v>76455150.78106323</v>
       </c>
       <c r="AO8">
-        <v>78400661.89898027</v>
+        <v>78400661.89898032</v>
       </c>
       <c r="AP8">
-        <v>80712534.44518369</v>
+        <v>80712534.44518375</v>
       </c>
       <c r="AQ8">
-        <v>83291877.62130016</v>
+        <v>83291877.62130022</v>
       </c>
       <c r="AR8">
-        <v>86493045.67632125</v>
+        <v>86493045.67632133</v>
       </c>
       <c r="AS8">
-        <v>89817549.89966156</v>
+        <v>89817549.89966163</v>
       </c>
       <c r="AT8">
-        <v>93219901.74370977</v>
+        <v>93219901.74370985</v>
       </c>
       <c r="AU8">
-        <v>96650753.64969529</v>
+        <v>96650753.64969537</v>
       </c>
       <c r="AV8">
         <v>100072414.2350944</v>
       </c>
       <c r="AW8">
-        <v>103607466.4279436</v>
+        <v>103607466.4279437</v>
       </c>
       <c r="AX8">
-        <v>107002167.0386029</v>
+        <v>107002167.038603</v>
       </c>
       <c r="AY8">
-        <v>110145477.6368702</v>
+        <v>110145477.6368703</v>
       </c>
       <c r="AZ8">
-        <v>112961331.1389451</v>
+        <v>112961331.1389452</v>
       </c>
       <c r="BA8">
-        <v>115529660.6987949</v>
+        <v>115529660.698795</v>
       </c>
       <c r="BB8">
-        <v>117846955.7314209</v>
+        <v>117846955.731421</v>
       </c>
       <c r="BC8">
-        <v>120007334.2542924</v>
+        <v>120007334.2542925</v>
       </c>
       <c r="BD8">
-        <v>122011843.2407365</v>
+        <v>122011843.2407366</v>
       </c>
       <c r="BE8">
-        <v>123903981.3121818</v>
+        <v>123903981.3121819</v>
       </c>
       <c r="BF8">
-        <v>125725128.4667033</v>
+        <v>125725128.4667034</v>
       </c>
       <c r="BG8">
         <v>127438801.9899603</v>
       </c>
       <c r="BH8">
-        <v>129161415.5875472</v>
+        <v>129161415.5875473</v>
       </c>
       <c r="BI8">
-        <v>130988823.4488394</v>
+        <v>130988823.4488395</v>
       </c>
       <c r="BJ8">
         <v>133005936.4433367</v>
       </c>
       <c r="BK8">
-        <v>135253817.7206627</v>
+        <v>135253817.7206628</v>
       </c>
       <c r="BL8">
-        <v>137691194.7373641</v>
+        <v>137691194.7373642</v>
       </c>
       <c r="BM8">
-        <v>140387661.1696524</v>
+        <v>140387661.1696525</v>
       </c>
       <c r="BN8">
-        <v>143306756.8575625</v>
+        <v>143306756.8575626</v>
       </c>
       <c r="BO8">
-        <v>146398177.6953503</v>
+        <v>146398177.6953504</v>
       </c>
       <c r="BP8">
-        <v>149613143.11724</v>
+        <v>149613143.1172402</v>
       </c>
       <c r="BQ8">
-        <v>152868518.4018793</v>
+        <v>152868518.4018794</v>
       </c>
       <c r="BR8">
-        <v>156182574.4476025</v>
+        <v>156182574.4476027</v>
       </c>
       <c r="BS8">
-        <v>159525591.1854447</v>
+        <v>159525591.1854448</v>
       </c>
       <c r="BT8">
-        <v>162853640.5758313</v>
+        <v>162853640.5758314</v>
       </c>
       <c r="BU8">
-        <v>166102464.0716771</v>
+        <v>166102464.0716773</v>
       </c>
       <c r="BV8">
-        <v>169168038.4237916</v>
+        <v>169168038.4237918</v>
       </c>
       <c r="BW8">
-        <v>172077440.2914945</v>
+        <v>172077440.2914947</v>
       </c>
       <c r="BX8">
-        <v>174872475.810394</v>
+        <v>174872475.8103942</v>
       </c>
       <c r="BY8">
-        <v>177616400.1093576</v>
+        <v>177616400.1093577</v>
       </c>
       <c r="BZ8">
-        <v>180295946.1866038</v>
+        <v>180295946.1866039</v>
       </c>
       <c r="CA8">
-        <v>182860920.5278002</v>
+        <v>182860920.5278004</v>
       </c>
       <c r="CB8">
-        <v>185357014.5929856</v>
+        <v>185357014.5929858</v>
       </c>
       <c r="CC8">
-        <v>187795982.9135621</v>
+        <v>187795982.9135623</v>
       </c>
       <c r="CD8">
-        <v>190195923.2048931</v>
+        <v>190195923.2048932</v>
       </c>
       <c r="CE8">
-        <v>192573525.0291931</v>
+        <v>192573525.0291933</v>
       </c>
       <c r="CF8">
-        <v>194927444.175299</v>
+        <v>194927444.1752992</v>
       </c>
       <c r="CG8">
-        <v>197401163.5097015</v>
+        <v>197401163.5097017</v>
       </c>
       <c r="CH8">
-        <v>200023098.326249</v>
+        <v>200023098.3262492</v>
       </c>
       <c r="CI8">
-        <v>202803233.7806485</v>
+        <v>202803233.7806487</v>
       </c>
       <c r="CJ8">
-        <v>205735913.1094259</v>
+        <v>205735913.1094261</v>
       </c>
       <c r="CK8">
-        <v>208722788.2113099</v>
+        <v>208722788.2113101</v>
       </c>
       <c r="CL8">
-        <v>211807124.2923596</v>
+        <v>211807124.2923598</v>
       </c>
       <c r="CM8">
-        <v>214959575.262618</v>
+        <v>214959575.2626182</v>
       </c>
       <c r="CN8">
-        <v>218157659.5803171</v>
+        <v>218157659.5803173</v>
       </c>
       <c r="CO8">
-        <v>221383317.0543701</v>
+        <v>221383317.0543703</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -7374,274 +7374,274 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>163668.3433783719</v>
+        <v>163668.343378372</v>
       </c>
       <c r="E9">
         <v>268103.0730300024</v>
       </c>
       <c r="F9">
-        <v>347615.0337144249</v>
+        <v>347615.033714425</v>
       </c>
       <c r="G9">
         <v>426773.7270594464</v>
       </c>
       <c r="H9">
-        <v>499749.8469830194</v>
+        <v>499749.8469830192</v>
       </c>
       <c r="I9">
-        <v>569818.3853347562</v>
+        <v>569818.385334756</v>
       </c>
       <c r="J9">
-        <v>634097.6090554106</v>
+        <v>634097.6090554103</v>
       </c>
       <c r="K9">
-        <v>701387.4737837635</v>
+        <v>701387.473783763</v>
       </c>
       <c r="L9">
-        <v>782843.3003167758</v>
+        <v>782843.3003167752</v>
       </c>
       <c r="M9">
-        <v>864674.2244604379</v>
+        <v>864674.2244604373</v>
       </c>
       <c r="N9">
-        <v>952182.3431805496</v>
+        <v>952182.343180549</v>
       </c>
       <c r="O9">
-        <v>1052853.431279529</v>
+        <v>1052853.431279528</v>
       </c>
       <c r="P9">
-        <v>2029931.239062967</v>
+        <v>2029931.239062965</v>
       </c>
       <c r="Q9">
-        <v>3008884.676357317</v>
+        <v>3008884.676357314</v>
       </c>
       <c r="R9">
-        <v>3990185.146451499</v>
+        <v>3990185.146451496</v>
       </c>
       <c r="S9">
-        <v>7173150.360114103</v>
+        <v>7173150.360114096</v>
       </c>
       <c r="T9">
-        <v>10359587.38420632</v>
+        <v>10359587.38420631</v>
       </c>
       <c r="U9">
-        <v>13550146.34783852</v>
+        <v>13550146.3478385</v>
       </c>
       <c r="V9">
-        <v>16745552.48021802</v>
+        <v>16745552.480218</v>
       </c>
       <c r="W9">
-        <v>19946644.04673718</v>
+        <v>19946644.04673716</v>
       </c>
       <c r="X9">
-        <v>23400479.94606227</v>
+        <v>23400479.94606224</v>
       </c>
       <c r="Y9">
-        <v>26862331.7744134</v>
+        <v>26862331.77441337</v>
       </c>
       <c r="Z9">
-        <v>30333954.68217031</v>
+        <v>30333954.68217028</v>
       </c>
       <c r="AA9">
-        <v>33817764.65388767</v>
+        <v>33817764.65388764</v>
       </c>
       <c r="AB9">
-        <v>37317120.31219588</v>
+        <v>37317120.31219584</v>
       </c>
       <c r="AC9">
-        <v>38440073.06470127</v>
+        <v>38440073.06470122</v>
       </c>
       <c r="AD9">
-        <v>39589577.42683501</v>
+        <v>39589577.42683496</v>
       </c>
       <c r="AE9">
-        <v>40774129.39886086</v>
+        <v>40774129.3988608</v>
       </c>
       <c r="AF9">
-        <v>42004783.9327277</v>
+        <v>42004783.93272764</v>
       </c>
       <c r="AG9">
-        <v>43295475.10143838</v>
+        <v>43295475.10143832</v>
       </c>
       <c r="AH9">
-        <v>43855529.75370105</v>
+        <v>43855529.75370099</v>
       </c>
       <c r="AI9">
-        <v>44496733.83752108</v>
+        <v>44496733.83752102</v>
       </c>
       <c r="AJ9">
-        <v>45238078.31804918</v>
+        <v>45238078.31804912</v>
       </c>
       <c r="AK9">
-        <v>46120643.16817621</v>
+        <v>46120643.16817615</v>
       </c>
       <c r="AL9">
-        <v>47169979.76335784</v>
+        <v>47169979.76335778</v>
       </c>
       <c r="AM9">
-        <v>48862916.16303739</v>
+        <v>48862916.16303733</v>
       </c>
       <c r="AN9">
-        <v>50763659.0821528</v>
+        <v>50763659.08215274</v>
       </c>
       <c r="AO9">
-        <v>52884904.21464521</v>
+        <v>52884904.21464515</v>
       </c>
       <c r="AP9">
-        <v>55231126.3941415</v>
+        <v>55231126.39414144</v>
       </c>
       <c r="AQ9">
-        <v>57796705.48254278</v>
+        <v>57796705.4825427</v>
       </c>
       <c r="AR9">
-        <v>61106575.91346747</v>
+        <v>61106575.91346738</v>
       </c>
       <c r="AS9">
-        <v>64590725.48604769</v>
+        <v>64590725.4860476</v>
       </c>
       <c r="AT9">
-        <v>68210690.81633925</v>
+        <v>68210690.81633915</v>
       </c>
       <c r="AU9">
-        <v>71920103.08150825</v>
+        <v>71920103.08150814</v>
       </c>
       <c r="AV9">
-        <v>75668035.45087206</v>
+        <v>75668035.45087196</v>
       </c>
       <c r="AW9">
-        <v>79581042.97634612</v>
+        <v>79581042.97634602</v>
       </c>
       <c r="AX9">
-        <v>83432891.43782929</v>
+        <v>83432891.43782917</v>
       </c>
       <c r="AY9">
-        <v>87182487.31194134</v>
+        <v>87182487.31194122</v>
       </c>
       <c r="AZ9">
-        <v>90798692.06315088</v>
+        <v>90798692.06315075</v>
       </c>
       <c r="BA9">
-        <v>94262350.9985137</v>
+        <v>94262350.99851356</v>
       </c>
       <c r="BB9">
-        <v>97478227.02314168</v>
+        <v>97478227.02314155</v>
       </c>
       <c r="BC9">
-        <v>100542771.956101</v>
+        <v>100542771.9561008</v>
       </c>
       <c r="BD9">
-        <v>103475903.3746879</v>
+        <v>103475903.3746878</v>
       </c>
       <c r="BE9">
-        <v>106308565.0207753</v>
+        <v>106308565.0207752</v>
       </c>
       <c r="BF9">
-        <v>109080184.0209911</v>
+        <v>109080184.0209909</v>
       </c>
       <c r="BG9">
-        <v>111791054.4806342</v>
+        <v>111791054.4806341</v>
       </c>
       <c r="BH9">
-        <v>114531836.5257457</v>
+        <v>114531836.5257455</v>
       </c>
       <c r="BI9">
-        <v>117347067.7001996</v>
+        <v>117347067.7001994</v>
       </c>
       <c r="BJ9">
-        <v>120276679.8916983</v>
+        <v>120276679.8916981</v>
       </c>
       <c r="BK9">
-        <v>123353913.8962249</v>
+        <v>123353913.8962247</v>
       </c>
       <c r="BL9">
-        <v>126609546.2113834</v>
+        <v>126609546.2113832</v>
       </c>
       <c r="BM9">
-        <v>130054352.1462822</v>
+        <v>130054352.146282</v>
       </c>
       <c r="BN9">
-        <v>133695539.265234</v>
+        <v>133695539.2652338</v>
       </c>
       <c r="BO9">
-        <v>137531275.5687953</v>
+        <v>137531275.5687951</v>
       </c>
       <c r="BP9">
-        <v>141551266.9873606</v>
+        <v>141551266.9873604</v>
       </c>
       <c r="BQ9">
-        <v>145746485.0972307</v>
+        <v>145746485.0972304</v>
       </c>
       <c r="BR9">
-        <v>150084586.0072051</v>
+        <v>150084586.0072048</v>
       </c>
       <c r="BS9">
-        <v>154537667.8081423</v>
+        <v>154537667.808142</v>
       </c>
       <c r="BT9">
-        <v>159075461.8563572</v>
+        <v>159075461.8563569</v>
       </c>
       <c r="BU9">
-        <v>163667238.6789798</v>
+        <v>163667238.6789795</v>
       </c>
       <c r="BV9">
-        <v>168274154.2360736</v>
+        <v>168274154.2360733</v>
       </c>
       <c r="BW9">
-        <v>172879551.9447567</v>
+        <v>172879551.9447565</v>
       </c>
       <c r="BX9">
-        <v>177461912.6243107</v>
+        <v>177461912.6243104</v>
       </c>
       <c r="BY9">
-        <v>182005545.1595242</v>
+        <v>182005545.1595239</v>
       </c>
       <c r="BZ9">
-        <v>186501324.5466498</v>
+        <v>186501324.5466495</v>
       </c>
       <c r="CA9">
-        <v>190919105.842911</v>
+        <v>190919105.8429107</v>
       </c>
       <c r="CB9">
-        <v>195291094.7109921</v>
+        <v>195291094.7109918</v>
       </c>
       <c r="CC9">
-        <v>199627655.7604842</v>
+        <v>199627655.7604838</v>
       </c>
       <c r="CD9">
-        <v>203944179.722411</v>
+        <v>203944179.7224106</v>
       </c>
       <c r="CE9">
-        <v>208259799.3928565</v>
+        <v>208259799.3928562</v>
       </c>
       <c r="CF9">
-        <v>212543449.1035799</v>
+        <v>212543449.1035796</v>
       </c>
       <c r="CG9">
-        <v>216869689.0023693</v>
+        <v>216869689.0023689</v>
       </c>
       <c r="CH9">
-        <v>221259808.5965346</v>
+        <v>221259808.5965342</v>
       </c>
       <c r="CI9">
-        <v>225732943.1686408</v>
+        <v>225732943.1686404</v>
       </c>
       <c r="CJ9">
-        <v>230304972.0228034</v>
+        <v>230304972.022803</v>
       </c>
       <c r="CK9">
-        <v>234903908.2562605</v>
+        <v>234903908.25626</v>
       </c>
       <c r="CL9">
-        <v>239620821.8571265</v>
+        <v>239620821.8571261</v>
       </c>
       <c r="CM9">
-        <v>244458253.105576</v>
+        <v>244458253.1055755</v>
       </c>
       <c r="CN9">
-        <v>249414151.8923765</v>
+        <v>249414151.892376</v>
       </c>
       <c r="CO9">
-        <v>254482285.2789041</v>
+        <v>254482285.2789036</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -7721,40 +7721,40 @@
         <v>315.4575545412262</v>
       </c>
       <c r="Z10">
-        <v>334.9679780384122</v>
+        <v>334.9679780384123</v>
       </c>
       <c r="AA10">
-        <v>354.8904478216127</v>
+        <v>354.8904478216128</v>
       </c>
       <c r="AB10">
         <v>375.2258873889641</v>
       </c>
       <c r="AC10">
-        <v>394.8758789545204</v>
+        <v>394.8758789545205</v>
       </c>
       <c r="AD10">
-        <v>414.9508825960025</v>
+        <v>414.9508825960026</v>
       </c>
       <c r="AE10">
         <v>435.4542363257846</v>
       </c>
       <c r="AF10">
-        <v>456.3826639871705</v>
+        <v>456.3826639871706</v>
       </c>
       <c r="AG10">
         <v>477.7396750187168</v>
       </c>
       <c r="AH10">
-        <v>499.2173505604889</v>
+        <v>499.217350560489</v>
       </c>
       <c r="AI10">
-        <v>521.142839273966</v>
+        <v>521.1428392739662</v>
       </c>
       <c r="AJ10">
-        <v>543.529569699711</v>
+        <v>543.5295696997111</v>
       </c>
       <c r="AK10">
-        <v>566.3882459772008</v>
+        <v>566.3882459772009</v>
       </c>
       <c r="AL10">
         <v>589.7351850784539</v>
@@ -7859,7 +7859,7 @@
         <v>1651.023955646512</v>
       </c>
       <c r="BT10">
-        <v>1692.878687831406</v>
+        <v>1692.878687831407</v>
       </c>
       <c r="BU10">
         <v>1735.301714068551</v>
@@ -7877,7 +7877,7 @@
         <v>1910.722547392445</v>
       </c>
       <c r="BZ10">
-        <v>1956.087770299654</v>
+        <v>1956.087770299655</v>
       </c>
       <c r="CA10">
         <v>2002.097354338107</v>
@@ -7932,7 +7932,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.5364284207062042</v>
+        <v>0.5364284207062041</v>
       </c>
       <c r="E11">
         <v>1.074341133890435</v>
@@ -7944,37 +7944,37 @@
         <v>2.199787766767588</v>
       </c>
       <c r="H11">
-        <v>2.759025064817042</v>
+        <v>2.759025064817041</v>
       </c>
       <c r="I11">
-        <v>3.309665536380189</v>
+        <v>3.309665536380188</v>
       </c>
       <c r="J11">
-        <v>3.876874269333088</v>
+        <v>3.876874269333087</v>
       </c>
       <c r="K11">
-        <v>4.49981326996098</v>
+        <v>4.499813269960979</v>
       </c>
       <c r="L11">
-        <v>5.140324848350729</v>
+        <v>5.140324848350728</v>
       </c>
       <c r="M11">
-        <v>5.825037558596487</v>
+        <v>5.825037558596486</v>
       </c>
       <c r="N11">
-        <v>6.552815246283903</v>
+        <v>6.552815246283902</v>
       </c>
       <c r="O11">
-        <v>7.218311374933311</v>
+        <v>7.21831137493331</v>
       </c>
       <c r="P11">
-        <v>7.934496868104204</v>
+        <v>7.934496868104203</v>
       </c>
       <c r="Q11">
-        <v>8.668697962801831</v>
+        <v>8.668697962801829</v>
       </c>
       <c r="R11">
-        <v>9.420833909232982</v>
+        <v>9.42083390923298</v>
       </c>
       <c r="S11">
         <v>10.2352669993268</v>
@@ -8082,91 +8082,91 @@
         <v>49.67177363449547</v>
       </c>
       <c r="BB11">
-        <v>51.21003204648884</v>
+        <v>51.21003204648885</v>
       </c>
       <c r="BC11">
-        <v>52.7709908943729</v>
+        <v>52.77099089437291</v>
       </c>
       <c r="BD11">
         <v>54.3544743869472</v>
       </c>
       <c r="BE11">
-        <v>55.96082687548133</v>
+        <v>55.96082687548135</v>
       </c>
       <c r="BF11">
-        <v>57.59107472320422</v>
+        <v>57.59107472320423</v>
       </c>
       <c r="BG11">
-        <v>59.24686123715207</v>
+        <v>59.24686123715208</v>
       </c>
       <c r="BH11">
-        <v>60.93039683375649</v>
+        <v>60.9303968337565</v>
       </c>
       <c r="BI11">
-        <v>62.64337993766564</v>
+        <v>62.64337993766566</v>
       </c>
       <c r="BJ11">
-        <v>64.38737429049523</v>
+        <v>64.38737429049526</v>
       </c>
       <c r="BK11">
-        <v>66.16317641751084</v>
+        <v>66.16317641751087</v>
       </c>
       <c r="BL11">
-        <v>67.97204104935477</v>
+        <v>67.9720410493548</v>
       </c>
       <c r="BM11">
-        <v>69.81455502185416</v>
+        <v>69.81455502185419</v>
       </c>
       <c r="BN11">
-        <v>71.69008191366616</v>
+        <v>71.69008191366619</v>
       </c>
       <c r="BO11">
-        <v>73.59760376937189</v>
+        <v>73.59760376937191</v>
       </c>
       <c r="BP11">
-        <v>75.53567607145592</v>
+        <v>75.53567607145595</v>
       </c>
       <c r="BQ11">
-        <v>77.50503881145983</v>
+        <v>77.50503881145985</v>
       </c>
       <c r="BR11">
-        <v>79.50533091735196</v>
+        <v>79.50533091735198</v>
       </c>
       <c r="BS11">
-        <v>81.53598653731819</v>
+        <v>81.53598653731822</v>
       </c>
       <c r="BT11">
-        <v>83.59600987294196</v>
+        <v>83.59600987294199</v>
       </c>
       <c r="BU11">
-        <v>85.68378183137104</v>
+        <v>85.68378183137106</v>
       </c>
       <c r="BV11">
-        <v>87.79914608229585</v>
+        <v>87.79914608229588</v>
       </c>
       <c r="BW11">
-        <v>89.94211346724633</v>
+        <v>89.94211346724636</v>
       </c>
       <c r="BX11">
-        <v>92.11388138647523</v>
+        <v>92.11388138647526</v>
       </c>
       <c r="BY11">
-        <v>94.31572437449319</v>
+        <v>94.31572437449321</v>
       </c>
       <c r="BZ11">
-        <v>96.54783962426777</v>
+        <v>96.54783962426779</v>
       </c>
       <c r="CA11">
-        <v>98.81161186543351</v>
+        <v>98.81161186543353</v>
       </c>
       <c r="CB11">
-        <v>101.1075336991979</v>
+        <v>101.107533699198</v>
       </c>
       <c r="CC11">
-        <v>103.4360427896489</v>
+        <v>103.436042789649</v>
       </c>
       <c r="CD11">
-        <v>105.7977893151164</v>
+        <v>105.7977893151165</v>
       </c>
       <c r="CE11">
         <v>108.1935800837616</v>
@@ -8187,16 +8187,16 @@
         <v>120.7477466363272</v>
       </c>
       <c r="CK11">
-        <v>123.3768357853981</v>
+        <v>123.3768357853982</v>
       </c>
       <c r="CL11">
-        <v>126.0456827300272</v>
+        <v>126.0456827300273</v>
       </c>
       <c r="CM11">
         <v>128.7533567363014</v>
       </c>
       <c r="CN11">
-        <v>131.4991123551048</v>
+        <v>131.4991123551049</v>
       </c>
       <c r="CO11">
         <v>134.2824234930497</v>
@@ -8212,10 +8212,10 @@
         <v>250283.1304847016</v>
       </c>
       <c r="E12">
-        <v>495509.8970772301</v>
+        <v>495509.8970772302</v>
       </c>
       <c r="F12">
-        <v>825826.9110064282</v>
+        <v>825826.9110064283</v>
       </c>
       <c r="G12">
         <v>1316871.304884082</v>
@@ -8245,7 +8245,7 @@
         <v>4705706.89341303</v>
       </c>
       <c r="P12">
-        <v>8269040.982741106</v>
+        <v>8269040.982741104</v>
       </c>
       <c r="Q12">
         <v>11839382.96185424</v>
@@ -8254,25 +8254,25 @@
         <v>15416784.0730799</v>
       </c>
       <c r="S12">
-        <v>27154952.38924775</v>
+        <v>27154952.38924774</v>
       </c>
       <c r="T12">
-        <v>38906023.45710477</v>
+        <v>38906023.45710476</v>
       </c>
       <c r="U12">
-        <v>50669846.76236704</v>
+        <v>50669846.76236702</v>
       </c>
       <c r="V12">
-        <v>62446945.72936212</v>
+        <v>62446945.72936209</v>
       </c>
       <c r="W12">
-        <v>74237321.91747186</v>
+        <v>74237321.91747183</v>
       </c>
       <c r="X12">
-        <v>88038589.64758553</v>
+        <v>88038589.6475855</v>
       </c>
       <c r="Y12">
-        <v>101861082.5360742</v>
+        <v>101861082.5360741</v>
       </c>
       <c r="Z12">
         <v>115709474.5415312</v>
@@ -8281,40 +8281,40 @@
         <v>129590058.498868</v>
       </c>
       <c r="AB12">
-        <v>143510070.7840664</v>
+        <v>143510070.7840663</v>
       </c>
       <c r="AC12">
-        <v>149044273.5346457</v>
+        <v>149044273.5346456</v>
       </c>
       <c r="AD12">
         <v>154637533.8343863</v>
       </c>
       <c r="AE12">
-        <v>160298507.817433</v>
+        <v>160298507.8174329</v>
       </c>
       <c r="AF12">
         <v>166041565.0950643</v>
       </c>
       <c r="AG12">
-        <v>171889137.8452226</v>
+        <v>171889137.8452225</v>
       </c>
       <c r="AH12">
-        <v>174791097.637117</v>
+        <v>174791097.6371169</v>
       </c>
       <c r="AI12">
-        <v>177854951.7953887</v>
+        <v>177854951.7953886</v>
       </c>
       <c r="AJ12">
-        <v>181125926.9449652</v>
+        <v>181125926.9449651</v>
       </c>
       <c r="AK12">
         <v>184663808.4995865</v>
       </c>
       <c r="AL12">
-        <v>188540347.918402</v>
+        <v>188540347.9184019</v>
       </c>
       <c r="AM12">
-        <v>194587001.6765226</v>
+        <v>194587001.6765225</v>
       </c>
       <c r="AN12">
         <v>201071216.1933185</v>
@@ -8332,10 +8332,10 @@
         <v>234392322.118538</v>
       </c>
       <c r="AS12">
-        <v>245657758.4883119</v>
+        <v>245657758.4883118</v>
       </c>
       <c r="AT12">
-        <v>257201231.4445373</v>
+        <v>257201231.4445372</v>
       </c>
       <c r="AU12">
         <v>268951921.4264907</v>
@@ -8344,7 +8344,7 @@
         <v>280825425.7584355</v>
       </c>
       <c r="AW12">
-        <v>293629714.511938</v>
+        <v>293629714.5119379</v>
       </c>
       <c r="AX12">
         <v>306344808.185971</v>
@@ -8353,130 +8353,130 @@
         <v>318834246.3309842</v>
       </c>
       <c r="AZ12">
-        <v>330998727.5652496</v>
+        <v>330998727.5652494</v>
       </c>
       <c r="BA12">
-        <v>342882181.9796681</v>
+        <v>342882181.979668</v>
       </c>
       <c r="BB12">
-        <v>354080729.4613555</v>
+        <v>354080729.4613554</v>
       </c>
       <c r="BC12">
-        <v>365053894.7085438</v>
+        <v>365053894.7085437</v>
       </c>
       <c r="BD12">
-        <v>375807114.5361261</v>
+        <v>375807114.536126</v>
       </c>
       <c r="BE12">
-        <v>386375353.1534261</v>
+        <v>386375353.1534259</v>
       </c>
       <c r="BF12">
-        <v>396855148.4339191</v>
+        <v>396855148.4339189</v>
       </c>
       <c r="BG12">
-        <v>407184800.8968056</v>
+        <v>407184800.8968055</v>
       </c>
       <c r="BH12">
-        <v>417647872.5805553</v>
+        <v>417647872.5805551</v>
       </c>
       <c r="BI12">
-        <v>428356651.1557366</v>
+        <v>428356651.1557364</v>
       </c>
       <c r="BJ12">
-        <v>439406985.266329</v>
+        <v>439406985.2663288</v>
       </c>
       <c r="BK12">
-        <v>450849712.3310741</v>
+        <v>450849712.3310739</v>
       </c>
       <c r="BL12">
-        <v>462827806.4121829</v>
+        <v>462827806.4121827</v>
       </c>
       <c r="BM12">
-        <v>475271161.7524806</v>
+        <v>475271161.7524804</v>
       </c>
       <c r="BN12">
-        <v>488192793.8736818</v>
+        <v>488192793.8736816</v>
       </c>
       <c r="BO12">
-        <v>501580069.6097936</v>
+        <v>501580069.6097934</v>
       </c>
       <c r="BP12">
-        <v>515372306.915567</v>
+        <v>515372306.9155668</v>
       </c>
       <c r="BQ12">
-        <v>529609841.8893673</v>
+        <v>529609841.8893671</v>
       </c>
       <c r="BR12">
-        <v>544149642.1010871</v>
+        <v>544149642.1010869</v>
       </c>
       <c r="BS12">
-        <v>558940738.3159429</v>
+        <v>558940738.3159426</v>
       </c>
       <c r="BT12">
-        <v>573913610.7193875</v>
+        <v>573913610.7193873</v>
       </c>
       <c r="BU12">
-        <v>588974179.4840348</v>
+        <v>588974179.4840344</v>
       </c>
       <c r="BV12">
-        <v>604031351.6436877</v>
+        <v>604031351.6436874</v>
       </c>
       <c r="BW12">
-        <v>619035631.03152</v>
+        <v>619035631.0315197</v>
       </c>
       <c r="BX12">
-        <v>633974212.4228548</v>
+        <v>633974212.4228544</v>
       </c>
       <c r="BY12">
-        <v>648845860.3377757</v>
+        <v>648845860.3377753</v>
       </c>
       <c r="BZ12">
-        <v>663651657.2367396</v>
+        <v>663651657.2367393</v>
       </c>
       <c r="CA12">
-        <v>678277321.8190429</v>
+        <v>678277321.8190426</v>
       </c>
       <c r="CB12">
-        <v>692848106.3391143</v>
+        <v>692848106.339114</v>
       </c>
       <c r="CC12">
-        <v>707400233.108977</v>
+        <v>707400233.1089766</v>
       </c>
       <c r="CD12">
-        <v>721989095.2962255</v>
+        <v>721989095.2962252</v>
       </c>
       <c r="CE12">
-        <v>736684732.768786</v>
+        <v>736684732.7687856</v>
       </c>
       <c r="CF12">
-        <v>751289100.9849471</v>
+        <v>751289100.9849467</v>
       </c>
       <c r="CG12">
-        <v>766119033.983923</v>
+        <v>766119033.9839226</v>
       </c>
       <c r="CH12">
-        <v>781210312.1524031</v>
+        <v>781210312.1524028</v>
       </c>
       <c r="CI12">
-        <v>796590575.6073954</v>
+        <v>796590575.6073951</v>
       </c>
       <c r="CJ12">
-        <v>812283996.4229664</v>
+        <v>812283996.422966</v>
       </c>
       <c r="CK12">
-        <v>827856046.5600561</v>
+        <v>827856046.5600557</v>
       </c>
       <c r="CL12">
-        <v>843743370.2647524</v>
+        <v>843743370.264752</v>
       </c>
       <c r="CM12">
-        <v>859921599.431916</v>
+        <v>859921599.4319156</v>
       </c>
       <c r="CN12">
-        <v>876363576.5282174</v>
+        <v>876363576.5282171</v>
       </c>
       <c r="CO12">
-        <v>893044870.5300362</v>
+        <v>893044870.5300359</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -8486,55 +8486,55 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147309.1672309121</v>
+        <v>147309.1672309122</v>
       </c>
       <c r="E13">
-        <v>241307.2879898775</v>
+        <v>241307.2879898776</v>
       </c>
       <c r="F13">
-        <v>312879.1081352311</v>
+        <v>312879.1081352313</v>
       </c>
       <c r="G13">
-        <v>384136.578156005</v>
+        <v>384136.5781560051</v>
       </c>
       <c r="H13">
-        <v>449828.3833336952</v>
+        <v>449828.3833336954</v>
       </c>
       <c r="I13">
-        <v>512904.381052678</v>
+        <v>512904.3810526782</v>
       </c>
       <c r="J13">
-        <v>570769.2370338946</v>
+        <v>570769.2370338949</v>
       </c>
       <c r="K13">
-        <v>631343.6519681399</v>
+        <v>631343.6519681402</v>
       </c>
       <c r="L13">
-        <v>704668.5337865483</v>
+        <v>704668.5337865485</v>
       </c>
       <c r="M13">
-        <v>778331.050101638</v>
+        <v>778331.0501016382</v>
       </c>
       <c r="N13">
-        <v>857102.3416890095</v>
+        <v>857102.3416890097</v>
       </c>
       <c r="O13">
-        <v>947721.2344313918</v>
+        <v>947721.2344313922</v>
       </c>
       <c r="P13">
         <v>1827270.974364983</v>
       </c>
       <c r="Q13">
-        <v>2708508.908629006</v>
+        <v>2708508.908629007</v>
       </c>
       <c r="R13">
-        <v>3591859.339575013</v>
+        <v>3591859.339575014</v>
       </c>
       <c r="S13">
         <v>6457123.882823505</v>
       </c>
       <c r="T13">
-        <v>9325513.334398024</v>
+        <v>9325513.334398026</v>
       </c>
       <c r="U13">
         <v>12197612.89034069</v>
@@ -8543,16 +8543,16 @@
         <v>15074075.36289145</v>
       </c>
       <c r="W13">
-        <v>17955655.33630825</v>
+        <v>17955655.33630826</v>
       </c>
       <c r="X13">
-        <v>21064781.1694507</v>
+        <v>21064781.16945071</v>
       </c>
       <c r="Y13">
-        <v>24181122.44089715</v>
+        <v>24181122.44089716</v>
       </c>
       <c r="Z13">
-        <v>27306259.19001917</v>
+        <v>27306259.19001918</v>
       </c>
       <c r="AA13">
         <v>30442366.36254992</v>
@@ -8561,100 +8561,100 @@
         <v>33592467.48123819</v>
       </c>
       <c r="AC13">
-        <v>34603370.95564977</v>
+        <v>34603370.95564978</v>
       </c>
       <c r="AD13">
-        <v>35638176.06475279</v>
+        <v>35638176.0647528</v>
       </c>
       <c r="AE13">
-        <v>36704530.92915565</v>
+        <v>36704530.92915566</v>
       </c>
       <c r="AF13">
-        <v>37812387.16929054</v>
+        <v>37812387.16929055</v>
       </c>
       <c r="AG13">
-        <v>38974288.10635319</v>
+        <v>38974288.1063532</v>
       </c>
       <c r="AH13">
-        <v>39478481.42277615</v>
+        <v>39478481.42277616</v>
       </c>
       <c r="AI13">
-        <v>40055723.68875936</v>
+        <v>40055723.68875937</v>
       </c>
       <c r="AJ13">
         <v>40723110.02590346</v>
       </c>
       <c r="AK13">
-        <v>41517621.34862645</v>
+        <v>41517621.34862646</v>
       </c>
       <c r="AL13">
-        <v>42462258.78749713</v>
+        <v>42462258.78749714</v>
       </c>
       <c r="AM13">
         <v>43986257.87128612</v>
       </c>
       <c r="AN13">
-        <v>45697322.21786283</v>
+        <v>45697322.21786284</v>
       </c>
       <c r="AO13">
         <v>47606880.52122696</v>
       </c>
       <c r="AP13">
-        <v>49718961.22675717</v>
+        <v>49718961.22675718</v>
       </c>
       <c r="AQ13">
-        <v>52028505.46477194</v>
+        <v>52028505.46477195</v>
       </c>
       <c r="AR13">
-        <v>55008076.15945306</v>
+        <v>55008076.15945307</v>
       </c>
       <c r="AS13">
-        <v>58144532.63539256</v>
+        <v>58144532.63539257</v>
       </c>
       <c r="AT13">
-        <v>61403250.97120349</v>
+        <v>61403250.9712035</v>
       </c>
       <c r="AU13">
-        <v>64742490.82909046</v>
+        <v>64742490.82909047</v>
       </c>
       <c r="AV13">
-        <v>68116408.74732839</v>
+        <v>68116408.7473284</v>
       </c>
       <c r="AW13">
-        <v>71638934.61657222</v>
+        <v>71638934.61657223</v>
       </c>
       <c r="AX13">
-        <v>75106408.81747828</v>
+        <v>75106408.8174783</v>
       </c>
       <c r="AY13">
-        <v>78481839.43636939</v>
+        <v>78481839.4363694</v>
       </c>
       <c r="AZ13">
-        <v>81737195.82620876</v>
+        <v>81737195.82620877</v>
       </c>
       <c r="BA13">
-        <v>84855234.97520731</v>
+        <v>84855234.97520733</v>
       </c>
       <c r="BB13">
-        <v>87750222.2589422</v>
+        <v>87750222.25894222</v>
       </c>
       <c r="BC13">
-        <v>90508985.29221801</v>
+        <v>90508985.29221803</v>
       </c>
       <c r="BD13">
-        <v>93149453.39799404</v>
+        <v>93149453.39799406</v>
       </c>
       <c r="BE13">
-        <v>95699481.55789287</v>
+        <v>95699481.55789289</v>
       </c>
       <c r="BF13">
-        <v>98194561.45070355</v>
+        <v>98194561.45070356</v>
       </c>
       <c r="BG13">
-        <v>100634957.9210942</v>
+        <v>100634957.9210943</v>
       </c>
       <c r="BH13">
-        <v>103102281.9490976</v>
+        <v>103102281.9490977</v>
       </c>
       <c r="BI13">
         <v>105636625.7730869</v>
@@ -8669,7 +8669,7 @@
         <v>113974931.7033424</v>
       </c>
       <c r="BM13">
-        <v>117076022.7251801</v>
+        <v>117076022.7251802</v>
       </c>
       <c r="BN13">
         <v>120353896.6567869</v>
@@ -8687,7 +8687,7 @@
         <v>135107643.8053415</v>
       </c>
       <c r="BS13">
-        <v>139116396.4543406</v>
+        <v>139116396.4543407</v>
       </c>
       <c r="BT13">
         <v>143201409.9279379</v>
@@ -8705,19 +8705,19 @@
         <v>159753293.4220193</v>
       </c>
       <c r="BY13">
-        <v>163843580.0254147</v>
+        <v>163843580.0254148</v>
       </c>
       <c r="BZ13">
         <v>167890792.3693219</v>
       </c>
       <c r="CA13">
-        <v>171867793.9615244</v>
+        <v>171867793.9615245</v>
       </c>
       <c r="CB13">
         <v>175803576.0376531</v>
       </c>
       <c r="CC13">
-        <v>179707468.6237393</v>
+        <v>179707468.6237394</v>
       </c>
       <c r="CD13">
         <v>183593326.2519964</v>
@@ -8726,31 +8726,31 @@
         <v>187478372.066777</v>
       </c>
       <c r="CF13">
-        <v>191334639.408428</v>
+        <v>191334639.4084281</v>
       </c>
       <c r="CG13">
         <v>195229248.3347891</v>
       </c>
       <c r="CH13">
-        <v>199181363.5471368</v>
+        <v>199181363.5471369</v>
       </c>
       <c r="CI13">
         <v>203208210.558245</v>
       </c>
       <c r="CJ13">
-        <v>207324083.8970714</v>
+        <v>207324083.8970715</v>
       </c>
       <c r="CK13">
-        <v>211464178.6376178</v>
+        <v>211464178.6376179</v>
       </c>
       <c r="CL13">
-        <v>215710478.398396</v>
+        <v>215710478.3983961</v>
       </c>
       <c r="CM13">
         <v>220065270.0490484</v>
       </c>
       <c r="CN13">
-        <v>224526708.2187476</v>
+        <v>224526708.2187477</v>
       </c>
       <c r="CO13">
         <v>229089182.1705291</v>
@@ -8788,13 +8788,13 @@
         <v>12.44192255533659</v>
       </c>
       <c r="K14">
-        <v>14.47597890462187</v>
+        <v>14.47597890462186</v>
       </c>
       <c r="L14">
-        <v>16.53415513358451</v>
+        <v>16.5341551335845</v>
       </c>
       <c r="M14">
-        <v>18.72626451407426</v>
+        <v>18.72626451407425</v>
       </c>
       <c r="N14">
         <v>21.05495916977976</v>
@@ -8803,7 +8803,7 @@
         <v>23.18361689746845</v>
       </c>
       <c r="P14">
-        <v>25.48081404899286</v>
+        <v>25.48081404899285</v>
       </c>
       <c r="Q14">
         <v>27.8345226940572</v>
@@ -8812,22 +8812,22 @@
         <v>30.24447392918509</v>
       </c>
       <c r="S14">
-        <v>32.87467577370993</v>
+        <v>32.87467577370992</v>
       </c>
       <c r="T14">
-        <v>35.57236828250547</v>
+        <v>35.57236828250546</v>
       </c>
       <c r="U14">
-        <v>38.33778872111994</v>
+        <v>38.33778872111993</v>
       </c>
       <c r="V14">
         <v>41.17113006115724</v>
       </c>
       <c r="W14">
-        <v>44.07253743632439</v>
+        <v>44.07253743632438</v>
       </c>
       <c r="X14">
-        <v>47.03864341119865</v>
+        <v>47.03864341119864</v>
       </c>
       <c r="Y14">
         <v>50.07014794129655</v>
@@ -8836,10 +8836,10 @@
         <v>53.16688719143801</v>
       </c>
       <c r="AA14">
-        <v>56.32902737492979</v>
+        <v>56.32902737492978</v>
       </c>
       <c r="AB14">
-        <v>59.55671507151818</v>
+        <v>59.55671507151817</v>
       </c>
       <c r="AC14">
         <v>62.67560688618244</v>
@@ -8950,10 +8950,10 @@
         <v>218.35698535045</v>
       </c>
       <c r="BM14">
-        <v>224.2863834415942</v>
+        <v>224.2863834415941</v>
       </c>
       <c r="BN14">
-        <v>230.3245133216847</v>
+        <v>230.3245133216846</v>
       </c>
       <c r="BO14">
         <v>236.4679917436658</v>
@@ -8962,7 +8962,7 @@
         <v>242.7119409425085</v>
       </c>
       <c r="BQ14">
-        <v>249.0586906759961</v>
+        <v>249.058690675996</v>
       </c>
       <c r="BR14">
         <v>255.5068405610834</v>
@@ -8971,55 +8971,55 @@
         <v>262.0543160998922</v>
       </c>
       <c r="BT14">
-        <v>268.6975953695511</v>
+        <v>268.697595369551</v>
       </c>
       <c r="BU14">
-        <v>275.4310755770563</v>
+        <v>275.4310755770562</v>
       </c>
       <c r="BV14">
-        <v>282.2539862978061</v>
+        <v>282.253986297806</v>
       </c>
       <c r="BW14">
-        <v>289.1662454273284</v>
+        <v>289.1662454273283</v>
       </c>
       <c r="BX14">
         <v>296.1716401973001</v>
       </c>
       <c r="BY14">
-        <v>303.2742733387541</v>
+        <v>303.274273338754</v>
       </c>
       <c r="BZ14">
-        <v>310.4747457625553</v>
+        <v>310.4747457625552</v>
       </c>
       <c r="CA14">
         <v>317.7774926657738</v>
       </c>
       <c r="CB14">
-        <v>325.1843437093416</v>
+        <v>325.1843437093415</v>
       </c>
       <c r="CC14">
-        <v>332.6968387353841</v>
+        <v>332.696838735384</v>
       </c>
       <c r="CD14">
         <v>340.3172683976412</v>
       </c>
       <c r="CE14">
-        <v>348.0484787338669</v>
+        <v>348.0484787338668</v>
       </c>
       <c r="CF14">
-        <v>355.8999087935491</v>
+        <v>355.899908793549</v>
       </c>
       <c r="CG14">
-        <v>363.8778257939378</v>
+        <v>363.8778257939377</v>
       </c>
       <c r="CH14">
         <v>371.984218076884</v>
       </c>
       <c r="CI14">
-        <v>380.2198303819667</v>
+        <v>380.2198303819666</v>
       </c>
       <c r="CJ14">
-        <v>388.584369257201</v>
+        <v>388.5843692572009</v>
       </c>
       <c r="CK14">
         <v>397.0789085885118</v>
@@ -9031,10 +9031,10 @@
         <v>414.4566931370181</v>
       </c>
       <c r="CN14">
-        <v>423.3343695052688</v>
+        <v>423.3343695052687</v>
       </c>
       <c r="CO14">
-        <v>432.3352796205037</v>
+        <v>432.3352796205036</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -9044,34 +9044,34 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.08514315158417157</v>
+        <v>0.08514315158417154</v>
       </c>
       <c r="E15">
-        <v>0.1705218934811859</v>
+        <v>0.1705218934811858</v>
       </c>
       <c r="F15">
-        <v>0.2593704580660789</v>
+        <v>0.2593704580660788</v>
       </c>
       <c r="G15">
-        <v>0.3491553691959949</v>
+        <v>0.3491553691959947</v>
       </c>
       <c r="H15">
-        <v>0.4379187982042158</v>
+        <v>0.4379187982042156</v>
       </c>
       <c r="I15">
-        <v>0.5253177191580297</v>
+        <v>0.5253177191580295</v>
       </c>
       <c r="J15">
-        <v>0.6153463926315492</v>
+        <v>0.615346392631549</v>
       </c>
       <c r="K15">
-        <v>0.7142207022520715</v>
+        <v>0.7142207022520712</v>
       </c>
       <c r="L15">
-        <v>0.8158841717946811</v>
+        <v>0.8158841717946809</v>
       </c>
       <c r="M15">
-        <v>0.9245633465545007</v>
+        <v>0.9245633465545003</v>
       </c>
       <c r="N15">
         <v>1.040077893492134</v>
@@ -9098,127 +9098,127 @@
         <v>1.893211954001836</v>
       </c>
       <c r="V15">
-        <v>2.032610506574711</v>
+        <v>2.03261050657471</v>
       </c>
       <c r="W15">
-        <v>2.175402370326762</v>
+        <v>2.175402370326761</v>
       </c>
       <c r="X15">
-        <v>2.321330835191867</v>
+        <v>2.321330835191866</v>
       </c>
       <c r="Y15">
-        <v>2.470512957629648</v>
+        <v>2.470512957629647</v>
       </c>
       <c r="Z15">
-        <v>2.622939999718531</v>
+        <v>2.622939999718529</v>
       </c>
       <c r="AA15">
-        <v>2.778618619586267</v>
+        <v>2.778618619586266</v>
       </c>
       <c r="AB15">
-        <v>2.937554174598885</v>
+        <v>2.937554174598883</v>
       </c>
       <c r="AC15">
-        <v>3.092248598153775</v>
+        <v>3.092248598153773</v>
       </c>
       <c r="AD15">
-        <v>3.250284188248846</v>
+        <v>3.250284188248845</v>
       </c>
       <c r="AE15">
-        <v>3.411683196710238</v>
+        <v>3.411683196710237</v>
       </c>
       <c r="AF15">
-        <v>3.576415950236356</v>
+        <v>3.576415950236354</v>
       </c>
       <c r="AG15">
-        <v>3.744504543083419</v>
+        <v>3.744504543083417</v>
       </c>
       <c r="AH15">
-        <v>3.913895297962864</v>
+        <v>3.913895297962863</v>
       </c>
       <c r="AI15">
-        <v>4.086774842436095</v>
+        <v>4.086774842436093</v>
       </c>
       <c r="AJ15">
-        <v>4.263239376920649</v>
+        <v>4.263239376920647</v>
       </c>
       <c r="AK15">
-        <v>4.443357842489201</v>
+        <v>4.443357842489199</v>
       </c>
       <c r="AL15">
-        <v>4.627245383949828</v>
+        <v>4.627245383949826</v>
       </c>
       <c r="AM15">
-        <v>4.816144055368271</v>
+        <v>4.81614405536827</v>
       </c>
       <c r="AN15">
-        <v>5.009184144854967</v>
+        <v>5.009184144854965</v>
       </c>
       <c r="AO15">
-        <v>5.206567311106214</v>
+        <v>5.206567311106213</v>
       </c>
       <c r="AP15">
-        <v>5.408484199459714</v>
+        <v>5.408484199459712</v>
       </c>
       <c r="AQ15">
-        <v>5.614551959454592</v>
+        <v>5.61455195945459</v>
       </c>
       <c r="AR15">
-        <v>5.825963626135321</v>
+        <v>5.825963626135319</v>
       </c>
       <c r="AS15">
-        <v>6.041092309260937</v>
+        <v>6.041092309260935</v>
       </c>
       <c r="AT15">
-        <v>6.259814385967452</v>
+        <v>6.25981438596745</v>
       </c>
       <c r="AU15">
-        <v>6.481997344875864</v>
+        <v>6.481997344875862</v>
       </c>
       <c r="AV15">
-        <v>6.70756340257875</v>
+        <v>6.707563402578749</v>
       </c>
       <c r="AW15">
-        <v>6.93702691600699</v>
+        <v>6.937026916006988</v>
       </c>
       <c r="AX15">
-        <v>7.169727617685758</v>
+        <v>7.169727617685756</v>
       </c>
       <c r="AY15">
-        <v>7.405210003691458</v>
+        <v>7.405210003691456</v>
       </c>
       <c r="AZ15">
-        <v>7.643168289098545</v>
+        <v>7.643168289098544</v>
       </c>
       <c r="BA15">
-        <v>7.884018051185246</v>
+        <v>7.884018051185244</v>
       </c>
       <c r="BB15">
-        <v>8.1281739610745</v>
+        <v>8.128173961074499</v>
       </c>
       <c r="BC15">
-        <v>8.375932936311267</v>
+        <v>8.375932936311266</v>
       </c>
       <c r="BD15">
-        <v>8.627267074912263</v>
+        <v>8.627267074912261</v>
       </c>
       <c r="BE15">
-        <v>8.882231033102279</v>
+        <v>8.882231033102277</v>
       </c>
       <c r="BF15">
-        <v>9.14098771761147</v>
+        <v>9.140987717611468</v>
       </c>
       <c r="BG15">
-        <v>9.403797957908752</v>
+        <v>9.403797957908751</v>
       </c>
       <c r="BH15">
-        <v>9.671012596369426</v>
+        <v>9.671012596369424</v>
       </c>
       <c r="BI15">
-        <v>9.942901210856432</v>
+        <v>9.94290121085643</v>
       </c>
       <c r="BJ15">
-        <v>10.21971200203231</v>
+        <v>10.2197120020323</v>
       </c>
       <c r="BK15">
         <v>10.50157139621752</v>
@@ -9272,13 +9272,13 @@
         <v>15.6836060927926</v>
       </c>
       <c r="CB15">
-        <v>16.04802008200717</v>
+        <v>16.04802008200716</v>
       </c>
       <c r="CC15">
         <v>16.41760639548471</v>
       </c>
       <c r="CD15">
-        <v>16.79246823102382</v>
+        <v>16.79246823102381</v>
       </c>
       <c r="CE15">
         <v>17.17273364706976</v>
@@ -9287,10 +9287,10 @@
         <v>17.55886099710459</v>
       </c>
       <c r="CG15">
-        <v>17.95112767054806</v>
+        <v>17.95112767054805</v>
       </c>
       <c r="CH15">
-        <v>18.3496216805757</v>
+        <v>18.34962168057569</v>
       </c>
       <c r="CI15">
         <v>18.75437225654533</v>
@@ -9308,10 +9308,10 @@
         <v>20.43602864131961</v>
       </c>
       <c r="CN15">
-        <v>20.87184128256092</v>
+        <v>20.87184128256091</v>
       </c>
       <c r="CO15">
-        <v>21.31361482209854</v>
+        <v>21.31361482209853</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -9360,10 +9360,10 @@
         <v>3865919.712971976</v>
       </c>
       <c r="Q16">
-        <v>5226202.493863207</v>
+        <v>5226202.493863206</v>
       </c>
       <c r="R16">
-        <v>6588825.272871148</v>
+        <v>6588825.272871146</v>
       </c>
       <c r="S16">
         <v>10863773.3250411</v>
@@ -9390,7 +9390,7 @@
         <v>39815655.96103691</v>
       </c>
       <c r="AA16">
-        <v>43751847.05671592</v>
+        <v>43751847.05671591</v>
       </c>
       <c r="AB16">
         <v>47697378.37203068</v>
@@ -9399,13 +9399,13 @@
         <v>48239779.09756859</v>
       </c>
       <c r="AD16">
-        <v>48798668.18431146</v>
+        <v>48798668.18431145</v>
       </c>
       <c r="AE16">
         <v>49389729.70036393</v>
       </c>
       <c r="AF16">
-        <v>50010022.96498916</v>
+        <v>50010022.96498915</v>
       </c>
       <c r="AG16">
         <v>50660753.32948641</v>
@@ -9417,16 +9417,16 @@
         <v>50390238.21571495</v>
       </c>
       <c r="AJ16">
-        <v>50171939.16707589</v>
+        <v>50171939.16707588</v>
       </c>
       <c r="AK16">
-        <v>50010070.94812674</v>
+        <v>50010070.94812673</v>
       </c>
       <c r="AL16">
         <v>49915369.34063914</v>
       </c>
       <c r="AM16">
-        <v>50459275.89719082</v>
+        <v>50459275.89719081</v>
       </c>
       <c r="AN16">
         <v>51186316.16291349</v>
@@ -9435,85 +9435,85 @@
         <v>52159021.16291592</v>
       </c>
       <c r="AP16">
-        <v>53423736.77001186</v>
+        <v>53423736.77001185</v>
       </c>
       <c r="AQ16">
-        <v>54884910.64277503</v>
+        <v>54884910.64277502</v>
       </c>
       <c r="AR16">
-        <v>57274184.73424982</v>
+        <v>57274184.73424981</v>
       </c>
       <c r="AS16">
-        <v>59730673.06576882</v>
+        <v>59730673.06576881</v>
       </c>
       <c r="AT16">
-        <v>62220432.86994945</v>
+        <v>62220432.86994944</v>
       </c>
       <c r="AU16">
         <v>64706651.41493411</v>
       </c>
       <c r="AV16">
-        <v>67166847.33358303</v>
+        <v>67166847.33358301</v>
       </c>
       <c r="AW16">
-        <v>69693077.84548849</v>
+        <v>69693077.84548847</v>
       </c>
       <c r="AX16">
-        <v>72097763.20650132</v>
+        <v>72097763.20650131</v>
       </c>
       <c r="AY16">
-        <v>74286786.38528827</v>
+        <v>74286786.38528825</v>
       </c>
       <c r="AZ16">
-        <v>76198206.77101305</v>
+        <v>76198206.77101304</v>
       </c>
       <c r="BA16">
-        <v>77919075.11267908</v>
+        <v>77919075.11267906</v>
       </c>
       <c r="BB16">
-        <v>79359549.39715891</v>
+        <v>79359549.39715889</v>
       </c>
       <c r="BC16">
-        <v>80702423.63144913</v>
+        <v>80702423.63144912</v>
       </c>
       <c r="BD16">
-        <v>81943909.47686778</v>
+        <v>81943909.47686775</v>
       </c>
       <c r="BE16">
-        <v>83092830.3833338</v>
+        <v>83092830.38333377</v>
       </c>
       <c r="BF16">
-        <v>84188872.69613414</v>
+        <v>84188872.69613411</v>
       </c>
       <c r="BG16">
-        <v>85158342.91570923</v>
+        <v>85158342.9157092</v>
       </c>
       <c r="BH16">
-        <v>86157421.01901361</v>
+        <v>86157421.01901358</v>
       </c>
       <c r="BI16">
-        <v>87237004.13022037</v>
+        <v>87237004.13022034</v>
       </c>
       <c r="BJ16">
-        <v>88456287.4080067</v>
+        <v>88456287.40800667</v>
       </c>
       <c r="BK16">
-        <v>89857497.07265663</v>
+        <v>89857497.0726566</v>
       </c>
       <c r="BL16">
-        <v>91425892.27265187</v>
+        <v>91425892.27265184</v>
       </c>
       <c r="BM16">
-        <v>93214308.76270375</v>
+        <v>93214308.76270372</v>
       </c>
       <c r="BN16">
-        <v>95196548.58231442</v>
+        <v>95196548.58231439</v>
       </c>
       <c r="BO16">
-        <v>97331073.98129192</v>
+        <v>97331073.98129189</v>
       </c>
       <c r="BP16">
-        <v>99561946.71869096</v>
+        <v>99561946.71869093</v>
       </c>
       <c r="BQ16">
         <v>101829409.3210221</v>
@@ -9543,7 +9543,7 @@
         <v>118272621.5204361</v>
       </c>
       <c r="BZ16">
-        <v>119896082.3465726</v>
+        <v>119896082.3465725</v>
       </c>
       <c r="CA16">
         <v>121430172.0569488</v>
@@ -9555,7 +9555,7 @@
         <v>124336521.4204709</v>
       </c>
       <c r="CD16">
-        <v>125754299.5714594</v>
+        <v>125754299.5714593</v>
       </c>
       <c r="CE16">
         <v>127194567.0928627</v>
@@ -9567,28 +9567,28 @@
         <v>130256762.8245318</v>
       </c>
       <c r="CH16">
-        <v>131972348.6271041</v>
+        <v>131972348.627104</v>
       </c>
       <c r="CI16">
         <v>133835154.4727203</v>
       </c>
       <c r="CJ16">
-        <v>135842957.6302967</v>
+        <v>135842957.6302966</v>
       </c>
       <c r="CK16">
-        <v>137942501.9271628</v>
+        <v>137942501.9271627</v>
       </c>
       <c r="CL16">
         <v>140132107.025795</v>
       </c>
       <c r="CM16">
-        <v>142376189.9397822</v>
+        <v>142376189.9397821</v>
       </c>
       <c r="CN16">
-        <v>144646346.0098799</v>
+        <v>144646346.0098798</v>
       </c>
       <c r="CO16">
-        <v>146922354.1836931</v>
+        <v>146922354.183693</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -9598,16 +9598,16 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>114565.2876347355</v>
+        <v>114565.2876347357</v>
       </c>
       <c r="E17">
-        <v>187667.3103667113</v>
+        <v>187667.3103667114</v>
       </c>
       <c r="F17">
-        <v>243321.997669349</v>
+        <v>243321.9976693491</v>
       </c>
       <c r="G17">
-        <v>298728.2010074452</v>
+        <v>298728.2010074453</v>
       </c>
       <c r="H17">
         <v>349807.0525384541</v>
@@ -9616,181 +9616,181 @@
         <v>398850.2583171959</v>
       </c>
       <c r="J17">
-        <v>443841.1967107774</v>
+        <v>443841.1967107773</v>
       </c>
       <c r="K17">
-        <v>490939.5897943811</v>
+        <v>490939.589794381</v>
       </c>
       <c r="L17">
-        <v>547953.7890545899</v>
+        <v>547953.7890545898</v>
       </c>
       <c r="M17">
-        <v>605230.5410932215</v>
+        <v>605230.5410932214</v>
       </c>
       <c r="N17">
-        <v>666481.5626175421</v>
+        <v>666481.562617542</v>
       </c>
       <c r="O17">
-        <v>736946.3531357265</v>
+        <v>736946.3531357264</v>
       </c>
       <c r="P17">
         <v>1420840.914274626</v>
       </c>
       <c r="Q17">
-        <v>2106048.37348096</v>
+        <v>2106048.373480959</v>
       </c>
       <c r="R17">
-        <v>2792898.699926465</v>
+        <v>2792898.699926464</v>
       </c>
       <c r="S17">
-        <v>5020775.732506208</v>
+        <v>5020775.732506206</v>
       </c>
       <c r="T17">
-        <v>7251082.939406896</v>
+        <v>7251082.939406892</v>
       </c>
       <c r="U17">
-        <v>9484275.384391505</v>
+        <v>9484275.384391502</v>
       </c>
       <c r="V17">
-        <v>11720860.69258739</v>
+        <v>11720860.69258738</v>
       </c>
       <c r="W17">
-        <v>13961425.60130092</v>
+        <v>13961425.60130091</v>
       </c>
       <c r="X17">
-        <v>16378886.22291182</v>
+        <v>16378886.22291181</v>
       </c>
       <c r="Y17">
         <v>18801957.62744743</v>
       </c>
       <c r="Z17">
-        <v>21231868.28549697</v>
+        <v>21231868.28549696</v>
       </c>
       <c r="AA17">
-        <v>23670309.19970404</v>
+        <v>23670309.19970403</v>
       </c>
       <c r="AB17">
-        <v>26119631.15178279</v>
+        <v>26119631.15178278</v>
       </c>
       <c r="AC17">
-        <v>26905616.0794843</v>
+        <v>26905616.07948428</v>
       </c>
       <c r="AD17">
-        <v>27710185.40525034</v>
+        <v>27710185.40525033</v>
       </c>
       <c r="AE17">
-        <v>28539285.75580856</v>
+        <v>28539285.75580855</v>
       </c>
       <c r="AF17">
-        <v>29400654.87629709</v>
+        <v>29400654.87629708</v>
       </c>
       <c r="AG17">
-        <v>30304045.73265354</v>
+        <v>30304045.73265352</v>
       </c>
       <c r="AH17">
-        <v>30696035.94610854</v>
+        <v>30696035.94610853</v>
       </c>
       <c r="AI17">
-        <v>31144825.9412675</v>
+        <v>31144825.94126748</v>
       </c>
       <c r="AJ17">
-        <v>31663708.30941422</v>
+        <v>31663708.3094142</v>
       </c>
       <c r="AK17">
-        <v>32281436.05196691</v>
+        <v>32281436.05196689</v>
       </c>
       <c r="AL17">
-        <v>33015893.50085829</v>
+        <v>33015893.50085827</v>
       </c>
       <c r="AM17">
-        <v>34200830.20594148</v>
+        <v>34200830.20594147</v>
       </c>
       <c r="AN17">
-        <v>35531218.34286463</v>
+        <v>35531218.34286462</v>
       </c>
       <c r="AO17">
-        <v>37015944.04090231</v>
+        <v>37015944.04090229</v>
       </c>
       <c r="AP17">
-        <v>38658139.31855518</v>
+        <v>38658139.31855516</v>
       </c>
       <c r="AQ17">
-        <v>40453870.32761816</v>
+        <v>40453870.32761814</v>
       </c>
       <c r="AR17">
-        <v>42770550.52698243</v>
+        <v>42770550.52698242</v>
       </c>
       <c r="AS17">
-        <v>45209214.60758277</v>
+        <v>45209214.60758276</v>
       </c>
       <c r="AT17">
-        <v>47742940.49260398</v>
+        <v>47742940.49260397</v>
       </c>
       <c r="AU17">
-        <v>50339272.80514394</v>
+        <v>50339272.80514392</v>
       </c>
       <c r="AV17">
-        <v>52962565.86842841</v>
+        <v>52962565.86842839</v>
       </c>
       <c r="AW17">
-        <v>55701398.10415448</v>
+        <v>55701398.10415445</v>
       </c>
       <c r="AX17">
-        <v>58397421.83200223</v>
+        <v>58397421.83200221</v>
       </c>
       <c r="AY17">
-        <v>61021874.16648388</v>
+        <v>61021874.16648386</v>
       </c>
       <c r="AZ17">
-        <v>63552960.12108025</v>
+        <v>63552960.12108022</v>
       </c>
       <c r="BA17">
-        <v>65977272.6734435</v>
+        <v>65977272.67344347</v>
       </c>
       <c r="BB17">
-        <v>68228152.93682648</v>
+        <v>68228152.93682645</v>
       </c>
       <c r="BC17">
-        <v>70373110.19202714</v>
+        <v>70373110.19202711</v>
       </c>
       <c r="BD17">
-        <v>72426085.57535535</v>
+        <v>72426085.57535532</v>
       </c>
       <c r="BE17">
-        <v>74408737.83480977</v>
+        <v>74408737.83480974</v>
       </c>
       <c r="BF17">
-        <v>76348663.53742196</v>
+        <v>76348663.53742193</v>
       </c>
       <c r="BG17">
-        <v>78246068.50693482</v>
+        <v>78246068.50693479</v>
       </c>
       <c r="BH17">
-        <v>80164409.20937845</v>
+        <v>80164409.20937842</v>
       </c>
       <c r="BI17">
-        <v>82134859.10916923</v>
+        <v>82134859.1091692</v>
       </c>
       <c r="BJ17">
-        <v>84185367.97374162</v>
+        <v>84185367.97374159</v>
       </c>
       <c r="BK17">
-        <v>86339202.20138726</v>
+        <v>86339202.20138723</v>
       </c>
       <c r="BL17">
-        <v>88617902.31026773</v>
+        <v>88617902.3102677</v>
       </c>
       <c r="BM17">
-        <v>91029011.23788719</v>
+        <v>91029011.23788716</v>
       </c>
       <c r="BN17">
-        <v>93577573.71297006</v>
+        <v>93577573.71297003</v>
       </c>
       <c r="BO17">
-        <v>96262307.34023373</v>
+        <v>96262307.3402337</v>
       </c>
       <c r="BP17">
-        <v>99076006.81937858</v>
+        <v>99076006.81937855</v>
       </c>
       <c r="BQ17">
         <v>102012351.9263946</v>
@@ -9817,7 +9817,7 @@
         <v>124210814.8169686</v>
       </c>
       <c r="BY17">
-        <v>127391018.4843836</v>
+        <v>127391018.4843835</v>
       </c>
       <c r="BZ17">
         <v>130537727.0902068</v>
@@ -9829,43 +9829,43 @@
         <v>136689902.6984385</v>
       </c>
       <c r="CC17">
-        <v>139725166.2192351</v>
+        <v>139725166.219235</v>
       </c>
       <c r="CD17">
-        <v>142746404.3050762</v>
+        <v>142746404.3050761</v>
       </c>
       <c r="CE17">
-        <v>145767008.7039281</v>
+        <v>145767008.703928</v>
       </c>
       <c r="CF17">
-        <v>148765235.9674345</v>
+        <v>148765235.9674344</v>
       </c>
       <c r="CG17">
-        <v>151793272.89077</v>
+        <v>151793272.8907699</v>
       </c>
       <c r="CH17">
-        <v>154866020.7474861</v>
+        <v>154866020.747486</v>
       </c>
       <c r="CI17">
-        <v>157996872.9825562</v>
+        <v>157996872.982556</v>
       </c>
       <c r="CJ17">
-        <v>161196944.0571099</v>
+        <v>161196944.0571097</v>
       </c>
       <c r="CK17">
-        <v>164415848.7103847</v>
+        <v>164415848.7103846</v>
       </c>
       <c r="CL17">
-        <v>167717329.057658</v>
+        <v>167717329.0576578</v>
       </c>
       <c r="CM17">
-        <v>171103163.0892232</v>
+        <v>171103163.0892231</v>
       </c>
       <c r="CN17">
-        <v>174571915.8194573</v>
+        <v>174571915.8194571</v>
       </c>
       <c r="CO17">
-        <v>178119224.555391</v>
+        <v>178119224.5553909</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Lifetime/Results_region_base_life_Avg.xlsx
+++ b/Results/Baseline/Lifetime/Results_region_base_life_Avg.xlsx
@@ -691,31 +691,31 @@
         <v>1059.146433902567</v>
       </c>
       <c r="E2">
-        <v>1384.28808767169</v>
+        <v>1384.288087671689</v>
       </c>
       <c r="F2">
-        <v>1382.809256190096</v>
+        <v>1382.809256190095</v>
       </c>
       <c r="G2">
-        <v>1313.216141497271</v>
+        <v>1313.21614149727</v>
       </c>
       <c r="H2">
-        <v>1766.589345792562</v>
+        <v>1766.589345792561</v>
       </c>
       <c r="I2">
         <v>1270.73362835712</v>
       </c>
       <c r="J2">
-        <v>2309.74903345278</v>
+        <v>2309.749033452779</v>
       </c>
       <c r="K2">
-        <v>2294.635164705154</v>
+        <v>2294.635164705153</v>
       </c>
       <c r="L2">
-        <v>2039.828102489555</v>
+        <v>2039.828102489554</v>
       </c>
       <c r="M2">
-        <v>1877.855636431063</v>
+        <v>1877.855636431062</v>
       </c>
       <c r="N2">
         <v>4035.498851764906</v>
@@ -724,28 +724,28 @@
         <v>2444.057097386124</v>
       </c>
       <c r="P2">
-        <v>4914.061328496889</v>
+        <v>4914.061328496888</v>
       </c>
       <c r="Q2">
         <v>5304.386646462997</v>
       </c>
       <c r="R2">
-        <v>5700.149792334715</v>
+        <v>5700.149792334714</v>
       </c>
       <c r="S2">
         <v>12483.71283996307</v>
       </c>
       <c r="T2">
-        <v>13367.41233525381</v>
+        <v>13367.4123352538</v>
       </c>
       <c r="U2">
         <v>14260.71179279829</v>
       </c>
       <c r="V2">
-        <v>15170.85569436115</v>
+        <v>15170.85569436114</v>
       </c>
       <c r="W2">
-        <v>16094.40511653956</v>
+        <v>16094.40511653955</v>
       </c>
       <c r="X2">
         <v>16172.51534728441</v>
@@ -754,43 +754,43 @@
         <v>17060.96627187644</v>
       </c>
       <c r="Z2">
-        <v>17956.7724334034</v>
+        <v>17956.77243340339</v>
       </c>
       <c r="AA2">
-        <v>18871.34614558012</v>
+        <v>18871.34614558011</v>
       </c>
       <c r="AB2">
-        <v>19811.83149058219</v>
+        <v>19811.83149058218</v>
       </c>
       <c r="AC2">
-        <v>9250.757776317847</v>
+        <v>9250.757776317843</v>
       </c>
       <c r="AD2">
-        <v>9508.264746177676</v>
+        <v>9508.264746177671</v>
       </c>
       <c r="AE2">
-        <v>9838.853480227475</v>
+        <v>9838.853480227472</v>
       </c>
       <c r="AF2">
-        <v>10158.87070373925</v>
+        <v>10158.87070373924</v>
       </c>
       <c r="AG2">
         <v>10533.21810312655</v>
       </c>
       <c r="AH2">
-        <v>6745.253093933206</v>
+        <v>6745.253093933205</v>
       </c>
       <c r="AI2">
-        <v>6808.183152593557</v>
+        <v>6808.183152593554</v>
       </c>
       <c r="AJ2">
-        <v>7138.936990019903</v>
+        <v>7138.9369900199</v>
       </c>
       <c r="AK2">
-        <v>7731.064637402404</v>
+        <v>7731.064637402401</v>
       </c>
       <c r="AL2">
-        <v>8307.616228134922</v>
+        <v>8307.616228134919</v>
       </c>
       <c r="AM2">
         <v>11015.07222632036</v>
@@ -799,70 +799,70 @@
         <v>12411.66496736886</v>
       </c>
       <c r="AO2">
-        <v>14347.92523220784</v>
+        <v>14347.92523220783</v>
       </c>
       <c r="AP2">
-        <v>16846.74932320447</v>
+        <v>16846.74932320446</v>
       </c>
       <c r="AQ2">
         <v>18637.41424250594</v>
       </c>
       <c r="AR2">
-        <v>22948.25106179837</v>
+        <v>22948.25106179836</v>
       </c>
       <c r="AS2">
-        <v>23937.96726681426</v>
+        <v>23937.96726681425</v>
       </c>
       <c r="AT2">
-        <v>24769.03111053132</v>
+        <v>24769.03111053131</v>
       </c>
       <c r="AU2">
-        <v>25448.30629025726</v>
+        <v>25448.30629025725</v>
       </c>
       <c r="AV2">
         <v>26137.78620009404</v>
       </c>
       <c r="AW2">
-        <v>27378.6675816581</v>
+        <v>27378.66758165808</v>
       </c>
       <c r="AX2">
-        <v>27102.74621717383</v>
+        <v>27102.74621717382</v>
       </c>
       <c r="AY2">
-        <v>25341.19768566693</v>
+        <v>25341.19768566692</v>
       </c>
       <c r="AZ2">
-        <v>22480.62250430373</v>
+        <v>22480.62250430372</v>
       </c>
       <c r="BA2">
-        <v>21061.04451746353</v>
+        <v>21061.04451746352</v>
       </c>
       <c r="BB2">
-        <v>20178.52992948704</v>
+        <v>20178.52992948703</v>
       </c>
       <c r="BC2">
-        <v>20042.27326777886</v>
+        <v>20042.27326777885</v>
       </c>
       <c r="BD2">
-        <v>19401.14171230761</v>
+        <v>19401.1417123076</v>
       </c>
       <c r="BE2">
-        <v>18421.05712018456</v>
+        <v>18421.05712018455</v>
       </c>
       <c r="BF2">
-        <v>18099.69676555659</v>
+        <v>18099.69676555657</v>
       </c>
       <c r="BG2">
-        <v>17922.66146027507</v>
+        <v>17922.66146027506</v>
       </c>
       <c r="BH2">
-        <v>18773.76458769289</v>
+        <v>18773.76458769288</v>
       </c>
       <c r="BI2">
         <v>20081.23529278606</v>
       </c>
       <c r="BJ2">
-        <v>21876.37150852376</v>
+        <v>21876.37150852375</v>
       </c>
       <c r="BK2">
         <v>23838.89000329423</v>
@@ -871,91 +871,91 @@
         <v>25578.99482246321</v>
       </c>
       <c r="BM2">
-        <v>27908.80468636651</v>
+        <v>27908.80468636649</v>
       </c>
       <c r="BN2">
-        <v>30308.83159789832</v>
+        <v>30308.8315978983</v>
       </c>
       <c r="BO2">
-        <v>32564.22259138562</v>
+        <v>32564.2225913856</v>
       </c>
       <c r="BP2">
-        <v>34098.76331360155</v>
+        <v>34098.76331360152</v>
       </c>
       <c r="BQ2">
-        <v>34842.65411495924</v>
+        <v>34842.65411495922</v>
       </c>
       <c r="BR2">
-        <v>35625.46397990744</v>
+        <v>35625.46397990743</v>
       </c>
       <c r="BS2">
-        <v>36261.74152737021</v>
+        <v>36261.74152737019</v>
       </c>
       <c r="BT2">
-        <v>36489.15842204525</v>
+        <v>36489.15842204524</v>
       </c>
       <c r="BU2">
-        <v>35859.63218007835</v>
+        <v>35859.63218007833</v>
       </c>
       <c r="BV2">
-        <v>34157.5886230371</v>
+        <v>34157.58862303708</v>
       </c>
       <c r="BW2">
-        <v>32475.44939454504</v>
+        <v>32475.44939454502</v>
       </c>
       <c r="BX2">
-        <v>31289.62930271165</v>
+        <v>31289.62930271164</v>
       </c>
       <c r="BY2">
-        <v>30662.08969713449</v>
+        <v>30662.08969713448</v>
       </c>
       <c r="BZ2">
-        <v>30257.39724569957</v>
+        <v>30257.39724569955</v>
       </c>
       <c r="CA2">
-        <v>29605.3689327269</v>
+        <v>29605.36893272689</v>
       </c>
       <c r="CB2">
-        <v>29189.64036985976</v>
+        <v>29189.64036985975</v>
       </c>
       <c r="CC2">
-        <v>29118.07639741291</v>
+        <v>29118.07639741289</v>
       </c>
       <c r="CD2">
-        <v>29547.8325067642</v>
+        <v>29547.83250676419</v>
       </c>
       <c r="CE2">
-        <v>30541.65152237717</v>
+        <v>30541.65152237716</v>
       </c>
       <c r="CF2">
-        <v>31754.83973362316</v>
+        <v>31754.83973362315</v>
       </c>
       <c r="CG2">
-        <v>33528.13932102103</v>
+        <v>33528.13932102102</v>
       </c>
       <c r="CH2">
-        <v>35462.44805330155</v>
+        <v>35462.44805330154</v>
       </c>
       <c r="CI2">
-        <v>37496.60192120656</v>
+        <v>37496.60192120654</v>
       </c>
       <c r="CJ2">
-        <v>39656.07210838908</v>
+        <v>39656.07210838906</v>
       </c>
       <c r="CK2">
-        <v>41381.10130436025</v>
+        <v>41381.10130436023</v>
       </c>
       <c r="CL2">
-        <v>43189.44023109781</v>
+        <v>43189.44023109779</v>
       </c>
       <c r="CM2">
-        <v>44507.20535208747</v>
+        <v>44507.20535208744</v>
       </c>
       <c r="CN2">
-        <v>45379.37219250824</v>
+        <v>45379.37219250823</v>
       </c>
       <c r="CO2">
-        <v>45978.16108604211</v>
+        <v>45978.16108604208</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -965,37 +965,37 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24572359772887</v>
+        <v>70.24572359772883</v>
       </c>
       <c r="E3">
-        <v>92.03680806682043</v>
+        <v>92.03680806682038</v>
       </c>
       <c r="F3">
         <v>91.84287447778495</v>
       </c>
       <c r="G3">
-        <v>87.16785837373197</v>
+        <v>87.16785837373196</v>
       </c>
       <c r="H3">
-        <v>117.6965433043553</v>
+        <v>117.6965433043552</v>
       </c>
       <c r="I3">
-        <v>84.38350652716652</v>
+        <v>84.38350652716647</v>
       </c>
       <c r="J3">
-        <v>154.0778479945719</v>
+        <v>154.0778479945718</v>
       </c>
       <c r="K3">
         <v>152.9409738899572</v>
       </c>
       <c r="L3">
-        <v>135.8634541886391</v>
+        <v>135.863454188639</v>
       </c>
       <c r="M3">
         <v>124.9230253077536</v>
       </c>
       <c r="N3">
-        <v>269.7682220486938</v>
+        <v>269.7682220486939</v>
       </c>
       <c r="O3">
         <v>162.9917064926036</v>
@@ -1013,10 +1013,10 @@
         <v>837.0195104740676</v>
       </c>
       <c r="T3">
-        <v>896.333925260855</v>
+        <v>896.3339252608547</v>
       </c>
       <c r="U3">
-        <v>956.2981310077341</v>
+        <v>956.298131007734</v>
       </c>
       <c r="V3">
         <v>1017.402768335809</v>
@@ -1037,10 +1037,10 @@
         <v>1265.968812633165</v>
       </c>
       <c r="AB3">
-        <v>1329.172436067888</v>
+        <v>1329.172436067887</v>
       </c>
       <c r="AC3">
-        <v>619.9918548195567</v>
+        <v>619.9918548195565</v>
       </c>
       <c r="AD3">
         <v>637.3161285361771</v>
@@ -1049,16 +1049,16 @@
         <v>659.586713668366</v>
       </c>
       <c r="AF3">
-        <v>681.1379284588234</v>
+        <v>681.1379284588232</v>
       </c>
       <c r="AG3">
-        <v>706.3635387720892</v>
+        <v>706.3635387720891</v>
       </c>
       <c r="AH3">
-        <v>452.0183353692864</v>
+        <v>452.0183353692863</v>
       </c>
       <c r="AI3">
-        <v>456.2596210930802</v>
+        <v>456.2596210930801</v>
       </c>
       <c r="AJ3">
         <v>478.6316816630261</v>
@@ -1067,13 +1067,13 @@
         <v>518.6924368402588</v>
       </c>
       <c r="AL3">
-        <v>557.6884476832067</v>
+        <v>557.6884476832066</v>
       </c>
       <c r="AM3">
-        <v>739.9700223602532</v>
+        <v>739.9700223602531</v>
       </c>
       <c r="AN3">
-        <v>834.4424101125393</v>
+        <v>834.4424101125391</v>
       </c>
       <c r="AO3">
         <v>965.4570809907312</v>
@@ -1088,10 +1088,10 @@
         <v>1545.692159463618</v>
       </c>
       <c r="AS3">
-        <v>1612.552343130632</v>
+        <v>1612.552343130631</v>
       </c>
       <c r="AT3">
-        <v>1668.682635867452</v>
+        <v>1668.682635867451</v>
       </c>
       <c r="AU3">
         <v>1714.550684571961</v>
@@ -1100,13 +1100,13 @@
         <v>1761.12839356977</v>
       </c>
       <c r="AW3">
-        <v>1844.641966839955</v>
+        <v>1844.641966839954</v>
       </c>
       <c r="AX3">
         <v>1825.858773425316</v>
       </c>
       <c r="AY3">
-        <v>1706.480925152152</v>
+        <v>1706.480925152151</v>
       </c>
       <c r="AZ3">
         <v>1512.685657146131</v>
@@ -1124,10 +1124,10 @@
         <v>1304.395917210434</v>
       </c>
       <c r="BE3">
-        <v>1237.946717374544</v>
+        <v>1237.946717374543</v>
       </c>
       <c r="BF3">
-        <v>1216.094594853444</v>
+        <v>1216.094594853443</v>
       </c>
       <c r="BG3">
         <v>1204.367533797287</v>
@@ -1142,7 +1142,7 @@
         <v>1471.734843397116</v>
       </c>
       <c r="BK3">
-        <v>1604.484381140958</v>
+        <v>1604.484381140957</v>
       </c>
       <c r="BL3">
         <v>1722.365549380096</v>
@@ -1160,13 +1160,13 @@
         <v>2298.68391309293</v>
       </c>
       <c r="BQ3">
-        <v>2349.008625613106</v>
+        <v>2349.008625613105</v>
       </c>
       <c r="BR3">
-        <v>2401.874919283652</v>
+        <v>2401.874919283651</v>
       </c>
       <c r="BS3">
-        <v>2444.827679587659</v>
+        <v>2444.827679587658</v>
       </c>
       <c r="BT3">
         <v>2460.102313053252</v>
@@ -1187,52 +1187,52 @@
         <v>2065.106972573188</v>
       </c>
       <c r="BZ3">
-        <v>2037.616233112852</v>
+        <v>2037.616233112851</v>
       </c>
       <c r="CA3">
-        <v>1993.488852964527</v>
+        <v>1993.488852964526</v>
       </c>
       <c r="CB3">
         <v>1965.248093612232</v>
       </c>
       <c r="CC3">
-        <v>1960.311671225731</v>
+        <v>1960.31167122573</v>
       </c>
       <c r="CD3">
         <v>1989.320910535952</v>
       </c>
       <c r="CE3">
-        <v>2056.523540577328</v>
+        <v>2056.523540577327</v>
       </c>
       <c r="CF3">
-        <v>2138.716254580899</v>
+        <v>2138.716254580898</v>
       </c>
       <c r="CG3">
         <v>2258.687623138924</v>
       </c>
       <c r="CH3">
-        <v>2389.555254404545</v>
+        <v>2389.555254404544</v>
       </c>
       <c r="CI3">
         <v>2527.178352506789</v>
       </c>
       <c r="CJ3">
-        <v>2673.283747577555</v>
+        <v>2673.283747577554</v>
       </c>
       <c r="CK3">
         <v>2790.188322161687</v>
       </c>
       <c r="CL3">
-        <v>2912.509983590322</v>
+        <v>2912.509983590321</v>
       </c>
       <c r="CM3">
         <v>3001.608503696871</v>
       </c>
       <c r="CN3">
-        <v>3060.530939915724</v>
+        <v>3060.530939915723</v>
       </c>
       <c r="CO3">
-        <v>3100.941900641557</v>
+        <v>3100.941900641556</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>379417.3331721227</v>
+        <v>379417.3331721228</v>
       </c>
       <c r="E4">
         <v>375657.6664472038</v>
@@ -1251,16 +1251,16 @@
         <v>462132.1105486533</v>
       </c>
       <c r="G4">
-        <v>519182.2629425788</v>
+        <v>519182.2629425789</v>
       </c>
       <c r="H4">
-        <v>686331.2681176217</v>
+        <v>686331.268117622</v>
       </c>
       <c r="I4">
         <v>644640.9741086992</v>
       </c>
       <c r="J4">
-        <v>751974.0860855004</v>
+        <v>751974.0860855003</v>
       </c>
       <c r="K4">
         <v>672461.4938439589</v>
@@ -1272,220 +1272,220 @@
         <v>1106119.746002307</v>
       </c>
       <c r="N4">
-        <v>929358.4167141845</v>
+        <v>929358.4167141843</v>
       </c>
       <c r="O4">
         <v>885004.2376069995</v>
       </c>
       <c r="P4">
-        <v>3258031.968839034</v>
+        <v>3258031.968839033</v>
       </c>
       <c r="Q4">
-        <v>3273690.279805167</v>
+        <v>3273690.279805166</v>
       </c>
       <c r="R4">
-        <v>3288321.455945716</v>
+        <v>3288321.455945715</v>
       </c>
       <c r="S4">
-        <v>9531277.888783241</v>
+        <v>9531277.888783237</v>
       </c>
       <c r="T4">
         <v>9558219.174016837</v>
       </c>
       <c r="U4">
-        <v>9588618.998846812</v>
+        <v>9588618.99884681</v>
       </c>
       <c r="V4">
-        <v>9623914.260888977</v>
+        <v>9623914.260888973</v>
       </c>
       <c r="W4">
         <v>9665422.045372173</v>
       </c>
       <c r="X4">
-        <v>9292742.343121113</v>
+        <v>9292742.343121111</v>
       </c>
       <c r="Y4">
-        <v>9346916.756599639</v>
+        <v>9346916.756599637</v>
       </c>
       <c r="Z4">
         <v>9400388.174367134</v>
       </c>
       <c r="AA4">
-        <v>9451015.052384619</v>
+        <v>9451015.052384615</v>
       </c>
       <c r="AB4">
-        <v>9501592.613324279</v>
+        <v>9501592.613324275</v>
       </c>
       <c r="AC4">
-        <v>1855245.593423641</v>
+        <v>1855245.59342364</v>
       </c>
       <c r="AD4">
-        <v>1920036.403355184</v>
+        <v>1920036.403355183</v>
       </c>
       <c r="AE4">
-        <v>1985798.512328618</v>
+        <v>1985798.512328617</v>
       </c>
       <c r="AF4">
         <v>2028932.61864326</v>
       </c>
       <c r="AG4">
-        <v>2096307.610970532</v>
+        <v>2096307.610970531</v>
       </c>
       <c r="AH4">
-        <v>-142580.5617302525</v>
+        <v>-142580.5617302526</v>
       </c>
       <c r="AI4">
-        <v>-71919.5344063184</v>
+        <v>-71919.53440631868</v>
       </c>
       <c r="AJ4">
-        <v>117959.3427997113</v>
+        <v>117959.3427997109</v>
       </c>
       <c r="AK4">
-        <v>303413.7434839557</v>
+        <v>303413.7434839552</v>
       </c>
       <c r="AL4">
-        <v>552134.318121834</v>
+        <v>552134.3181218335</v>
       </c>
       <c r="AM4">
         <v>1145871.336356358</v>
       </c>
       <c r="AN4">
-        <v>1533168.410119637</v>
+        <v>1533168.410119636</v>
       </c>
       <c r="AO4">
-        <v>1958347.073929734</v>
+        <v>1958347.073929733</v>
       </c>
       <c r="AP4">
-        <v>2445923.423046672</v>
+        <v>2445923.423046671</v>
       </c>
       <c r="AQ4">
-        <v>2802097.547392044</v>
+        <v>2802097.547392042</v>
       </c>
       <c r="AR4">
-        <v>4132313.00734641</v>
+        <v>4132313.007346408</v>
       </c>
       <c r="AS4">
-        <v>4296101.791777059</v>
+        <v>4296101.791777058</v>
       </c>
       <c r="AT4">
-        <v>4395104.92386833</v>
+        <v>4395104.923868328</v>
       </c>
       <c r="AU4">
-        <v>4425299.513765017</v>
+        <v>4425299.513765015</v>
       </c>
       <c r="AV4">
-        <v>4415170.330720795</v>
+        <v>4415170.330720793</v>
       </c>
       <c r="AW4">
-        <v>4476327.497385642</v>
+        <v>4476327.497385639</v>
       </c>
       <c r="AX4">
-        <v>4254334.604496306</v>
+        <v>4254334.604496303</v>
       </c>
       <c r="AY4">
-        <v>3823055.184664715</v>
+        <v>3823055.184664712</v>
       </c>
       <c r="AZ4">
-        <v>3251708.228562754</v>
+        <v>3251708.228562753</v>
       </c>
       <c r="BA4">
-        <v>2854427.725166327</v>
+        <v>2854427.725166325</v>
       </c>
       <c r="BB4">
-        <v>2412991.747135764</v>
+        <v>2412991.747135762</v>
       </c>
       <c r="BC4">
-        <v>2184270.032714472</v>
+        <v>2184270.032714471</v>
       </c>
       <c r="BD4">
-        <v>1976148.439749393</v>
+        <v>1976148.439749391</v>
       </c>
       <c r="BE4">
-        <v>1822214.538131935</v>
+        <v>1822214.538131933</v>
       </c>
       <c r="BF4">
-        <v>1710675.508814153</v>
+        <v>1710675.508814151</v>
       </c>
       <c r="BG4">
-        <v>1503823.551928292</v>
+        <v>1503823.551928291</v>
       </c>
       <c r="BH4">
-        <v>1534152.44896903</v>
+        <v>1534152.448969029</v>
       </c>
       <c r="BI4">
-        <v>1700940.002509915</v>
+        <v>1700940.002509914</v>
       </c>
       <c r="BJ4">
         <v>1957986.446704175</v>
       </c>
       <c r="BK4">
-        <v>2261992.885909441</v>
+        <v>2261992.88590944</v>
       </c>
       <c r="BL4">
-        <v>2468319.674740112</v>
+        <v>2468319.674740111</v>
       </c>
       <c r="BM4">
-        <v>2806231.644237457</v>
+        <v>2806231.644237456</v>
       </c>
       <c r="BN4">
         <v>3115490.465588991</v>
       </c>
       <c r="BO4">
-        <v>3371291.818807692</v>
+        <v>3371291.818807691</v>
       </c>
       <c r="BP4">
-        <v>3538538.244426805</v>
+        <v>3538538.244426803</v>
       </c>
       <c r="BQ4">
-        <v>3573905.898939458</v>
+        <v>3573905.898939456</v>
       </c>
       <c r="BR4">
-        <v>3630101.587498869</v>
+        <v>3630101.587498867</v>
       </c>
       <c r="BS4">
-        <v>3643783.819242375</v>
+        <v>3643783.819242374</v>
       </c>
       <c r="BT4">
-        <v>3584375.540784566</v>
+        <v>3584375.540784563</v>
       </c>
       <c r="BU4">
         <v>3411252.761841903</v>
       </c>
       <c r="BV4">
-        <v>3062003.781454607</v>
+        <v>3062003.781454606</v>
       </c>
       <c r="BW4">
-        <v>2757328.576968684</v>
+        <v>2757328.576968682</v>
       </c>
       <c r="BX4">
-        <v>2571887.143916769</v>
+        <v>2571887.143916767</v>
       </c>
       <c r="BY4">
-        <v>2484359.420650412</v>
+        <v>2484359.420650409</v>
       </c>
       <c r="BZ4">
-        <v>2380539.356463139</v>
+        <v>2380539.356463138</v>
       </c>
       <c r="CA4">
-        <v>2238075.037452079</v>
+        <v>2238075.037452077</v>
       </c>
       <c r="CB4">
-        <v>2125849.505609806</v>
+        <v>2125849.505609804</v>
       </c>
       <c r="CC4">
-        <v>2029769.55067385</v>
+        <v>2029769.550673848</v>
       </c>
       <c r="CD4">
-        <v>1953418.146347358</v>
+        <v>1953418.146347356</v>
       </c>
       <c r="CE4">
-        <v>1891137.796151602</v>
+        <v>1891137.796151601</v>
       </c>
       <c r="CF4">
-        <v>1978417.215521792</v>
+        <v>1978417.215521791</v>
       </c>
       <c r="CG4">
-        <v>2149418.023417338</v>
+        <v>2149418.023417337</v>
       </c>
       <c r="CH4">
         <v>2350548.381366055</v>
@@ -1497,19 +1497,19 @@
         <v>2771884.513820393</v>
       </c>
       <c r="CK4">
-        <v>2942526.576422775</v>
+        <v>2942526.576422773</v>
       </c>
       <c r="CL4">
-        <v>3080779.525717316</v>
+        <v>3080779.525717315</v>
       </c>
       <c r="CM4">
-        <v>3164442.147066292</v>
+        <v>3164442.14706629</v>
       </c>
       <c r="CN4">
-        <v>3201307.743383517</v>
+        <v>3201307.743383515</v>
       </c>
       <c r="CO4">
-        <v>3203326.89116126</v>
+        <v>3203326.891161259</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724198.954673873</v>
+        <v>1724198.954673871</v>
       </c>
       <c r="E5">
-        <v>1168146.459771768</v>
+        <v>1168146.459771767</v>
       </c>
       <c r="F5">
-        <v>1139080.973992533</v>
+        <v>1139080.973992532</v>
       </c>
       <c r="G5">
         <v>1091412.743693001</v>
@@ -1537,7 +1537,7 @@
         <v>1373202.429983064</v>
       </c>
       <c r="J5">
-        <v>1544243.334904114</v>
+        <v>1544243.334904113</v>
       </c>
       <c r="K5">
         <v>1314465.131566937</v>
@@ -1564,19 +1564,19 @@
         <v>13815272.65289824</v>
       </c>
       <c r="S5">
-        <v>45933789.66153148</v>
+        <v>45933789.66153147</v>
       </c>
       <c r="T5">
         <v>45975244.37280741</v>
       </c>
       <c r="U5">
-        <v>46025739.61349074</v>
+        <v>46025739.61349073</v>
       </c>
       <c r="V5">
-        <v>46086880.69845808</v>
+        <v>46086880.69845807</v>
       </c>
       <c r="W5">
-        <v>46160985.53257418</v>
+        <v>46160985.53257417</v>
       </c>
       <c r="X5">
         <v>48409534.47802758</v>
@@ -1588,13 +1588,13 @@
         <v>48662602.30871762</v>
       </c>
       <c r="AA5">
-        <v>48842862.21976103</v>
+        <v>48842862.21976102</v>
       </c>
       <c r="AB5">
         <v>49076499.95677105</v>
       </c>
       <c r="AC5">
-        <v>13895919.76871122</v>
+        <v>13895919.76871123</v>
       </c>
       <c r="AD5">
         <v>14297490.42053781</v>
@@ -1609,13 +1609,13 @@
         <v>16396659.57743583</v>
       </c>
       <c r="AH5">
-        <v>5644747.032162482</v>
+        <v>5644747.032162485</v>
       </c>
       <c r="AI5">
-        <v>6891392.431331755</v>
+        <v>6891392.431331756</v>
       </c>
       <c r="AJ5">
-        <v>8415610.312980549</v>
+        <v>8415610.312980551</v>
       </c>
       <c r="AK5">
         <v>10441513.78004473</v>
@@ -1669,7 +1669,7 @@
         <v>42343751.90443899</v>
       </c>
       <c r="BB5">
-        <v>38727207.56412756</v>
+        <v>38727207.56412757</v>
       </c>
       <c r="BC5">
         <v>36383607.28244108</v>
@@ -1684,7 +1684,7 @@
         <v>31665766.73982973</v>
       </c>
       <c r="BG5">
-        <v>30591879.60072325</v>
+        <v>30591879.60072326</v>
       </c>
       <c r="BH5">
         <v>30825588.44977181</v>
@@ -1705,19 +1705,19 @@
         <v>39500146.5159887</v>
       </c>
       <c r="BN5">
-        <v>42032581.62605689</v>
+        <v>42032581.6260569</v>
       </c>
       <c r="BO5">
-        <v>44534988.66433097</v>
+        <v>44534988.66433098</v>
       </c>
       <c r="BP5">
         <v>46890647.96130434</v>
       </c>
       <c r="BQ5">
-        <v>48998614.82745371</v>
+        <v>48998614.82745372</v>
       </c>
       <c r="BR5">
-        <v>50772764.67502967</v>
+        <v>50772764.67502968</v>
       </c>
       <c r="BS5">
         <v>52155353.29520652</v>
@@ -1729,7 +1729,7 @@
         <v>53638987.74360345</v>
       </c>
       <c r="BV5">
-        <v>53558547.50200684</v>
+        <v>53558547.50200685</v>
       </c>
       <c r="BW5">
         <v>53306031.12310099</v>
@@ -1738,40 +1738,40 @@
         <v>52752821.69069824</v>
       </c>
       <c r="BY5">
-        <v>51981549.4341479</v>
+        <v>51981549.43414792</v>
       </c>
       <c r="BZ5">
         <v>51084959.31860249</v>
       </c>
       <c r="CA5">
-        <v>49840671.59225559</v>
+        <v>49840671.5922556</v>
       </c>
       <c r="CB5">
         <v>48978485.34390444</v>
       </c>
       <c r="CC5">
-        <v>48263510.6440523</v>
+        <v>48263510.64405231</v>
       </c>
       <c r="CD5">
-        <v>47765120.93544385</v>
+        <v>47765120.93544386</v>
       </c>
       <c r="CE5">
-        <v>47534528.19616394</v>
+        <v>47534528.19616396</v>
       </c>
       <c r="CF5">
-        <v>47068179.55251972</v>
+        <v>47068179.55251973</v>
       </c>
       <c r="CG5">
-        <v>47443100.80417114</v>
+        <v>47443100.80417115</v>
       </c>
       <c r="CH5">
-        <v>48113188.38478354</v>
+        <v>48113188.38478355</v>
       </c>
       <c r="CI5">
         <v>49047887.27260815</v>
       </c>
       <c r="CJ5">
-        <v>50201513.0774072</v>
+        <v>50201513.07740721</v>
       </c>
       <c r="CK5">
         <v>50682915.83870944</v>
@@ -1780,13 +1780,13 @@
         <v>52097713.72468159</v>
       </c>
       <c r="CM5">
-        <v>53545930.92521442</v>
+        <v>53545930.92521443</v>
       </c>
       <c r="CN5">
         <v>54964093.13281535</v>
       </c>
       <c r="CO5">
-        <v>56294513.45428254</v>
+        <v>56294513.45428256</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -1800,25 +1800,25 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465598407588717</v>
+        <v>0.8465598407588715</v>
       </c>
       <c r="E6">
-        <v>0.859520231956614</v>
+        <v>0.8595202319566139</v>
       </c>
       <c r="F6">
-        <v>0.9079237378729045</v>
+        <v>0.9079237378729043</v>
       </c>
       <c r="G6">
-        <v>0.9150881939127402</v>
+        <v>0.9150881939127399</v>
       </c>
       <c r="H6">
-        <v>0.8888755054488597</v>
+        <v>0.8888755054488595</v>
       </c>
       <c r="I6">
-        <v>0.8808692641251074</v>
+        <v>0.8808692641251075</v>
       </c>
       <c r="J6">
-        <v>0.9221245035931951</v>
+        <v>0.922124503593195</v>
       </c>
       <c r="K6">
         <v>1.01702817464264</v>
@@ -1827,7 +1827,7 @@
         <v>1.029088114481318</v>
       </c>
       <c r="M6">
-        <v>1.096054690244875</v>
+        <v>1.096054690244874</v>
       </c>
       <c r="N6">
         <v>1.164347327852754</v>
@@ -1845,7 +1845,7 @@
         <v>1.204975617563945</v>
       </c>
       <c r="S6">
-        <v>1.31510092226242</v>
+        <v>1.315100922262419</v>
       </c>
       <c r="T6">
         <v>1.348846254397768</v>
@@ -1860,13 +1860,13 @@
         <v>1.450703687583572</v>
       </c>
       <c r="X6">
-        <v>1.483052987437131</v>
+        <v>1.48305298743713</v>
       </c>
       <c r="Y6">
         <v>1.515752265048951</v>
       </c>
       <c r="Z6">
-        <v>1.548369625070732</v>
+        <v>1.548369625070731</v>
       </c>
       <c r="AA6">
         <v>1.581070091745885</v>
@@ -1875,22 +1875,22 @@
         <v>1.613843848294196</v>
       </c>
       <c r="AC6">
-        <v>1.559445907332133</v>
+        <v>1.559445907332132</v>
       </c>
       <c r="AD6">
         <v>1.593175353991588</v>
       </c>
       <c r="AE6">
-        <v>1.627169709148235</v>
+        <v>1.627169709148234</v>
       </c>
       <c r="AF6">
-        <v>1.660904064745379</v>
+        <v>1.660904064745378</v>
       </c>
       <c r="AG6">
         <v>1.694916933418489</v>
       </c>
       <c r="AH6">
-        <v>1.704493007586478</v>
+        <v>1.704493007586477</v>
       </c>
       <c r="AI6">
         <v>1.740031975404095</v>
@@ -1914,19 +1914,19 @@
         <v>1.993811262934392</v>
       </c>
       <c r="AP6">
-        <v>2.040867274424947</v>
+        <v>2.040867274424946</v>
       </c>
       <c r="AQ6">
-        <v>2.083892918001978</v>
+        <v>2.083892918001977</v>
       </c>
       <c r="AR6">
         <v>2.141271295573688</v>
       </c>
       <c r="AS6">
-        <v>2.179683175344653</v>
+        <v>2.179683175344652</v>
       </c>
       <c r="AT6">
-        <v>2.216666372230622</v>
+        <v>2.216666372230621</v>
       </c>
       <c r="AU6">
         <v>2.252096852648524</v>
@@ -1956,13 +1956,13 @@
         <v>2.507885821771384</v>
       </c>
       <c r="BD6">
-        <v>2.543587596054152</v>
+        <v>2.543587596054151</v>
       </c>
       <c r="BE6">
-        <v>2.579964151704874</v>
+        <v>2.579964151704873</v>
       </c>
       <c r="BF6">
-        <v>2.618197467648236</v>
+        <v>2.618197467648235</v>
       </c>
       <c r="BG6">
         <v>2.659168440442954</v>
@@ -1977,7 +1977,7 @@
         <v>2.802820274752171</v>
       </c>
       <c r="BK6">
-        <v>2.854961565251087</v>
+        <v>2.854961565251086</v>
       </c>
       <c r="BL6">
         <v>2.909307933170922</v>
@@ -1992,7 +1992,7 @@
         <v>3.071739210990581</v>
       </c>
       <c r="BP6">
-        <v>3.121974599421351</v>
+        <v>3.12197459942135</v>
       </c>
       <c r="BQ6">
         <v>3.17337486674377</v>
@@ -2004,10 +2004,10 @@
         <v>3.27373776940439</v>
       </c>
       <c r="BT6">
-        <v>3.321639634829426</v>
+        <v>3.321639634829425</v>
       </c>
       <c r="BU6">
-        <v>3.366740103752587</v>
+        <v>3.366740103752586</v>
       </c>
       <c r="BV6">
         <v>3.411455360374889</v>
@@ -2019,7 +2019,7 @@
         <v>3.502697384985878</v>
       </c>
       <c r="BY6">
-        <v>3.551316570726972</v>
+        <v>3.551316570726971</v>
       </c>
       <c r="BZ6">
         <v>3.600236211900594</v>
@@ -2031,13 +2031,13 @@
         <v>3.703425521783886</v>
       </c>
       <c r="CC6">
-        <v>3.756247513021223</v>
+        <v>3.756247513021221</v>
       </c>
       <c r="CD6">
-        <v>3.810214831128584</v>
+        <v>3.810214831128583</v>
       </c>
       <c r="CE6">
-        <v>3.865605168112823</v>
+        <v>3.865605168112822</v>
       </c>
       <c r="CF6">
         <v>3.925715029841078</v>
@@ -2055,7 +2055,7 @@
         <v>4.182269437617149</v>
       </c>
       <c r="CK6">
-        <v>4.247269665655397</v>
+        <v>4.247269665655395</v>
       </c>
       <c r="CL6">
         <v>4.312566641514639</v>
@@ -2064,7 +2064,7 @@
         <v>4.376325632738512</v>
       </c>
       <c r="CN6">
-        <v>4.438838184125325</v>
+        <v>4.438838184125324</v>
       </c>
       <c r="CO6">
         <v>4.500455057617434</v>
@@ -2086,109 +2086,109 @@
         <v>0.04442428229244647</v>
       </c>
       <c r="G7">
-        <v>0.04489245556495794</v>
+        <v>0.04489245556495796</v>
       </c>
       <c r="H7">
         <v>0.04438171450411043</v>
       </c>
       <c r="I7">
-        <v>0.04369946047690694</v>
+        <v>0.04369946047690695</v>
       </c>
       <c r="J7">
-        <v>0.04501433673675973</v>
+        <v>0.04501433673675974</v>
       </c>
       <c r="K7">
-        <v>0.04943715481026109</v>
+        <v>0.04943715481026111</v>
       </c>
       <c r="L7">
         <v>0.05083173477130481</v>
       </c>
       <c r="M7">
-        <v>0.05433958737990974</v>
+        <v>0.05433958737990977</v>
       </c>
       <c r="N7">
-        <v>0.05775727346881688</v>
+        <v>0.05775727346881689</v>
       </c>
       <c r="O7">
-        <v>0.05281453738569652</v>
+        <v>0.05281453738569653</v>
       </c>
       <c r="P7">
         <v>0.05683730359323294</v>
       </c>
       <c r="Q7">
-        <v>0.05826704242926568</v>
+        <v>0.05826704242926571</v>
       </c>
       <c r="R7">
-        <v>0.05969037286893249</v>
+        <v>0.05969037286893251</v>
       </c>
       <c r="S7">
         <v>0.06463434576577197</v>
       </c>
       <c r="T7">
-        <v>0.06631738354027483</v>
+        <v>0.06631738354027486</v>
       </c>
       <c r="U7">
-        <v>0.06800604467167637</v>
+        <v>0.0680060446716764</v>
       </c>
       <c r="V7">
         <v>0.06969927628643714</v>
       </c>
       <c r="W7">
-        <v>0.07139593187602562</v>
+        <v>0.07139593187602566</v>
       </c>
       <c r="X7">
-        <v>0.07296423243255251</v>
+        <v>0.07296423243255253</v>
       </c>
       <c r="Y7">
-        <v>0.07459106121889011</v>
+        <v>0.07459106121889013</v>
       </c>
       <c r="Z7">
-        <v>0.07621352104444135</v>
+        <v>0.07621352104444137</v>
       </c>
       <c r="AA7">
-        <v>0.07783930993386821</v>
+        <v>0.07783930993386823</v>
       </c>
       <c r="AB7">
-        <v>0.07946777750630853</v>
+        <v>0.07946777750630855</v>
       </c>
       <c r="AC7">
-        <v>0.07734721177744512</v>
+        <v>0.07734721177744514</v>
       </c>
       <c r="AD7">
-        <v>0.0790177950475356</v>
+        <v>0.07901779504753562</v>
       </c>
       <c r="AE7">
-        <v>0.08069950423069587</v>
+        <v>0.0806995042306959</v>
       </c>
       <c r="AF7">
-        <v>0.08236637676305879</v>
+        <v>0.08236637676305882</v>
       </c>
       <c r="AG7">
         <v>0.08404429642353156</v>
       </c>
       <c r="AH7">
-        <v>0.08469537743972252</v>
+        <v>0.08469537743972254</v>
       </c>
       <c r="AI7">
-        <v>0.08643977223661542</v>
+        <v>0.08643977223661546</v>
       </c>
       <c r="AJ7">
-        <v>0.08823226724227692</v>
+        <v>0.08823226724227695</v>
       </c>
       <c r="AK7">
-        <v>0.0900592327842759</v>
+        <v>0.09005923278427591</v>
       </c>
       <c r="AL7">
-        <v>0.0919437707303133</v>
+        <v>0.09194377073031332</v>
       </c>
       <c r="AM7">
-        <v>0.09444933570922186</v>
+        <v>0.0944493357092219</v>
       </c>
       <c r="AN7">
-        <v>0.09652004474334758</v>
+        <v>0.09652004474334762</v>
       </c>
       <c r="AO7">
-        <v>0.09869158312562398</v>
+        <v>0.09869158312562402</v>
       </c>
       <c r="AP7">
         <v>0.1009584441767499</v>
@@ -2197,7 +2197,7 @@
         <v>0.1030338799974389</v>
       </c>
       <c r="AR7">
-        <v>0.1057058333403647</v>
+        <v>0.1057058333403648</v>
       </c>
       <c r="AS7">
         <v>0.1075643415628077</v>
@@ -2212,19 +2212,19 @@
         <v>0.1127830288514431</v>
       </c>
       <c r="AW7">
-        <v>0.1147317567141195</v>
+        <v>0.1147317567141196</v>
       </c>
       <c r="AX7">
-        <v>0.1163503508393838</v>
+        <v>0.1163503508393839</v>
       </c>
       <c r="AY7">
-        <v>0.1177411930028502</v>
+        <v>0.1177411930028503</v>
       </c>
       <c r="AZ7">
         <v>0.1189791427035435</v>
       </c>
       <c r="BA7">
-        <v>0.1204248810433502</v>
+        <v>0.1204248810433503</v>
       </c>
       <c r="BB7">
         <v>0.1220779549446271</v>
@@ -2236,22 +2236,22 @@
         <v>0.1256670693004979</v>
       </c>
       <c r="BE7">
-        <v>0.1274819790950084</v>
+        <v>0.1274819790950085</v>
       </c>
       <c r="BF7">
-        <v>0.1293783422545956</v>
+        <v>0.1293783422545957</v>
       </c>
       <c r="BG7">
         <v>0.131405120148641</v>
       </c>
       <c r="BH7">
-        <v>0.133607319230337</v>
+        <v>0.1336073192303371</v>
       </c>
       <c r="BI7">
-        <v>0.1359443072435025</v>
+        <v>0.1359443072435026</v>
       </c>
       <c r="BJ7">
-        <v>0.1384053955879369</v>
+        <v>0.138405395587937</v>
       </c>
       <c r="BK7">
         <v>0.1409296970926094</v>
@@ -2260,7 +2260,7 @@
         <v>0.1435535754626673</v>
       </c>
       <c r="BM7">
-        <v>0.1462240257982064</v>
+        <v>0.1462240257982065</v>
       </c>
       <c r="BN7">
         <v>0.1488439690047652</v>
@@ -2272,19 +2272,19 @@
         <v>0.1538076446249682</v>
       </c>
       <c r="BQ7">
-        <v>0.1562908897291694</v>
+        <v>0.1562908897291695</v>
       </c>
       <c r="BR7">
-        <v>0.1587454797420892</v>
+        <v>0.1587454797420893</v>
       </c>
       <c r="BS7">
         <v>0.1611551631049107</v>
       </c>
       <c r="BT7">
-        <v>0.1634858187612775</v>
+        <v>0.1634858187612776</v>
       </c>
       <c r="BU7">
-        <v>0.1656879813486487</v>
+        <v>0.1656879813486488</v>
       </c>
       <c r="BV7">
         <v>0.1678777373830394</v>
@@ -2293,22 +2293,22 @@
         <v>0.1700683538137007</v>
       </c>
       <c r="BX7">
-        <v>0.1723539973041629</v>
+        <v>0.172353997304163</v>
       </c>
       <c r="BY7">
-        <v>0.1747407893177552</v>
+        <v>0.1747407893177553</v>
       </c>
       <c r="BZ7">
-        <v>0.1771432307918168</v>
+        <v>0.1771432307918169</v>
       </c>
       <c r="CA7">
-        <v>0.1796555660006481</v>
+        <v>0.1796555660006482</v>
       </c>
       <c r="CB7">
         <v>0.1822069946072808</v>
       </c>
       <c r="CC7">
-        <v>0.184793156738774</v>
+        <v>0.1847931567387741</v>
       </c>
       <c r="CD7">
         <v>0.1874309177695518</v>
@@ -2317,31 +2317,31 @@
         <v>0.1901327080229713</v>
       </c>
       <c r="CF7">
-        <v>0.1930636750174147</v>
+        <v>0.1930636750174148</v>
       </c>
       <c r="CG7">
         <v>0.1961333367217334</v>
       </c>
       <c r="CH7">
-        <v>0.1992470050138208</v>
+        <v>0.1992470050138209</v>
       </c>
       <c r="CI7">
         <v>0.2023752879848181</v>
       </c>
       <c r="CJ7">
-        <v>0.2054937768759988</v>
+        <v>0.2054937768759989</v>
       </c>
       <c r="CK7">
         <v>0.2086475355397407</v>
       </c>
       <c r="CL7">
-        <v>0.2118027598746136</v>
+        <v>0.2118027598746137</v>
       </c>
       <c r="CM7">
-        <v>0.2148841200967849</v>
+        <v>0.214884120096785</v>
       </c>
       <c r="CN7">
-        <v>0.2179063206206529</v>
+        <v>0.217906320620653</v>
       </c>
       <c r="CO7">
         <v>0.2208867697688082</v>
@@ -2354,274 +2354,274 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804767.4285286602</v>
+        <v>804767.4285286597</v>
       </c>
       <c r="E8">
-        <v>568084.1122961219</v>
+        <v>568084.1122961218</v>
       </c>
       <c r="F8">
-        <v>362879.4221382684</v>
+        <v>362879.4221382682</v>
       </c>
       <c r="G8">
-        <v>301325.5565137168</v>
+        <v>301325.5565137166</v>
       </c>
       <c r="H8">
-        <v>323306.9618105885</v>
+        <v>323306.9618105884</v>
       </c>
       <c r="I8">
-        <v>255077.3689470356</v>
+        <v>255077.3689470355</v>
       </c>
       <c r="J8">
-        <v>288213.128061723</v>
+        <v>288213.1280617228</v>
       </c>
       <c r="K8">
-        <v>250823.0200545647</v>
+        <v>250823.0200545645</v>
       </c>
       <c r="L8">
-        <v>300398.1435172964</v>
+        <v>300398.1435172962</v>
       </c>
       <c r="M8">
-        <v>264782.5660240504</v>
+        <v>264782.5660240502</v>
       </c>
       <c r="N8">
-        <v>306300.0273080253</v>
+        <v>306300.0273080252</v>
       </c>
       <c r="O8">
-        <v>415409.3411431172</v>
+        <v>415409.3411431169</v>
       </c>
       <c r="P8">
-        <v>1754690.194718723</v>
+        <v>1754690.194718721</v>
       </c>
       <c r="Q8">
-        <v>1778150.319403551</v>
+        <v>1778150.31940355</v>
       </c>
       <c r="R8">
-        <v>1794164.529726723</v>
+        <v>1794164.529726722</v>
       </c>
       <c r="S8">
-        <v>5735635.722307785</v>
+        <v>5735635.722307781</v>
       </c>
       <c r="T8">
-        <v>5755547.803855703</v>
+        <v>5755547.803855699</v>
       </c>
       <c r="U8">
-        <v>5779390.349686183</v>
+        <v>5779390.349686179</v>
       </c>
       <c r="V8">
-        <v>5804691.830813517</v>
+        <v>5804691.830813514</v>
       </c>
       <c r="W8">
-        <v>5830563.701400771</v>
+        <v>5830563.701400767</v>
       </c>
       <c r="X8">
-        <v>5538256.714413927</v>
+        <v>5538256.714413923</v>
       </c>
       <c r="Y8">
-        <v>5567112.084947125</v>
+        <v>5567112.08494712</v>
       </c>
       <c r="Z8">
-        <v>5593173.340376278</v>
+        <v>5593173.340376275</v>
       </c>
       <c r="AA8">
-        <v>5620232.99435601</v>
+        <v>5620232.994356007</v>
       </c>
       <c r="AB8">
-        <v>5652158.535653753</v>
+        <v>5652158.53565375</v>
       </c>
       <c r="AC8">
         <v>1147608.542754265</v>
       </c>
       <c r="AD8">
-        <v>1174884.795275439</v>
+        <v>1174884.795275438</v>
       </c>
       <c r="AE8">
         <v>1209105.346390794</v>
       </c>
       <c r="AF8">
-        <v>1245172.294295542</v>
+        <v>1245172.294295541</v>
       </c>
       <c r="AG8">
-        <v>1287543.385894413</v>
+        <v>1287543.385894412</v>
       </c>
       <c r="AH8">
-        <v>-14391.07382516702</v>
+        <v>-14391.07382516715</v>
       </c>
       <c r="AI8">
-        <v>53363.27240355514</v>
+        <v>53363.27240355493</v>
       </c>
       <c r="AJ8">
-        <v>134353.2753029576</v>
+        <v>134353.2753029572</v>
       </c>
       <c r="AK8">
-        <v>231770.7544036111</v>
+        <v>231770.7544036107</v>
       </c>
       <c r="AL8">
-        <v>347581.8324633304</v>
+        <v>347581.8324633298</v>
       </c>
       <c r="AM8">
-        <v>1369252.679536229</v>
+        <v>1369252.679536228</v>
       </c>
       <c r="AN8">
-        <v>1623770.478165063</v>
+        <v>1623770.478165061</v>
       </c>
       <c r="AO8">
-        <v>1945511.117917095</v>
+        <v>1945511.117917093</v>
       </c>
       <c r="AP8">
-        <v>2311872.546203427</v>
+        <v>2311872.546203425</v>
       </c>
       <c r="AQ8">
-        <v>2579343.176116469</v>
+        <v>2579343.176116467</v>
       </c>
       <c r="AR8">
-        <v>3201168.055021101</v>
+        <v>3201168.055021098</v>
       </c>
       <c r="AS8">
-        <v>3324504.223340304</v>
+        <v>3324504.223340301</v>
       </c>
       <c r="AT8">
-        <v>3402351.844048213</v>
+        <v>3402351.844048211</v>
       </c>
       <c r="AU8">
-        <v>3430851.905985515</v>
+        <v>3430851.905985512</v>
       </c>
       <c r="AV8">
-        <v>3421660.58539908</v>
+        <v>3421660.585399076</v>
       </c>
       <c r="AW8">
-        <v>3535052.19284923</v>
+        <v>3535052.192849228</v>
       </c>
       <c r="AX8">
-        <v>3394700.610659349</v>
+        <v>3394700.610659346</v>
       </c>
       <c r="AY8">
-        <v>3143310.598267251</v>
+        <v>3143310.598267248</v>
       </c>
       <c r="AZ8">
-        <v>2815853.502074888</v>
+        <v>2815853.502074886</v>
       </c>
       <c r="BA8">
-        <v>2568329.559849819</v>
+        <v>2568329.559849817</v>
       </c>
       <c r="BB8">
-        <v>2317295.032625991</v>
+        <v>2317295.032625989</v>
       </c>
       <c r="BC8">
-        <v>2160378.522871498</v>
+        <v>2160378.522871496</v>
       </c>
       <c r="BD8">
-        <v>2004508.986444105</v>
+        <v>2004508.986444103</v>
       </c>
       <c r="BE8">
-        <v>1892138.071445336</v>
+        <v>1892138.071445335</v>
       </c>
       <c r="BF8">
-        <v>1821147.154521487</v>
+        <v>1821147.154521486</v>
       </c>
       <c r="BG8">
-        <v>1713673.523256976</v>
+        <v>1713673.523256974</v>
       </c>
       <c r="BH8">
-        <v>1722613.597586971</v>
+        <v>1722613.597586969</v>
       </c>
       <c r="BI8">
-        <v>1827407.861292145</v>
+        <v>1827407.861292144</v>
       </c>
       <c r="BJ8">
-        <v>2017112.994497283</v>
+        <v>2017112.994497281</v>
       </c>
       <c r="BK8">
-        <v>2247881.277326044</v>
+        <v>2247881.277326041</v>
       </c>
       <c r="BL8">
-        <v>2437377.016701394</v>
+        <v>2437377.016701392</v>
       </c>
       <c r="BM8">
-        <v>2696466.432288341</v>
+        <v>2696466.432288339</v>
       </c>
       <c r="BN8">
-        <v>2919095.687910096</v>
+        <v>2919095.687910094</v>
       </c>
       <c r="BO8">
-        <v>3091420.837787818</v>
+        <v>3091420.837787815</v>
       </c>
       <c r="BP8">
-        <v>3214965.421889708</v>
+        <v>3214965.421889706</v>
       </c>
       <c r="BQ8">
-        <v>3255375.284639282</v>
+        <v>3255375.284639279</v>
       </c>
       <c r="BR8">
-        <v>3314056.045723222</v>
+        <v>3314056.045723219</v>
       </c>
       <c r="BS8">
-        <v>3343016.737842165</v>
+        <v>3343016.737842163</v>
       </c>
       <c r="BT8">
-        <v>3328049.390386622</v>
+        <v>3328049.390386619</v>
       </c>
       <c r="BU8">
-        <v>3248823.495845811</v>
+        <v>3248823.495845807</v>
       </c>
       <c r="BV8">
-        <v>3065574.352114496</v>
+        <v>3065574.352114492</v>
       </c>
       <c r="BW8">
-        <v>2909401.867702905</v>
+        <v>2909401.867702902</v>
       </c>
       <c r="BX8">
-        <v>2795035.518899549</v>
+        <v>2795035.518899546</v>
       </c>
       <c r="BY8">
-        <v>2743924.29896353</v>
+        <v>2743924.298963528</v>
       </c>
       <c r="BZ8">
-        <v>2679546.077246188</v>
+        <v>2679546.077246185</v>
       </c>
       <c r="CA8">
-        <v>2564974.341196436</v>
+        <v>2564974.341196433</v>
       </c>
       <c r="CB8">
-        <v>2496094.065185391</v>
+        <v>2496094.065185389</v>
       </c>
       <c r="CC8">
-        <v>2438968.320576554</v>
+        <v>2438968.320576551</v>
       </c>
       <c r="CD8">
-        <v>2399940.291330897</v>
+        <v>2399940.291330894</v>
       </c>
       <c r="CE8">
-        <v>2377601.824300066</v>
+        <v>2377601.824300063</v>
       </c>
       <c r="CF8">
-        <v>2353919.146105905</v>
+        <v>2353919.146105903</v>
       </c>
       <c r="CG8">
-        <v>2473719.334402505</v>
+        <v>2473719.334402503</v>
       </c>
       <c r="CH8">
-        <v>2621934.816547523</v>
+        <v>2621934.816547521</v>
       </c>
       <c r="CI8">
-        <v>2780135.454399502</v>
+        <v>2780135.4543995</v>
       </c>
       <c r="CJ8">
-        <v>2932679.328777366</v>
+        <v>2932679.328777363</v>
       </c>
       <c r="CK8">
-        <v>2986875.101884008</v>
+        <v>2986875.101884006</v>
       </c>
       <c r="CL8">
-        <v>3084336.081049687</v>
+        <v>3084336.081049684</v>
       </c>
       <c r="CM8">
-        <v>3152450.970258385</v>
+        <v>3152450.970258382</v>
       </c>
       <c r="CN8">
-        <v>3198084.31769914</v>
+        <v>3198084.317699137</v>
       </c>
       <c r="CO8">
-        <v>3225657.474052987</v>
+        <v>3225657.474052983</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -2631,274 +2631,274 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>163668.343378372</v>
+        <v>163668.3433783719</v>
       </c>
       <c r="E9">
         <v>104434.7296516304</v>
       </c>
       <c r="F9">
-        <v>79511.96068442256</v>
+        <v>79511.96068442261</v>
       </c>
       <c r="G9">
-        <v>79158.69334502143</v>
+        <v>79158.69334502151</v>
       </c>
       <c r="H9">
-        <v>72976.11992357283</v>
+        <v>72976.11992357291</v>
       </c>
       <c r="I9">
-        <v>70068.53835173683</v>
+        <v>70068.5383517369</v>
       </c>
       <c r="J9">
-        <v>64279.2237206543</v>
+        <v>64279.22372065438</v>
       </c>
       <c r="K9">
-        <v>67289.8647283528</v>
+        <v>67289.8647283529</v>
       </c>
       <c r="L9">
-        <v>81455.82653301224</v>
+        <v>81455.82653301231</v>
       </c>
       <c r="M9">
-        <v>81830.92414366207</v>
+        <v>81830.92414366214</v>
       </c>
       <c r="N9">
-        <v>87508.11872011164</v>
+        <v>87508.11872011173</v>
       </c>
       <c r="O9">
-        <v>100671.0880989791</v>
+        <v>100671.0880989792</v>
       </c>
       <c r="P9">
-        <v>977077.8077834375</v>
+        <v>977077.8077834385</v>
       </c>
       <c r="Q9">
-        <v>978953.4372943485</v>
+        <v>978953.4372943497</v>
       </c>
       <c r="R9">
-        <v>981300.4700941817</v>
+        <v>981300.4700941826</v>
       </c>
       <c r="S9">
-        <v>3182965.213662601</v>
+        <v>3182965.213662604</v>
       </c>
       <c r="T9">
-        <v>3186437.024092219</v>
+        <v>3186437.024092223</v>
       </c>
       <c r="U9">
-        <v>3190558.963632188</v>
+        <v>3190558.963632192</v>
       </c>
       <c r="V9">
-        <v>3195406.132379497</v>
+        <v>3195406.132379502</v>
       </c>
       <c r="W9">
-        <v>3201091.566519156</v>
+        <v>3201091.566519159</v>
       </c>
       <c r="X9">
-        <v>3453835.899325088</v>
+        <v>3453835.899325093</v>
       </c>
       <c r="Y9">
-        <v>3461851.828351129</v>
+        <v>3461851.828351133</v>
       </c>
       <c r="Z9">
-        <v>3471622.907756904</v>
+        <v>3471622.907756908</v>
       </c>
       <c r="AA9">
-        <v>3483809.971717356</v>
+        <v>3483809.97171736</v>
       </c>
       <c r="AB9">
-        <v>3499355.658308201</v>
+        <v>3499355.658308207</v>
       </c>
       <c r="AC9">
-        <v>1122952.752505382</v>
+        <v>1122952.752505383</v>
       </c>
       <c r="AD9">
-        <v>1149504.362133737</v>
+        <v>1149504.362133739</v>
       </c>
       <c r="AE9">
-        <v>1184551.972025845</v>
+        <v>1184551.972025847</v>
       </c>
       <c r="AF9">
-        <v>1230654.533866845</v>
+        <v>1230654.533866847</v>
       </c>
       <c r="AG9">
-        <v>1290691.168710676</v>
+        <v>1290691.168710679</v>
       </c>
       <c r="AH9">
-        <v>560054.6522626642</v>
+        <v>560054.6522626657</v>
       </c>
       <c r="AI9">
-        <v>641204.0838200386</v>
+        <v>641204.0838200399</v>
       </c>
       <c r="AJ9">
-        <v>741344.4805280921</v>
+        <v>741344.4805280938</v>
       </c>
       <c r="AK9">
-        <v>882564.8501270317</v>
+        <v>882564.8501270333</v>
       </c>
       <c r="AL9">
-        <v>1049336.595181626</v>
+        <v>1049336.595181627</v>
       </c>
       <c r="AM9">
-        <v>1692936.399679546</v>
+        <v>1692936.399679548</v>
       </c>
       <c r="AN9">
-        <v>1900742.919115406</v>
+        <v>1900742.91911541</v>
       </c>
       <c r="AO9">
-        <v>2121245.132492408</v>
+        <v>2121245.132492411</v>
       </c>
       <c r="AP9">
-        <v>2346222.179496292</v>
+        <v>2346222.179496295</v>
       </c>
       <c r="AQ9">
-        <v>2565579.088401267</v>
+        <v>2565579.088401271</v>
       </c>
       <c r="AR9">
-        <v>3309870.430924686</v>
+        <v>3309870.43092469</v>
       </c>
       <c r="AS9">
-        <v>3484149.57258021</v>
+        <v>3484149.572580215</v>
       </c>
       <c r="AT9">
-        <v>3619965.330291557</v>
+        <v>3619965.330291563</v>
       </c>
       <c r="AU9">
-        <v>3709412.265168991</v>
+        <v>3709412.265168997</v>
       </c>
       <c r="AV9">
-        <v>3747932.369363816</v>
+        <v>3747932.369363822</v>
       </c>
       <c r="AW9">
-        <v>3913007.525474052</v>
+        <v>3913007.525474057</v>
       </c>
       <c r="AX9">
-        <v>3851848.461483155</v>
+        <v>3851848.461483161</v>
       </c>
       <c r="AY9">
-        <v>3749595.874112056</v>
+        <v>3749595.874112062</v>
       </c>
       <c r="AZ9">
-        <v>3616204.75120953</v>
+        <v>3616204.751209536</v>
       </c>
       <c r="BA9">
-        <v>3463658.935362815</v>
+        <v>3463658.935362821</v>
       </c>
       <c r="BB9">
-        <v>3215876.024627979</v>
+        <v>3215876.024627985</v>
       </c>
       <c r="BC9">
-        <v>3064544.932959293</v>
+        <v>3064544.932959298</v>
       </c>
       <c r="BD9">
-        <v>2933131.418586928</v>
+        <v>2933131.418586933</v>
       </c>
       <c r="BE9">
-        <v>2832661.64608739</v>
+        <v>2832661.646087395</v>
       </c>
       <c r="BF9">
-        <v>2771619.00021578</v>
+        <v>2771619.000215784</v>
       </c>
       <c r="BG9">
-        <v>2710870.45964313</v>
+        <v>2710870.459643135</v>
       </c>
       <c r="BH9">
-        <v>2740782.045111469</v>
+        <v>2740782.045111474</v>
       </c>
       <c r="BI9">
-        <v>2815231.174453894</v>
+        <v>2815231.174453899</v>
       </c>
       <c r="BJ9">
-        <v>2929612.191498682</v>
+        <v>2929612.191498688</v>
       </c>
       <c r="BK9">
-        <v>3077234.004526579</v>
+        <v>3077234.004526585</v>
       </c>
       <c r="BL9">
-        <v>3255632.315158537</v>
+        <v>3255632.315158543</v>
       </c>
       <c r="BM9">
-        <v>3444805.934898742</v>
+        <v>3444805.934898749</v>
       </c>
       <c r="BN9">
-        <v>3641187.118951839</v>
+        <v>3641187.118951846</v>
       </c>
       <c r="BO9">
-        <v>3835736.303561253</v>
+        <v>3835736.30356126</v>
       </c>
       <c r="BP9">
-        <v>4019991.418565296</v>
+        <v>4019991.418565303</v>
       </c>
       <c r="BQ9">
-        <v>4195218.109870055</v>
+        <v>4195218.109870062</v>
       </c>
       <c r="BR9">
-        <v>4338100.909974418</v>
+        <v>4338100.909974426</v>
       </c>
       <c r="BS9">
-        <v>4453081.800937168</v>
+        <v>4453081.800937176</v>
       </c>
       <c r="BT9">
-        <v>4537794.048214903</v>
+        <v>4537794.048214911</v>
       </c>
       <c r="BU9">
-        <v>4591776.822622558</v>
+        <v>4591776.822622566</v>
       </c>
       <c r="BV9">
-        <v>4606915.557093799</v>
+        <v>4606915.557093807</v>
       </c>
       <c r="BW9">
-        <v>4605397.708683179</v>
+        <v>4605397.708683187</v>
       </c>
       <c r="BX9">
-        <v>4582360.679553913</v>
+        <v>4582360.679553921</v>
       </c>
       <c r="BY9">
-        <v>4543632.535213497</v>
+        <v>4543632.535213505</v>
       </c>
       <c r="BZ9">
-        <v>4495779.387125649</v>
+        <v>4495779.387125657</v>
       </c>
       <c r="CA9">
-        <v>4417781.296261143</v>
+        <v>4417781.296261151</v>
       </c>
       <c r="CB9">
-        <v>4371988.868081091</v>
+        <v>4371988.868081098</v>
       </c>
       <c r="CC9">
-        <v>4336561.049492051</v>
+        <v>4336561.049492058</v>
       </c>
       <c r="CD9">
-        <v>4316523.961926804</v>
+        <v>4316523.961926811</v>
       </c>
       <c r="CE9">
-        <v>4315619.67044553</v>
+        <v>4315619.670445539</v>
       </c>
       <c r="CF9">
-        <v>4283649.710723437</v>
+        <v>4283649.710723445</v>
       </c>
       <c r="CG9">
-        <v>4326239.898789298</v>
+        <v>4326239.898789307</v>
       </c>
       <c r="CH9">
-        <v>4390119.594165334</v>
+        <v>4390119.594165344</v>
       </c>
       <c r="CI9">
-        <v>4473134.572106193</v>
+        <v>4473134.572106202</v>
       </c>
       <c r="CJ9">
-        <v>4572028.854162572</v>
+        <v>4572028.854162579</v>
       </c>
       <c r="CK9">
-        <v>4598936.233457036</v>
+        <v>4598936.233457046</v>
       </c>
       <c r="CL9">
-        <v>4716913.600866064</v>
+        <v>4716913.600866074</v>
       </c>
       <c r="CM9">
-        <v>4837431.248449433</v>
+        <v>4837431.248449442</v>
       </c>
       <c r="CN9">
-        <v>4955898.786800547</v>
+        <v>4955898.786800556</v>
       </c>
       <c r="CO9">
-        <v>5068133.386527584</v>
+        <v>5068133.386527594</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -2945,7 +2945,7 @@
         <v>14.67150291274054</v>
       </c>
       <c r="O10">
-        <v>13.41120785221648</v>
+        <v>13.41120785221647</v>
       </c>
       <c r="P10">
         <v>14.4730588087852</v>
@@ -2963,7 +2963,7 @@
         <v>16.99630451914316</v>
       </c>
       <c r="U10">
-        <v>17.42301160896183</v>
+        <v>17.42301160896182</v>
       </c>
       <c r="V10">
         <v>17.85093448009464</v>
@@ -3002,28 +3002,28 @@
         <v>21.35701103154622</v>
       </c>
       <c r="AH10">
-        <v>21.47767554177219</v>
+        <v>21.47767554177218</v>
       </c>
       <c r="AI10">
-        <v>21.92548871347717</v>
+        <v>21.92548871347716</v>
       </c>
       <c r="AJ10">
         <v>22.38673042574495</v>
       </c>
       <c r="AK10">
-        <v>22.85867627748973</v>
+        <v>22.85867627748972</v>
       </c>
       <c r="AL10">
         <v>23.3469391012531</v>
       </c>
       <c r="AM10">
-        <v>24.01539028897234</v>
+        <v>24.01539028897233</v>
       </c>
       <c r="AN10">
         <v>24.55569913439013</v>
       </c>
       <c r="AO10">
-        <v>25.12326610096892</v>
+        <v>25.12326610096891</v>
       </c>
       <c r="AP10">
         <v>25.71620120987564</v>
@@ -3032,25 +3032,25 @@
         <v>26.25835116802179</v>
       </c>
       <c r="AR10">
-        <v>26.98135453096518</v>
+        <v>26.98135453096517</v>
       </c>
       <c r="AS10">
-        <v>27.4653681860511</v>
+        <v>27.46536818605109</v>
       </c>
       <c r="AT10">
-        <v>27.93137954525231</v>
+        <v>27.93137954525229</v>
       </c>
       <c r="AU10">
-        <v>28.37782570802202</v>
+        <v>28.37782570802201</v>
       </c>
       <c r="AV10">
-        <v>28.81155780540553</v>
+        <v>28.81155780540552</v>
       </c>
       <c r="AW10">
         <v>29.31698310540365</v>
       </c>
       <c r="AX10">
-        <v>29.72633855471561</v>
+        <v>29.7263385547156</v>
       </c>
       <c r="AY10">
         <v>30.07377438333376</v>
@@ -3059,10 +3059,10 @@
         <v>30.37945318579344</v>
       </c>
       <c r="BA10">
-        <v>30.73892557589845</v>
+        <v>30.73892557589844</v>
       </c>
       <c r="BB10">
-        <v>31.14814064410024</v>
+        <v>31.14814064410023</v>
       </c>
       <c r="BC10">
         <v>31.60092633767156</v>
@@ -3074,25 +3074,25 @@
         <v>32.50915827351055</v>
       </c>
       <c r="BF10">
-        <v>32.99092191294038</v>
+        <v>32.99092191294037</v>
       </c>
       <c r="BG10">
-        <v>33.50718173706354</v>
+        <v>33.50718173706353</v>
       </c>
       <c r="BH10">
-        <v>34.07395643806247</v>
+        <v>34.07395643806246</v>
       </c>
       <c r="BI10">
-        <v>34.67833071530619</v>
+        <v>34.67833071530618</v>
       </c>
       <c r="BJ10">
         <v>35.31728449168997</v>
       </c>
       <c r="BK10">
-        <v>35.97429728944309</v>
+        <v>35.97429728944308</v>
       </c>
       <c r="BL10">
-        <v>36.65909543872313</v>
+        <v>36.65909543872312</v>
       </c>
       <c r="BM10">
         <v>37.3570580204145</v>
@@ -3101,85 +3101,85 @@
         <v>38.04210221645165</v>
       </c>
       <c r="BO10">
-        <v>38.70583090042263</v>
+        <v>38.70583090042262</v>
       </c>
       <c r="BP10">
-        <v>39.33882814278665</v>
+        <v>39.33882814278664</v>
       </c>
       <c r="BQ10">
         <v>39.98650358609893</v>
       </c>
       <c r="BR10">
-        <v>40.62535617929063</v>
+        <v>40.62535617929062</v>
       </c>
       <c r="BS10">
         <v>41.25113878857918</v>
       </c>
       <c r="BT10">
-        <v>41.85473218489432</v>
+        <v>41.85473218489431</v>
       </c>
       <c r="BU10">
-        <v>42.4230262371445</v>
+        <v>42.42302623714449</v>
       </c>
       <c r="BV10">
-        <v>42.98646637402178</v>
+        <v>42.98646637402177</v>
       </c>
       <c r="BW10">
         <v>43.54938922710724</v>
       </c>
       <c r="BX10">
-        <v>44.13617282142109</v>
+        <v>44.13617282142108</v>
       </c>
       <c r="BY10">
-        <v>44.74880490134436</v>
+        <v>44.74880490134435</v>
       </c>
       <c r="BZ10">
-        <v>45.36522290720919</v>
+        <v>45.36522290720918</v>
       </c>
       <c r="CA10">
-        <v>46.00958403845233</v>
+        <v>46.00958403845232</v>
       </c>
       <c r="CB10">
-        <v>46.66547260444376</v>
+        <v>46.66547260444374</v>
       </c>
       <c r="CC10">
-        <v>47.33106265627517</v>
+        <v>47.33106265627516</v>
       </c>
       <c r="CD10">
         <v>48.01108454138149</v>
       </c>
       <c r="CE10">
-        <v>48.70903735233581</v>
+        <v>48.7090373523358</v>
       </c>
       <c r="CF10">
         <v>49.46645912016596</v>
       </c>
       <c r="CG10">
-        <v>50.26336631212171</v>
+        <v>50.2633663121217</v>
       </c>
       <c r="CH10">
-        <v>51.07280067812525</v>
+        <v>51.07280067812524</v>
       </c>
       <c r="CI10">
-        <v>51.8869271358444</v>
+        <v>51.88692713584438</v>
       </c>
       <c r="CJ10">
-        <v>52.69920475449873</v>
+        <v>52.69920475449874</v>
       </c>
       <c r="CK10">
-        <v>53.51824818954545</v>
+        <v>53.51824818954543</v>
       </c>
       <c r="CL10">
         <v>54.3410308323147</v>
       </c>
       <c r="CM10">
-        <v>55.14443390893752</v>
+        <v>55.14443390893751</v>
       </c>
       <c r="CN10">
         <v>55.9321310658038</v>
       </c>
       <c r="CO10">
-        <v>56.7085421222715</v>
+        <v>56.70854212227148</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -3189,19 +3189,19 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.5364284207062041</v>
+        <v>0.5364284207062042</v>
       </c>
       <c r="E11">
         <v>0.537912713184231</v>
       </c>
       <c r="F11">
-        <v>0.5597736787458502</v>
+        <v>0.5597736787458503</v>
       </c>
       <c r="G11">
         <v>0.5656729541313028</v>
       </c>
       <c r="H11">
-        <v>0.5592372980494537</v>
+        <v>0.5592372980494538</v>
       </c>
       <c r="I11">
         <v>0.550640471563147</v>
@@ -3228,7 +3228,7 @@
         <v>0.716185493170893</v>
       </c>
       <c r="Q11">
-        <v>0.7342010946976268</v>
+        <v>0.7342010946976271</v>
       </c>
       <c r="R11">
         <v>0.7521359464311508</v>
@@ -3243,13 +3243,13 @@
         <v>0.8569186003324962</v>
       </c>
       <c r="V11">
-        <v>0.8782543752972739</v>
+        <v>0.8782543752972738</v>
       </c>
       <c r="W11">
-        <v>0.8996332944815275</v>
+        <v>0.8996332944815274</v>
       </c>
       <c r="X11">
-        <v>0.9193948601524594</v>
+        <v>0.9193948601524592</v>
       </c>
       <c r="Y11">
         <v>0.9398939180420827</v>
@@ -3258,13 +3258,13 @@
         <v>0.9603379242994584</v>
       </c>
       <c r="AA11">
-        <v>0.9808238788390852</v>
+        <v>0.9808238788390851</v>
       </c>
       <c r="AB11">
         <v>1.001343586456246</v>
       </c>
       <c r="AC11">
-        <v>0.9746231349866209</v>
+        <v>0.9746231349866208</v>
       </c>
       <c r="AD11">
         <v>0.995673526675421</v>
@@ -3348,7 +3348,7 @@
         <v>1.583483492574292</v>
       </c>
       <c r="BE11">
-        <v>1.606352488534139</v>
+        <v>1.606352488534138</v>
       </c>
       <c r="BF11">
         <v>1.630247847722884</v>
@@ -3360,7 +3360,7 @@
         <v>1.683535596604418</v>
       </c>
       <c r="BI11">
-        <v>1.712983103909157</v>
+        <v>1.712983103909156</v>
       </c>
       <c r="BJ11">
         <v>1.743994352829589</v>
@@ -3378,7 +3378,7 @@
         <v>1.875526891811994</v>
       </c>
       <c r="BO11">
-        <v>1.907521855705726</v>
+        <v>1.907521855705727</v>
       </c>
       <c r="BP11">
         <v>1.938072302084037</v>
@@ -3414,7 +3414,7 @@
         <v>2.232115249774578</v>
       </c>
       <c r="CA11">
-        <v>2.263772241165733</v>
+        <v>2.263772241165734</v>
       </c>
       <c r="CB11">
         <v>2.295921833764442</v>
@@ -3481,46 +3481,46 @@
         <v>411702.7403634286</v>
       </c>
       <c r="I12">
-        <v>392092.7552824657</v>
+        <v>392092.7552824656</v>
       </c>
       <c r="J12">
         <v>449629.885491578</v>
       </c>
       <c r="K12">
-        <v>430012.7029912504</v>
+        <v>430012.7029912505</v>
       </c>
       <c r="L12">
         <v>464225.8861630276</v>
       </c>
       <c r="M12">
-        <v>404615.7955846649</v>
+        <v>404615.795584665</v>
       </c>
       <c r="N12">
         <v>427076.1724310932</v>
       </c>
       <c r="O12">
-        <v>409479.6502214387</v>
+        <v>409479.6502214386</v>
       </c>
       <c r="P12">
-        <v>3563334.089328075</v>
+        <v>3563334.089328076</v>
       </c>
       <c r="Q12">
-        <v>3570341.979113131</v>
+        <v>3570341.979113133</v>
       </c>
       <c r="R12">
         <v>3577401.111225663</v>
       </c>
       <c r="S12">
-        <v>11738168.31616784</v>
+        <v>11738168.31616785</v>
       </c>
       <c r="T12">
-        <v>11751071.06785702</v>
+        <v>11751071.06785703</v>
       </c>
       <c r="U12">
         <v>11763823.30526226</v>
       </c>
       <c r="V12">
-        <v>11777098.96699507</v>
+        <v>11777098.96699508</v>
       </c>
       <c r="W12">
         <v>11790376.18810974</v>
@@ -3529,79 +3529,79 @@
         <v>13801267.73011367</v>
       </c>
       <c r="Y12">
-        <v>13822492.88848865</v>
+        <v>13822492.88848866</v>
       </c>
       <c r="Z12">
-        <v>13848392.00545707</v>
+        <v>13848392.00545708</v>
       </c>
       <c r="AA12">
-        <v>13880583.95733678</v>
+        <v>13880583.95733679</v>
       </c>
       <c r="AB12">
         <v>13920012.28519835</v>
       </c>
       <c r="AC12">
-        <v>5534202.750579298</v>
+        <v>5534202.7505793</v>
       </c>
       <c r="AD12">
-        <v>5593260.299740624</v>
+        <v>5593260.299740626</v>
       </c>
       <c r="AE12">
-        <v>5660973.983046687</v>
+        <v>5660973.983046689</v>
       </c>
       <c r="AF12">
-        <v>5743057.277631362</v>
+        <v>5743057.277631364</v>
       </c>
       <c r="AG12">
         <v>5847572.750158221</v>
       </c>
       <c r="AH12">
-        <v>2901959.7918944</v>
+        <v>2901959.791894402</v>
       </c>
       <c r="AI12">
-        <v>3063854.158271689</v>
+        <v>3063854.15827169</v>
       </c>
       <c r="AJ12">
-        <v>3270975.149576489</v>
+        <v>3270975.14957649</v>
       </c>
       <c r="AK12">
-        <v>3537881.554621325</v>
+        <v>3537881.554621326</v>
       </c>
       <c r="AL12">
-        <v>3876539.418815464</v>
+        <v>3876539.418815467</v>
       </c>
       <c r="AM12">
-        <v>6046653.758120582</v>
+        <v>6046653.758120585</v>
       </c>
       <c r="AN12">
-        <v>6484214.51679599</v>
+        <v>6484214.516795993</v>
       </c>
       <c r="AO12">
-        <v>6963005.51401574</v>
+        <v>6963005.514015743</v>
       </c>
       <c r="AP12">
-        <v>7484616.933286551</v>
+        <v>7484616.933286554</v>
       </c>
       <c r="AQ12">
-        <v>7942361.913211314</v>
+        <v>7942361.913211316</v>
       </c>
       <c r="AR12">
-        <v>10931121.56470586</v>
+        <v>10931121.56470587</v>
       </c>
       <c r="AS12">
-        <v>11265436.36977386</v>
+        <v>11265436.36977387</v>
       </c>
       <c r="AT12">
         <v>11543472.95622539</v>
       </c>
       <c r="AU12">
-        <v>11750689.98195344</v>
+        <v>11750689.98195345</v>
       </c>
       <c r="AV12">
-        <v>11873504.33194481</v>
+        <v>11873504.33194482</v>
       </c>
       <c r="AW12">
-        <v>12804288.75350244</v>
+        <v>12804288.75350245</v>
       </c>
       <c r="AX12">
         <v>12715093.67403306</v>
@@ -3625,16 +3625,16 @@
         <v>10753219.82758227</v>
       </c>
       <c r="BE12">
-        <v>10568238.61729995</v>
+        <v>10568238.61729996</v>
       </c>
       <c r="BF12">
         <v>10479795.28049296</v>
       </c>
       <c r="BG12">
-        <v>10329652.46288659</v>
+        <v>10329652.4628866</v>
       </c>
       <c r="BH12">
-        <v>10463071.68374959</v>
+        <v>10463071.6837496</v>
       </c>
       <c r="BI12">
         <v>10708778.57518128</v>
@@ -3649,10 +3649,10 @@
         <v>11978094.08110881</v>
       </c>
       <c r="BM12">
-        <v>12443355.34029762</v>
+        <v>12443355.34029763</v>
       </c>
       <c r="BN12">
-        <v>12921632.1212012</v>
+        <v>12921632.12120121</v>
       </c>
       <c r="BO12">
         <v>13387275.7361118</v>
@@ -3661,31 +3661,31 @@
         <v>13792237.3057734</v>
       </c>
       <c r="BQ12">
-        <v>14237534.97380031</v>
+        <v>14237534.97380032</v>
       </c>
       <c r="BR12">
-        <v>14539800.21171976</v>
+        <v>14539800.21171977</v>
       </c>
       <c r="BS12">
-        <v>14791096.21485579</v>
+        <v>14791096.2148558</v>
       </c>
       <c r="BT12">
-        <v>14972872.4034446</v>
+        <v>14972872.40344461</v>
       </c>
       <c r="BU12">
-        <v>15060568.76464718</v>
+        <v>15060568.76464719</v>
       </c>
       <c r="BV12">
-        <v>15057172.15965297</v>
+        <v>15057172.15965298</v>
       </c>
       <c r="BW12">
-        <v>15004279.38783223</v>
+        <v>15004279.38783224</v>
       </c>
       <c r="BX12">
-        <v>14938581.39133473</v>
+        <v>14938581.39133474</v>
       </c>
       <c r="BY12">
-        <v>14871647.91492093</v>
+        <v>14871647.91492094</v>
       </c>
       <c r="BZ12">
         <v>14805796.89896394</v>
@@ -3694,16 +3694,16 @@
         <v>14625664.58230331</v>
       </c>
       <c r="CB12">
-        <v>14570784.52007139</v>
+        <v>14570784.5200714</v>
       </c>
       <c r="CC12">
-        <v>14552126.76986263</v>
+        <v>14552126.76986264</v>
       </c>
       <c r="CD12">
         <v>14588862.18724859</v>
       </c>
       <c r="CE12">
-        <v>14695637.47256045</v>
+        <v>14695637.47256046</v>
       </c>
       <c r="CF12">
         <v>14604368.21616111</v>
@@ -3715,25 +3715,25 @@
         <v>15091278.1684802</v>
       </c>
       <c r="CI12">
-        <v>15380263.45499233</v>
+        <v>15380263.45499234</v>
       </c>
       <c r="CJ12">
-        <v>15693420.81557097</v>
+        <v>15693420.81557098</v>
       </c>
       <c r="CK12">
-        <v>15572050.13708977</v>
+        <v>15572050.13708978</v>
       </c>
       <c r="CL12">
-        <v>15887323.70469624</v>
+        <v>15887323.70469625</v>
       </c>
       <c r="CM12">
-        <v>16178229.1671636</v>
+        <v>16178229.16716361</v>
       </c>
       <c r="CN12">
         <v>16441977.09630138</v>
       </c>
       <c r="CO12">
-        <v>16681294.00181877</v>
+        <v>16681294.00181878</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -3743,49 +3743,49 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147309.1672309122</v>
+        <v>147309.1672309121</v>
       </c>
       <c r="E13">
-        <v>93998.12075896542</v>
+        <v>93998.12075896535</v>
       </c>
       <c r="F13">
-        <v>71571.82014535369</v>
+        <v>71571.82014535366</v>
       </c>
       <c r="G13">
-        <v>71257.47002077384</v>
+        <v>71257.47002077382</v>
       </c>
       <c r="H13">
         <v>65691.80517769023</v>
       </c>
       <c r="I13">
-        <v>63075.99771898286</v>
+        <v>63075.99771898284</v>
       </c>
       <c r="J13">
         <v>57864.85598121663</v>
       </c>
       <c r="K13">
-        <v>60574.41493424532</v>
+        <v>60574.41493424531</v>
       </c>
       <c r="L13">
-        <v>73324.88181840834</v>
+        <v>73324.88181840832</v>
       </c>
       <c r="M13">
-        <v>73662.51631508967</v>
+        <v>73662.51631508964</v>
       </c>
       <c r="N13">
-        <v>78771.29158737155</v>
+        <v>78771.29158737152</v>
       </c>
       <c r="O13">
-        <v>90618.89274238245</v>
+        <v>90618.89274238241</v>
       </c>
       <c r="P13">
-        <v>879549.7399335911</v>
+        <v>879549.7399335909</v>
       </c>
       <c r="Q13">
-        <v>881237.9342640233</v>
+        <v>881237.9342640232</v>
       </c>
       <c r="R13">
-        <v>883350.4309460074</v>
+        <v>883350.4309460073</v>
       </c>
       <c r="S13">
         <v>2865264.543248491</v>
@@ -3794,16 +3794,16 @@
         <v>2868389.45157452</v>
       </c>
       <c r="U13">
-        <v>2872099.555942663</v>
+        <v>2872099.555942662</v>
       </c>
       <c r="V13">
-        <v>2876462.472550762</v>
+        <v>2876462.472550761</v>
       </c>
       <c r="W13">
         <v>2881579.973416806</v>
       </c>
       <c r="X13">
-        <v>3109125.833142454</v>
+        <v>3109125.833142453</v>
       </c>
       <c r="Y13">
         <v>3116341.271446447</v>
@@ -3815,7 +3815,7 @@
         <v>3136107.172530747</v>
       </c>
       <c r="AB13">
-        <v>3150101.118688267</v>
+        <v>3150101.118688266</v>
       </c>
       <c r="AC13">
         <v>1010903.474411586</v>
@@ -3833,13 +3833,13 @@
         <v>1161900.937062653</v>
       </c>
       <c r="AH13">
-        <v>504193.3164229538</v>
+        <v>504193.3164229539</v>
       </c>
       <c r="AI13">
         <v>577242.2659832189</v>
       </c>
       <c r="AJ13">
-        <v>667386.337144092</v>
+        <v>667386.3371440921</v>
       </c>
       <c r="AK13">
         <v>794511.3227229954</v>
@@ -3869,13 +3869,13 @@
         <v>3136456.4759395</v>
       </c>
       <c r="AT13">
-        <v>3258718.335810929</v>
+        <v>3258718.335810928</v>
       </c>
       <c r="AU13">
         <v>3339239.857886971</v>
       </c>
       <c r="AV13">
-        <v>3373917.918237931</v>
+        <v>3373917.91823793</v>
       </c>
       <c r="AW13">
         <v>3522525.869243833</v>
@@ -3884,7 +3884,7 @@
         <v>3467474.200906072</v>
       </c>
       <c r="AY13">
-        <v>3375430.618891104</v>
+        <v>3375430.618891103</v>
       </c>
       <c r="AZ13">
         <v>3255356.389839371</v>
@@ -3911,7 +3911,7 @@
         <v>2440396.470390688</v>
       </c>
       <c r="BH13">
-        <v>2467324.028003406</v>
+        <v>2467324.028003405</v>
       </c>
       <c r="BI13">
         <v>2534343.823989224</v>
@@ -3944,10 +3944,10 @@
         <v>3905244.292838821</v>
       </c>
       <c r="BS13">
-        <v>4008752.648999119</v>
+        <v>4008752.648999118</v>
       </c>
       <c r="BT13">
-        <v>4085013.473597233</v>
+        <v>4085013.473597232</v>
       </c>
       <c r="BU13">
         <v>4133611.849088422</v>
@@ -4036,7 +4036,7 @@
         <v>1.83017638782548</v>
       </c>
       <c r="H14">
-        <v>1.777751010897719</v>
+        <v>1.77775101089772</v>
       </c>
       <c r="I14">
         <v>1.761738528250215</v>
@@ -4045,16 +4045,16 @@
         <v>1.84424900718639</v>
       </c>
       <c r="K14">
-        <v>2.03405634928528</v>
+        <v>2.034056349285281</v>
       </c>
       <c r="L14">
         <v>2.058176228962636</v>
       </c>
       <c r="M14">
-        <v>2.192109380489749</v>
+        <v>2.19210938048975</v>
       </c>
       <c r="N14">
-        <v>2.328694655705508</v>
+        <v>2.328694655705509</v>
       </c>
       <c r="O14">
         <v>2.128657727688688</v>
@@ -4066,25 +4066,25 @@
         <v>2.353708645064342</v>
       </c>
       <c r="R14">
-        <v>2.40995123512789</v>
+        <v>2.409951235127891</v>
       </c>
       <c r="S14">
-        <v>2.630201844524839</v>
+        <v>2.63020184452484</v>
       </c>
       <c r="T14">
-        <v>2.697692508795535</v>
+        <v>2.697692508795536</v>
       </c>
       <c r="U14">
         <v>2.76542043861447</v>
       </c>
       <c r="V14">
-        <v>2.833341340037307</v>
+        <v>2.833341340037308</v>
       </c>
       <c r="W14">
         <v>2.901407375167145</v>
       </c>
       <c r="X14">
-        <v>2.966105974874261</v>
+        <v>2.966105974874262</v>
       </c>
       <c r="Y14">
         <v>3.031504530097903</v>
@@ -4093,19 +4093,19 @@
         <v>3.096739250141463</v>
       </c>
       <c r="AA14">
-        <v>3.162140183491771</v>
+        <v>3.162140183491772</v>
       </c>
       <c r="AB14">
         <v>3.227687696588391</v>
       </c>
       <c r="AC14">
-        <v>3.118891814664265</v>
+        <v>3.118891814664266</v>
       </c>
       <c r="AD14">
         <v>3.186350707983177</v>
       </c>
       <c r="AE14">
-        <v>3.254339418296469</v>
+        <v>3.25433941829647</v>
       </c>
       <c r="AF14">
         <v>3.321808129490758</v>
@@ -4123,16 +4123,16 @@
         <v>3.553273295258764</v>
       </c>
       <c r="AK14">
-        <v>3.628181625323986</v>
+        <v>3.628181625323988</v>
       </c>
       <c r="AL14">
-        <v>3.705679822682494</v>
+        <v>3.705679822682495</v>
       </c>
       <c r="AM14">
-        <v>3.811777931219827</v>
+        <v>3.811777931219828</v>
       </c>
       <c r="AN14">
-        <v>3.897536992730987</v>
+        <v>3.897536992730988</v>
       </c>
       <c r="AO14">
         <v>3.987622525868785</v>
@@ -4141,28 +4141,28 @@
         <v>4.081734548849894</v>
       </c>
       <c r="AQ14">
-        <v>4.167785836003955</v>
+        <v>4.167785836003957</v>
       </c>
       <c r="AR14">
-        <v>4.282542591147377</v>
+        <v>4.282542591147378</v>
       </c>
       <c r="AS14">
         <v>4.359366350689307</v>
       </c>
       <c r="AT14">
-        <v>4.433332744461244</v>
+        <v>4.433332744461246</v>
       </c>
       <c r="AU14">
-        <v>4.504193705297047</v>
+        <v>4.504193705297048</v>
       </c>
       <c r="AV14">
-        <v>4.573036660459314</v>
+        <v>4.573036660459316</v>
       </c>
       <c r="AW14">
-        <v>4.653258925483162</v>
+        <v>4.653258925483163</v>
       </c>
       <c r="AX14">
-        <v>4.718232763048833</v>
+        <v>4.718232763048834</v>
       </c>
       <c r="AY14">
         <v>4.77337857613395</v>
@@ -4171,76 +4171,76 @@
         <v>4.821896618074438</v>
       </c>
       <c r="BA14">
-        <v>4.878952901857352</v>
+        <v>4.878952901857353</v>
       </c>
       <c r="BB14">
-        <v>4.943904457810638</v>
+        <v>4.943904457810639</v>
       </c>
       <c r="BC14">
-        <v>5.015771643542768</v>
+        <v>5.01577164354277</v>
       </c>
       <c r="BD14">
         <v>5.087175192108305</v>
       </c>
       <c r="BE14">
-        <v>5.159928303409748</v>
+        <v>5.15992830340975</v>
       </c>
       <c r="BF14">
         <v>5.236394935296471</v>
       </c>
       <c r="BG14">
-        <v>5.318336880885908</v>
+        <v>5.318336880885909</v>
       </c>
       <c r="BH14">
         <v>5.40829666381034</v>
       </c>
       <c r="BI14">
-        <v>5.504224337875767</v>
+        <v>5.504224337875769</v>
       </c>
       <c r="BJ14">
         <v>5.605640549504344</v>
       </c>
       <c r="BK14">
-        <v>5.709923130502173</v>
+        <v>5.709923130502175</v>
       </c>
       <c r="BL14">
         <v>5.818615866341844</v>
       </c>
       <c r="BM14">
-        <v>5.929398091144164</v>
+        <v>5.929398091144166</v>
       </c>
       <c r="BN14">
-        <v>6.038129880090509</v>
+        <v>6.03812988009051</v>
       </c>
       <c r="BO14">
-        <v>6.143478421981162</v>
+        <v>6.143478421981164</v>
       </c>
       <c r="BP14">
-        <v>6.243949198842702</v>
+        <v>6.243949198842703</v>
       </c>
       <c r="BQ14">
-        <v>6.34674973348754</v>
+        <v>6.346749733487543</v>
       </c>
       <c r="BR14">
-        <v>6.448149885087357</v>
+        <v>6.44814988508736</v>
       </c>
       <c r="BS14">
-        <v>6.547475538808779</v>
+        <v>6.547475538808782</v>
       </c>
       <c r="BT14">
-        <v>6.64327926965885</v>
+        <v>6.643279269658852</v>
       </c>
       <c r="BU14">
-        <v>6.733480207505175</v>
+        <v>6.733480207505176</v>
       </c>
       <c r="BV14">
-        <v>6.822910720749777</v>
+        <v>6.82291072074978</v>
       </c>
       <c r="BW14">
-        <v>6.912259129522288</v>
+        <v>6.912259129522289</v>
       </c>
       <c r="BX14">
-        <v>7.005394769971756</v>
+        <v>7.005394769971757</v>
       </c>
       <c r="BY14">
         <v>7.102633141453945</v>
@@ -4249,31 +4249,31 @@
         <v>7.200472423801189</v>
       </c>
       <c r="CA14">
-        <v>7.30274690321851</v>
+        <v>7.302746903218511</v>
       </c>
       <c r="CB14">
-        <v>7.406851043567771</v>
+        <v>7.406851043567774</v>
       </c>
       <c r="CC14">
         <v>7.512495026042445</v>
       </c>
       <c r="CD14">
-        <v>7.620429662257168</v>
+        <v>7.620429662257169</v>
       </c>
       <c r="CE14">
-        <v>7.731210336225645</v>
+        <v>7.731210336225648</v>
       </c>
       <c r="CF14">
-        <v>7.851430059682158</v>
+        <v>7.851430059682159</v>
       </c>
       <c r="CG14">
-        <v>7.977917000388768</v>
+        <v>7.97791700038877</v>
       </c>
       <c r="CH14">
         <v>8.106392282946217</v>
       </c>
       <c r="CI14">
-        <v>8.235612305082647</v>
+        <v>8.235612305082649</v>
       </c>
       <c r="CJ14">
         <v>8.364538875234299</v>
@@ -4282,7 +4282,7 @@
         <v>8.494539331310794</v>
       </c>
       <c r="CL14">
-        <v>8.625133283029278</v>
+        <v>8.62513328302928</v>
       </c>
       <c r="CM14">
         <v>8.752651265477024</v>
@@ -4291,7 +4291,7 @@
         <v>8.877676368250652</v>
       </c>
       <c r="CO14">
-        <v>9.000910115234868</v>
+        <v>9.000910115234872</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -4301,34 +4301,34 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.08514315158417154</v>
+        <v>0.08514315158417157</v>
       </c>
       <c r="E15">
-        <v>0.08537874189701429</v>
+        <v>0.08537874189701432</v>
       </c>
       <c r="F15">
-        <v>0.08884856458489293</v>
+        <v>0.08884856458489299</v>
       </c>
       <c r="G15">
-        <v>0.08978491112991592</v>
+        <v>0.08978491112991596</v>
       </c>
       <c r="H15">
-        <v>0.08876342900822086</v>
+        <v>0.0887634290082209</v>
       </c>
       <c r="I15">
-        <v>0.08739892095381388</v>
+        <v>0.08739892095381394</v>
       </c>
       <c r="J15">
-        <v>0.09002867347351948</v>
+        <v>0.09002867347351952</v>
       </c>
       <c r="K15">
-        <v>0.09887430962052221</v>
+        <v>0.09887430962052224</v>
       </c>
       <c r="L15">
-        <v>0.1016634695426096</v>
+        <v>0.1016634695426097</v>
       </c>
       <c r="M15">
-        <v>0.1086791747598195</v>
+        <v>0.1086791747598196</v>
       </c>
       <c r="N15">
         <v>0.1155145469376338</v>
@@ -4340,235 +4340,235 @@
         <v>0.1136746071864659</v>
       </c>
       <c r="Q15">
-        <v>0.1165340848585314</v>
+        <v>0.1165340848585315</v>
       </c>
       <c r="R15">
-        <v>0.119380745737865</v>
+        <v>0.1193807457378651</v>
       </c>
       <c r="S15">
-        <v>0.1292686915315439</v>
+        <v>0.129268691531544</v>
       </c>
       <c r="T15">
         <v>0.1326347670805497</v>
       </c>
       <c r="U15">
-        <v>0.1360120893433527</v>
+        <v>0.1360120893433528</v>
       </c>
       <c r="V15">
-        <v>0.1393985525728743</v>
+        <v>0.1393985525728744</v>
       </c>
       <c r="W15">
-        <v>0.1427918637520512</v>
+        <v>0.1427918637520514</v>
       </c>
       <c r="X15">
-        <v>0.145928464865105</v>
+        <v>0.1459284648651051</v>
       </c>
       <c r="Y15">
-        <v>0.1491821224377802</v>
+        <v>0.1491821224377803</v>
       </c>
       <c r="Z15">
-        <v>0.1524270420888827</v>
+        <v>0.1524270420888829</v>
       </c>
       <c r="AA15">
         <v>0.1556786198677365</v>
       </c>
       <c r="AB15">
-        <v>0.1589355550126171</v>
+        <v>0.1589355550126172</v>
       </c>
       <c r="AC15">
         <v>0.1546944235548903</v>
       </c>
       <c r="AD15">
-        <v>0.1580355900950712</v>
+        <v>0.1580355900950713</v>
       </c>
       <c r="AE15">
-        <v>0.1613990084613917</v>
+        <v>0.1613990084613918</v>
       </c>
       <c r="AF15">
-        <v>0.1647327535261176</v>
+        <v>0.1647327535261177</v>
       </c>
       <c r="AG15">
-        <v>0.1680885928470631</v>
+        <v>0.1680885928470632</v>
       </c>
       <c r="AH15">
-        <v>0.169390754879445</v>
+        <v>0.1693907548794451</v>
       </c>
       <c r="AI15">
-        <v>0.1728795444732309</v>
+        <v>0.172879544473231</v>
       </c>
       <c r="AJ15">
-        <v>0.1764645344845539</v>
+        <v>0.176464534484554</v>
       </c>
       <c r="AK15">
-        <v>0.1801184655685518</v>
+        <v>0.1801184655685519</v>
       </c>
       <c r="AL15">
-        <v>0.1838875414606266</v>
+        <v>0.1838875414606267</v>
       </c>
       <c r="AM15">
-        <v>0.1888986714184437</v>
+        <v>0.1888986714184438</v>
       </c>
       <c r="AN15">
-        <v>0.1930400894866952</v>
+        <v>0.1930400894866953</v>
       </c>
       <c r="AO15">
-        <v>0.197383166251248</v>
+        <v>0.1973831662512481</v>
       </c>
       <c r="AP15">
-        <v>0.2019168883534998</v>
+        <v>0.2019168883534999</v>
       </c>
       <c r="AQ15">
-        <v>0.2060677599948779</v>
+        <v>0.206067759994878</v>
       </c>
       <c r="AR15">
-        <v>0.2114116666807296</v>
+        <v>0.2114116666807297</v>
       </c>
       <c r="AS15">
-        <v>0.2151286831256154</v>
+        <v>0.2151286831256155</v>
       </c>
       <c r="AT15">
         <v>0.2187220767065155</v>
       </c>
       <c r="AU15">
-        <v>0.2221829589084116</v>
+        <v>0.2221829589084118</v>
       </c>
       <c r="AV15">
-        <v>0.2255660577028862</v>
+        <v>0.2255660577028863</v>
       </c>
       <c r="AW15">
-        <v>0.2294635134282392</v>
+        <v>0.2294635134282393</v>
       </c>
       <c r="AX15">
-        <v>0.2327007016787677</v>
+        <v>0.2327007016787678</v>
       </c>
       <c r="AY15">
-        <v>0.2354823860057005</v>
+        <v>0.2354823860057006</v>
       </c>
       <c r="AZ15">
-        <v>0.2379582854070871</v>
+        <v>0.2379582854070872</v>
       </c>
       <c r="BA15">
-        <v>0.2408497620867005</v>
+        <v>0.2408497620867006</v>
       </c>
       <c r="BB15">
-        <v>0.2441559098892541</v>
+        <v>0.2441559098892543</v>
       </c>
       <c r="BC15">
-        <v>0.2477589752367673</v>
+        <v>0.2477589752367674</v>
       </c>
       <c r="BD15">
-        <v>0.2513341386009957</v>
+        <v>0.2513341386009958</v>
       </c>
       <c r="BE15">
-        <v>0.2549639581900169</v>
+        <v>0.254963958190017</v>
       </c>
       <c r="BF15">
-        <v>0.2587566845091913</v>
+        <v>0.2587566845091914</v>
       </c>
       <c r="BG15">
-        <v>0.2628102402972821</v>
+        <v>0.2628102402972822</v>
       </c>
       <c r="BH15">
-        <v>0.2672146384606741</v>
+        <v>0.2672146384606742</v>
       </c>
       <c r="BI15">
-        <v>0.2718886144870051</v>
+        <v>0.2718886144870052</v>
       </c>
       <c r="BJ15">
-        <v>0.2768107911758739</v>
+        <v>0.276810791175874</v>
       </c>
       <c r="BK15">
-        <v>0.2818593941852188</v>
+        <v>0.2818593941852189</v>
       </c>
       <c r="BL15">
-        <v>0.2871071509253346</v>
+        <v>0.2871071509253347</v>
       </c>
       <c r="BM15">
-        <v>0.2924480515964129</v>
+        <v>0.292448051596413</v>
       </c>
       <c r="BN15">
-        <v>0.2976879380095305</v>
+        <v>0.2976879380095306</v>
       </c>
       <c r="BO15">
-        <v>0.3027662521994233</v>
+        <v>0.3027662521994235</v>
       </c>
       <c r="BP15">
-        <v>0.3076152892499363</v>
+        <v>0.3076152892499365</v>
       </c>
       <c r="BQ15">
-        <v>0.3125817794583389</v>
+        <v>0.312581779458339</v>
       </c>
       <c r="BR15">
-        <v>0.3174909594841785</v>
+        <v>0.3174909594841787</v>
       </c>
       <c r="BS15">
-        <v>0.3223103262098215</v>
+        <v>0.3223103262098216</v>
       </c>
       <c r="BT15">
-        <v>0.3269716375225552</v>
+        <v>0.3269716375225553</v>
       </c>
       <c r="BU15">
-        <v>0.3313759626972975</v>
+        <v>0.3313759626972976</v>
       </c>
       <c r="BV15">
-        <v>0.3357554747660788</v>
+        <v>0.335755474766079</v>
       </c>
       <c r="BW15">
-        <v>0.3401367076274013</v>
+        <v>0.3401367076274014</v>
       </c>
       <c r="BX15">
-        <v>0.3447079946083259</v>
+        <v>0.3447079946083261</v>
       </c>
       <c r="BY15">
-        <v>0.3494815786355105</v>
+        <v>0.3494815786355107</v>
       </c>
       <c r="BZ15">
-        <v>0.3542864615836337</v>
+        <v>0.354286461583634</v>
       </c>
       <c r="CA15">
-        <v>0.3593111320012963</v>
+        <v>0.3593111320012966</v>
       </c>
       <c r="CB15">
-        <v>0.3644139892145616</v>
+        <v>0.3644139892145618</v>
       </c>
       <c r="CC15">
-        <v>0.3695863134775481</v>
+        <v>0.3695863134775483</v>
       </c>
       <c r="CD15">
-        <v>0.3748618355391037</v>
+        <v>0.3748618355391039</v>
       </c>
       <c r="CE15">
-        <v>0.3802654160459427</v>
+        <v>0.3802654160459428</v>
       </c>
       <c r="CF15">
-        <v>0.3861273500348295</v>
+        <v>0.3861273500348296</v>
       </c>
       <c r="CG15">
-        <v>0.3922666734434668</v>
+        <v>0.3922666734434669</v>
       </c>
       <c r="CH15">
-        <v>0.3984940100276418</v>
+        <v>0.3984940100276419</v>
       </c>
       <c r="CI15">
-        <v>0.4047505759696363</v>
+        <v>0.4047505759696364</v>
       </c>
       <c r="CJ15">
-        <v>0.4109875537519977</v>
+        <v>0.410987553751998</v>
       </c>
       <c r="CK15">
-        <v>0.4172950710794814</v>
+        <v>0.4172950710794817</v>
       </c>
       <c r="CL15">
-        <v>0.4236055197492273</v>
+        <v>0.4236055197492275</v>
       </c>
       <c r="CM15">
-        <v>0.4297682401935699</v>
+        <v>0.42976824019357</v>
       </c>
       <c r="CN15">
-        <v>0.4358126412413061</v>
+        <v>0.4358126412413063</v>
       </c>
       <c r="CO15">
-        <v>0.4417735395376164</v>
+        <v>0.4417735395376165</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -4584,7 +4584,7 @@
         <v>269879.3344758712</v>
       </c>
       <c r="F16">
-        <v>118224.1434437714</v>
+        <v>118224.1434437715</v>
       </c>
       <c r="G16">
         <v>165719.2738604518</v>
@@ -4620,88 +4620,88 @@
         <v>1360282.780891231</v>
       </c>
       <c r="R16">
-        <v>1362622.779007939</v>
+        <v>1362622.77900794</v>
       </c>
       <c r="S16">
-        <v>4274948.052169953</v>
+        <v>4274948.052169954</v>
       </c>
       <c r="T16">
-        <v>4279788.733580089</v>
+        <v>4279788.73358009</v>
       </c>
       <c r="U16">
         <v>4288404.499197992</v>
       </c>
       <c r="V16">
-        <v>4300073.986299865</v>
+        <v>4300073.986299866</v>
       </c>
       <c r="W16">
         <v>4313452.932376266</v>
       </c>
       <c r="X16">
-        <v>3917933.500132929</v>
+        <v>3917933.50013293</v>
       </c>
       <c r="Y16">
-        <v>3924629.975369677</v>
+        <v>3924629.975369679</v>
       </c>
       <c r="Z16">
-        <v>3927599.009038987</v>
+        <v>3927599.009038989</v>
       </c>
       <c r="AA16">
-        <v>3936191.095679007</v>
+        <v>3936191.095679008</v>
       </c>
       <c r="AB16">
-        <v>3945531.315314761</v>
+        <v>3945531.315314763</v>
       </c>
       <c r="AC16">
-        <v>542400.7255379077</v>
+        <v>542400.7255379078</v>
       </c>
       <c r="AD16">
-        <v>558889.0867428635</v>
+        <v>558889.0867428636</v>
       </c>
       <c r="AE16">
-        <v>591061.516052476</v>
+        <v>591061.5160524761</v>
       </c>
       <c r="AF16">
-        <v>620293.2646252189</v>
+        <v>620293.2646252192</v>
       </c>
       <c r="AG16">
-        <v>650730.364497256</v>
+        <v>650730.3644972563</v>
       </c>
       <c r="AH16">
-        <v>-110664.5854238457</v>
+        <v>-110664.5854238458</v>
       </c>
       <c r="AI16">
         <v>-159850.5283476222</v>
       </c>
       <c r="AJ16">
-        <v>-218299.0486390636</v>
+        <v>-218299.0486390637</v>
       </c>
       <c r="AK16">
         <v>-161868.2189491469</v>
       </c>
       <c r="AL16">
-        <v>-94701.60748759453</v>
+        <v>-94701.60748759443</v>
       </c>
       <c r="AM16">
-        <v>543906.5565516737</v>
+        <v>543906.5565516741</v>
       </c>
       <c r="AN16">
-        <v>727040.2657226758</v>
+        <v>727040.2657226763</v>
       </c>
       <c r="AO16">
-        <v>972705.0000024289</v>
+        <v>972705.0000024295</v>
       </c>
       <c r="AP16">
-        <v>1264715.607095932</v>
+        <v>1264715.607095933</v>
       </c>
       <c r="AQ16">
-        <v>1461173.872763173</v>
+        <v>1461173.872763174</v>
       </c>
       <c r="AR16">
-        <v>2389274.091474785</v>
+        <v>2389274.091474786</v>
       </c>
       <c r="AS16">
-        <v>2456488.331518998</v>
+        <v>2456488.331518999</v>
       </c>
       <c r="AT16">
         <v>2489759.804180629</v>
@@ -4710,55 +4710,55 @@
         <v>2486218.544984668</v>
       </c>
       <c r="AV16">
-        <v>2460195.918648908</v>
+        <v>2460195.918648909</v>
       </c>
       <c r="AW16">
-        <v>2526230.511905457</v>
+        <v>2526230.511905458</v>
       </c>
       <c r="AX16">
-        <v>2404685.361012834</v>
+        <v>2404685.361012835</v>
       </c>
       <c r="AY16">
-        <v>2189023.178786947</v>
+        <v>2189023.178786948</v>
       </c>
       <c r="AZ16">
         <v>1911420.385724782</v>
       </c>
       <c r="BA16">
-        <v>1720868.341666023</v>
+        <v>1720868.341666024</v>
       </c>
       <c r="BB16">
-        <v>1440474.284479828</v>
+        <v>1440474.284479829</v>
       </c>
       <c r="BC16">
-        <v>1342874.234290224</v>
+        <v>1342874.234290225</v>
       </c>
       <c r="BD16">
-        <v>1241485.845418639</v>
+        <v>1241485.84541864</v>
       </c>
       <c r="BE16">
         <v>1148920.906466017</v>
       </c>
       <c r="BF16">
-        <v>1096042.312800339</v>
+        <v>1096042.31280034</v>
       </c>
       <c r="BG16">
-        <v>969470.2195750971</v>
+        <v>969470.2195750978</v>
       </c>
       <c r="BH16">
-        <v>999078.1033043823</v>
+        <v>999078.103304383</v>
       </c>
       <c r="BI16">
-        <v>1079583.111206754</v>
+        <v>1079583.111206755</v>
       </c>
       <c r="BJ16">
         <v>1219283.277786328</v>
       </c>
       <c r="BK16">
-        <v>1401209.664649929</v>
+        <v>1401209.66464993</v>
       </c>
       <c r="BL16">
-        <v>1568395.199995241</v>
+        <v>1568395.199995242</v>
       </c>
       <c r="BM16">
         <v>1788416.49005188</v>
@@ -4770,7 +4770,7 @@
         <v>2134525.398977499</v>
       </c>
       <c r="BP16">
-        <v>2230872.737399042</v>
+        <v>2230872.737399043</v>
       </c>
       <c r="BQ16">
         <v>2267462.602331165</v>
@@ -4779,7 +4779,7 @@
         <v>2297500.710461664</v>
       </c>
       <c r="BS16">
-        <v>2304203.740057757</v>
+        <v>2304203.740057758</v>
       </c>
       <c r="BT16">
         <v>2274832.949498164</v>
@@ -4788,52 +4788,52 @@
         <v>2190624.45794882</v>
       </c>
       <c r="BV16">
-        <v>2031217.130152689</v>
+        <v>2031217.13015269</v>
       </c>
       <c r="BW16">
-        <v>1885142.302880012</v>
+        <v>1885142.302880013</v>
       </c>
       <c r="BX16">
-        <v>1769921.056151913</v>
+        <v>1769921.056151914</v>
       </c>
       <c r="BY16">
-        <v>1689769.852262955</v>
+        <v>1689769.852262956</v>
       </c>
       <c r="BZ16">
-        <v>1623460.826136487</v>
+        <v>1623460.826136488</v>
       </c>
       <c r="CA16">
-        <v>1534089.710376268</v>
+        <v>1534089.710376269</v>
       </c>
       <c r="CB16">
-        <v>1474143.425734678</v>
+        <v>1474143.425734679</v>
       </c>
       <c r="CC16">
-        <v>1432205.937787402</v>
+        <v>1432205.937787403</v>
       </c>
       <c r="CD16">
-        <v>1417778.15098844</v>
+        <v>1417778.150988441</v>
       </c>
       <c r="CE16">
-        <v>1440267.521403338</v>
+        <v>1440267.521403339</v>
       </c>
       <c r="CF16">
         <v>1479354.902455286</v>
       </c>
       <c r="CG16">
-        <v>1582840.829213827</v>
+        <v>1582840.829213828</v>
       </c>
       <c r="CH16">
         <v>1715585.802572239</v>
       </c>
       <c r="CI16">
-        <v>1862805.84561626</v>
+        <v>1862805.845616261</v>
       </c>
       <c r="CJ16">
-        <v>2007803.157576337</v>
+        <v>2007803.157576338</v>
       </c>
       <c r="CK16">
-        <v>2099544.296866087</v>
+        <v>2099544.296866088</v>
       </c>
       <c r="CL16">
         <v>2189605.098632232</v>
@@ -4842,10 +4842,10 @@
         <v>2244082.913987156</v>
       </c>
       <c r="CN16">
-        <v>2270156.070097703</v>
+        <v>2270156.070097704</v>
       </c>
       <c r="CO16">
-        <v>2276008.173813171</v>
+        <v>2276008.173813173</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -4855,274 +4855,274 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>114565.2876347357</v>
+        <v>114565.2876347355</v>
       </c>
       <c r="E17">
-        <v>73102.02273197575</v>
+        <v>73102.02273197571</v>
       </c>
       <c r="F17">
         <v>55654.68730263774</v>
       </c>
       <c r="G17">
-        <v>55406.20333809614</v>
+        <v>55406.20333809617</v>
       </c>
       <c r="H17">
-        <v>51078.85153100886</v>
+        <v>51078.85153100888</v>
       </c>
       <c r="I17">
-        <v>49043.20577874182</v>
+        <v>49043.20577874185</v>
       </c>
       <c r="J17">
-        <v>44990.93839358139</v>
+        <v>44990.93839358142</v>
       </c>
       <c r="K17">
-        <v>47098.3930836037</v>
+        <v>47098.39308360373</v>
       </c>
       <c r="L17">
-        <v>57014.19926020883</v>
+        <v>57014.19926020884</v>
       </c>
       <c r="M17">
-        <v>57276.75203863153</v>
+        <v>57276.75203863154</v>
       </c>
       <c r="N17">
-        <v>61251.02152432058</v>
+        <v>61251.02152432059</v>
       </c>
       <c r="O17">
         <v>70464.79051818445</v>
       </c>
       <c r="P17">
-        <v>683894.5611388995</v>
+        <v>683894.5611388998</v>
       </c>
       <c r="Q17">
-        <v>685207.4592063334</v>
+        <v>685207.4592063336</v>
       </c>
       <c r="R17">
-        <v>686850.3264455046</v>
+        <v>686850.3264455048</v>
       </c>
       <c r="S17">
-        <v>2227877.032579743</v>
+        <v>2227877.032579744</v>
       </c>
       <c r="T17">
-        <v>2230307.206900686</v>
+        <v>2230307.206900687</v>
       </c>
       <c r="U17">
-        <v>2233192.444984609</v>
+        <v>2233192.44498461</v>
       </c>
       <c r="V17">
-        <v>2236585.308195883</v>
+        <v>2236585.308195884</v>
       </c>
       <c r="W17">
-        <v>2240564.908713527</v>
+        <v>2240564.908713528</v>
       </c>
       <c r="X17">
-        <v>2417460.621610903</v>
+        <v>2417460.621610904</v>
       </c>
       <c r="Y17">
-        <v>2423071.404535613</v>
+        <v>2423071.404535614</v>
       </c>
       <c r="Z17">
-        <v>2429910.658049533</v>
+        <v>2429910.658049534</v>
       </c>
       <c r="AA17">
-        <v>2438440.914207075</v>
+        <v>2438440.914207076</v>
       </c>
       <c r="AB17">
-        <v>2449321.952078744</v>
+        <v>2449321.952078745</v>
       </c>
       <c r="AC17">
-        <v>785984.9277015066</v>
+        <v>785984.9277015072</v>
       </c>
       <c r="AD17">
-        <v>804569.325766049</v>
+        <v>804569.3257660496</v>
       </c>
       <c r="AE17">
-        <v>829100.3505582133</v>
+        <v>829100.3505582138</v>
       </c>
       <c r="AF17">
-        <v>861369.1204885332</v>
+        <v>861369.1204885338</v>
       </c>
       <c r="AG17">
-        <v>903390.8563564442</v>
+        <v>903390.8563564448</v>
       </c>
       <c r="AH17">
-        <v>391990.2134550039</v>
+        <v>391990.2134550043</v>
       </c>
       <c r="AI17">
-        <v>448789.9951589554</v>
+        <v>448789.9951589559</v>
       </c>
       <c r="AJ17">
-        <v>518882.3681467174</v>
+        <v>518882.3681467178</v>
       </c>
       <c r="AK17">
-        <v>617727.7425526882</v>
+        <v>617727.7425526887</v>
       </c>
       <c r="AL17">
-        <v>734457.4488913838</v>
+        <v>734457.4488913842</v>
       </c>
       <c r="AM17">
-        <v>1184936.705083198</v>
+        <v>1184936.705083199</v>
       </c>
       <c r="AN17">
-        <v>1330388.136923148</v>
+        <v>1330388.136923149</v>
       </c>
       <c r="AO17">
-        <v>1484725.698037675</v>
+        <v>1484725.698037676</v>
       </c>
       <c r="AP17">
-        <v>1642195.277652867</v>
+        <v>1642195.277652868</v>
       </c>
       <c r="AQ17">
-        <v>1795731.009062982</v>
+        <v>1795731.009062984</v>
       </c>
       <c r="AR17">
-        <v>2316680.199364275</v>
+        <v>2316680.199364277</v>
       </c>
       <c r="AS17">
-        <v>2438664.080600338</v>
+        <v>2438664.080600339</v>
       </c>
       <c r="AT17">
-        <v>2533725.885021209</v>
+        <v>2533725.88502121</v>
       </c>
       <c r="AU17">
-        <v>2596332.31253996</v>
+        <v>2596332.312539962</v>
       </c>
       <c r="AV17">
-        <v>2623293.063284467</v>
+        <v>2623293.063284468</v>
       </c>
       <c r="AW17">
-        <v>2738832.235726064</v>
+        <v>2738832.235726065</v>
       </c>
       <c r="AX17">
-        <v>2696023.727847756</v>
+        <v>2696023.727847757</v>
       </c>
       <c r="AY17">
-        <v>2624452.334481647</v>
+        <v>2624452.334481649</v>
       </c>
       <c r="AZ17">
-        <v>2531085.954596365</v>
+        <v>2531085.954596367</v>
       </c>
       <c r="BA17">
-        <v>2424312.552363255</v>
+        <v>2424312.552363257</v>
       </c>
       <c r="BB17">
-        <v>2250880.263382978</v>
+        <v>2250880.26338298</v>
       </c>
       <c r="BC17">
-        <v>2144957.255200652</v>
+        <v>2144957.255200654</v>
       </c>
       <c r="BD17">
-        <v>2052975.383328215</v>
+        <v>2052975.383328216</v>
       </c>
       <c r="BE17">
-        <v>1982652.259454408</v>
+        <v>1982652.25945441</v>
       </c>
       <c r="BF17">
-        <v>1939925.702612185</v>
+        <v>1939925.702612187</v>
       </c>
       <c r="BG17">
-        <v>1897404.969512867</v>
+        <v>1897404.969512869</v>
       </c>
       <c r="BH17">
-        <v>1918340.702443631</v>
+        <v>1918340.702443633</v>
       </c>
       <c r="BI17">
-        <v>1970449.899790781</v>
+        <v>1970449.899790783</v>
       </c>
       <c r="BJ17">
-        <v>2050508.864572393</v>
+        <v>2050508.864572394</v>
       </c>
       <c r="BK17">
-        <v>2153834.227645629</v>
+        <v>2153834.22764563</v>
       </c>
       <c r="BL17">
-        <v>2278700.108880477</v>
+        <v>2278700.108880478</v>
       </c>
       <c r="BM17">
-        <v>2411108.927619454</v>
+        <v>2411108.927619456</v>
       </c>
       <c r="BN17">
-        <v>2548562.475082879</v>
+        <v>2548562.475082881</v>
       </c>
       <c r="BO17">
-        <v>2684733.627263666</v>
+        <v>2684733.627263668</v>
       </c>
       <c r="BP17">
-        <v>2813699.479144851</v>
+        <v>2813699.479144853</v>
       </c>
       <c r="BQ17">
-        <v>2936345.107016004</v>
+        <v>2936345.107016006</v>
       </c>
       <c r="BR17">
-        <v>3036352.812361428</v>
+        <v>3036352.81236143</v>
       </c>
       <c r="BS17">
-        <v>3116830.917937408</v>
+        <v>3116830.91793741</v>
       </c>
       <c r="BT17">
-        <v>3176122.890349104</v>
+        <v>3176122.890349106</v>
       </c>
       <c r="BU17">
-        <v>3213906.206259693</v>
+        <v>3213906.206259696</v>
       </c>
       <c r="BV17">
-        <v>3224500.84295118</v>
+        <v>3224500.842951183</v>
       </c>
       <c r="BW17">
-        <v>3223437.352304106</v>
+        <v>3223437.352304108</v>
       </c>
       <c r="BX17">
-        <v>3207311.868411095</v>
+        <v>3207311.868411098</v>
       </c>
       <c r="BY17">
-        <v>3180203.66741496</v>
+        <v>3180203.667414963</v>
       </c>
       <c r="BZ17">
-        <v>3146708.605823214</v>
+        <v>3146708.605823216</v>
       </c>
       <c r="CA17">
-        <v>3092114.098860224</v>
+        <v>3092114.098860227</v>
       </c>
       <c r="CB17">
-        <v>3060061.509371485</v>
+        <v>3060061.509371488</v>
       </c>
       <c r="CC17">
-        <v>3035263.520796569</v>
+        <v>3035263.520796571</v>
       </c>
       <c r="CD17">
-        <v>3021238.085841062</v>
+        <v>3021238.085841065</v>
       </c>
       <c r="CE17">
-        <v>3020604.398851943</v>
+        <v>3020604.398851946</v>
       </c>
       <c r="CF17">
-        <v>2998227.263506357</v>
+        <v>2998227.263506359</v>
       </c>
       <c r="CG17">
-        <v>3028036.923335567</v>
+        <v>3028036.923335569</v>
       </c>
       <c r="CH17">
-        <v>3072747.856716022</v>
+        <v>3072747.856716025</v>
       </c>
       <c r="CI17">
-        <v>3130852.235070086</v>
+        <v>3130852.235070088</v>
       </c>
       <c r="CJ17">
-        <v>3200071.074553703</v>
+        <v>3200071.074553705</v>
       </c>
       <c r="CK17">
-        <v>3218904.653274842</v>
+        <v>3218904.653274844</v>
       </c>
       <c r="CL17">
-        <v>3301480.347273263</v>
+        <v>3301480.347273266</v>
       </c>
       <c r="CM17">
-        <v>3385834.031565253</v>
+        <v>3385834.031565255</v>
       </c>
       <c r="CN17">
-        <v>3468752.73023407</v>
+        <v>3468752.730234073</v>
       </c>
       <c r="CO17">
-        <v>3547308.735933708</v>
+        <v>3547308.735933711</v>
       </c>
     </row>
   </sheetData>
@@ -5434,61 +5434,61 @@
         <v>1059.146433902567</v>
       </c>
       <c r="E2">
-        <v>2443.434521574257</v>
+        <v>2443.434521574255</v>
       </c>
       <c r="F2">
-        <v>3826.243777764353</v>
+        <v>3826.24377776435</v>
       </c>
       <c r="G2">
-        <v>5139.459919261623</v>
+        <v>5139.45991926162</v>
       </c>
       <c r="H2">
-        <v>6906.049265054186</v>
+        <v>6906.049265054181</v>
       </c>
       <c r="I2">
-        <v>8176.782893411306</v>
+        <v>8176.7828934113</v>
       </c>
       <c r="J2">
-        <v>10486.53192686409</v>
+        <v>10486.53192686408</v>
       </c>
       <c r="K2">
-        <v>12781.16709156924</v>
+        <v>12781.16709156923</v>
       </c>
       <c r="L2">
         <v>14820.99519405879</v>
       </c>
       <c r="M2">
-        <v>16698.85083048986</v>
+        <v>16698.85083048985</v>
       </c>
       <c r="N2">
         <v>20734.34968225476</v>
       </c>
       <c r="O2">
-        <v>23178.40677964089</v>
+        <v>23178.40677964088</v>
       </c>
       <c r="P2">
-        <v>28092.46810813778</v>
+        <v>28092.46810813777</v>
       </c>
       <c r="Q2">
-        <v>33396.85475460078</v>
+        <v>33396.85475460077</v>
       </c>
       <c r="R2">
-        <v>39097.00454693549</v>
+        <v>39097.00454693548</v>
       </c>
       <c r="S2">
         <v>51580.71738689856</v>
       </c>
       <c r="T2">
-        <v>64948.12972215237</v>
+        <v>64948.12972215236</v>
       </c>
       <c r="U2">
-        <v>79208.84151495066</v>
+        <v>79208.84151495065</v>
       </c>
       <c r="V2">
-        <v>94379.69720931181</v>
+        <v>94379.69720931179</v>
       </c>
       <c r="W2">
-        <v>110474.1023258514</v>
+        <v>110474.1023258513</v>
       </c>
       <c r="X2">
         <v>126646.6176731358</v>
@@ -5497,166 +5497,166 @@
         <v>143707.5839450122</v>
       </c>
       <c r="Z2">
-        <v>161664.3563784157</v>
+        <v>161664.3563784156</v>
       </c>
       <c r="AA2">
-        <v>180535.7025239958</v>
+        <v>180535.7025239957</v>
       </c>
       <c r="AB2">
-        <v>200347.534014578</v>
+        <v>200347.5340145779</v>
       </c>
       <c r="AC2">
-        <v>209598.2917908958</v>
+        <v>209598.2917908957</v>
       </c>
       <c r="AD2">
-        <v>219106.5565370735</v>
+        <v>219106.5565370734</v>
       </c>
       <c r="AE2">
-        <v>228945.410017301</v>
+        <v>228945.4100173009</v>
       </c>
       <c r="AF2">
-        <v>239104.2807210402</v>
+        <v>239104.2807210401</v>
       </c>
       <c r="AG2">
-        <v>249637.4988241668</v>
+        <v>249637.4988241666</v>
       </c>
       <c r="AH2">
-        <v>256382.7519181</v>
+        <v>256382.7519180998</v>
       </c>
       <c r="AI2">
-        <v>263190.9350706936</v>
+        <v>263190.9350706934</v>
       </c>
       <c r="AJ2">
-        <v>270329.8720607135</v>
+        <v>270329.8720607133</v>
       </c>
       <c r="AK2">
-        <v>278060.9366981159</v>
+        <v>278060.9366981157</v>
       </c>
       <c r="AL2">
-        <v>286368.5529262508</v>
+        <v>286368.5529262506</v>
       </c>
       <c r="AM2">
-        <v>297383.6251525711</v>
+        <v>297383.625152571</v>
       </c>
       <c r="AN2">
-        <v>309795.29011994</v>
+        <v>309795.2901199398</v>
       </c>
       <c r="AO2">
-        <v>324143.2153521478</v>
+        <v>324143.2153521476</v>
       </c>
       <c r="AP2">
-        <v>340989.9646753523</v>
+        <v>340989.9646753521</v>
       </c>
       <c r="AQ2">
-        <v>359627.3789178582</v>
+        <v>359627.378917858</v>
       </c>
       <c r="AR2">
-        <v>382575.6299796566</v>
+        <v>382575.6299796564</v>
       </c>
       <c r="AS2">
-        <v>406513.5972464709</v>
+        <v>406513.5972464706</v>
       </c>
       <c r="AT2">
-        <v>431282.6283570022</v>
+        <v>431282.6283570019</v>
       </c>
       <c r="AU2">
-        <v>456730.9346472594</v>
+        <v>456730.9346472592</v>
       </c>
       <c r="AV2">
-        <v>482868.7208473535</v>
+        <v>482868.7208473532</v>
       </c>
       <c r="AW2">
-        <v>510247.3884290116</v>
+        <v>510247.3884290113</v>
       </c>
       <c r="AX2">
-        <v>537350.1346461854</v>
+        <v>537350.1346461851</v>
       </c>
       <c r="AY2">
-        <v>562691.3323318524</v>
+        <v>562691.3323318521</v>
       </c>
       <c r="AZ2">
-        <v>585171.9548361561</v>
+        <v>585171.9548361558</v>
       </c>
       <c r="BA2">
-        <v>606232.9993536196</v>
+        <v>606232.9993536193</v>
       </c>
       <c r="BB2">
-        <v>626411.5292831067</v>
+        <v>626411.5292831063</v>
       </c>
       <c r="BC2">
-        <v>646453.8025508856</v>
+        <v>646453.8025508851</v>
       </c>
       <c r="BD2">
-        <v>665854.9442631932</v>
+        <v>665854.9442631927</v>
       </c>
       <c r="BE2">
-        <v>684276.0013833777</v>
+        <v>684276.0013833772</v>
       </c>
       <c r="BF2">
-        <v>702375.6981489343</v>
+        <v>702375.6981489338</v>
       </c>
       <c r="BG2">
-        <v>720298.3596092094</v>
+        <v>720298.3596092089</v>
       </c>
       <c r="BH2">
-        <v>739072.1241969023</v>
+        <v>739072.1241969018</v>
       </c>
       <c r="BI2">
-        <v>759153.3594896883</v>
+        <v>759153.3594896878</v>
       </c>
       <c r="BJ2">
-        <v>781029.730998212</v>
+        <v>781029.7309982115</v>
       </c>
       <c r="BK2">
-        <v>804868.6210015062</v>
+        <v>804868.6210015058</v>
       </c>
       <c r="BL2">
-        <v>830447.6158239695</v>
+        <v>830447.615823969</v>
       </c>
       <c r="BM2">
-        <v>858356.4205103359</v>
+        <v>858356.4205103355</v>
       </c>
       <c r="BN2">
-        <v>888665.2521082342</v>
+        <v>888665.2521082337</v>
       </c>
       <c r="BO2">
-        <v>921229.4746996198</v>
+        <v>921229.4746996193</v>
       </c>
       <c r="BP2">
-        <v>955328.2380132214</v>
+        <v>955328.2380132208</v>
       </c>
       <c r="BQ2">
-        <v>990170.8921281807</v>
+        <v>990170.89212818</v>
       </c>
       <c r="BR2">
-        <v>1025796.356108088</v>
+        <v>1025796.356108087</v>
       </c>
       <c r="BS2">
         <v>1062058.097635458</v>
       </c>
       <c r="BT2">
-        <v>1098547.256057504</v>
+        <v>1098547.256057503</v>
       </c>
       <c r="BU2">
-        <v>1134406.888237582</v>
+        <v>1134406.888237581</v>
       </c>
       <c r="BV2">
-        <v>1168564.476860619</v>
+        <v>1168564.476860618</v>
       </c>
       <c r="BW2">
         <v>1201039.926255164</v>
       </c>
       <c r="BX2">
-        <v>1232329.555557876</v>
+        <v>1232329.555557875</v>
       </c>
       <c r="BY2">
         <v>1262991.64525501</v>
       </c>
       <c r="BZ2">
-        <v>1293249.04250071</v>
+        <v>1293249.042500709</v>
       </c>
       <c r="CA2">
-        <v>1322854.411433437</v>
+        <v>1322854.411433436</v>
       </c>
       <c r="CB2">
         <v>1352044.051803296</v>
@@ -5665,37 +5665,37 @@
         <v>1381162.128200709</v>
       </c>
       <c r="CD2">
-        <v>1410709.960707474</v>
+        <v>1410709.960707473</v>
       </c>
       <c r="CE2">
-        <v>1441251.612229851</v>
+        <v>1441251.61222985</v>
       </c>
       <c r="CF2">
-        <v>1473006.451963474</v>
+        <v>1473006.451963473</v>
       </c>
       <c r="CG2">
-        <v>1506534.591284495</v>
+        <v>1506534.591284494</v>
       </c>
       <c r="CH2">
-        <v>1541997.039337797</v>
+        <v>1541997.039337796</v>
       </c>
       <c r="CI2">
-        <v>1579493.641259003</v>
+        <v>1579493.641259002</v>
       </c>
       <c r="CJ2">
         <v>1619149.713367392</v>
       </c>
       <c r="CK2">
-        <v>1660530.814671753</v>
+        <v>1660530.814671752</v>
       </c>
       <c r="CL2">
         <v>1703720.25490285</v>
       </c>
       <c r="CM2">
-        <v>1748227.460254938</v>
+        <v>1748227.460254937</v>
       </c>
       <c r="CN2">
-        <v>1793606.832447446</v>
+        <v>1793606.832447445</v>
       </c>
       <c r="CO2">
         <v>1839584.993533488</v>
@@ -5708,34 +5708,34 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24572359772887</v>
+        <v>70.24572359772883</v>
       </c>
       <c r="E3">
-        <v>162.2825316645493</v>
+        <v>162.2825316645492</v>
       </c>
       <c r="F3">
-        <v>254.1254061423343</v>
+        <v>254.1254061423342</v>
       </c>
       <c r="G3">
-        <v>341.2932645160662</v>
+        <v>341.2932645160661</v>
       </c>
       <c r="H3">
-        <v>458.9898078204215</v>
+        <v>458.9898078204213</v>
       </c>
       <c r="I3">
-        <v>543.373314347588</v>
+        <v>543.3733143475878</v>
       </c>
       <c r="J3">
-        <v>697.4511623421599</v>
+        <v>697.4511623421596</v>
       </c>
       <c r="K3">
-        <v>850.3921362321171</v>
+        <v>850.3921362321167</v>
       </c>
       <c r="L3">
-        <v>986.2555904207561</v>
+        <v>986.2555904207558</v>
       </c>
       <c r="M3">
-        <v>1111.17861572851</v>
+        <v>1111.178615728509</v>
       </c>
       <c r="N3">
         <v>1380.946837777203</v>
@@ -5744,13 +5744,13 @@
         <v>1543.938544269807</v>
       </c>
       <c r="P3">
-        <v>1872.729562170062</v>
+        <v>1872.729562170061</v>
       </c>
       <c r="Q3">
         <v>2227.716262308625</v>
       </c>
       <c r="R3">
-        <v>2609.266998453354</v>
+        <v>2609.266998453353</v>
       </c>
       <c r="S3">
         <v>3446.286508927421</v>
@@ -5765,13 +5765,13 @@
         <v>6316.321333531819</v>
       </c>
       <c r="W3">
-        <v>7395.736252913735</v>
+        <v>7395.736252913734</v>
       </c>
       <c r="X3">
-        <v>8480.39247700238</v>
+        <v>8480.392477002379</v>
       </c>
       <c r="Y3">
-        <v>9624.731158167697</v>
+        <v>9624.731158167695</v>
       </c>
       <c r="Z3">
         <v>10829.24988883421</v>
@@ -5780,7 +5780,7 @@
         <v>12095.21870146738</v>
       </c>
       <c r="AB3">
-        <v>13424.39113753527</v>
+        <v>13424.39113753526</v>
       </c>
       <c r="AC3">
         <v>14044.38299235482</v>
@@ -5795,7 +5795,7 @@
         <v>16022.42376301819</v>
       </c>
       <c r="AG3">
-        <v>16728.78730179028</v>
+        <v>16728.78730179027</v>
       </c>
       <c r="AH3">
         <v>17180.80563715956</v>
@@ -5807,19 +5807,19 @@
         <v>18115.69693991567</v>
       </c>
       <c r="AK3">
-        <v>18634.38937675593</v>
+        <v>18634.38937675592</v>
       </c>
       <c r="AL3">
         <v>19192.07782443913</v>
       </c>
       <c r="AM3">
-        <v>19932.04784679939</v>
+        <v>19932.04784679938</v>
       </c>
       <c r="AN3">
-        <v>20766.49025691193</v>
+        <v>20766.49025691192</v>
       </c>
       <c r="AO3">
-        <v>21731.94733790266</v>
+        <v>21731.94733790265</v>
       </c>
       <c r="AP3">
         <v>22866.51506147865</v>
@@ -5828,7 +5828,7 @@
         <v>24122.24053975425</v>
       </c>
       <c r="AR3">
-        <v>25667.93269921787</v>
+        <v>25667.93269921786</v>
       </c>
       <c r="AS3">
         <v>27280.4850423485</v>
@@ -5843,112 +5843,112 @@
         <v>32424.84675635768</v>
       </c>
       <c r="AW3">
-        <v>34269.48872319764</v>
+        <v>34269.48872319763</v>
       </c>
       <c r="AX3">
-        <v>36095.34749662296</v>
+        <v>36095.34749662295</v>
       </c>
       <c r="AY3">
-        <v>37801.82842177511</v>
+        <v>37801.8284217751</v>
       </c>
       <c r="AZ3">
-        <v>39314.51407892124</v>
+        <v>39314.51407892123</v>
       </c>
       <c r="BA3">
-        <v>40730.99747207747</v>
+        <v>40730.99747207746</v>
       </c>
       <c r="BB3">
-        <v>42088.15854690435</v>
+        <v>42088.15854690434</v>
       </c>
       <c r="BC3">
-        <v>43436.03669809992</v>
+        <v>43436.03669809991</v>
       </c>
       <c r="BD3">
         <v>44740.43261531035</v>
       </c>
       <c r="BE3">
-        <v>45978.3793326849</v>
+        <v>45978.37933268489</v>
       </c>
       <c r="BF3">
-        <v>47194.47392753834</v>
+        <v>47194.47392753833</v>
       </c>
       <c r="BG3">
-        <v>48398.84146133563</v>
+        <v>48398.84146133562</v>
       </c>
       <c r="BH3">
-        <v>49660.73500854619</v>
+        <v>49660.73500854618</v>
       </c>
       <c r="BI3">
-        <v>51011.04380378286</v>
+        <v>51011.04380378285</v>
       </c>
       <c r="BJ3">
-        <v>52482.77864717998</v>
+        <v>52482.77864717996</v>
       </c>
       <c r="BK3">
-        <v>54087.26302832094</v>
+        <v>54087.26302832092</v>
       </c>
       <c r="BL3">
-        <v>55809.62857770103</v>
+        <v>55809.62857770102</v>
       </c>
       <c r="BM3">
-        <v>57689.60724675987</v>
+        <v>57689.60724675986</v>
       </c>
       <c r="BN3">
-        <v>59731.95380546118</v>
+        <v>59731.95380546116</v>
       </c>
       <c r="BO3">
-        <v>61926.87574324958</v>
+        <v>61926.87574324957</v>
       </c>
       <c r="BP3">
-        <v>64225.55965634251</v>
+        <v>64225.5596563425</v>
       </c>
       <c r="BQ3">
-        <v>66574.56828195562</v>
+        <v>66574.56828195561</v>
       </c>
       <c r="BR3">
-        <v>68976.44320123928</v>
+        <v>68976.44320123926</v>
       </c>
       <c r="BS3">
-        <v>71421.27088082694</v>
+        <v>71421.27088082692</v>
       </c>
       <c r="BT3">
-        <v>73881.37319388019</v>
+        <v>73881.37319388018</v>
       </c>
       <c r="BU3">
-        <v>76298.72691752399</v>
+        <v>76298.72691752398</v>
       </c>
       <c r="BV3">
-        <v>78600.83314681405</v>
+        <v>78600.83314681404</v>
       </c>
       <c r="BW3">
-        <v>80788.92362960025</v>
+        <v>80788.92362960023</v>
       </c>
       <c r="BX3">
-        <v>82896.61630523113</v>
+        <v>82896.61630523112</v>
       </c>
       <c r="BY3">
-        <v>84961.72327780433</v>
+        <v>84961.72327780431</v>
       </c>
       <c r="BZ3">
-        <v>86999.33951091718</v>
+        <v>86999.33951091717</v>
       </c>
       <c r="CA3">
-        <v>88992.82836388171</v>
+        <v>88992.82836388169</v>
       </c>
       <c r="CB3">
-        <v>90958.07645749394</v>
+        <v>90958.07645749392</v>
       </c>
       <c r="CC3">
-        <v>92918.38812871967</v>
+        <v>92918.38812871966</v>
       </c>
       <c r="CD3">
-        <v>94907.70903925563</v>
+        <v>94907.70903925561</v>
       </c>
       <c r="CE3">
-        <v>96964.23257983295</v>
+        <v>96964.23257983294</v>
       </c>
       <c r="CF3">
-        <v>99102.94883441385</v>
+        <v>99102.94883441384</v>
       </c>
       <c r="CG3">
         <v>101361.6364575528</v>
@@ -5963,13 +5963,13 @@
         <v>108951.6538120417</v>
       </c>
       <c r="CK3">
-        <v>111741.8421342034</v>
+        <v>111741.8421342033</v>
       </c>
       <c r="CL3">
         <v>114654.3521177937</v>
       </c>
       <c r="CM3">
-        <v>117655.9606214906</v>
+        <v>117655.9606214905</v>
       </c>
       <c r="CN3">
         <v>120716.4915614063</v>
@@ -5985,10 +5985,10 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>379417.3331721227</v>
+        <v>379417.3331721228</v>
       </c>
       <c r="E4">
-        <v>755074.9996193266</v>
+        <v>755074.9996193267</v>
       </c>
       <c r="F4">
         <v>1217207.11016798</v>
@@ -5997,7 +5997,7 @@
         <v>1736389.373110559</v>
       </c>
       <c r="H4">
-        <v>2422720.64122818</v>
+        <v>2422720.641228181</v>
       </c>
       <c r="I4">
         <v>3067361.61533688</v>
@@ -6015,10 +6015,10 @@
         <v>6161670.385580466</v>
       </c>
       <c r="N4">
-        <v>7091028.802294651</v>
+        <v>7091028.80229465</v>
       </c>
       <c r="O4">
-        <v>7976033.039901651</v>
+        <v>7976033.03990165</v>
       </c>
       <c r="P4">
         <v>11234065.00874068</v>
@@ -6027,10 +6027,10 @@
         <v>14507755.28854585</v>
       </c>
       <c r="R4">
-        <v>17796076.74449157</v>
+        <v>17796076.74449156</v>
       </c>
       <c r="S4">
-        <v>27327354.63327481</v>
+        <v>27327354.6332748</v>
       </c>
       <c r="T4">
         <v>36885573.80729164</v>
@@ -6042,7 +6042,7 @@
         <v>56098107.06702743</v>
       </c>
       <c r="W4">
-        <v>65763529.11239961</v>
+        <v>65763529.1123996</v>
       </c>
       <c r="X4">
         <v>75056271.45552072</v>
@@ -6069,13 +6069,13 @@
         <v>118517264.5613038</v>
       </c>
       <c r="AF4">
-        <v>120546197.1799471</v>
+        <v>120546197.179947</v>
       </c>
       <c r="AG4">
         <v>122642504.7909176</v>
       </c>
       <c r="AH4">
-        <v>122499924.2291874</v>
+        <v>122499924.2291873</v>
       </c>
       <c r="AI4">
         <v>122428004.694781</v>
@@ -6096,7 +6096,7 @@
         <v>126080551.8456625</v>
       </c>
       <c r="AO4">
-        <v>128038898.9195923</v>
+        <v>128038898.9195922</v>
       </c>
       <c r="AP4">
         <v>130484822.3426389</v>
@@ -6111,13 +6111,13 @@
         <v>141715334.6891544</v>
       </c>
       <c r="AT4">
-        <v>146110439.6130228</v>
+        <v>146110439.6130227</v>
       </c>
       <c r="AU4">
         <v>150535739.1267878</v>
       </c>
       <c r="AV4">
-        <v>154950909.4575086</v>
+        <v>154950909.4575085</v>
       </c>
       <c r="AW4">
         <v>159427236.9548942</v>
@@ -6135,7 +6135,7 @@
         <v>173610762.6977843</v>
       </c>
       <c r="BB4">
-        <v>176023754.4449201</v>
+        <v>176023754.44492</v>
       </c>
       <c r="BC4">
         <v>178208024.4776345</v>
@@ -6144,28 +6144,28 @@
         <v>180184172.9173839</v>
       </c>
       <c r="BE4">
-        <v>182006387.4555159</v>
+        <v>182006387.4555158</v>
       </c>
       <c r="BF4">
         <v>183717062.96433</v>
       </c>
       <c r="BG4">
-        <v>185220886.5162583</v>
+        <v>185220886.5162582</v>
       </c>
       <c r="BH4">
         <v>186755038.9652273</v>
       </c>
       <c r="BI4">
-        <v>188455978.9677373</v>
+        <v>188455978.9677372</v>
       </c>
       <c r="BJ4">
         <v>190413965.4144414</v>
       </c>
       <c r="BK4">
-        <v>192675958.3003509</v>
+        <v>192675958.3003508</v>
       </c>
       <c r="BL4">
-        <v>195144277.975091</v>
+        <v>195144277.9750909</v>
       </c>
       <c r="BM4">
         <v>197950509.6193284</v>
@@ -6180,13 +6180,13 @@
         <v>207975830.1481519</v>
       </c>
       <c r="BQ4">
-        <v>211549736.0470914</v>
+        <v>211549736.0470913</v>
       </c>
       <c r="BR4">
-        <v>215179837.6345903</v>
+        <v>215179837.6345902</v>
       </c>
       <c r="BS4">
-        <v>218823621.4538327</v>
+        <v>218823621.4538326</v>
       </c>
       <c r="BT4">
         <v>222407996.9946172</v>
@@ -6198,37 +6198,37 @@
         <v>228881253.5379137</v>
       </c>
       <c r="BW4">
-        <v>231638582.1148824</v>
+        <v>231638582.1148823</v>
       </c>
       <c r="BX4">
         <v>234210469.2587991</v>
       </c>
       <c r="BY4">
-        <v>236694828.6794496</v>
+        <v>236694828.6794495</v>
       </c>
       <c r="BZ4">
-        <v>239075368.0359127</v>
+        <v>239075368.0359126</v>
       </c>
       <c r="CA4">
-        <v>241313443.0733648</v>
+        <v>241313443.0733647</v>
       </c>
       <c r="CB4">
-        <v>243439292.5789746</v>
+        <v>243439292.5789745</v>
       </c>
       <c r="CC4">
         <v>245469062.1296484</v>
       </c>
       <c r="CD4">
-        <v>247422480.2759958</v>
+        <v>247422480.2759957</v>
       </c>
       <c r="CE4">
-        <v>249313618.0721474</v>
+        <v>249313618.0721473</v>
       </c>
       <c r="CF4">
-        <v>251292035.2876692</v>
+        <v>251292035.2876691</v>
       </c>
       <c r="CG4">
-        <v>253441453.3110865</v>
+        <v>253441453.3110864</v>
       </c>
       <c r="CH4">
         <v>255792001.6924525</v>
@@ -6240,19 +6240,19 @@
         <v>261126426.301424</v>
       </c>
       <c r="CK4">
-        <v>264068952.8778468</v>
+        <v>264068952.8778467</v>
       </c>
       <c r="CL4">
         <v>267149732.4035641</v>
       </c>
       <c r="CM4">
-        <v>270314174.5506304</v>
+        <v>270314174.5506303</v>
       </c>
       <c r="CN4">
         <v>273515482.2940139</v>
       </c>
       <c r="CO4">
-        <v>276718809.1851752</v>
+        <v>276718809.1851751</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -6262,34 +6262,34 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724198.954673873</v>
+        <v>1724198.954673871</v>
       </c>
       <c r="E5">
-        <v>2892345.414445641</v>
+        <v>2892345.414445639</v>
       </c>
       <c r="F5">
-        <v>4031426.388438174</v>
+        <v>4031426.388438171</v>
       </c>
       <c r="G5">
-        <v>5122839.132131174</v>
+        <v>5122839.132131171</v>
       </c>
       <c r="H5">
-        <v>6177927.794450553</v>
+        <v>6177927.79445055</v>
       </c>
       <c r="I5">
-        <v>7551130.224433618</v>
+        <v>7551130.224433614</v>
       </c>
       <c r="J5">
-        <v>9095373.559337731</v>
+        <v>9095373.559337728</v>
       </c>
       <c r="K5">
         <v>10409838.69090467</v>
       </c>
       <c r="L5">
-        <v>11576465.09694134</v>
+        <v>11576465.09694133</v>
       </c>
       <c r="M5">
-        <v>12906225.2420978</v>
+        <v>12906225.24209779</v>
       </c>
       <c r="N5">
         <v>14300583.24568048</v>
@@ -6301,97 +6301,97 @@
         <v>29918353.18407094</v>
       </c>
       <c r="Q5">
-        <v>43706771.41584461</v>
+        <v>43706771.4158446</v>
       </c>
       <c r="R5">
-        <v>57522044.06874286</v>
+        <v>57522044.06874285</v>
       </c>
       <c r="S5">
         <v>103455833.7302743</v>
       </c>
       <c r="T5">
-        <v>149431078.1030818</v>
+        <v>149431078.1030817</v>
       </c>
       <c r="U5">
         <v>195456817.7165725</v>
       </c>
       <c r="V5">
-        <v>241543698.4150306</v>
+        <v>241543698.4150305</v>
       </c>
       <c r="W5">
-        <v>287704683.9476048</v>
+        <v>287704683.9476047</v>
       </c>
       <c r="X5">
-        <v>336114218.4256324</v>
+        <v>336114218.4256323</v>
       </c>
       <c r="Y5">
-        <v>384635829.5137935</v>
+        <v>384635829.5137934</v>
       </c>
       <c r="Z5">
-        <v>433298431.8225111</v>
+        <v>433298431.822511</v>
       </c>
       <c r="AA5">
-        <v>482141294.0422721</v>
+        <v>482141294.042272</v>
       </c>
       <c r="AB5">
-        <v>531217793.9990432</v>
+        <v>531217793.9990431</v>
       </c>
       <c r="AC5">
-        <v>545113713.7677544</v>
+        <v>545113713.7677543</v>
       </c>
       <c r="AD5">
-        <v>559411204.1882923</v>
+        <v>559411204.1882921</v>
       </c>
       <c r="AE5">
-        <v>574235576.7447264</v>
+        <v>574235576.7447263</v>
       </c>
       <c r="AF5">
-        <v>589746788.2140698</v>
+        <v>589746788.2140697</v>
       </c>
       <c r="AG5">
-        <v>606143447.7915057</v>
+        <v>606143447.7915056</v>
       </c>
       <c r="AH5">
-        <v>611788194.8236681</v>
+        <v>611788194.823668</v>
       </c>
       <c r="AI5">
-        <v>618679587.2549999</v>
+        <v>618679587.2549998</v>
       </c>
       <c r="AJ5">
-        <v>627095197.5679804</v>
+        <v>627095197.5679803</v>
       </c>
       <c r="AK5">
-        <v>637536711.3480251</v>
+        <v>637536711.348025</v>
       </c>
       <c r="AL5">
-        <v>650352078.2182825</v>
+        <v>650352078.2182823</v>
       </c>
       <c r="AM5">
-        <v>670573625.7356483</v>
+        <v>670573625.7356482</v>
       </c>
       <c r="AN5">
-        <v>693735282.3718346</v>
+        <v>693735282.3718345</v>
       </c>
       <c r="AO5">
-        <v>720008506.4135009</v>
+        <v>720008506.4135008</v>
       </c>
       <c r="AP5">
-        <v>749446751.4956454</v>
+        <v>749446751.4956453</v>
       </c>
       <c r="AQ5">
-        <v>781957988.995857</v>
+        <v>781957988.9958569</v>
       </c>
       <c r="AR5">
-        <v>824082088.0667404</v>
+        <v>824082088.0667403</v>
       </c>
       <c r="AS5">
-        <v>868605791.6729558</v>
+        <v>868605791.6729556</v>
       </c>
       <c r="AT5">
-        <v>914961917.1413784</v>
+        <v>914961917.1413783</v>
       </c>
       <c r="AU5">
-        <v>962469254.247802</v>
+        <v>962469254.2478019</v>
       </c>
       <c r="AV5">
         <v>1010381699.234169</v>
@@ -6415,22 +6415,22 @@
         <v>1280922333.045255</v>
       </c>
       <c r="BC5">
-        <v>1317305940.327696</v>
+        <v>1317305940.327697</v>
       </c>
       <c r="BD5">
         <v>1351634089.884625</v>
       </c>
       <c r="BE5">
-        <v>1384350313.876443</v>
+        <v>1384350313.876444</v>
       </c>
       <c r="BF5">
         <v>1416016080.616273</v>
       </c>
       <c r="BG5">
-        <v>1446607960.216996</v>
+        <v>1446607960.216997</v>
       </c>
       <c r="BH5">
-        <v>1477433548.666768</v>
+        <v>1477433548.666769</v>
       </c>
       <c r="BI5">
         <v>1509116173.325627</v>
@@ -6543,10 +6543,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465598407588717</v>
+        <v>0.8465598407588715</v>
       </c>
       <c r="E6">
-        <v>1.706080072715486</v>
+        <v>1.706080072715485</v>
       </c>
       <c r="F6">
         <v>2.61400381058839</v>
@@ -6555,22 +6555,22 @@
         <v>3.52909200450113</v>
       </c>
       <c r="H6">
-        <v>4.417967509949991</v>
+        <v>4.417967509949989</v>
       </c>
       <c r="I6">
-        <v>5.298836774075098</v>
+        <v>5.298836774075096</v>
       </c>
       <c r="J6">
-        <v>6.220961277668293</v>
+        <v>6.220961277668291</v>
       </c>
       <c r="K6">
-        <v>7.237989452310932</v>
+        <v>7.237989452310931</v>
       </c>
       <c r="L6">
-        <v>8.267077566792251</v>
+        <v>8.267077566792249</v>
       </c>
       <c r="M6">
-        <v>9.363132257037126</v>
+        <v>9.363132257037122</v>
       </c>
       <c r="N6">
         <v>10.52747958488988</v>
@@ -6579,10 +6579,10 @@
         <v>11.59180844873422</v>
       </c>
       <c r="P6">
-        <v>12.74040702449643</v>
+        <v>12.74040702449642</v>
       </c>
       <c r="Q6">
-        <v>13.9172613470286</v>
+        <v>13.91726134702859</v>
       </c>
       <c r="R6">
         <v>15.12223696459254</v>
@@ -6597,7 +6597,7 @@
         <v>19.16889436055996</v>
       </c>
       <c r="V6">
-        <v>20.58556503057862</v>
+        <v>20.58556503057861</v>
       </c>
       <c r="W6">
         <v>22.03626871816219</v>
@@ -6618,13 +6618,13 @@
         <v>29.77835753575908</v>
       </c>
       <c r="AC6">
-        <v>31.33780344309122</v>
+        <v>31.33780344309121</v>
       </c>
       <c r="AD6">
-        <v>32.93097879708281</v>
+        <v>32.9309787970828</v>
       </c>
       <c r="AE6">
-        <v>34.55814850623104</v>
+        <v>34.55814850623103</v>
       </c>
       <c r="AF6">
         <v>36.21905257097642</v>
@@ -6633,34 +6633,34 @@
         <v>37.91396950439491</v>
       </c>
       <c r="AH6">
-        <v>39.61846251198139</v>
+        <v>39.61846251198138</v>
       </c>
       <c r="AI6">
-        <v>41.35849448738549</v>
+        <v>41.35849448738548</v>
       </c>
       <c r="AJ6">
-        <v>43.13513113501487</v>
+        <v>43.13513113501486</v>
       </c>
       <c r="AK6">
-        <v>44.94922194767686</v>
+        <v>44.94922194767685</v>
       </c>
       <c r="AL6">
-        <v>46.80206185901811</v>
+        <v>46.8020618590181</v>
       </c>
       <c r="AM6">
-        <v>48.70795082462802</v>
+        <v>48.70795082462801</v>
       </c>
       <c r="AN6">
-        <v>50.65671932099352</v>
+        <v>50.65671932099351</v>
       </c>
       <c r="AO6">
-        <v>52.65053058392791</v>
+        <v>52.6505305839279</v>
       </c>
       <c r="AP6">
-        <v>54.69139785835286</v>
+        <v>54.69139785835285</v>
       </c>
       <c r="AQ6">
-        <v>56.77529077635484</v>
+        <v>56.77529077635483</v>
       </c>
       <c r="AR6">
         <v>58.91656207192852</v>
@@ -6786,7 +6786,7 @@
         <v>177.9499543967745</v>
       </c>
       <c r="CG6">
-        <v>181.9389128969689</v>
+        <v>181.9389128969688</v>
       </c>
       <c r="CH6">
         <v>185.992109038442</v>
@@ -6795,10 +6795,10 @@
         <v>190.1099151909833</v>
       </c>
       <c r="CJ6">
-        <v>194.2921846286005</v>
+        <v>194.2921846286004</v>
       </c>
       <c r="CK6">
-        <v>198.5394542942559</v>
+        <v>198.5394542942558</v>
       </c>
       <c r="CL6">
         <v>202.8520209357705</v>
@@ -6807,7 +6807,7 @@
         <v>207.228346568509</v>
       </c>
       <c r="CN6">
-        <v>211.6671847526344</v>
+        <v>211.6671847526343</v>
       </c>
       <c r="CO6">
         <v>216.1676398102518</v>
@@ -6832,7 +6832,7 @@
         <v>0.1745776845979973</v>
       </c>
       <c r="H7">
-        <v>0.2189593991021077</v>
+        <v>0.2189593991021078</v>
       </c>
       <c r="I7">
         <v>0.2626588595790147</v>
@@ -6841,10 +6841,10 @@
         <v>0.3076731963157744</v>
       </c>
       <c r="K7">
-        <v>0.3571103511260355</v>
+        <v>0.3571103511260356</v>
       </c>
       <c r="L7">
-        <v>0.4079420858973403</v>
+        <v>0.4079420858973404</v>
       </c>
       <c r="M7">
         <v>0.4622816732772501</v>
@@ -6886,7 +6886,7 @@
         <v>1.235256478814823</v>
       </c>
       <c r="Z7">
-        <v>1.311469999859264</v>
+        <v>1.311469999859265</v>
       </c>
       <c r="AA7">
         <v>1.389309309793133</v>
@@ -6895,7 +6895,7 @@
         <v>1.468777087299441</v>
       </c>
       <c r="AC7">
-        <v>1.546124299076886</v>
+        <v>1.546124299076887</v>
       </c>
       <c r="AD7">
         <v>1.625142094124422</v>
@@ -6907,25 +6907,25 @@
         <v>1.788207975118177</v>
       </c>
       <c r="AG7">
-        <v>1.872252271541708</v>
+        <v>1.872252271541709</v>
       </c>
       <c r="AH7">
         <v>1.956947648981431</v>
       </c>
       <c r="AI7">
-        <v>2.043387421218046</v>
+        <v>2.043387421218047</v>
       </c>
       <c r="AJ7">
-        <v>2.131619688460323</v>
+        <v>2.131619688460324</v>
       </c>
       <c r="AK7">
-        <v>2.221678921244599</v>
+        <v>2.2216789212446</v>
       </c>
       <c r="AL7">
         <v>2.313622691974913</v>
       </c>
       <c r="AM7">
-        <v>2.408072027684134</v>
+        <v>2.408072027684135</v>
       </c>
       <c r="AN7">
         <v>2.504592072427482</v>
@@ -6940,7 +6940,7 @@
         <v>2.807275979727295</v>
       </c>
       <c r="AR7">
-        <v>2.912981813067659</v>
+        <v>2.91298181306766</v>
       </c>
       <c r="AS7">
         <v>3.020546154630467</v>
@@ -6949,133 +6949,133 @@
         <v>3.129907192983725</v>
       </c>
       <c r="AU7">
-        <v>3.24099867243793</v>
+        <v>3.240998672437931</v>
       </c>
       <c r="AV7">
-        <v>3.353781701289373</v>
+        <v>3.353781701289374</v>
       </c>
       <c r="AW7">
-        <v>3.468513458003493</v>
+        <v>3.468513458003494</v>
       </c>
       <c r="AX7">
-        <v>3.584863808842877</v>
+        <v>3.584863808842878</v>
       </c>
       <c r="AY7">
-        <v>3.702605001845727</v>
+        <v>3.702605001845728</v>
       </c>
       <c r="AZ7">
-        <v>3.821584144549271</v>
+        <v>3.821584144549272</v>
       </c>
       <c r="BA7">
-        <v>3.942009025592621</v>
+        <v>3.942009025592622</v>
       </c>
       <c r="BB7">
-        <v>4.064086980537248</v>
+        <v>4.064086980537249</v>
       </c>
       <c r="BC7">
-        <v>4.187966468155632</v>
+        <v>4.187966468155633</v>
       </c>
       <c r="BD7">
-        <v>4.31363353745613</v>
+        <v>4.313633537456131</v>
       </c>
       <c r="BE7">
-        <v>4.441115516551138</v>
+        <v>4.441115516551139</v>
       </c>
       <c r="BF7">
-        <v>4.570493858805733</v>
+        <v>4.570493858805734</v>
       </c>
       <c r="BG7">
-        <v>4.701898978954374</v>
+        <v>4.701898978954375</v>
       </c>
       <c r="BH7">
-        <v>4.835506298184711</v>
+        <v>4.835506298184712</v>
       </c>
       <c r="BI7">
-        <v>4.971450605428213</v>
+        <v>4.971450605428215</v>
       </c>
       <c r="BJ7">
-        <v>5.10985600101615</v>
+        <v>5.109856001016152</v>
       </c>
       <c r="BK7">
-        <v>5.25078569810876</v>
+        <v>5.250785698108762</v>
       </c>
       <c r="BL7">
-        <v>5.394339273571427</v>
+        <v>5.394339273571429</v>
       </c>
       <c r="BM7">
-        <v>5.540563299369634</v>
+        <v>5.540563299369635</v>
       </c>
       <c r="BN7">
-        <v>5.689407268374399</v>
+        <v>5.689407268374401</v>
       </c>
       <c r="BO7">
-        <v>5.840790394474111</v>
+        <v>5.840790394474113</v>
       </c>
       <c r="BP7">
-        <v>5.994598039099079</v>
+        <v>5.994598039099081</v>
       </c>
       <c r="BQ7">
-        <v>6.150888928828249</v>
+        <v>6.150888928828251</v>
       </c>
       <c r="BR7">
-        <v>6.309634408570338</v>
+        <v>6.30963440857034</v>
       </c>
       <c r="BS7">
-        <v>6.470789571675249</v>
+        <v>6.470789571675251</v>
       </c>
       <c r="BT7">
-        <v>6.634275390436526</v>
+        <v>6.634275390436529</v>
       </c>
       <c r="BU7">
-        <v>6.799963371785175</v>
+        <v>6.799963371785178</v>
       </c>
       <c r="BV7">
-        <v>6.967841109168215</v>
+        <v>6.967841109168218</v>
       </c>
       <c r="BW7">
-        <v>7.137909462981916</v>
+        <v>7.137909462981918</v>
       </c>
       <c r="BX7">
-        <v>7.310263460286079</v>
+        <v>7.310263460286081</v>
       </c>
       <c r="BY7">
-        <v>7.485004249603834</v>
+        <v>7.485004249603836</v>
       </c>
       <c r="BZ7">
-        <v>7.66214748039565</v>
+        <v>7.662147480395653</v>
       </c>
       <c r="CA7">
-        <v>7.841803046396299</v>
+        <v>7.841803046396302</v>
       </c>
       <c r="CB7">
-        <v>8.02401004100358</v>
+        <v>8.024010041003582</v>
       </c>
       <c r="CC7">
-        <v>8.208803197742354</v>
+        <v>8.208803197742355</v>
       </c>
       <c r="CD7">
-        <v>8.396234115511906</v>
+        <v>8.396234115511907</v>
       </c>
       <c r="CE7">
-        <v>8.586366823534878</v>
+        <v>8.586366823534879</v>
       </c>
       <c r="CF7">
-        <v>8.779430498552292</v>
+        <v>8.779430498552294</v>
       </c>
       <c r="CG7">
-        <v>8.975563835274025</v>
+        <v>8.975563835274027</v>
       </c>
       <c r="CH7">
-        <v>9.174810840287845</v>
+        <v>9.174810840287847</v>
       </c>
       <c r="CI7">
-        <v>9.377186128272664</v>
+        <v>9.377186128272665</v>
       </c>
       <c r="CJ7">
-        <v>9.582679905148662</v>
+        <v>9.582679905148664</v>
       </c>
       <c r="CK7">
-        <v>9.791327440688404</v>
+        <v>9.791327440688406</v>
       </c>
       <c r="CL7">
         <v>10.00313020056302</v>
@@ -7087,7 +7087,7 @@
         <v>10.43592064128046</v>
       </c>
       <c r="CO7">
-        <v>10.65680741104926</v>
+        <v>10.65680741104927</v>
       </c>
     </row>
     <row r="8" spans="1:93">
@@ -7097,7 +7097,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804767.4285286602</v>
+        <v>804767.4285286597</v>
       </c>
       <c r="E8">
         <v>1372851.540824782</v>
@@ -7106,10 +7106,10 @@
         <v>1735730.96296305</v>
       </c>
       <c r="G8">
-        <v>2037056.519476767</v>
+        <v>2037056.519476766</v>
       </c>
       <c r="H8">
-        <v>2360363.481287356</v>
+        <v>2360363.481287355</v>
       </c>
       <c r="I8">
         <v>2615440.850234391</v>
@@ -7118,253 +7118,253 @@
         <v>2903653.978296114</v>
       </c>
       <c r="K8">
-        <v>3154476.998350679</v>
+        <v>3154476.998350678</v>
       </c>
       <c r="L8">
-        <v>3454875.141867975</v>
+        <v>3454875.141867974</v>
       </c>
       <c r="M8">
-        <v>3719657.707892026</v>
+        <v>3719657.707892024</v>
       </c>
       <c r="N8">
-        <v>4025957.735200051</v>
+        <v>4025957.735200049</v>
       </c>
       <c r="O8">
-        <v>4441367.076343169</v>
+        <v>4441367.076343167</v>
       </c>
       <c r="P8">
-        <v>6196057.271061892</v>
+        <v>6196057.271061888</v>
       </c>
       <c r="Q8">
-        <v>7974207.590465442</v>
+        <v>7974207.590465438</v>
       </c>
       <c r="R8">
-        <v>9768372.120192166</v>
+        <v>9768372.120192159</v>
       </c>
       <c r="S8">
-        <v>15504007.84249995</v>
+        <v>15504007.84249994</v>
       </c>
       <c r="T8">
-        <v>21259555.64635566</v>
+        <v>21259555.64635564</v>
       </c>
       <c r="U8">
-        <v>27038945.99604184</v>
+        <v>27038945.99604182</v>
       </c>
       <c r="V8">
-        <v>32843637.82685535</v>
+        <v>32843637.82685533</v>
       </c>
       <c r="W8">
-        <v>38674201.52825613</v>
+        <v>38674201.5282561</v>
       </c>
       <c r="X8">
-        <v>44212458.24267005</v>
+        <v>44212458.24267002</v>
       </c>
       <c r="Y8">
-        <v>49779570.32761718</v>
+        <v>49779570.32761714</v>
       </c>
       <c r="Z8">
-        <v>55372743.66799346</v>
+        <v>55372743.66799341</v>
       </c>
       <c r="AA8">
-        <v>60992976.66234946</v>
+        <v>60992976.66234942</v>
       </c>
       <c r="AB8">
-        <v>66645135.19800322</v>
+        <v>66645135.19800317</v>
       </c>
       <c r="AC8">
-        <v>67792743.74075748</v>
+        <v>67792743.74075744</v>
       </c>
       <c r="AD8">
-        <v>68967628.53603292</v>
+        <v>68967628.53603287</v>
       </c>
       <c r="AE8">
-        <v>70176733.88242371</v>
+        <v>70176733.88242367</v>
       </c>
       <c r="AF8">
-        <v>71421906.17671925</v>
+        <v>71421906.1767192</v>
       </c>
       <c r="AG8">
-        <v>72709449.56261367</v>
+        <v>72709449.56261362</v>
       </c>
       <c r="AH8">
-        <v>72695058.4887885</v>
+        <v>72695058.48878846</v>
       </c>
       <c r="AI8">
-        <v>72748421.76119205</v>
+        <v>72748421.76119201</v>
       </c>
       <c r="AJ8">
-        <v>72882775.03649502</v>
+        <v>72882775.03649497</v>
       </c>
       <c r="AK8">
-        <v>73114545.79089862</v>
+        <v>73114545.79089858</v>
       </c>
       <c r="AL8">
-        <v>73462127.62336195</v>
+        <v>73462127.6233619</v>
       </c>
       <c r="AM8">
-        <v>74831380.30289817</v>
+        <v>74831380.30289812</v>
       </c>
       <c r="AN8">
-        <v>76455150.78106323</v>
+        <v>76455150.78106318</v>
       </c>
       <c r="AO8">
-        <v>78400661.89898032</v>
+        <v>78400661.89898027</v>
       </c>
       <c r="AP8">
-        <v>80712534.44518375</v>
+        <v>80712534.44518369</v>
       </c>
       <c r="AQ8">
-        <v>83291877.62130022</v>
+        <v>83291877.62130016</v>
       </c>
       <c r="AR8">
-        <v>86493045.67632133</v>
+        <v>86493045.67632125</v>
       </c>
       <c r="AS8">
-        <v>89817549.89966163</v>
+        <v>89817549.89966156</v>
       </c>
       <c r="AT8">
-        <v>93219901.74370985</v>
+        <v>93219901.74370977</v>
       </c>
       <c r="AU8">
-        <v>96650753.64969537</v>
+        <v>96650753.64969529</v>
       </c>
       <c r="AV8">
         <v>100072414.2350944</v>
       </c>
       <c r="AW8">
-        <v>103607466.4279437</v>
+        <v>103607466.4279436</v>
       </c>
       <c r="AX8">
-        <v>107002167.038603</v>
+        <v>107002167.0386029</v>
       </c>
       <c r="AY8">
-        <v>110145477.6368703</v>
+        <v>110145477.6368702</v>
       </c>
       <c r="AZ8">
-        <v>112961331.1389452</v>
+        <v>112961331.1389451</v>
       </c>
       <c r="BA8">
-        <v>115529660.698795</v>
+        <v>115529660.6987949</v>
       </c>
       <c r="BB8">
-        <v>117846955.731421</v>
+        <v>117846955.7314209</v>
       </c>
       <c r="BC8">
-        <v>120007334.2542925</v>
+        <v>120007334.2542924</v>
       </c>
       <c r="BD8">
-        <v>122011843.2407366</v>
+        <v>122011843.2407365</v>
       </c>
       <c r="BE8">
-        <v>123903981.3121819</v>
+        <v>123903981.3121818</v>
       </c>
       <c r="BF8">
-        <v>125725128.4667034</v>
+        <v>125725128.4667033</v>
       </c>
       <c r="BG8">
         <v>127438801.9899603</v>
       </c>
       <c r="BH8">
-        <v>129161415.5875473</v>
+        <v>129161415.5875472</v>
       </c>
       <c r="BI8">
-        <v>130988823.4488395</v>
+        <v>130988823.4488394</v>
       </c>
       <c r="BJ8">
         <v>133005936.4433367</v>
       </c>
       <c r="BK8">
-        <v>135253817.7206628</v>
+        <v>135253817.7206627</v>
       </c>
       <c r="BL8">
-        <v>137691194.7373642</v>
+        <v>137691194.7373641</v>
       </c>
       <c r="BM8">
-        <v>140387661.1696525</v>
+        <v>140387661.1696524</v>
       </c>
       <c r="BN8">
-        <v>143306756.8575626</v>
+        <v>143306756.8575625</v>
       </c>
       <c r="BO8">
-        <v>146398177.6953504</v>
+        <v>146398177.6953503</v>
       </c>
       <c r="BP8">
-        <v>149613143.1172402</v>
+        <v>149613143.11724</v>
       </c>
       <c r="BQ8">
-        <v>152868518.4018794</v>
+        <v>152868518.4018793</v>
       </c>
       <c r="BR8">
-        <v>156182574.4476027</v>
+        <v>156182574.4476025</v>
       </c>
       <c r="BS8">
-        <v>159525591.1854448</v>
+        <v>159525591.1854447</v>
       </c>
       <c r="BT8">
-        <v>162853640.5758314</v>
+        <v>162853640.5758313</v>
       </c>
       <c r="BU8">
-        <v>166102464.0716773</v>
+        <v>166102464.0716771</v>
       </c>
       <c r="BV8">
-        <v>169168038.4237918</v>
+        <v>169168038.4237916</v>
       </c>
       <c r="BW8">
-        <v>172077440.2914947</v>
+        <v>172077440.2914945</v>
       </c>
       <c r="BX8">
-        <v>174872475.8103942</v>
+        <v>174872475.810394</v>
       </c>
       <c r="BY8">
-        <v>177616400.1093577</v>
+        <v>177616400.1093576</v>
       </c>
       <c r="BZ8">
-        <v>180295946.1866039</v>
+        <v>180295946.1866038</v>
       </c>
       <c r="CA8">
-        <v>182860920.5278004</v>
+        <v>182860920.5278002</v>
       </c>
       <c r="CB8">
-        <v>185357014.5929858</v>
+        <v>185357014.5929856</v>
       </c>
       <c r="CC8">
-        <v>187795982.9135623</v>
+        <v>187795982.9135621</v>
       </c>
       <c r="CD8">
-        <v>190195923.2048932</v>
+        <v>190195923.2048931</v>
       </c>
       <c r="CE8">
-        <v>192573525.0291933</v>
+        <v>192573525.0291931</v>
       </c>
       <c r="CF8">
-        <v>194927444.1752992</v>
+        <v>194927444.175299</v>
       </c>
       <c r="CG8">
-        <v>197401163.5097017</v>
+        <v>197401163.5097015</v>
       </c>
       <c r="CH8">
-        <v>200023098.3262492</v>
+        <v>200023098.326249</v>
       </c>
       <c r="CI8">
-        <v>202803233.7806487</v>
+        <v>202803233.7806485</v>
       </c>
       <c r="CJ8">
-        <v>205735913.1094261</v>
+        <v>205735913.1094259</v>
       </c>
       <c r="CK8">
-        <v>208722788.2113101</v>
+        <v>208722788.2113099</v>
       </c>
       <c r="CL8">
-        <v>211807124.2923598</v>
+        <v>211807124.2923596</v>
       </c>
       <c r="CM8">
-        <v>214959575.2626182</v>
+        <v>214959575.262618</v>
       </c>
       <c r="CN8">
-        <v>218157659.5803173</v>
+        <v>218157659.5803171</v>
       </c>
       <c r="CO8">
-        <v>221383317.0543703</v>
+        <v>221383317.0543701</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -7374,274 +7374,274 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>163668.343378372</v>
+        <v>163668.3433783719</v>
       </c>
       <c r="E9">
         <v>268103.0730300024</v>
       </c>
       <c r="F9">
-        <v>347615.033714425</v>
+        <v>347615.0337144249</v>
       </c>
       <c r="G9">
         <v>426773.7270594464</v>
       </c>
       <c r="H9">
-        <v>499749.8469830192</v>
+        <v>499749.8469830194</v>
       </c>
       <c r="I9">
-        <v>569818.385334756</v>
+        <v>569818.3853347562</v>
       </c>
       <c r="J9">
-        <v>634097.6090554103</v>
+        <v>634097.6090554106</v>
       </c>
       <c r="K9">
-        <v>701387.473783763</v>
+        <v>701387.4737837635</v>
       </c>
       <c r="L9">
-        <v>782843.3003167752</v>
+        <v>782843.3003167758</v>
       </c>
       <c r="M9">
-        <v>864674.2244604373</v>
+        <v>864674.2244604379</v>
       </c>
       <c r="N9">
-        <v>952182.343180549</v>
+        <v>952182.3431805496</v>
       </c>
       <c r="O9">
-        <v>1052853.431279528</v>
+        <v>1052853.431279529</v>
       </c>
       <c r="P9">
-        <v>2029931.239062965</v>
+        <v>2029931.239062967</v>
       </c>
       <c r="Q9">
-        <v>3008884.676357314</v>
+        <v>3008884.676357317</v>
       </c>
       <c r="R9">
-        <v>3990185.146451496</v>
+        <v>3990185.146451499</v>
       </c>
       <c r="S9">
-        <v>7173150.360114096</v>
+        <v>7173150.360114103</v>
       </c>
       <c r="T9">
-        <v>10359587.38420631</v>
+        <v>10359587.38420632</v>
       </c>
       <c r="U9">
-        <v>13550146.3478385</v>
+        <v>13550146.34783852</v>
       </c>
       <c r="V9">
-        <v>16745552.480218</v>
+        <v>16745552.48021802</v>
       </c>
       <c r="W9">
-        <v>19946644.04673716</v>
+        <v>19946644.04673718</v>
       </c>
       <c r="X9">
-        <v>23400479.94606224</v>
+        <v>23400479.94606227</v>
       </c>
       <c r="Y9">
-        <v>26862331.77441337</v>
+        <v>26862331.7744134</v>
       </c>
       <c r="Z9">
-        <v>30333954.68217028</v>
+        <v>30333954.68217031</v>
       </c>
       <c r="AA9">
-        <v>33817764.65388764</v>
+        <v>33817764.65388767</v>
       </c>
       <c r="AB9">
-        <v>37317120.31219584</v>
+        <v>37317120.31219588</v>
       </c>
       <c r="AC9">
-        <v>38440073.06470122</v>
+        <v>38440073.06470127</v>
       </c>
       <c r="AD9">
-        <v>39589577.42683496</v>
+        <v>39589577.42683501</v>
       </c>
       <c r="AE9">
-        <v>40774129.3988608</v>
+        <v>40774129.39886086</v>
       </c>
       <c r="AF9">
-        <v>42004783.93272764</v>
+        <v>42004783.9327277</v>
       </c>
       <c r="AG9">
-        <v>43295475.10143832</v>
+        <v>43295475.10143838</v>
       </c>
       <c r="AH9">
-        <v>43855529.75370099</v>
+        <v>43855529.75370105</v>
       </c>
       <c r="AI9">
-        <v>44496733.83752102</v>
+        <v>44496733.83752108</v>
       </c>
       <c r="AJ9">
-        <v>45238078.31804912</v>
+        <v>45238078.31804918</v>
       </c>
       <c r="AK9">
-        <v>46120643.16817615</v>
+        <v>46120643.16817621</v>
       </c>
       <c r="AL9">
-        <v>47169979.76335778</v>
+        <v>47169979.76335784</v>
       </c>
       <c r="AM9">
-        <v>48862916.16303733</v>
+        <v>48862916.16303739</v>
       </c>
       <c r="AN9">
-        <v>50763659.08215274</v>
+        <v>50763659.0821528</v>
       </c>
       <c r="AO9">
-        <v>52884904.21464515</v>
+        <v>52884904.21464521</v>
       </c>
       <c r="AP9">
-        <v>55231126.39414144</v>
+        <v>55231126.3941415</v>
       </c>
       <c r="AQ9">
-        <v>57796705.4825427</v>
+        <v>57796705.48254278</v>
       </c>
       <c r="AR9">
-        <v>61106575.91346738</v>
+        <v>61106575.91346747</v>
       </c>
       <c r="AS9">
-        <v>64590725.4860476</v>
+        <v>64590725.48604769</v>
       </c>
       <c r="AT9">
-        <v>68210690.81633915</v>
+        <v>68210690.81633925</v>
       </c>
       <c r="AU9">
-        <v>71920103.08150814</v>
+        <v>71920103.08150825</v>
       </c>
       <c r="AV9">
-        <v>75668035.45087196</v>
+        <v>75668035.45087206</v>
       </c>
       <c r="AW9">
-        <v>79581042.97634602</v>
+        <v>79581042.97634612</v>
       </c>
       <c r="AX9">
-        <v>83432891.43782917</v>
+        <v>83432891.43782929</v>
       </c>
       <c r="AY9">
-        <v>87182487.31194122</v>
+        <v>87182487.31194134</v>
       </c>
       <c r="AZ9">
-        <v>90798692.06315075</v>
+        <v>90798692.06315088</v>
       </c>
       <c r="BA9">
-        <v>94262350.99851356</v>
+        <v>94262350.9985137</v>
       </c>
       <c r="BB9">
-        <v>97478227.02314155</v>
+        <v>97478227.02314168</v>
       </c>
       <c r="BC9">
-        <v>100542771.9561008</v>
+        <v>100542771.956101</v>
       </c>
       <c r="BD9">
-        <v>103475903.3746878</v>
+        <v>103475903.3746879</v>
       </c>
       <c r="BE9">
-        <v>106308565.0207752</v>
+        <v>106308565.0207753</v>
       </c>
       <c r="BF9">
-        <v>109080184.0209909</v>
+        <v>109080184.0209911</v>
       </c>
       <c r="BG9">
-        <v>111791054.4806341</v>
+        <v>111791054.4806342</v>
       </c>
       <c r="BH9">
-        <v>114531836.5257455</v>
+        <v>114531836.5257457</v>
       </c>
       <c r="BI9">
-        <v>117347067.7001994</v>
+        <v>117347067.7001996</v>
       </c>
       <c r="BJ9">
-        <v>120276679.8916981</v>
+        <v>120276679.8916983</v>
       </c>
       <c r="BK9">
-        <v>123353913.8962247</v>
+        <v>123353913.8962249</v>
       </c>
       <c r="BL9">
-        <v>126609546.2113832</v>
+        <v>126609546.2113834</v>
       </c>
       <c r="BM9">
-        <v>130054352.146282</v>
+        <v>130054352.1462822</v>
       </c>
       <c r="BN9">
-        <v>133695539.2652338</v>
+        <v>133695539.265234</v>
       </c>
       <c r="BO9">
-        <v>137531275.5687951</v>
+        <v>137531275.5687953</v>
       </c>
       <c r="BP9">
-        <v>141551266.9873604</v>
+        <v>141551266.9873606</v>
       </c>
       <c r="BQ9">
-        <v>145746485.0972304</v>
+        <v>145746485.0972307</v>
       </c>
       <c r="BR9">
-        <v>150084586.0072048</v>
+        <v>150084586.0072051</v>
       </c>
       <c r="BS9">
-        <v>154537667.808142</v>
+        <v>154537667.8081423</v>
       </c>
       <c r="BT9">
-        <v>159075461.8563569</v>
+        <v>159075461.8563572</v>
       </c>
       <c r="BU9">
-        <v>163667238.6789795</v>
+        <v>163667238.6789798</v>
       </c>
       <c r="BV9">
-        <v>168274154.2360733</v>
+        <v>168274154.2360736</v>
       </c>
       <c r="BW9">
-        <v>172879551.9447565</v>
+        <v>172879551.9447567</v>
       </c>
       <c r="BX9">
-        <v>177461912.6243104</v>
+        <v>177461912.6243107</v>
       </c>
       <c r="BY9">
-        <v>182005545.1595239</v>
+        <v>182005545.1595242</v>
       </c>
       <c r="BZ9">
-        <v>186501324.5466495</v>
+        <v>186501324.5466498</v>
       </c>
       <c r="CA9">
-        <v>190919105.8429107</v>
+        <v>190919105.842911</v>
       </c>
       <c r="CB9">
-        <v>195291094.7109918</v>
+        <v>195291094.7109921</v>
       </c>
       <c r="CC9">
-        <v>199627655.7604838</v>
+        <v>199627655.7604842</v>
       </c>
       <c r="CD9">
-        <v>203944179.7224106</v>
+        <v>203944179.722411</v>
       </c>
       <c r="CE9">
-        <v>208259799.3928562</v>
+        <v>208259799.3928565</v>
       </c>
       <c r="CF9">
-        <v>212543449.1035796</v>
+        <v>212543449.1035799</v>
       </c>
       <c r="CG9">
-        <v>216869689.0023689</v>
+        <v>216869689.0023693</v>
       </c>
       <c r="CH9">
-        <v>221259808.5965342</v>
+        <v>221259808.5965346</v>
       </c>
       <c r="CI9">
-        <v>225732943.1686404</v>
+        <v>225732943.1686408</v>
       </c>
       <c r="CJ9">
-        <v>230304972.022803</v>
+        <v>230304972.0228034</v>
       </c>
       <c r="CK9">
-        <v>234903908.25626</v>
+        <v>234903908.2562605</v>
       </c>
       <c r="CL9">
-        <v>239620821.8571261</v>
+        <v>239620821.8571265</v>
       </c>
       <c r="CM9">
-        <v>244458253.1055755</v>
+        <v>244458253.105576</v>
       </c>
       <c r="CN9">
-        <v>249414151.892376</v>
+        <v>249414151.8923765</v>
       </c>
       <c r="CO9">
-        <v>254482285.2789036</v>
+        <v>254482285.2789041</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -7721,40 +7721,40 @@
         <v>315.4575545412262</v>
       </c>
       <c r="Z10">
-        <v>334.9679780384123</v>
+        <v>334.9679780384122</v>
       </c>
       <c r="AA10">
-        <v>354.8904478216128</v>
+        <v>354.8904478216127</v>
       </c>
       <c r="AB10">
         <v>375.2258873889641</v>
       </c>
       <c r="AC10">
-        <v>394.8758789545205</v>
+        <v>394.8758789545204</v>
       </c>
       <c r="AD10">
-        <v>414.9508825960026</v>
+        <v>414.9508825960025</v>
       </c>
       <c r="AE10">
         <v>435.4542363257846</v>
       </c>
       <c r="AF10">
-        <v>456.3826639871706</v>
+        <v>456.3826639871705</v>
       </c>
       <c r="AG10">
         <v>477.7396750187168</v>
       </c>
       <c r="AH10">
-        <v>499.217350560489</v>
+        <v>499.2173505604889</v>
       </c>
       <c r="AI10">
-        <v>521.1428392739662</v>
+        <v>521.142839273966</v>
       </c>
       <c r="AJ10">
-        <v>543.5295696997111</v>
+        <v>543.529569699711</v>
       </c>
       <c r="AK10">
-        <v>566.3882459772009</v>
+        <v>566.3882459772008</v>
       </c>
       <c r="AL10">
         <v>589.7351850784539</v>
@@ -7859,7 +7859,7 @@
         <v>1651.023955646512</v>
       </c>
       <c r="BT10">
-        <v>1692.878687831407</v>
+        <v>1692.878687831406</v>
       </c>
       <c r="BU10">
         <v>1735.301714068551</v>
@@ -7877,7 +7877,7 @@
         <v>1910.722547392445</v>
       </c>
       <c r="BZ10">
-        <v>1956.087770299655</v>
+        <v>1956.087770299654</v>
       </c>
       <c r="CA10">
         <v>2002.097354338107</v>
@@ -7932,7 +7932,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.5364284207062041</v>
+        <v>0.5364284207062042</v>
       </c>
       <c r="E11">
         <v>1.074341133890435</v>
@@ -7944,37 +7944,37 @@
         <v>2.199787766767588</v>
       </c>
       <c r="H11">
-        <v>2.759025064817041</v>
+        <v>2.759025064817042</v>
       </c>
       <c r="I11">
-        <v>3.309665536380188</v>
+        <v>3.309665536380189</v>
       </c>
       <c r="J11">
-        <v>3.876874269333087</v>
+        <v>3.876874269333088</v>
       </c>
       <c r="K11">
-        <v>4.499813269960979</v>
+        <v>4.49981326996098</v>
       </c>
       <c r="L11">
-        <v>5.140324848350728</v>
+        <v>5.140324848350729</v>
       </c>
       <c r="M11">
-        <v>5.825037558596486</v>
+        <v>5.825037558596487</v>
       </c>
       <c r="N11">
-        <v>6.552815246283902</v>
+        <v>6.552815246283903</v>
       </c>
       <c r="O11">
-        <v>7.21831137493331</v>
+        <v>7.218311374933311</v>
       </c>
       <c r="P11">
-        <v>7.934496868104203</v>
+        <v>7.934496868104204</v>
       </c>
       <c r="Q11">
-        <v>8.668697962801829</v>
+        <v>8.668697962801831</v>
       </c>
       <c r="R11">
-        <v>9.42083390923298</v>
+        <v>9.420833909232982</v>
       </c>
       <c r="S11">
         <v>10.2352669993268</v>
@@ -8082,91 +8082,91 @@
         <v>49.67177363449547</v>
       </c>
       <c r="BB11">
-        <v>51.21003204648885</v>
+        <v>51.21003204648884</v>
       </c>
       <c r="BC11">
-        <v>52.77099089437291</v>
+        <v>52.7709908943729</v>
       </c>
       <c r="BD11">
         <v>54.3544743869472</v>
       </c>
       <c r="BE11">
-        <v>55.96082687548135</v>
+        <v>55.96082687548133</v>
       </c>
       <c r="BF11">
-        <v>57.59107472320423</v>
+        <v>57.59107472320422</v>
       </c>
       <c r="BG11">
-        <v>59.24686123715208</v>
+        <v>59.24686123715207</v>
       </c>
       <c r="BH11">
-        <v>60.9303968337565</v>
+        <v>60.93039683375649</v>
       </c>
       <c r="BI11">
-        <v>62.64337993766566</v>
+        <v>62.64337993766564</v>
       </c>
       <c r="BJ11">
-        <v>64.38737429049526</v>
+        <v>64.38737429049523</v>
       </c>
       <c r="BK11">
-        <v>66.16317641751087</v>
+        <v>66.16317641751084</v>
       </c>
       <c r="BL11">
-        <v>67.9720410493548</v>
+        <v>67.97204104935477</v>
       </c>
       <c r="BM11">
-        <v>69.81455502185419</v>
+        <v>69.81455502185416</v>
       </c>
       <c r="BN11">
-        <v>71.69008191366619</v>
+        <v>71.69008191366616</v>
       </c>
       <c r="BO11">
-        <v>73.59760376937191</v>
+        <v>73.59760376937189</v>
       </c>
       <c r="BP11">
-        <v>75.53567607145595</v>
+        <v>75.53567607145592</v>
       </c>
       <c r="BQ11">
-        <v>77.50503881145985</v>
+        <v>77.50503881145983</v>
       </c>
       <c r="BR11">
-        <v>79.50533091735198</v>
+        <v>79.50533091735196</v>
       </c>
       <c r="BS11">
-        <v>81.53598653731822</v>
+        <v>81.53598653731819</v>
       </c>
       <c r="BT11">
-        <v>83.59600987294199</v>
+        <v>83.59600987294196</v>
       </c>
       <c r="BU11">
-        <v>85.68378183137106</v>
+        <v>85.68378183137104</v>
       </c>
       <c r="BV11">
-        <v>87.79914608229588</v>
+        <v>87.79914608229585</v>
       </c>
       <c r="BW11">
-        <v>89.94211346724636</v>
+        <v>89.94211346724633</v>
       </c>
       <c r="BX11">
-        <v>92.11388138647526</v>
+        <v>92.11388138647523</v>
       </c>
       <c r="BY11">
-        <v>94.31572437449321</v>
+        <v>94.31572437449319</v>
       </c>
       <c r="BZ11">
-        <v>96.54783962426779</v>
+        <v>96.54783962426777</v>
       </c>
       <c r="CA11">
-        <v>98.81161186543353</v>
+        <v>98.81161186543351</v>
       </c>
       <c r="CB11">
-        <v>101.107533699198</v>
+        <v>101.1075336991979</v>
       </c>
       <c r="CC11">
-        <v>103.436042789649</v>
+        <v>103.4360427896489</v>
       </c>
       <c r="CD11">
-        <v>105.7977893151165</v>
+        <v>105.7977893151164</v>
       </c>
       <c r="CE11">
         <v>108.1935800837616</v>
@@ -8187,16 +8187,16 @@
         <v>120.7477466363272</v>
       </c>
       <c r="CK11">
-        <v>123.3768357853982</v>
+        <v>123.3768357853981</v>
       </c>
       <c r="CL11">
-        <v>126.0456827300273</v>
+        <v>126.0456827300272</v>
       </c>
       <c r="CM11">
         <v>128.7533567363014</v>
       </c>
       <c r="CN11">
-        <v>131.4991123551049</v>
+        <v>131.4991123551048</v>
       </c>
       <c r="CO11">
         <v>134.2824234930497</v>
@@ -8212,10 +8212,10 @@
         <v>250283.1304847016</v>
       </c>
       <c r="E12">
-        <v>495509.8970772302</v>
+        <v>495509.8970772301</v>
       </c>
       <c r="F12">
-        <v>825826.9110064283</v>
+        <v>825826.9110064282</v>
       </c>
       <c r="G12">
         <v>1316871.304884082</v>
@@ -8245,7 +8245,7 @@
         <v>4705706.89341303</v>
       </c>
       <c r="P12">
-        <v>8269040.982741104</v>
+        <v>8269040.982741106</v>
       </c>
       <c r="Q12">
         <v>11839382.96185424</v>
@@ -8254,25 +8254,25 @@
         <v>15416784.0730799</v>
       </c>
       <c r="S12">
-        <v>27154952.38924774</v>
+        <v>27154952.38924775</v>
       </c>
       <c r="T12">
-        <v>38906023.45710476</v>
+        <v>38906023.45710477</v>
       </c>
       <c r="U12">
-        <v>50669846.76236702</v>
+        <v>50669846.76236704</v>
       </c>
       <c r="V12">
-        <v>62446945.72936209</v>
+        <v>62446945.72936212</v>
       </c>
       <c r="W12">
-        <v>74237321.91747183</v>
+        <v>74237321.91747186</v>
       </c>
       <c r="X12">
-        <v>88038589.6475855</v>
+        <v>88038589.64758553</v>
       </c>
       <c r="Y12">
-        <v>101861082.5360741</v>
+        <v>101861082.5360742</v>
       </c>
       <c r="Z12">
         <v>115709474.5415312</v>
@@ -8281,40 +8281,40 @@
         <v>129590058.498868</v>
       </c>
       <c r="AB12">
-        <v>143510070.7840663</v>
+        <v>143510070.7840664</v>
       </c>
       <c r="AC12">
-        <v>149044273.5346456</v>
+        <v>149044273.5346457</v>
       </c>
       <c r="AD12">
         <v>154637533.8343863</v>
       </c>
       <c r="AE12">
-        <v>160298507.8174329</v>
+        <v>160298507.817433</v>
       </c>
       <c r="AF12">
         <v>166041565.0950643</v>
       </c>
       <c r="AG12">
-        <v>171889137.8452225</v>
+        <v>171889137.8452226</v>
       </c>
       <c r="AH12">
-        <v>174791097.6371169</v>
+        <v>174791097.637117</v>
       </c>
       <c r="AI12">
-        <v>177854951.7953886</v>
+        <v>177854951.7953887</v>
       </c>
       <c r="AJ12">
-        <v>181125926.9449651</v>
+        <v>181125926.9449652</v>
       </c>
       <c r="AK12">
         <v>184663808.4995865</v>
       </c>
       <c r="AL12">
-        <v>188540347.9184019</v>
+        <v>188540347.918402</v>
       </c>
       <c r="AM12">
-        <v>194587001.6765225</v>
+        <v>194587001.6765226</v>
       </c>
       <c r="AN12">
         <v>201071216.1933185</v>
@@ -8332,10 +8332,10 @@
         <v>234392322.118538</v>
       </c>
       <c r="AS12">
-        <v>245657758.4883118</v>
+        <v>245657758.4883119</v>
       </c>
       <c r="AT12">
-        <v>257201231.4445372</v>
+        <v>257201231.4445373</v>
       </c>
       <c r="AU12">
         <v>268951921.4264907</v>
@@ -8344,7 +8344,7 @@
         <v>280825425.7584355</v>
       </c>
       <c r="AW12">
-        <v>293629714.5119379</v>
+        <v>293629714.511938</v>
       </c>
       <c r="AX12">
         <v>306344808.185971</v>
@@ -8353,130 +8353,130 @@
         <v>318834246.3309842</v>
       </c>
       <c r="AZ12">
-        <v>330998727.5652494</v>
+        <v>330998727.5652496</v>
       </c>
       <c r="BA12">
-        <v>342882181.979668</v>
+        <v>342882181.9796681</v>
       </c>
       <c r="BB12">
-        <v>354080729.4613554</v>
+        <v>354080729.4613555</v>
       </c>
       <c r="BC12">
-        <v>365053894.7085437</v>
+        <v>365053894.7085438</v>
       </c>
       <c r="BD12">
-        <v>375807114.536126</v>
+        <v>375807114.5361261</v>
       </c>
       <c r="BE12">
-        <v>386375353.1534259</v>
+        <v>386375353.1534261</v>
       </c>
       <c r="BF12">
-        <v>396855148.4339189</v>
+        <v>396855148.4339191</v>
       </c>
       <c r="BG12">
-        <v>407184800.8968055</v>
+        <v>407184800.8968056</v>
       </c>
       <c r="BH12">
-        <v>417647872.5805551</v>
+        <v>417647872.5805553</v>
       </c>
       <c r="BI12">
-        <v>428356651.1557364</v>
+        <v>428356651.1557366</v>
       </c>
       <c r="BJ12">
-        <v>439406985.2663288</v>
+        <v>439406985.266329</v>
       </c>
       <c r="BK12">
-        <v>450849712.3310739</v>
+        <v>450849712.3310741</v>
       </c>
       <c r="BL12">
-        <v>462827806.4121827</v>
+        <v>462827806.4121829</v>
       </c>
       <c r="BM12">
-        <v>475271161.7524804</v>
+        <v>475271161.7524806</v>
       </c>
       <c r="BN12">
-        <v>488192793.8736816</v>
+        <v>488192793.8736818</v>
       </c>
       <c r="BO12">
-        <v>501580069.6097934</v>
+        <v>501580069.6097936</v>
       </c>
       <c r="BP12">
-        <v>515372306.9155668</v>
+        <v>515372306.915567</v>
       </c>
       <c r="BQ12">
-        <v>529609841.8893671</v>
+        <v>529609841.8893673</v>
       </c>
       <c r="BR12">
-        <v>544149642.1010869</v>
+        <v>544149642.1010871</v>
       </c>
       <c r="BS12">
-        <v>558940738.3159426</v>
+        <v>558940738.3159429</v>
       </c>
       <c r="BT12">
-        <v>573913610.7193873</v>
+        <v>573913610.7193875</v>
       </c>
       <c r="BU12">
-        <v>588974179.4840344</v>
+        <v>588974179.4840348</v>
       </c>
       <c r="BV12">
-        <v>604031351.6436874</v>
+        <v>604031351.6436877</v>
       </c>
       <c r="BW12">
-        <v>619035631.0315197</v>
+        <v>619035631.03152</v>
       </c>
       <c r="BX12">
-        <v>633974212.4228544</v>
+        <v>633974212.4228548</v>
       </c>
       <c r="BY12">
-        <v>648845860.3377753</v>
+        <v>648845860.3377757</v>
       </c>
       <c r="BZ12">
-        <v>663651657.2367393</v>
+        <v>663651657.2367396</v>
       </c>
       <c r="CA12">
-        <v>678277321.8190426</v>
+        <v>678277321.8190429</v>
       </c>
       <c r="CB12">
-        <v>692848106.339114</v>
+        <v>692848106.3391143</v>
       </c>
       <c r="CC12">
-        <v>707400233.1089766</v>
+        <v>707400233.108977</v>
       </c>
       <c r="CD12">
-        <v>721989095.2962252</v>
+        <v>721989095.2962255</v>
       </c>
       <c r="CE12">
-        <v>736684732.7687856</v>
+        <v>736684732.768786</v>
       </c>
       <c r="CF12">
-        <v>751289100.9849467</v>
+        <v>751289100.9849471</v>
       </c>
       <c r="CG12">
-        <v>766119033.9839226</v>
+        <v>766119033.983923</v>
       </c>
       <c r="CH12">
-        <v>781210312.1524028</v>
+        <v>781210312.1524031</v>
       </c>
       <c r="CI12">
-        <v>796590575.6073951</v>
+        <v>796590575.6073954</v>
       </c>
       <c r="CJ12">
-        <v>812283996.422966</v>
+        <v>812283996.4229664</v>
       </c>
       <c r="CK12">
-        <v>827856046.5600557</v>
+        <v>827856046.5600561</v>
       </c>
       <c r="CL12">
-        <v>843743370.264752</v>
+        <v>843743370.2647524</v>
       </c>
       <c r="CM12">
-        <v>859921599.4319156</v>
+        <v>859921599.431916</v>
       </c>
       <c r="CN12">
-        <v>876363576.5282171</v>
+        <v>876363576.5282174</v>
       </c>
       <c r="CO12">
-        <v>893044870.5300359</v>
+        <v>893044870.5300362</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -8486,55 +8486,55 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147309.1672309122</v>
+        <v>147309.1672309121</v>
       </c>
       <c r="E13">
-        <v>241307.2879898776</v>
+        <v>241307.2879898775</v>
       </c>
       <c r="F13">
-        <v>312879.1081352313</v>
+        <v>312879.1081352311</v>
       </c>
       <c r="G13">
-        <v>384136.5781560051</v>
+        <v>384136.578156005</v>
       </c>
       <c r="H13">
-        <v>449828.3833336954</v>
+        <v>449828.3833336952</v>
       </c>
       <c r="I13">
-        <v>512904.3810526782</v>
+        <v>512904.381052678</v>
       </c>
       <c r="J13">
-        <v>570769.2370338949</v>
+        <v>570769.2370338946</v>
       </c>
       <c r="K13">
-        <v>631343.6519681402</v>
+        <v>631343.6519681399</v>
       </c>
       <c r="L13">
-        <v>704668.5337865485</v>
+        <v>704668.5337865483</v>
       </c>
       <c r="M13">
-        <v>778331.0501016382</v>
+        <v>778331.050101638</v>
       </c>
       <c r="N13">
-        <v>857102.3416890097</v>
+        <v>857102.3416890095</v>
       </c>
       <c r="O13">
-        <v>947721.2344313922</v>
+        <v>947721.2344313918</v>
       </c>
       <c r="P13">
         <v>1827270.974364983</v>
       </c>
       <c r="Q13">
-        <v>2708508.908629007</v>
+        <v>2708508.908629006</v>
       </c>
       <c r="R13">
-        <v>3591859.339575014</v>
+        <v>3591859.339575013</v>
       </c>
       <c r="S13">
         <v>6457123.882823505</v>
       </c>
       <c r="T13">
-        <v>9325513.334398026</v>
+        <v>9325513.334398024</v>
       </c>
       <c r="U13">
         <v>12197612.89034069</v>
@@ -8543,16 +8543,16 @@
         <v>15074075.36289145</v>
       </c>
       <c r="W13">
-        <v>17955655.33630826</v>
+        <v>17955655.33630825</v>
       </c>
       <c r="X13">
-        <v>21064781.16945071</v>
+        <v>21064781.1694507</v>
       </c>
       <c r="Y13">
-        <v>24181122.44089716</v>
+        <v>24181122.44089715</v>
       </c>
       <c r="Z13">
-        <v>27306259.19001918</v>
+        <v>27306259.19001917</v>
       </c>
       <c r="AA13">
         <v>30442366.36254992</v>
@@ -8561,100 +8561,100 @@
         <v>33592467.48123819</v>
       </c>
       <c r="AC13">
-        <v>34603370.95564978</v>
+        <v>34603370.95564977</v>
       </c>
       <c r="AD13">
-        <v>35638176.0647528</v>
+        <v>35638176.06475279</v>
       </c>
       <c r="AE13">
-        <v>36704530.92915566</v>
+        <v>36704530.92915565</v>
       </c>
       <c r="AF13">
-        <v>37812387.16929055</v>
+        <v>37812387.16929054</v>
       </c>
       <c r="AG13">
-        <v>38974288.1063532</v>
+        <v>38974288.10635319</v>
       </c>
       <c r="AH13">
-        <v>39478481.42277616</v>
+        <v>39478481.42277615</v>
       </c>
       <c r="AI13">
-        <v>40055723.68875937</v>
+        <v>40055723.68875936</v>
       </c>
       <c r="AJ13">
         <v>40723110.02590346</v>
       </c>
       <c r="AK13">
-        <v>41517621.34862646</v>
+        <v>41517621.34862645</v>
       </c>
       <c r="AL13">
-        <v>42462258.78749714</v>
+        <v>42462258.78749713</v>
       </c>
       <c r="AM13">
         <v>43986257.87128612</v>
       </c>
       <c r="AN13">
-        <v>45697322.21786284</v>
+        <v>45697322.21786283</v>
       </c>
       <c r="AO13">
         <v>47606880.52122696</v>
       </c>
       <c r="AP13">
-        <v>49718961.22675718</v>
+        <v>49718961.22675717</v>
       </c>
       <c r="AQ13">
-        <v>52028505.46477195</v>
+        <v>52028505.46477194</v>
       </c>
       <c r="AR13">
-        <v>55008076.15945307</v>
+        <v>55008076.15945306</v>
       </c>
       <c r="AS13">
-        <v>58144532.63539257</v>
+        <v>58144532.63539256</v>
       </c>
       <c r="AT13">
-        <v>61403250.9712035</v>
+        <v>61403250.97120349</v>
       </c>
       <c r="AU13">
-        <v>64742490.82909047</v>
+        <v>64742490.82909046</v>
       </c>
       <c r="AV13">
-        <v>68116408.7473284</v>
+        <v>68116408.74732839</v>
       </c>
       <c r="AW13">
-        <v>71638934.61657223</v>
+        <v>71638934.61657222</v>
       </c>
       <c r="AX13">
-        <v>75106408.8174783</v>
+        <v>75106408.81747828</v>
       </c>
       <c r="AY13">
-        <v>78481839.4363694</v>
+        <v>78481839.43636939</v>
       </c>
       <c r="AZ13">
-        <v>81737195.82620877</v>
+        <v>81737195.82620876</v>
       </c>
       <c r="BA13">
-        <v>84855234.97520733</v>
+        <v>84855234.97520731</v>
       </c>
       <c r="BB13">
-        <v>87750222.25894222</v>
+        <v>87750222.2589422</v>
       </c>
       <c r="BC13">
-        <v>90508985.29221803</v>
+        <v>90508985.29221801</v>
       </c>
       <c r="BD13">
-        <v>93149453.39799406</v>
+        <v>93149453.39799404</v>
       </c>
       <c r="BE13">
-        <v>95699481.55789289</v>
+        <v>95699481.55789287</v>
       </c>
       <c r="BF13">
-        <v>98194561.45070356</v>
+        <v>98194561.45070355</v>
       </c>
       <c r="BG13">
-        <v>100634957.9210943</v>
+        <v>100634957.9210942</v>
       </c>
       <c r="BH13">
-        <v>103102281.9490977</v>
+        <v>103102281.9490976</v>
       </c>
       <c r="BI13">
         <v>105636625.7730869</v>
@@ -8669,7 +8669,7 @@
         <v>113974931.7033424</v>
       </c>
       <c r="BM13">
-        <v>117076022.7251802</v>
+        <v>117076022.7251801</v>
       </c>
       <c r="BN13">
         <v>120353896.6567869</v>
@@ -8687,7 +8687,7 @@
         <v>135107643.8053415</v>
       </c>
       <c r="BS13">
-        <v>139116396.4543407</v>
+        <v>139116396.4543406</v>
       </c>
       <c r="BT13">
         <v>143201409.9279379</v>
@@ -8705,19 +8705,19 @@
         <v>159753293.4220193</v>
       </c>
       <c r="BY13">
-        <v>163843580.0254148</v>
+        <v>163843580.0254147</v>
       </c>
       <c r="BZ13">
         <v>167890792.3693219</v>
       </c>
       <c r="CA13">
-        <v>171867793.9615245</v>
+        <v>171867793.9615244</v>
       </c>
       <c r="CB13">
         <v>175803576.0376531</v>
       </c>
       <c r="CC13">
-        <v>179707468.6237394</v>
+        <v>179707468.6237393</v>
       </c>
       <c r="CD13">
         <v>183593326.2519964</v>
@@ -8726,31 +8726,31 @@
         <v>187478372.066777</v>
       </c>
       <c r="CF13">
-        <v>191334639.4084281</v>
+        <v>191334639.408428</v>
       </c>
       <c r="CG13">
         <v>195229248.3347891</v>
       </c>
       <c r="CH13">
-        <v>199181363.5471369</v>
+        <v>199181363.5471368</v>
       </c>
       <c r="CI13">
         <v>203208210.558245</v>
       </c>
       <c r="CJ13">
-        <v>207324083.8970715</v>
+        <v>207324083.8970714</v>
       </c>
       <c r="CK13">
-        <v>211464178.6376179</v>
+        <v>211464178.6376178</v>
       </c>
       <c r="CL13">
-        <v>215710478.3983961</v>
+        <v>215710478.398396</v>
       </c>
       <c r="CM13">
         <v>220065270.0490484</v>
       </c>
       <c r="CN13">
-        <v>224526708.2187477</v>
+        <v>224526708.2187476</v>
       </c>
       <c r="CO13">
         <v>229089182.1705291</v>
@@ -8788,13 +8788,13 @@
         <v>12.44192255533659</v>
       </c>
       <c r="K14">
-        <v>14.47597890462186</v>
+        <v>14.47597890462187</v>
       </c>
       <c r="L14">
-        <v>16.5341551335845</v>
+        <v>16.53415513358451</v>
       </c>
       <c r="M14">
-        <v>18.72626451407425</v>
+        <v>18.72626451407426</v>
       </c>
       <c r="N14">
         <v>21.05495916977976</v>
@@ -8803,7 +8803,7 @@
         <v>23.18361689746845</v>
       </c>
       <c r="P14">
-        <v>25.48081404899285</v>
+        <v>25.48081404899286</v>
       </c>
       <c r="Q14">
         <v>27.8345226940572</v>
@@ -8812,22 +8812,22 @@
         <v>30.24447392918509</v>
       </c>
       <c r="S14">
-        <v>32.87467577370992</v>
+        <v>32.87467577370993</v>
       </c>
       <c r="T14">
-        <v>35.57236828250546</v>
+        <v>35.57236828250547</v>
       </c>
       <c r="U14">
-        <v>38.33778872111993</v>
+        <v>38.33778872111994</v>
       </c>
       <c r="V14">
         <v>41.17113006115724</v>
       </c>
       <c r="W14">
-        <v>44.07253743632438</v>
+        <v>44.07253743632439</v>
       </c>
       <c r="X14">
-        <v>47.03864341119864</v>
+        <v>47.03864341119865</v>
       </c>
       <c r="Y14">
         <v>50.07014794129655</v>
@@ -8836,10 +8836,10 @@
         <v>53.16688719143801</v>
       </c>
       <c r="AA14">
-        <v>56.32902737492978</v>
+        <v>56.32902737492979</v>
       </c>
       <c r="AB14">
-        <v>59.55671507151817</v>
+        <v>59.55671507151818</v>
       </c>
       <c r="AC14">
         <v>62.67560688618244</v>
@@ -8950,10 +8950,10 @@
         <v>218.35698535045</v>
       </c>
       <c r="BM14">
-        <v>224.2863834415941</v>
+        <v>224.2863834415942</v>
       </c>
       <c r="BN14">
-        <v>230.3245133216846</v>
+        <v>230.3245133216847</v>
       </c>
       <c r="BO14">
         <v>236.4679917436658</v>
@@ -8962,7 +8962,7 @@
         <v>242.7119409425085</v>
       </c>
       <c r="BQ14">
-        <v>249.058690675996</v>
+        <v>249.0586906759961</v>
       </c>
       <c r="BR14">
         <v>255.5068405610834</v>
@@ -8971,55 +8971,55 @@
         <v>262.0543160998922</v>
       </c>
       <c r="BT14">
-        <v>268.697595369551</v>
+        <v>268.6975953695511</v>
       </c>
       <c r="BU14">
-        <v>275.4310755770562</v>
+        <v>275.4310755770563</v>
       </c>
       <c r="BV14">
-        <v>282.253986297806</v>
+        <v>282.2539862978061</v>
       </c>
       <c r="BW14">
-        <v>289.1662454273283</v>
+        <v>289.1662454273284</v>
       </c>
       <c r="BX14">
         <v>296.1716401973001</v>
       </c>
       <c r="BY14">
-        <v>303.274273338754</v>
+        <v>303.2742733387541</v>
       </c>
       <c r="BZ14">
-        <v>310.4747457625552</v>
+        <v>310.4747457625553</v>
       </c>
       <c r="CA14">
         <v>317.7774926657738</v>
       </c>
       <c r="CB14">
-        <v>325.1843437093415</v>
+        <v>325.1843437093416</v>
       </c>
       <c r="CC14">
-        <v>332.696838735384</v>
+        <v>332.6968387353841</v>
       </c>
       <c r="CD14">
         <v>340.3172683976412</v>
       </c>
       <c r="CE14">
-        <v>348.0484787338668</v>
+        <v>348.0484787338669</v>
       </c>
       <c r="CF14">
-        <v>355.899908793549</v>
+        <v>355.8999087935491</v>
       </c>
       <c r="CG14">
-        <v>363.8778257939377</v>
+        <v>363.8778257939378</v>
       </c>
       <c r="CH14">
         <v>371.984218076884</v>
       </c>
       <c r="CI14">
-        <v>380.2198303819666</v>
+        <v>380.2198303819667</v>
       </c>
       <c r="CJ14">
-        <v>388.5843692572009</v>
+        <v>388.584369257201</v>
       </c>
       <c r="CK14">
         <v>397.0789085885118</v>
@@ -9031,10 +9031,10 @@
         <v>414.4566931370181</v>
       </c>
       <c r="CN14">
-        <v>423.3343695052687</v>
+        <v>423.3343695052688</v>
       </c>
       <c r="CO14">
-        <v>432.3352796205036</v>
+        <v>432.3352796205037</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -9044,34 +9044,34 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.08514315158417154</v>
+        <v>0.08514315158417157</v>
       </c>
       <c r="E15">
-        <v>0.1705218934811858</v>
+        <v>0.1705218934811859</v>
       </c>
       <c r="F15">
-        <v>0.2593704580660788</v>
+        <v>0.2593704580660789</v>
       </c>
       <c r="G15">
-        <v>0.3491553691959947</v>
+        <v>0.3491553691959949</v>
       </c>
       <c r="H15">
-        <v>0.4379187982042156</v>
+        <v>0.4379187982042158</v>
       </c>
       <c r="I15">
-        <v>0.5253177191580295</v>
+        <v>0.5253177191580297</v>
       </c>
       <c r="J15">
-        <v>0.615346392631549</v>
+        <v>0.6153463926315492</v>
       </c>
       <c r="K15">
-        <v>0.7142207022520712</v>
+        <v>0.7142207022520715</v>
       </c>
       <c r="L15">
-        <v>0.8158841717946809</v>
+        <v>0.8158841717946811</v>
       </c>
       <c r="M15">
-        <v>0.9245633465545003</v>
+        <v>0.9245633465545007</v>
       </c>
       <c r="N15">
         <v>1.040077893492134</v>
@@ -9098,127 +9098,127 @@
         <v>1.893211954001836</v>
       </c>
       <c r="V15">
-        <v>2.03261050657471</v>
+        <v>2.032610506574711</v>
       </c>
       <c r="W15">
-        <v>2.175402370326761</v>
+        <v>2.175402370326762</v>
       </c>
       <c r="X15">
-        <v>2.321330835191866</v>
+        <v>2.321330835191867</v>
       </c>
       <c r="Y15">
-        <v>2.470512957629647</v>
+        <v>2.470512957629648</v>
       </c>
       <c r="Z15">
-        <v>2.622939999718529</v>
+        <v>2.622939999718531</v>
       </c>
       <c r="AA15">
-        <v>2.778618619586266</v>
+        <v>2.778618619586267</v>
       </c>
       <c r="AB15">
-        <v>2.937554174598883</v>
+        <v>2.937554174598885</v>
       </c>
       <c r="AC15">
-        <v>3.092248598153773</v>
+        <v>3.092248598153775</v>
       </c>
       <c r="AD15">
-        <v>3.250284188248845</v>
+        <v>3.250284188248846</v>
       </c>
       <c r="AE15">
-        <v>3.411683196710237</v>
+        <v>3.411683196710238</v>
       </c>
       <c r="AF15">
-        <v>3.576415950236354</v>
+        <v>3.576415950236356</v>
       </c>
       <c r="AG15">
-        <v>3.744504543083417</v>
+        <v>3.744504543083419</v>
       </c>
       <c r="AH15">
-        <v>3.913895297962863</v>
+        <v>3.913895297962864</v>
       </c>
       <c r="AI15">
-        <v>4.086774842436093</v>
+        <v>4.086774842436095</v>
       </c>
       <c r="AJ15">
-        <v>4.263239376920647</v>
+        <v>4.263239376920649</v>
       </c>
       <c r="AK15">
-        <v>4.443357842489199</v>
+        <v>4.443357842489201</v>
       </c>
       <c r="AL15">
-        <v>4.627245383949826</v>
+        <v>4.627245383949828</v>
       </c>
       <c r="AM15">
-        <v>4.81614405536827</v>
+        <v>4.816144055368271</v>
       </c>
       <c r="AN15">
-        <v>5.009184144854965</v>
+        <v>5.009184144854967</v>
       </c>
       <c r="AO15">
-        <v>5.206567311106213</v>
+        <v>5.206567311106214</v>
       </c>
       <c r="AP15">
-        <v>5.408484199459712</v>
+        <v>5.408484199459714</v>
       </c>
       <c r="AQ15">
-        <v>5.61455195945459</v>
+        <v>5.614551959454592</v>
       </c>
       <c r="AR15">
-        <v>5.825963626135319</v>
+        <v>5.825963626135321</v>
       </c>
       <c r="AS15">
-        <v>6.041092309260935</v>
+        <v>6.041092309260937</v>
       </c>
       <c r="AT15">
-        <v>6.25981438596745</v>
+        <v>6.259814385967452</v>
       </c>
       <c r="AU15">
-        <v>6.481997344875862</v>
+        <v>6.481997344875864</v>
       </c>
       <c r="AV15">
-        <v>6.707563402578749</v>
+        <v>6.70756340257875</v>
       </c>
       <c r="AW15">
-        <v>6.937026916006988</v>
+        <v>6.93702691600699</v>
       </c>
       <c r="AX15">
-        <v>7.169727617685756</v>
+        <v>7.169727617685758</v>
       </c>
       <c r="AY15">
-        <v>7.405210003691456</v>
+        <v>7.405210003691458</v>
       </c>
       <c r="AZ15">
-        <v>7.643168289098544</v>
+        <v>7.643168289098545</v>
       </c>
       <c r="BA15">
-        <v>7.884018051185244</v>
+        <v>7.884018051185246</v>
       </c>
       <c r="BB15">
-        <v>8.128173961074499</v>
+        <v>8.1281739610745</v>
       </c>
       <c r="BC15">
-        <v>8.375932936311266</v>
+        <v>8.375932936311267</v>
       </c>
       <c r="BD15">
-        <v>8.627267074912261</v>
+        <v>8.627267074912263</v>
       </c>
       <c r="BE15">
-        <v>8.882231033102277</v>
+        <v>8.882231033102279</v>
       </c>
       <c r="BF15">
-        <v>9.140987717611468</v>
+        <v>9.14098771761147</v>
       </c>
       <c r="BG15">
-        <v>9.403797957908751</v>
+        <v>9.403797957908752</v>
       </c>
       <c r="BH15">
-        <v>9.671012596369424</v>
+        <v>9.671012596369426</v>
       </c>
       <c r="BI15">
-        <v>9.94290121085643</v>
+        <v>9.942901210856432</v>
       </c>
       <c r="BJ15">
-        <v>10.2197120020323</v>
+        <v>10.21971200203231</v>
       </c>
       <c r="BK15">
         <v>10.50157139621752</v>
@@ -9272,13 +9272,13 @@
         <v>15.6836060927926</v>
       </c>
       <c r="CB15">
-        <v>16.04802008200716</v>
+        <v>16.04802008200717</v>
       </c>
       <c r="CC15">
         <v>16.41760639548471</v>
       </c>
       <c r="CD15">
-        <v>16.79246823102381</v>
+        <v>16.79246823102382</v>
       </c>
       <c r="CE15">
         <v>17.17273364706976</v>
@@ -9287,10 +9287,10 @@
         <v>17.55886099710459</v>
       </c>
       <c r="CG15">
-        <v>17.95112767054805</v>
+        <v>17.95112767054806</v>
       </c>
       <c r="CH15">
-        <v>18.34962168057569</v>
+        <v>18.3496216805757</v>
       </c>
       <c r="CI15">
         <v>18.75437225654533</v>
@@ -9308,10 +9308,10 @@
         <v>20.43602864131961</v>
       </c>
       <c r="CN15">
-        <v>20.87184128256091</v>
+        <v>20.87184128256092</v>
       </c>
       <c r="CO15">
-        <v>21.31361482209853</v>
+        <v>21.31361482209854</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -9360,10 +9360,10 @@
         <v>3865919.712971976</v>
       </c>
       <c r="Q16">
-        <v>5226202.493863206</v>
+        <v>5226202.493863207</v>
       </c>
       <c r="R16">
-        <v>6588825.272871146</v>
+        <v>6588825.272871148</v>
       </c>
       <c r="S16">
         <v>10863773.3250411</v>
@@ -9390,7 +9390,7 @@
         <v>39815655.96103691</v>
       </c>
       <c r="AA16">
-        <v>43751847.05671591</v>
+        <v>43751847.05671592</v>
       </c>
       <c r="AB16">
         <v>47697378.37203068</v>
@@ -9399,13 +9399,13 @@
         <v>48239779.09756859</v>
       </c>
       <c r="AD16">
-        <v>48798668.18431145</v>
+        <v>48798668.18431146</v>
       </c>
       <c r="AE16">
         <v>49389729.70036393</v>
       </c>
       <c r="AF16">
-        <v>50010022.96498915</v>
+        <v>50010022.96498916</v>
       </c>
       <c r="AG16">
         <v>50660753.32948641</v>
@@ -9417,16 +9417,16 @@
         <v>50390238.21571495</v>
       </c>
       <c r="AJ16">
-        <v>50171939.16707588</v>
+        <v>50171939.16707589</v>
       </c>
       <c r="AK16">
-        <v>50010070.94812673</v>
+        <v>50010070.94812674</v>
       </c>
       <c r="AL16">
         <v>49915369.34063914</v>
       </c>
       <c r="AM16">
-        <v>50459275.89719081</v>
+        <v>50459275.89719082</v>
       </c>
       <c r="AN16">
         <v>51186316.16291349</v>
@@ -9435,85 +9435,85 @@
         <v>52159021.16291592</v>
       </c>
       <c r="AP16">
-        <v>53423736.77001185</v>
+        <v>53423736.77001186</v>
       </c>
       <c r="AQ16">
-        <v>54884910.64277502</v>
+        <v>54884910.64277503</v>
       </c>
       <c r="AR16">
-        <v>57274184.73424981</v>
+        <v>57274184.73424982</v>
       </c>
       <c r="AS16">
-        <v>59730673.06576881</v>
+        <v>59730673.06576882</v>
       </c>
       <c r="AT16">
-        <v>62220432.86994944</v>
+        <v>62220432.86994945</v>
       </c>
       <c r="AU16">
         <v>64706651.41493411</v>
       </c>
       <c r="AV16">
-        <v>67166847.33358301</v>
+        <v>67166847.33358303</v>
       </c>
       <c r="AW16">
-        <v>69693077.84548847</v>
+        <v>69693077.84548849</v>
       </c>
       <c r="AX16">
-        <v>72097763.20650131</v>
+        <v>72097763.20650132</v>
       </c>
       <c r="AY16">
-        <v>74286786.38528825</v>
+        <v>74286786.38528827</v>
       </c>
       <c r="AZ16">
-        <v>76198206.77101304</v>
+        <v>76198206.77101305</v>
       </c>
       <c r="BA16">
-        <v>77919075.11267906</v>
+        <v>77919075.11267908</v>
       </c>
       <c r="BB16">
-        <v>79359549.39715889</v>
+        <v>79359549.39715891</v>
       </c>
       <c r="BC16">
-        <v>80702423.63144912</v>
+        <v>80702423.63144913</v>
       </c>
       <c r="BD16">
-        <v>81943909.47686775</v>
+        <v>81943909.47686778</v>
       </c>
       <c r="BE16">
-        <v>83092830.38333377</v>
+        <v>83092830.3833338</v>
       </c>
       <c r="BF16">
-        <v>84188872.69613411</v>
+        <v>84188872.69613414</v>
       </c>
       <c r="BG16">
-        <v>85158342.9157092</v>
+        <v>85158342.91570923</v>
       </c>
       <c r="BH16">
-        <v>86157421.01901358</v>
+        <v>86157421.01901361</v>
       </c>
       <c r="BI16">
-        <v>87237004.13022034</v>
+        <v>87237004.13022037</v>
       </c>
       <c r="BJ16">
-        <v>88456287.40800667</v>
+        <v>88456287.4080067</v>
       </c>
       <c r="BK16">
-        <v>89857497.0726566</v>
+        <v>89857497.07265663</v>
       </c>
       <c r="BL16">
-        <v>91425892.27265184</v>
+        <v>91425892.27265187</v>
       </c>
       <c r="BM16">
-        <v>93214308.76270372</v>
+        <v>93214308.76270375</v>
       </c>
       <c r="BN16">
-        <v>95196548.58231439</v>
+        <v>95196548.58231442</v>
       </c>
       <c r="BO16">
-        <v>97331073.98129189</v>
+        <v>97331073.98129192</v>
       </c>
       <c r="BP16">
-        <v>99561946.71869093</v>
+        <v>99561946.71869096</v>
       </c>
       <c r="BQ16">
         <v>101829409.3210221</v>
@@ -9543,7 +9543,7 @@
         <v>118272621.5204361</v>
       </c>
       <c r="BZ16">
-        <v>119896082.3465725</v>
+        <v>119896082.3465726</v>
       </c>
       <c r="CA16">
         <v>121430172.0569488</v>
@@ -9555,7 +9555,7 @@
         <v>124336521.4204709</v>
       </c>
       <c r="CD16">
-        <v>125754299.5714593</v>
+        <v>125754299.5714594</v>
       </c>
       <c r="CE16">
         <v>127194567.0928627</v>
@@ -9567,28 +9567,28 @@
         <v>130256762.8245318</v>
       </c>
       <c r="CH16">
-        <v>131972348.627104</v>
+        <v>131972348.6271041</v>
       </c>
       <c r="CI16">
         <v>133835154.4727203</v>
       </c>
       <c r="CJ16">
-        <v>135842957.6302966</v>
+        <v>135842957.6302967</v>
       </c>
       <c r="CK16">
-        <v>137942501.9271627</v>
+        <v>137942501.9271628</v>
       </c>
       <c r="CL16">
         <v>140132107.025795</v>
       </c>
       <c r="CM16">
-        <v>142376189.9397821</v>
+        <v>142376189.9397822</v>
       </c>
       <c r="CN16">
-        <v>144646346.0098798</v>
+        <v>144646346.0098799</v>
       </c>
       <c r="CO16">
-        <v>146922354.183693</v>
+        <v>146922354.1836931</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -9598,16 +9598,16 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>114565.2876347357</v>
+        <v>114565.2876347355</v>
       </c>
       <c r="E17">
-        <v>187667.3103667114</v>
+        <v>187667.3103667113</v>
       </c>
       <c r="F17">
-        <v>243321.9976693491</v>
+        <v>243321.997669349</v>
       </c>
       <c r="G17">
-        <v>298728.2010074453</v>
+        <v>298728.2010074452</v>
       </c>
       <c r="H17">
         <v>349807.0525384541</v>
@@ -9616,181 +9616,181 @@
         <v>398850.2583171959</v>
       </c>
       <c r="J17">
-        <v>443841.1967107773</v>
+        <v>443841.1967107774</v>
       </c>
       <c r="K17">
-        <v>490939.589794381</v>
+        <v>490939.5897943811</v>
       </c>
       <c r="L17">
-        <v>547953.7890545898</v>
+        <v>547953.7890545899</v>
       </c>
       <c r="M17">
-        <v>605230.5410932214</v>
+        <v>605230.5410932215</v>
       </c>
       <c r="N17">
-        <v>666481.562617542</v>
+        <v>666481.5626175421</v>
       </c>
       <c r="O17">
-        <v>736946.3531357264</v>
+        <v>736946.3531357265</v>
       </c>
       <c r="P17">
         <v>1420840.914274626</v>
       </c>
       <c r="Q17">
-        <v>2106048.373480959</v>
+        <v>2106048.37348096</v>
       </c>
       <c r="R17">
-        <v>2792898.699926464</v>
+        <v>2792898.699926465</v>
       </c>
       <c r="S17">
-        <v>5020775.732506206</v>
+        <v>5020775.732506208</v>
       </c>
       <c r="T17">
-        <v>7251082.939406892</v>
+        <v>7251082.939406896</v>
       </c>
       <c r="U17">
-        <v>9484275.384391502</v>
+        <v>9484275.384391505</v>
       </c>
       <c r="V17">
-        <v>11720860.69258738</v>
+        <v>11720860.69258739</v>
       </c>
       <c r="W17">
-        <v>13961425.60130091</v>
+        <v>13961425.60130092</v>
       </c>
       <c r="X17">
-        <v>16378886.22291181</v>
+        <v>16378886.22291182</v>
       </c>
       <c r="Y17">
         <v>18801957.62744743</v>
       </c>
       <c r="Z17">
-        <v>21231868.28549696</v>
+        <v>21231868.28549697</v>
       </c>
       <c r="AA17">
-        <v>23670309.19970403</v>
+        <v>23670309.19970404</v>
       </c>
       <c r="AB17">
-        <v>26119631.15178278</v>
+        <v>26119631.15178279</v>
       </c>
       <c r="AC17">
-        <v>26905616.07948428</v>
+        <v>26905616.0794843</v>
       </c>
       <c r="AD17">
-        <v>27710185.40525033</v>
+        <v>27710185.40525034</v>
       </c>
       <c r="AE17">
-        <v>28539285.75580855</v>
+        <v>28539285.75580856</v>
       </c>
       <c r="AF17">
-        <v>29400654.87629708</v>
+        <v>29400654.87629709</v>
       </c>
       <c r="AG17">
-        <v>30304045.73265352</v>
+        <v>30304045.73265354</v>
       </c>
       <c r="AH17">
-        <v>30696035.94610853</v>
+        <v>30696035.94610854</v>
       </c>
       <c r="AI17">
-        <v>31144825.94126748</v>
+        <v>31144825.9412675</v>
       </c>
       <c r="AJ17">
-        <v>31663708.3094142</v>
+        <v>31663708.30941422</v>
       </c>
       <c r="AK17">
-        <v>32281436.05196689</v>
+        <v>32281436.05196691</v>
       </c>
       <c r="AL17">
-        <v>33015893.50085827</v>
+        <v>33015893.50085829</v>
       </c>
       <c r="AM17">
-        <v>34200830.20594147</v>
+        <v>34200830.20594148</v>
       </c>
       <c r="AN17">
-        <v>35531218.34286462</v>
+        <v>35531218.34286463</v>
       </c>
       <c r="AO17">
-        <v>37015944.04090229</v>
+        <v>37015944.04090231</v>
       </c>
       <c r="AP17">
-        <v>38658139.31855516</v>
+        <v>38658139.31855518</v>
       </c>
       <c r="AQ17">
-        <v>40453870.32761814</v>
+        <v>40453870.32761816</v>
       </c>
       <c r="AR17">
-        <v>42770550.52698242</v>
+        <v>42770550.52698243</v>
       </c>
       <c r="AS17">
-        <v>45209214.60758276</v>
+        <v>45209214.60758277</v>
       </c>
       <c r="AT17">
-        <v>47742940.49260397</v>
+        <v>47742940.49260398</v>
       </c>
       <c r="AU17">
-        <v>50339272.80514392</v>
+        <v>50339272.80514394</v>
       </c>
       <c r="AV17">
-        <v>52962565.86842839</v>
+        <v>52962565.86842841</v>
       </c>
       <c r="AW17">
-        <v>55701398.10415445</v>
+        <v>55701398.10415448</v>
       </c>
       <c r="AX17">
-        <v>58397421.83200221</v>
+        <v>58397421.83200223</v>
       </c>
       <c r="AY17">
-        <v>61021874.16648386</v>
+        <v>61021874.16648388</v>
       </c>
       <c r="AZ17">
-        <v>63552960.12108022</v>
+        <v>63552960.12108025</v>
       </c>
       <c r="BA17">
-        <v>65977272.67344347</v>
+        <v>65977272.6734435</v>
       </c>
       <c r="BB17">
-        <v>68228152.93682645</v>
+        <v>68228152.93682648</v>
       </c>
       <c r="BC17">
-        <v>70373110.19202711</v>
+        <v>70373110.19202714</v>
       </c>
       <c r="BD17">
-        <v>72426085.57535532</v>
+        <v>72426085.57535535</v>
       </c>
       <c r="BE17">
-        <v>74408737.83480974</v>
+        <v>74408737.83480977</v>
       </c>
       <c r="BF17">
-        <v>76348663.53742193</v>
+        <v>76348663.53742196</v>
       </c>
       <c r="BG17">
-        <v>78246068.50693479</v>
+        <v>78246068.50693482</v>
       </c>
       <c r="BH17">
-        <v>80164409.20937842</v>
+        <v>80164409.20937845</v>
       </c>
       <c r="BI17">
-        <v>82134859.1091692</v>
+        <v>82134859.10916923</v>
       </c>
       <c r="BJ17">
-        <v>84185367.97374159</v>
+        <v>84185367.97374162</v>
       </c>
       <c r="BK17">
-        <v>86339202.20138723</v>
+        <v>86339202.20138726</v>
       </c>
       <c r="BL17">
-        <v>88617902.3102677</v>
+        <v>88617902.31026773</v>
       </c>
       <c r="BM17">
-        <v>91029011.23788716</v>
+        <v>91029011.23788719</v>
       </c>
       <c r="BN17">
-        <v>93577573.71297003</v>
+        <v>93577573.71297006</v>
       </c>
       <c r="BO17">
-        <v>96262307.3402337</v>
+        <v>96262307.34023373</v>
       </c>
       <c r="BP17">
-        <v>99076006.81937855</v>
+        <v>99076006.81937858</v>
       </c>
       <c r="BQ17">
         <v>102012351.9263946</v>
@@ -9817,7 +9817,7 @@
         <v>124210814.8169686</v>
       </c>
       <c r="BY17">
-        <v>127391018.4843835</v>
+        <v>127391018.4843836</v>
       </c>
       <c r="BZ17">
         <v>130537727.0902068</v>
@@ -9829,43 +9829,43 @@
         <v>136689902.6984385</v>
       </c>
       <c r="CC17">
-        <v>139725166.219235</v>
+        <v>139725166.2192351</v>
       </c>
       <c r="CD17">
-        <v>142746404.3050761</v>
+        <v>142746404.3050762</v>
       </c>
       <c r="CE17">
-        <v>145767008.703928</v>
+        <v>145767008.7039281</v>
       </c>
       <c r="CF17">
-        <v>148765235.9674344</v>
+        <v>148765235.9674345</v>
       </c>
       <c r="CG17">
-        <v>151793272.8907699</v>
+        <v>151793272.89077</v>
       </c>
       <c r="CH17">
-        <v>154866020.747486</v>
+        <v>154866020.7474861</v>
       </c>
       <c r="CI17">
-        <v>157996872.982556</v>
+        <v>157996872.9825562</v>
       </c>
       <c r="CJ17">
-        <v>161196944.0571097</v>
+        <v>161196944.0571099</v>
       </c>
       <c r="CK17">
-        <v>164415848.7103846</v>
+        <v>164415848.7103847</v>
       </c>
       <c r="CL17">
-        <v>167717329.0576578</v>
+        <v>167717329.057658</v>
       </c>
       <c r="CM17">
-        <v>171103163.0892231</v>
+        <v>171103163.0892232</v>
       </c>
       <c r="CN17">
-        <v>174571915.8194571</v>
+        <v>174571915.8194573</v>
       </c>
       <c r="CO17">
-        <v>178119224.5553909</v>
+        <v>178119224.555391</v>
       </c>
     </row>
   </sheetData>
